--- a/app/data/static/templates/constructor_mascarpone.xlsx
+++ b/app/data/static/templates/constructor_mascarpone.xlsx
@@ -672,7 +672,7 @@
   <dimension ref="A1:T398"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/data/static/templates/constructor_mascarpone.xlsx
+++ b/app/data/static/templates/constructor_mascarpone.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t xml:space="preserve">Тип варки</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t xml:space="preserve">Номер группы варок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выход с одной варки, кг</t>
   </si>
   <si>
     <t xml:space="preserve">SKU</t>
@@ -145,13 +148,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="General"/>
-    <numFmt numFmtId="169" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -371,7 +373,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,19 +385,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -688,7 +690,6 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="11" width="5.76"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="11" width="5.14"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="20" min="20" style="0" width="9.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -699,23 +700,23 @@
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="15"/>
       <c r="L1" s="15"/>
@@ -736,13 +737,13 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="15" t="n">
         <v>0</v>
@@ -761,7 +762,7 @@
         <v/>
       </c>
       <c r="E3" s="19" t="str">
-        <f aca="false">IF(D3="-", "-", IF(D3="", "", F3*VLOOKUP(D3, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D3="-", "-", IF(D3="", "", INT(F3*VLOOKUP(D3, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F3" s="20"/>
@@ -769,17 +770,14 @@
         <f aca="true">IF(J3="","",(INDIRECT("N" &amp; ROW() - 1) - N3))</f>
         <v/>
       </c>
-      <c r="H3" s="18" t="str">
-        <f aca="true">IF(J3 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H3" s="18"/>
       <c r="I3" s="18" t="str">
         <f aca="true">IF(J3 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K3" s="20" t="n">
-        <f aca="true">IF(J3 = "-", -INDIRECT("C" &amp; ROW() - 1),F3)</f>
-        <v>0</v>
+      <c r="K3" s="20" t="str">
+        <f aca="true">IF(J3 = "-", -INDIRECT("C" &amp; ROW() - 1),E3)</f>
+        <v/>
       </c>
       <c r="L3" s="17" t="n">
         <f aca="true">IF(J3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K3)))), 0)</f>
@@ -813,7 +811,7 @@
         <v/>
       </c>
       <c r="E4" s="19" t="str">
-        <f aca="false">IF(D4="-", "-", IF(D4="", "", F4*VLOOKUP(D4, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D4="-", "-", IF(D4="", "", INT(F4*VLOOKUP(D4, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F4" s="20"/>
@@ -821,17 +819,14 @@
         <f aca="true">IF(J4="","",(INDIRECT("N" &amp; ROW() - 1) - N4))</f>
         <v/>
       </c>
-      <c r="H4" s="18" t="str">
-        <f aca="true">IF(J4 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H4" s="18"/>
       <c r="I4" s="18" t="str">
         <f aca="true">IF(J4 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K4" s="20" t="n">
-        <f aca="true">IF(J4 = "-", -INDIRECT("C" &amp; ROW() - 1),F4)</f>
-        <v>0</v>
+      <c r="K4" s="20" t="str">
+        <f aca="true">IF(J4 = "-", -INDIRECT("C" &amp; ROW() - 1),E4)</f>
+        <v/>
       </c>
       <c r="L4" s="17" t="n">
         <f aca="true">IF(J4 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K4)))), 0)</f>
@@ -865,7 +860,7 @@
         <v/>
       </c>
       <c r="E5" s="19" t="str">
-        <f aca="false">IF(D5="-", "-", IF(D5="", "", F5*VLOOKUP(D5, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D5="-", "-", IF(D5="", "", INT(F5*VLOOKUP(D5, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F5" s="20"/>
@@ -873,17 +868,14 @@
         <f aca="true">IF(J5="","",(INDIRECT("N" &amp; ROW() - 1) - N5))</f>
         <v/>
       </c>
-      <c r="H5" s="18" t="str">
-        <f aca="true">IF(J5 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H5" s="18"/>
       <c r="I5" s="18" t="str">
         <f aca="true">IF(J5 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K5" s="20" t="n">
-        <f aca="true">IF(J5 = "-", -INDIRECT("C" &amp; ROW() - 1),F5)</f>
-        <v>0</v>
+      <c r="K5" s="20" t="str">
+        <f aca="true">IF(J5 = "-", -INDIRECT("C" &amp; ROW() - 1),E5)</f>
+        <v/>
       </c>
       <c r="L5" s="17" t="n">
         <f aca="true">IF(J5 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K5)))), 0)</f>
@@ -917,7 +909,7 @@
         <v/>
       </c>
       <c r="E6" s="19" t="str">
-        <f aca="false">IF(D6="-", "-", IF(D6="", "", F6*VLOOKUP(D6, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D6="-", "-", IF(D6="", "", INT(F6*VLOOKUP(D6, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F6" s="20"/>
@@ -925,17 +917,14 @@
         <f aca="true">IF(J6="","",(INDIRECT("N" &amp; ROW() - 1) - N6))</f>
         <v/>
       </c>
-      <c r="H6" s="18" t="str">
-        <f aca="true">IF(J6 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H6" s="18"/>
       <c r="I6" s="18" t="str">
         <f aca="true">IF(J6 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K6" s="20" t="n">
-        <f aca="true">IF(J6 = "-", -INDIRECT("C" &amp; ROW() - 1),F6)</f>
-        <v>0</v>
+      <c r="K6" s="20" t="str">
+        <f aca="true">IF(J6 = "-", -INDIRECT("C" &amp; ROW() - 1),E6)</f>
+        <v/>
       </c>
       <c r="L6" s="17" t="n">
         <f aca="true">IF(J6 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K6)))), 0)</f>
@@ -969,7 +958,7 @@
         <v/>
       </c>
       <c r="E7" s="19" t="str">
-        <f aca="false">IF(D7="-", "-", IF(D7="", "", F7*VLOOKUP(D7, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D7="-", "-", IF(D7="", "", INT(F7*VLOOKUP(D7, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F7" s="20"/>
@@ -977,17 +966,14 @@
         <f aca="true">IF(J7="","",(INDIRECT("N" &amp; ROW() - 1) - N7))</f>
         <v/>
       </c>
-      <c r="H7" s="18" t="str">
-        <f aca="true">IF(J7 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H7" s="18"/>
       <c r="I7" s="18" t="str">
         <f aca="true">IF(J7 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K7" s="20" t="n">
-        <f aca="true">IF(J7 = "-", -INDIRECT("C" &amp; ROW() - 1),F7)</f>
-        <v>0</v>
+      <c r="K7" s="20" t="str">
+        <f aca="true">IF(J7 = "-", -INDIRECT("C" &amp; ROW() - 1),E7)</f>
+        <v/>
       </c>
       <c r="L7" s="17" t="n">
         <f aca="true">IF(J7 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K7)))), 0)</f>
@@ -1021,7 +1007,7 @@
         <v/>
       </c>
       <c r="E8" s="19" t="str">
-        <f aca="false">IF(D8="-", "-", IF(D8="", "", F8*VLOOKUP(D8, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D8="-", "-", IF(D8="", "", INT(F8*VLOOKUP(D8, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F8" s="20"/>
@@ -1029,17 +1015,14 @@
         <f aca="true">IF(J8="","",(INDIRECT("N" &amp; ROW() - 1) - N8))</f>
         <v/>
       </c>
-      <c r="H8" s="18" t="str">
-        <f aca="true">IF(J8 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H8" s="18"/>
       <c r="I8" s="18" t="str">
         <f aca="true">IF(J8 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K8" s="20" t="n">
-        <f aca="true">IF(J8 = "-", -INDIRECT("C" &amp; ROW() - 1),F8)</f>
-        <v>0</v>
+      <c r="K8" s="20" t="str">
+        <f aca="true">IF(J8 = "-", -INDIRECT("C" &amp; ROW() - 1),E8)</f>
+        <v/>
       </c>
       <c r="L8" s="17" t="n">
         <f aca="true">IF(J8 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K8)))), 0)</f>
@@ -1073,7 +1056,7 @@
         <v/>
       </c>
       <c r="E9" s="19" t="str">
-        <f aca="false">IF(D9="-", "-", IF(D9="", "", F9*VLOOKUP(D9, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D9="-", "-", IF(D9="", "", INT(F9*VLOOKUP(D9, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F9" s="20"/>
@@ -1081,17 +1064,14 @@
         <f aca="true">IF(J9="","",(INDIRECT("N" &amp; ROW() - 1) - N9))</f>
         <v/>
       </c>
-      <c r="H9" s="18" t="str">
-        <f aca="true">IF(J9 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H9" s="18"/>
       <c r="I9" s="18" t="str">
         <f aca="true">IF(J9 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="n">
-        <f aca="true">IF(J9 = "-", -INDIRECT("C" &amp; ROW() - 1),F9)</f>
-        <v>0</v>
+      <c r="K9" s="20" t="str">
+        <f aca="true">IF(J9 = "-", -INDIRECT("C" &amp; ROW() - 1),E9)</f>
+        <v/>
       </c>
       <c r="L9" s="17" t="n">
         <f aca="true">IF(J9 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K9)))), 0)</f>
@@ -1125,7 +1105,7 @@
         <v/>
       </c>
       <c r="E10" s="19" t="str">
-        <f aca="false">IF(D10="-", "-", IF(D10="", "", F10*VLOOKUP(D10, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D10="-", "-", IF(D10="", "", INT(F10*VLOOKUP(D10, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F10" s="20"/>
@@ -1133,17 +1113,14 @@
         <f aca="true">IF(J10="","",(INDIRECT("N" &amp; ROW() - 1) - N10))</f>
         <v/>
       </c>
-      <c r="H10" s="18" t="str">
-        <f aca="true">IF(J10 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H10" s="18"/>
       <c r="I10" s="18" t="str">
         <f aca="true">IF(J10 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K10" s="20" t="n">
-        <f aca="true">IF(J10 = "-", -INDIRECT("C" &amp; ROW() - 1),F10)</f>
-        <v>0</v>
+      <c r="K10" s="20" t="str">
+        <f aca="true">IF(J10 = "-", -INDIRECT("C" &amp; ROW() - 1),E10)</f>
+        <v/>
       </c>
       <c r="L10" s="17" t="n">
         <f aca="true">IF(J10 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K10)))), 0)</f>
@@ -1177,7 +1154,7 @@
         <v/>
       </c>
       <c r="E11" s="19" t="str">
-        <f aca="false">IF(D11="-", "-", IF(D11="", "", F11*VLOOKUP(D11, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D11="-", "-", IF(D11="", "", INT(F11*VLOOKUP(D11, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F11" s="20"/>
@@ -1185,17 +1162,14 @@
         <f aca="true">IF(J11="","",(INDIRECT("N" &amp; ROW() - 1) - N11))</f>
         <v/>
       </c>
-      <c r="H11" s="18" t="str">
-        <f aca="true">IF(J11 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H11" s="18"/>
       <c r="I11" s="18" t="str">
         <f aca="true">IF(J11 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K11" s="20" t="n">
-        <f aca="true">IF(J11 = "-", -INDIRECT("C" &amp; ROW() - 1),F11)</f>
-        <v>0</v>
+      <c r="K11" s="20" t="str">
+        <f aca="true">IF(J11 = "-", -INDIRECT("C" &amp; ROW() - 1),E11)</f>
+        <v/>
       </c>
       <c r="L11" s="17" t="n">
         <f aca="true">IF(J11 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K11)))), 0)</f>
@@ -1229,7 +1203,7 @@
         <v/>
       </c>
       <c r="E12" s="19" t="str">
-        <f aca="false">IF(D12="-", "-", IF(D12="", "", F12*VLOOKUP(D12, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D12="-", "-", IF(D12="", "", INT(F12*VLOOKUP(D12, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F12" s="20"/>
@@ -1237,17 +1211,14 @@
         <f aca="true">IF(J12="","",(INDIRECT("N" &amp; ROW() - 1) - N12))</f>
         <v/>
       </c>
-      <c r="H12" s="18" t="str">
-        <f aca="true">IF(J12 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H12" s="18"/>
       <c r="I12" s="18" t="str">
         <f aca="true">IF(J12 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K12" s="20" t="n">
-        <f aca="true">IF(J12 = "-", -INDIRECT("C" &amp; ROW() - 1),F12)</f>
-        <v>0</v>
+      <c r="K12" s="20" t="str">
+        <f aca="true">IF(J12 = "-", -INDIRECT("C" &amp; ROW() - 1),E12)</f>
+        <v/>
       </c>
       <c r="L12" s="17" t="n">
         <f aca="true">IF(J12 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K12)))), 0)</f>
@@ -1281,7 +1252,7 @@
         <v/>
       </c>
       <c r="E13" s="19" t="str">
-        <f aca="false">IF(D13="-", "-", IF(D13="", "", F13*VLOOKUP(D13, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D13="-", "-", IF(D13="", "", INT(F13*VLOOKUP(D13, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F13" s="20"/>
@@ -1289,17 +1260,14 @@
         <f aca="true">IF(J13="","",(INDIRECT("N" &amp; ROW() - 1) - N13))</f>
         <v/>
       </c>
-      <c r="H13" s="18" t="str">
-        <f aca="true">IF(J13 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H13" s="18"/>
       <c r="I13" s="18" t="str">
         <f aca="true">IF(J13 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K13" s="20" t="n">
-        <f aca="true">IF(J13 = "-", -INDIRECT("C" &amp; ROW() - 1),F13)</f>
-        <v>0</v>
+      <c r="K13" s="20" t="str">
+        <f aca="true">IF(J13 = "-", -INDIRECT("C" &amp; ROW() - 1),E13)</f>
+        <v/>
       </c>
       <c r="L13" s="17" t="n">
         <f aca="true">IF(J13 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K13)))), 0)</f>
@@ -1333,7 +1301,7 @@
         <v/>
       </c>
       <c r="E14" s="19" t="str">
-        <f aca="false">IF(D14="-", "-", IF(D14="", "", F14*VLOOKUP(D14, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D14="-", "-", IF(D14="", "", INT(F14*VLOOKUP(D14, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F14" s="20"/>
@@ -1341,17 +1309,14 @@
         <f aca="true">IF(J14="","",(INDIRECT("N" &amp; ROW() - 1) - N14))</f>
         <v/>
       </c>
-      <c r="H14" s="18" t="str">
-        <f aca="true">IF(J14 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H14" s="18"/>
       <c r="I14" s="18" t="str">
         <f aca="true">IF(J14 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K14" s="20" t="n">
-        <f aca="true">IF(J14 = "-", -INDIRECT("C" &amp; ROW() - 1),F14)</f>
-        <v>0</v>
+      <c r="K14" s="20" t="str">
+        <f aca="true">IF(J14 = "-", -INDIRECT("C" &amp; ROW() - 1),E14)</f>
+        <v/>
       </c>
       <c r="L14" s="17" t="n">
         <f aca="true">IF(J14 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K14)))), 0)</f>
@@ -1385,7 +1350,7 @@
         <v/>
       </c>
       <c r="E15" s="19" t="str">
-        <f aca="false">IF(D15="-", "-", IF(D15="", "", F15*VLOOKUP(D15, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D15="-", "-", IF(D15="", "", INT(F15*VLOOKUP(D15, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F15" s="20"/>
@@ -1393,17 +1358,14 @@
         <f aca="true">IF(J15="","",(INDIRECT("N" &amp; ROW() - 1) - N15))</f>
         <v/>
       </c>
-      <c r="H15" s="18" t="str">
-        <f aca="true">IF(J15 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H15" s="18"/>
       <c r="I15" s="18" t="str">
         <f aca="true">IF(J15 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K15" s="20" t="n">
-        <f aca="true">IF(J15 = "-", -INDIRECT("C" &amp; ROW() - 1),F15)</f>
-        <v>0</v>
+      <c r="K15" s="20" t="str">
+        <f aca="true">IF(J15 = "-", -INDIRECT("C" &amp; ROW() - 1),E15)</f>
+        <v/>
       </c>
       <c r="L15" s="17" t="n">
         <f aca="true">IF(J15 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K15)))), 0)</f>
@@ -1437,7 +1399,7 @@
         <v/>
       </c>
       <c r="E16" s="19" t="str">
-        <f aca="false">IF(D16="-", "-", IF(D16="", "", F16*VLOOKUP(D16, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D16="-", "-", IF(D16="", "", INT(F16*VLOOKUP(D16, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F16" s="20"/>
@@ -1445,17 +1407,14 @@
         <f aca="true">IF(J16="","",(INDIRECT("N" &amp; ROW() - 1) - N16))</f>
         <v/>
       </c>
-      <c r="H16" s="18" t="str">
-        <f aca="true">IF(J16 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H16" s="18"/>
       <c r="I16" s="18" t="str">
         <f aca="true">IF(J16 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K16" s="20" t="n">
-        <f aca="true">IF(J16 = "-", -INDIRECT("C" &amp; ROW() - 1),F16)</f>
-        <v>0</v>
+      <c r="K16" s="20" t="str">
+        <f aca="true">IF(J16 = "-", -INDIRECT("C" &amp; ROW() - 1),E16)</f>
+        <v/>
       </c>
       <c r="L16" s="17" t="n">
         <f aca="true">IF(J16 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K16)))), 0)</f>
@@ -1489,7 +1448,7 @@
         <v/>
       </c>
       <c r="E17" s="19" t="str">
-        <f aca="false">IF(D17="-", "-", IF(D17="", "", F17*VLOOKUP(D17, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D17="-", "-", IF(D17="", "", INT(F17*VLOOKUP(D17, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F17" s="20"/>
@@ -1497,17 +1456,14 @@
         <f aca="true">IF(J17="","",(INDIRECT("N" &amp; ROW() - 1) - N17))</f>
         <v/>
       </c>
-      <c r="H17" s="18" t="str">
-        <f aca="true">IF(J17 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H17" s="18"/>
       <c r="I17" s="18" t="str">
         <f aca="true">IF(J17 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K17" s="20" t="n">
-        <f aca="true">IF(J17 = "-", -INDIRECT("C" &amp; ROW() - 1),F17)</f>
-        <v>0</v>
+      <c r="K17" s="20" t="str">
+        <f aca="true">IF(J17 = "-", -INDIRECT("C" &amp; ROW() - 1),E17)</f>
+        <v/>
       </c>
       <c r="L17" s="17" t="n">
         <f aca="true">IF(J17 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K17)))), 0)</f>
@@ -1541,7 +1497,7 @@
         <v/>
       </c>
       <c r="E18" s="19" t="str">
-        <f aca="false">IF(D18="-", "-", IF(D18="", "", F18*VLOOKUP(D18, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D18="-", "-", IF(D18="", "", INT(F18*VLOOKUP(D18, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F18" s="20"/>
@@ -1549,17 +1505,14 @@
         <f aca="true">IF(J18="","",(INDIRECT("N" &amp; ROW() - 1) - N18))</f>
         <v/>
       </c>
-      <c r="H18" s="18" t="str">
-        <f aca="true">IF(J18 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H18" s="18"/>
       <c r="I18" s="18" t="str">
         <f aca="true">IF(J18 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K18" s="20" t="n">
-        <f aca="true">IF(J18 = "-", -INDIRECT("C" &amp; ROW() - 1),F18)</f>
-        <v>0</v>
+      <c r="K18" s="20" t="str">
+        <f aca="true">IF(J18 = "-", -INDIRECT("C" &amp; ROW() - 1),E18)</f>
+        <v/>
       </c>
       <c r="L18" s="17" t="n">
         <f aca="true">IF(J18 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K18)))), 0)</f>
@@ -1593,7 +1546,7 @@
         <v/>
       </c>
       <c r="E19" s="19" t="str">
-        <f aca="false">IF(D19="-", "-", IF(D19="", "", F19*VLOOKUP(D19, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D19="-", "-", IF(D19="", "", INT(F19*VLOOKUP(D19, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F19" s="20"/>
@@ -1601,17 +1554,14 @@
         <f aca="true">IF(J19="","",(INDIRECT("N" &amp; ROW() - 1) - N19))</f>
         <v/>
       </c>
-      <c r="H19" s="18" t="str">
-        <f aca="true">IF(J19 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H19" s="18"/>
       <c r="I19" s="18" t="str">
         <f aca="true">IF(J19 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K19" s="20" t="n">
-        <f aca="true">IF(J19 = "-", -INDIRECT("C" &amp; ROW() - 1),F19)</f>
-        <v>0</v>
+      <c r="K19" s="20" t="str">
+        <f aca="true">IF(J19 = "-", -INDIRECT("C" &amp; ROW() - 1),E19)</f>
+        <v/>
       </c>
       <c r="L19" s="17" t="n">
         <f aca="true">IF(J19 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K19)))), 0)</f>
@@ -1645,7 +1595,7 @@
         <v/>
       </c>
       <c r="E20" s="19" t="str">
-        <f aca="false">IF(D20="-", "-", IF(D20="", "", F20*VLOOKUP(D20, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D20="-", "-", IF(D20="", "", INT(F20*VLOOKUP(D20, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F20" s="20"/>
@@ -1653,17 +1603,14 @@
         <f aca="true">IF(J20="","",(INDIRECT("N" &amp; ROW() - 1) - N20))</f>
         <v/>
       </c>
-      <c r="H20" s="18" t="str">
-        <f aca="true">IF(J20 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H20" s="18"/>
       <c r="I20" s="18" t="str">
         <f aca="true">IF(J20 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K20" s="20" t="n">
-        <f aca="true">IF(J20 = "-", -INDIRECT("C" &amp; ROW() - 1),F20)</f>
-        <v>0</v>
+      <c r="K20" s="20" t="str">
+        <f aca="true">IF(J20 = "-", -INDIRECT("C" &amp; ROW() - 1),E20)</f>
+        <v/>
       </c>
       <c r="L20" s="17" t="n">
         <f aca="true">IF(J20 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K20)))), 0)</f>
@@ -1697,7 +1644,7 @@
         <v/>
       </c>
       <c r="E21" s="19" t="str">
-        <f aca="false">IF(D21="-", "-", IF(D21="", "", F21*VLOOKUP(D21, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D21="-", "-", IF(D21="", "", INT(F21*VLOOKUP(D21, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F21" s="20"/>
@@ -1705,17 +1652,14 @@
         <f aca="true">IF(J21="","",(INDIRECT("N" &amp; ROW() - 1) - N21))</f>
         <v/>
       </c>
-      <c r="H21" s="18" t="str">
-        <f aca="true">IF(J21 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18" t="str">
         <f aca="true">IF(J21 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K21" s="20" t="n">
-        <f aca="true">IF(J21 = "-", -INDIRECT("C" &amp; ROW() - 1),F21)</f>
-        <v>0</v>
+      <c r="K21" s="20" t="str">
+        <f aca="true">IF(J21 = "-", -INDIRECT("C" &amp; ROW() - 1),E21)</f>
+        <v/>
       </c>
       <c r="L21" s="17" t="n">
         <f aca="true">IF(J21 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K21)))), 0)</f>
@@ -1749,7 +1693,7 @@
         <v/>
       </c>
       <c r="E22" s="19" t="str">
-        <f aca="false">IF(D22="-", "-", IF(D22="", "", F22*VLOOKUP(D22, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D22="-", "-", IF(D22="", "", INT(F22*VLOOKUP(D22, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F22" s="20"/>
@@ -1757,17 +1701,14 @@
         <f aca="true">IF(J22="","",(INDIRECT("N" &amp; ROW() - 1) - N22))</f>
         <v/>
       </c>
-      <c r="H22" s="18" t="str">
-        <f aca="true">IF(J22 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H22" s="18"/>
       <c r="I22" s="18" t="str">
         <f aca="true">IF(J22 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K22" s="20" t="n">
-        <f aca="true">IF(J22 = "-", -INDIRECT("C" &amp; ROW() - 1),F22)</f>
-        <v>0</v>
+      <c r="K22" s="20" t="str">
+        <f aca="true">IF(J22 = "-", -INDIRECT("C" &amp; ROW() - 1),E22)</f>
+        <v/>
       </c>
       <c r="L22" s="17" t="n">
         <f aca="true">IF(J22 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K22)))), 0)</f>
@@ -1801,7 +1742,7 @@
         <v/>
       </c>
       <c r="E23" s="19" t="str">
-        <f aca="false">IF(D23="-", "-", IF(D23="", "", F23*VLOOKUP(D23, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D23="-", "-", IF(D23="", "", INT(F23*VLOOKUP(D23, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F23" s="20"/>
@@ -1809,17 +1750,14 @@
         <f aca="true">IF(J23="","",(INDIRECT("N" &amp; ROW() - 1) - N23))</f>
         <v/>
       </c>
-      <c r="H23" s="18" t="str">
-        <f aca="true">IF(J23 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H23" s="18"/>
       <c r="I23" s="18" t="str">
         <f aca="true">IF(J23 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K23" s="20" t="n">
-        <f aca="true">IF(J23 = "-", -INDIRECT("C" &amp; ROW() - 1),F23)</f>
-        <v>0</v>
+      <c r="K23" s="20" t="str">
+        <f aca="true">IF(J23 = "-", -INDIRECT("C" &amp; ROW() - 1),E23)</f>
+        <v/>
       </c>
       <c r="L23" s="17" t="n">
         <f aca="true">IF(J23 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K23)))), 0)</f>
@@ -1853,7 +1791,7 @@
         <v/>
       </c>
       <c r="E24" s="19" t="str">
-        <f aca="false">IF(D24="-", "-", IF(D24="", "", F24*VLOOKUP(D24, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D24="-", "-", IF(D24="", "", INT(F24*VLOOKUP(D24, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F24" s="20"/>
@@ -1861,17 +1799,14 @@
         <f aca="true">IF(J24="","",(INDIRECT("N" &amp; ROW() - 1) - N24))</f>
         <v/>
       </c>
-      <c r="H24" s="18" t="str">
-        <f aca="true">IF(J24 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H24" s="18"/>
       <c r="I24" s="18" t="str">
         <f aca="true">IF(J24 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K24" s="20" t="n">
-        <f aca="true">IF(J24 = "-", -INDIRECT("C" &amp; ROW() - 1),F24)</f>
-        <v>0</v>
+      <c r="K24" s="20" t="str">
+        <f aca="true">IF(J24 = "-", -INDIRECT("C" &amp; ROW() - 1),E24)</f>
+        <v/>
       </c>
       <c r="L24" s="17" t="n">
         <f aca="true">IF(J24 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K24)))), 0)</f>
@@ -1905,7 +1840,7 @@
         <v/>
       </c>
       <c r="E25" s="19" t="str">
-        <f aca="false">IF(D25="-", "-", IF(D25="", "", F25*VLOOKUP(D25, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D25="-", "-", IF(D25="", "", INT(F25*VLOOKUP(D25, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F25" s="20"/>
@@ -1913,17 +1848,14 @@
         <f aca="true">IF(J25="","",(INDIRECT("N" &amp; ROW() - 1) - N25))</f>
         <v/>
       </c>
-      <c r="H25" s="18" t="str">
-        <f aca="true">IF(J25 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H25" s="18"/>
       <c r="I25" s="18" t="str">
         <f aca="true">IF(J25 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K25" s="20" t="n">
-        <f aca="true">IF(J25 = "-", -INDIRECT("C" &amp; ROW() - 1),F25)</f>
-        <v>0</v>
+      <c r="K25" s="20" t="str">
+        <f aca="true">IF(J25 = "-", -INDIRECT("C" &amp; ROW() - 1),E25)</f>
+        <v/>
       </c>
       <c r="L25" s="17" t="n">
         <f aca="true">IF(J25 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K25)))), 0)</f>
@@ -1957,7 +1889,7 @@
         <v/>
       </c>
       <c r="E26" s="19" t="str">
-        <f aca="false">IF(D26="-", "-", IF(D26="", "", F26*VLOOKUP(D26, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D26="-", "-", IF(D26="", "", INT(F26*VLOOKUP(D26, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F26" s="20"/>
@@ -1965,17 +1897,14 @@
         <f aca="true">IF(J26="","",(INDIRECT("N" &amp; ROW() - 1) - N26))</f>
         <v/>
       </c>
-      <c r="H26" s="18" t="str">
-        <f aca="true">IF(J26 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H26" s="18"/>
       <c r="I26" s="18" t="str">
         <f aca="true">IF(J26 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K26" s="20" t="n">
-        <f aca="true">IF(J26 = "-", -INDIRECT("C" &amp; ROW() - 1),F26)</f>
-        <v>0</v>
+      <c r="K26" s="20" t="str">
+        <f aca="true">IF(J26 = "-", -INDIRECT("C" &amp; ROW() - 1),E26)</f>
+        <v/>
       </c>
       <c r="L26" s="17" t="n">
         <f aca="true">IF(J26 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K26)))), 0)</f>
@@ -2009,7 +1938,7 @@
         <v/>
       </c>
       <c r="E27" s="19" t="str">
-        <f aca="false">IF(D27="-", "-", IF(D27="", "", F27*VLOOKUP(D27, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D27="-", "-", IF(D27="", "", INT(F27*VLOOKUP(D27, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F27" s="20"/>
@@ -2017,17 +1946,14 @@
         <f aca="true">IF(J27="","",(INDIRECT("N" &amp; ROW() - 1) - N27))</f>
         <v/>
       </c>
-      <c r="H27" s="18" t="str">
-        <f aca="true">IF(J27 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H27" s="18"/>
       <c r="I27" s="18" t="str">
         <f aca="true">IF(J27 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K27" s="20" t="n">
-        <f aca="true">IF(J27 = "-", -INDIRECT("C" &amp; ROW() - 1),F27)</f>
-        <v>0</v>
+      <c r="K27" s="20" t="str">
+        <f aca="true">IF(J27 = "-", -INDIRECT("C" &amp; ROW() - 1),E27)</f>
+        <v/>
       </c>
       <c r="L27" s="17" t="n">
         <f aca="true">IF(J27 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K27)))), 0)</f>
@@ -2061,7 +1987,7 @@
         <v/>
       </c>
       <c r="E28" s="19" t="str">
-        <f aca="false">IF(D28="-", "-", IF(D28="", "", F28*VLOOKUP(D28, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D28="-", "-", IF(D28="", "", INT(F28*VLOOKUP(D28, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F28" s="20"/>
@@ -2069,17 +1995,14 @@
         <f aca="true">IF(J28="","",(INDIRECT("N" &amp; ROW() - 1) - N28))</f>
         <v/>
       </c>
-      <c r="H28" s="18" t="str">
-        <f aca="true">IF(J28 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H28" s="18"/>
       <c r="I28" s="18" t="str">
         <f aca="true">IF(J28 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K28" s="20" t="n">
-        <f aca="true">IF(J28 = "-", -INDIRECT("C" &amp; ROW() - 1),F28)</f>
-        <v>0</v>
+      <c r="K28" s="20" t="str">
+        <f aca="true">IF(J28 = "-", -INDIRECT("C" &amp; ROW() - 1),E28)</f>
+        <v/>
       </c>
       <c r="L28" s="17" t="n">
         <f aca="true">IF(J28 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K28)))), 0)</f>
@@ -2113,7 +2036,7 @@
         <v/>
       </c>
       <c r="E29" s="19" t="str">
-        <f aca="false">IF(D29="-", "-", IF(D29="", "", F29*VLOOKUP(D29, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D29="-", "-", IF(D29="", "", INT(F29*VLOOKUP(D29, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F29" s="20"/>
@@ -2121,17 +2044,14 @@
         <f aca="true">IF(J29="","",(INDIRECT("N" &amp; ROW() - 1) - N29))</f>
         <v/>
       </c>
-      <c r="H29" s="18" t="str">
-        <f aca="true">IF(J29 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H29" s="18"/>
       <c r="I29" s="18" t="str">
         <f aca="true">IF(J29 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K29" s="20" t="n">
-        <f aca="true">IF(J29 = "-", -INDIRECT("C" &amp; ROW() - 1),F29)</f>
-        <v>0</v>
+      <c r="K29" s="20" t="str">
+        <f aca="true">IF(J29 = "-", -INDIRECT("C" &amp; ROW() - 1),E29)</f>
+        <v/>
       </c>
       <c r="L29" s="17" t="n">
         <f aca="true">IF(J29 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K29)))), 0)</f>
@@ -2165,7 +2085,7 @@
         <v/>
       </c>
       <c r="E30" s="19" t="str">
-        <f aca="false">IF(D30="-", "-", IF(D30="", "", F30*VLOOKUP(D30, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D30="-", "-", IF(D30="", "", INT(F30*VLOOKUP(D30, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F30" s="20"/>
@@ -2173,17 +2093,14 @@
         <f aca="true">IF(J30="","",(INDIRECT("N" &amp; ROW() - 1) - N30))</f>
         <v/>
       </c>
-      <c r="H30" s="18" t="str">
-        <f aca="true">IF(J30 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H30" s="18"/>
       <c r="I30" s="18" t="str">
         <f aca="true">IF(J30 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K30" s="20" t="n">
-        <f aca="true">IF(J30 = "-", -INDIRECT("C" &amp; ROW() - 1),F30)</f>
-        <v>0</v>
+      <c r="K30" s="20" t="str">
+        <f aca="true">IF(J30 = "-", -INDIRECT("C" &amp; ROW() - 1),E30)</f>
+        <v/>
       </c>
       <c r="L30" s="17" t="n">
         <f aca="true">IF(J30 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K30)))), 0)</f>
@@ -2217,7 +2134,7 @@
         <v/>
       </c>
       <c r="E31" s="19" t="str">
-        <f aca="false">IF(D31="-", "-", IF(D31="", "", F31*VLOOKUP(D31, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D31="-", "-", IF(D31="", "", INT(F31*VLOOKUP(D31, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F31" s="20"/>
@@ -2225,17 +2142,14 @@
         <f aca="true">IF(J31="","",(INDIRECT("N" &amp; ROW() - 1) - N31))</f>
         <v/>
       </c>
-      <c r="H31" s="18" t="str">
-        <f aca="true">IF(J31 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H31" s="18"/>
       <c r="I31" s="18" t="str">
         <f aca="true">IF(J31 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K31" s="20" t="n">
-        <f aca="true">IF(J31 = "-", -INDIRECT("C" &amp; ROW() - 1),F31)</f>
-        <v>0</v>
+      <c r="K31" s="20" t="str">
+        <f aca="true">IF(J31 = "-", -INDIRECT("C" &amp; ROW() - 1),E31)</f>
+        <v/>
       </c>
       <c r="L31" s="17" t="n">
         <f aca="true">IF(J31 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K31)))), 0)</f>
@@ -2269,7 +2183,7 @@
         <v/>
       </c>
       <c r="E32" s="19" t="str">
-        <f aca="false">IF(D32="-", "-", IF(D32="", "", F32*VLOOKUP(D32, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D32="-", "-", IF(D32="", "", INT(F32*VLOOKUP(D32, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F32" s="20"/>
@@ -2277,17 +2191,14 @@
         <f aca="true">IF(J32="","",(INDIRECT("N" &amp; ROW() - 1) - N32))</f>
         <v/>
       </c>
-      <c r="H32" s="18" t="str">
-        <f aca="true">IF(J32 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H32" s="18"/>
       <c r="I32" s="18" t="str">
         <f aca="true">IF(J32 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K32" s="20" t="n">
-        <f aca="true">IF(J32 = "-", -INDIRECT("C" &amp; ROW() - 1),F32)</f>
-        <v>0</v>
+      <c r="K32" s="20" t="str">
+        <f aca="true">IF(J32 = "-", -INDIRECT("C" &amp; ROW() - 1),E32)</f>
+        <v/>
       </c>
       <c r="L32" s="17" t="n">
         <f aca="true">IF(J32 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K32)))), 0)</f>
@@ -2321,7 +2232,7 @@
         <v/>
       </c>
       <c r="E33" s="19" t="str">
-        <f aca="false">IF(D33="-", "-", IF(D33="", "", F33*VLOOKUP(D33, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D33="-", "-", IF(D33="", "", INT(F33*VLOOKUP(D33, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F33" s="20"/>
@@ -2329,17 +2240,14 @@
         <f aca="true">IF(J33="","",(INDIRECT("N" &amp; ROW() - 1) - N33))</f>
         <v/>
       </c>
-      <c r="H33" s="18" t="str">
-        <f aca="true">IF(J33 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H33" s="18"/>
       <c r="I33" s="18" t="str">
         <f aca="true">IF(J33 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K33" s="20" t="n">
-        <f aca="true">IF(J33 = "-", -INDIRECT("C" &amp; ROW() - 1),F33)</f>
-        <v>0</v>
+      <c r="K33" s="20" t="str">
+        <f aca="true">IF(J33 = "-", -INDIRECT("C" &amp; ROW() - 1),E33)</f>
+        <v/>
       </c>
       <c r="L33" s="17" t="n">
         <f aca="true">IF(J33 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K33)))), 0)</f>
@@ -2373,7 +2281,7 @@
         <v/>
       </c>
       <c r="E34" s="19" t="str">
-        <f aca="false">IF(D34="-", "-", IF(D34="", "", F34*VLOOKUP(D34, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D34="-", "-", IF(D34="", "", INT(F34*VLOOKUP(D34, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F34" s="20"/>
@@ -2381,17 +2289,14 @@
         <f aca="true">IF(J34="","",(INDIRECT("N" &amp; ROW() - 1) - N34))</f>
         <v/>
       </c>
-      <c r="H34" s="18" t="str">
-        <f aca="true">IF(J34 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H34" s="18"/>
       <c r="I34" s="18" t="str">
         <f aca="true">IF(J34 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K34" s="20" t="n">
-        <f aca="true">IF(J34 = "-", -INDIRECT("C" &amp; ROW() - 1),F34)</f>
-        <v>0</v>
+      <c r="K34" s="20" t="str">
+        <f aca="true">IF(J34 = "-", -INDIRECT("C" &amp; ROW() - 1),E34)</f>
+        <v/>
       </c>
       <c r="L34" s="17" t="n">
         <f aca="true">IF(J34 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K34)))), 0)</f>
@@ -2425,7 +2330,7 @@
         <v/>
       </c>
       <c r="E35" s="19" t="str">
-        <f aca="false">IF(D35="-", "-", IF(D35="", "", F35*VLOOKUP(D35, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D35="-", "-", IF(D35="", "", INT(F35*VLOOKUP(D35, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F35" s="20"/>
@@ -2433,17 +2338,14 @@
         <f aca="true">IF(J35="","",(INDIRECT("N" &amp; ROW() - 1) - N35))</f>
         <v/>
       </c>
-      <c r="H35" s="18" t="str">
-        <f aca="true">IF(J35 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H35" s="18"/>
       <c r="I35" s="18" t="str">
         <f aca="true">IF(J35 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K35" s="20" t="n">
-        <f aca="true">IF(J35 = "-", -INDIRECT("C" &amp; ROW() - 1),F35)</f>
-        <v>0</v>
+      <c r="K35" s="20" t="str">
+        <f aca="true">IF(J35 = "-", -INDIRECT("C" &amp; ROW() - 1),E35)</f>
+        <v/>
       </c>
       <c r="L35" s="17" t="n">
         <f aca="true">IF(J35 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K35)))), 0)</f>
@@ -2477,7 +2379,7 @@
         <v/>
       </c>
       <c r="E36" s="19" t="str">
-        <f aca="false">IF(D36="-", "-", IF(D36="", "", F36*VLOOKUP(D36, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D36="-", "-", IF(D36="", "", INT(F36*VLOOKUP(D36, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F36" s="20"/>
@@ -2485,17 +2387,14 @@
         <f aca="true">IF(J36="","",(INDIRECT("N" &amp; ROW() - 1) - N36))</f>
         <v/>
       </c>
-      <c r="H36" s="18" t="str">
-        <f aca="true">IF(J36 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H36" s="18"/>
       <c r="I36" s="18" t="str">
         <f aca="true">IF(J36 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K36" s="20" t="n">
-        <f aca="true">IF(J36 = "-", -INDIRECT("C" &amp; ROW() - 1),F36)</f>
-        <v>0</v>
+      <c r="K36" s="20" t="str">
+        <f aca="true">IF(J36 = "-", -INDIRECT("C" &amp; ROW() - 1),E36)</f>
+        <v/>
       </c>
       <c r="L36" s="17" t="n">
         <f aca="true">IF(J36 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K36)))), 0)</f>
@@ -2529,7 +2428,7 @@
         <v/>
       </c>
       <c r="E37" s="19" t="str">
-        <f aca="false">IF(D37="-", "-", IF(D37="", "", F37*VLOOKUP(D37, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D37="-", "-", IF(D37="", "", INT(F37*VLOOKUP(D37, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F37" s="20"/>
@@ -2537,17 +2436,14 @@
         <f aca="true">IF(J37="","",(INDIRECT("N" &amp; ROW() - 1) - N37))</f>
         <v/>
       </c>
-      <c r="H37" s="18" t="str">
-        <f aca="true">IF(J37 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H37" s="18"/>
       <c r="I37" s="18" t="str">
         <f aca="true">IF(J37 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K37" s="20" t="n">
-        <f aca="true">IF(J37 = "-", -INDIRECT("C" &amp; ROW() - 1),F37)</f>
-        <v>0</v>
+      <c r="K37" s="20" t="str">
+        <f aca="true">IF(J37 = "-", -INDIRECT("C" &amp; ROW() - 1),E37)</f>
+        <v/>
       </c>
       <c r="L37" s="17" t="n">
         <f aca="true">IF(J37 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K37)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K37)))), 0)</f>
@@ -2581,7 +2477,7 @@
         <v/>
       </c>
       <c r="E38" s="19" t="str">
-        <f aca="false">IF(D38="-", "-", IF(D38="", "", F38*VLOOKUP(D38, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D38="-", "-", IF(D38="", "", INT(F38*VLOOKUP(D38, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F38" s="20"/>
@@ -2589,17 +2485,14 @@
         <f aca="true">IF(J38="","",(INDIRECT("N" &amp; ROW() - 1) - N38))</f>
         <v/>
       </c>
-      <c r="H38" s="18" t="str">
-        <f aca="true">IF(J38 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H38" s="18"/>
       <c r="I38" s="18" t="str">
         <f aca="true">IF(J38 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K38" s="20" t="n">
-        <f aca="true">IF(J38 = "-", -INDIRECT("C" &amp; ROW() - 1),F38)</f>
-        <v>0</v>
+      <c r="K38" s="20" t="str">
+        <f aca="true">IF(J38 = "-", -INDIRECT("C" &amp; ROW() - 1),E38)</f>
+        <v/>
       </c>
       <c r="L38" s="17" t="n">
         <f aca="true">IF(J38 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K38)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K38)))), 0)</f>
@@ -2633,7 +2526,7 @@
         <v/>
       </c>
       <c r="E39" s="19" t="str">
-        <f aca="false">IF(D39="-", "-", IF(D39="", "", F39*VLOOKUP(D39, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D39="-", "-", IF(D39="", "", INT(F39*VLOOKUP(D39, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F39" s="20"/>
@@ -2641,17 +2534,14 @@
         <f aca="true">IF(J39="","",(INDIRECT("N" &amp; ROW() - 1) - N39))</f>
         <v/>
       </c>
-      <c r="H39" s="18" t="str">
-        <f aca="true">IF(J39 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H39" s="18"/>
       <c r="I39" s="18" t="str">
         <f aca="true">IF(J39 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K39" s="20" t="n">
-        <f aca="true">IF(J39 = "-", -INDIRECT("C" &amp; ROW() - 1),F39)</f>
-        <v>0</v>
+      <c r="K39" s="20" t="str">
+        <f aca="true">IF(J39 = "-", -INDIRECT("C" &amp; ROW() - 1),E39)</f>
+        <v/>
       </c>
       <c r="L39" s="17" t="n">
         <f aca="true">IF(J39 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K39)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K39)))), 0)</f>
@@ -2685,7 +2575,7 @@
         <v/>
       </c>
       <c r="E40" s="19" t="str">
-        <f aca="false">IF(D40="-", "-", IF(D40="", "", F40*VLOOKUP(D40, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D40="-", "-", IF(D40="", "", INT(F40*VLOOKUP(D40, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F40" s="20"/>
@@ -2693,17 +2583,14 @@
         <f aca="true">IF(J40="","",(INDIRECT("N" &amp; ROW() - 1) - N40))</f>
         <v/>
       </c>
-      <c r="H40" s="18" t="str">
-        <f aca="true">IF(J40 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H40" s="18"/>
       <c r="I40" s="18" t="str">
         <f aca="true">IF(J40 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K40" s="20" t="n">
-        <f aca="true">IF(J40 = "-", -INDIRECT("C" &amp; ROW() - 1),F40)</f>
-        <v>0</v>
+      <c r="K40" s="20" t="str">
+        <f aca="true">IF(J40 = "-", -INDIRECT("C" &amp; ROW() - 1),E40)</f>
+        <v/>
       </c>
       <c r="L40" s="17" t="n">
         <f aca="true">IF(J40 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K40)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K40)))), 0)</f>
@@ -2737,7 +2624,7 @@
         <v/>
       </c>
       <c r="E41" s="19" t="str">
-        <f aca="false">IF(D41="-", "-", IF(D41="", "", F41*VLOOKUP(D41, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D41="-", "-", IF(D41="", "", INT(F41*VLOOKUP(D41, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F41" s="20"/>
@@ -2745,17 +2632,14 @@
         <f aca="true">IF(J41="","",(INDIRECT("N" &amp; ROW() - 1) - N41))</f>
         <v/>
       </c>
-      <c r="H41" s="18" t="str">
-        <f aca="true">IF(J41 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H41" s="18"/>
       <c r="I41" s="18" t="str">
         <f aca="true">IF(J41 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K41" s="20" t="n">
-        <f aca="true">IF(J41 = "-", -INDIRECT("C" &amp; ROW() - 1),F41)</f>
-        <v>0</v>
+      <c r="K41" s="20" t="str">
+        <f aca="true">IF(J41 = "-", -INDIRECT("C" &amp; ROW() - 1),E41)</f>
+        <v/>
       </c>
       <c r="L41" s="17" t="n">
         <f aca="true">IF(J41 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K41)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K41)))), 0)</f>
@@ -2789,7 +2673,7 @@
         <v/>
       </c>
       <c r="E42" s="19" t="str">
-        <f aca="false">IF(D42="-", "-", IF(D42="", "", F42*VLOOKUP(D42, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D42="-", "-", IF(D42="", "", INT(F42*VLOOKUP(D42, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F42" s="20"/>
@@ -2797,17 +2681,14 @@
         <f aca="true">IF(J42="","",(INDIRECT("N" &amp; ROW() - 1) - N42))</f>
         <v/>
       </c>
-      <c r="H42" s="18" t="str">
-        <f aca="true">IF(J42 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H42" s="18"/>
       <c r="I42" s="18" t="str">
         <f aca="true">IF(J42 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K42" s="20" t="n">
-        <f aca="true">IF(J42 = "-", -INDIRECT("C" &amp; ROW() - 1),F42)</f>
-        <v>0</v>
+      <c r="K42" s="20" t="str">
+        <f aca="true">IF(J42 = "-", -INDIRECT("C" &amp; ROW() - 1),E42)</f>
+        <v/>
       </c>
       <c r="L42" s="17" t="n">
         <f aca="true">IF(J42 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K42)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K42)))), 0)</f>
@@ -2841,7 +2722,7 @@
         <v/>
       </c>
       <c r="E43" s="19" t="str">
-        <f aca="false">IF(D43="-", "-", IF(D43="", "", F43*VLOOKUP(D43, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D43="-", "-", IF(D43="", "", INT(F43*VLOOKUP(D43, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F43" s="20"/>
@@ -2849,17 +2730,14 @@
         <f aca="true">IF(J43="","",(INDIRECT("N" &amp; ROW() - 1) - N43))</f>
         <v/>
       </c>
-      <c r="H43" s="18" t="str">
-        <f aca="true">IF(J43 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H43" s="18"/>
       <c r="I43" s="18" t="str">
         <f aca="true">IF(J43 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K43" s="20" t="n">
-        <f aca="true">IF(J43 = "-", -INDIRECT("C" &amp; ROW() - 1),F43)</f>
-        <v>0</v>
+      <c r="K43" s="20" t="str">
+        <f aca="true">IF(J43 = "-", -INDIRECT("C" &amp; ROW() - 1),E43)</f>
+        <v/>
       </c>
       <c r="L43" s="17" t="n">
         <f aca="true">IF(J43 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K43)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K43)))), 0)</f>
@@ -2893,7 +2771,7 @@
         <v/>
       </c>
       <c r="E44" s="19" t="str">
-        <f aca="false">IF(D44="-", "-", IF(D44="", "", F44*VLOOKUP(D44, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D44="-", "-", IF(D44="", "", INT(F44*VLOOKUP(D44, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F44" s="20"/>
@@ -2901,17 +2779,14 @@
         <f aca="true">IF(J44="","",(INDIRECT("N" &amp; ROW() - 1) - N44))</f>
         <v/>
       </c>
-      <c r="H44" s="18" t="str">
-        <f aca="true">IF(J44 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H44" s="18"/>
       <c r="I44" s="18" t="str">
         <f aca="true">IF(J44 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K44" s="20" t="n">
-        <f aca="true">IF(J44 = "-", -INDIRECT("C" &amp; ROW() - 1),F44)</f>
-        <v>0</v>
+      <c r="K44" s="20" t="str">
+        <f aca="true">IF(J44 = "-", -INDIRECT("C" &amp; ROW() - 1),E44)</f>
+        <v/>
       </c>
       <c r="L44" s="17" t="n">
         <f aca="true">IF(J44 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K44)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K44)))), 0)</f>
@@ -2945,7 +2820,7 @@
         <v/>
       </c>
       <c r="E45" s="19" t="str">
-        <f aca="false">IF(D45="-", "-", IF(D45="", "", F45*VLOOKUP(D45, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D45="-", "-", IF(D45="", "", INT(F45*VLOOKUP(D45, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F45" s="20"/>
@@ -2953,17 +2828,14 @@
         <f aca="true">IF(J45="","",(INDIRECT("N" &amp; ROW() - 1) - N45))</f>
         <v/>
       </c>
-      <c r="H45" s="18" t="str">
-        <f aca="true">IF(J45 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H45" s="18"/>
       <c r="I45" s="18" t="str">
         <f aca="true">IF(J45 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K45" s="20" t="n">
-        <f aca="true">IF(J45 = "-", -INDIRECT("C" &amp; ROW() - 1),F45)</f>
-        <v>0</v>
+      <c r="K45" s="20" t="str">
+        <f aca="true">IF(J45 = "-", -INDIRECT("C" &amp; ROW() - 1),E45)</f>
+        <v/>
       </c>
       <c r="L45" s="17" t="n">
         <f aca="true">IF(J45 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K45)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K45)))), 0)</f>
@@ -2997,7 +2869,7 @@
         <v/>
       </c>
       <c r="E46" s="19" t="str">
-        <f aca="false">IF(D46="-", "-", IF(D46="", "", F46*VLOOKUP(D46, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D46="-", "-", IF(D46="", "", INT(F46*VLOOKUP(D46, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F46" s="20"/>
@@ -3005,17 +2877,14 @@
         <f aca="true">IF(J46="","",(INDIRECT("N" &amp; ROW() - 1) - N46))</f>
         <v/>
       </c>
-      <c r="H46" s="18" t="str">
-        <f aca="true">IF(J46 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H46" s="18"/>
       <c r="I46" s="18" t="str">
         <f aca="true">IF(J46 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K46" s="20" t="n">
-        <f aca="true">IF(J46 = "-", -INDIRECT("C" &amp; ROW() - 1),F46)</f>
-        <v>0</v>
+      <c r="K46" s="20" t="str">
+        <f aca="true">IF(J46 = "-", -INDIRECT("C" &amp; ROW() - 1),E46)</f>
+        <v/>
       </c>
       <c r="L46" s="17" t="n">
         <f aca="true">IF(J46 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K46)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K46)))), 0)</f>
@@ -3049,7 +2918,7 @@
         <v/>
       </c>
       <c r="E47" s="19" t="str">
-        <f aca="false">IF(D47="-", "-", IF(D47="", "", F47*VLOOKUP(D47, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D47="-", "-", IF(D47="", "", INT(F47*VLOOKUP(D47, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F47" s="20"/>
@@ -3057,17 +2926,14 @@
         <f aca="true">IF(J47="","",(INDIRECT("N" &amp; ROW() - 1) - N47))</f>
         <v/>
       </c>
-      <c r="H47" s="18" t="str">
-        <f aca="true">IF(J47 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H47" s="18"/>
       <c r="I47" s="18" t="str">
         <f aca="true">IF(J47 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K47" s="20" t="n">
-        <f aca="true">IF(J47 = "-", -INDIRECT("C" &amp; ROW() - 1),F47)</f>
-        <v>0</v>
+      <c r="K47" s="20" t="str">
+        <f aca="true">IF(J47 = "-", -INDIRECT("C" &amp; ROW() - 1),E47)</f>
+        <v/>
       </c>
       <c r="L47" s="17" t="n">
         <f aca="true">IF(J47 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K47)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K47)))), 0)</f>
@@ -3101,7 +2967,7 @@
         <v/>
       </c>
       <c r="E48" s="19" t="str">
-        <f aca="false">IF(D48="-", "-", IF(D48="", "", F48*VLOOKUP(D48, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D48="-", "-", IF(D48="", "", INT(F48*VLOOKUP(D48, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F48" s="20"/>
@@ -3109,17 +2975,14 @@
         <f aca="true">IF(J48="","",(INDIRECT("N" &amp; ROW() - 1) - N48))</f>
         <v/>
       </c>
-      <c r="H48" s="18" t="str">
-        <f aca="true">IF(J48 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H48" s="18"/>
       <c r="I48" s="18" t="str">
         <f aca="true">IF(J48 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K48" s="20" t="n">
-        <f aca="true">IF(J48 = "-", -INDIRECT("C" &amp; ROW() - 1),F48)</f>
-        <v>0</v>
+      <c r="K48" s="20" t="str">
+        <f aca="true">IF(J48 = "-", -INDIRECT("C" &amp; ROW() - 1),E48)</f>
+        <v/>
       </c>
       <c r="L48" s="17" t="n">
         <f aca="true">IF(J48 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K48)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K48)))), 0)</f>
@@ -3153,7 +3016,7 @@
         <v/>
       </c>
       <c r="E49" s="19" t="str">
-        <f aca="false">IF(D49="-", "-", IF(D49="", "", F49*VLOOKUP(D49, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D49="-", "-", IF(D49="", "", INT(F49*VLOOKUP(D49, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F49" s="20"/>
@@ -3161,17 +3024,14 @@
         <f aca="true">IF(J49="","",(INDIRECT("N" &amp; ROW() - 1) - N49))</f>
         <v/>
       </c>
-      <c r="H49" s="18" t="str">
-        <f aca="true">IF(J49 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H49" s="18"/>
       <c r="I49" s="18" t="str">
         <f aca="true">IF(J49 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K49" s="20" t="n">
-        <f aca="true">IF(J49 = "-", -INDIRECT("C" &amp; ROW() - 1),F49)</f>
-        <v>0</v>
+      <c r="K49" s="20" t="str">
+        <f aca="true">IF(J49 = "-", -INDIRECT("C" &amp; ROW() - 1),E49)</f>
+        <v/>
       </c>
       <c r="L49" s="17" t="n">
         <f aca="true">IF(J49 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K49)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K49)))), 0)</f>
@@ -3205,7 +3065,7 @@
         <v/>
       </c>
       <c r="E50" s="19" t="str">
-        <f aca="false">IF(D50="-", "-", IF(D50="", "", F50*VLOOKUP(D50, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D50="-", "-", IF(D50="", "", INT(F50*VLOOKUP(D50, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F50" s="20"/>
@@ -3213,17 +3073,14 @@
         <f aca="true">IF(J50="","",(INDIRECT("N" &amp; ROW() - 1) - N50))</f>
         <v/>
       </c>
-      <c r="H50" s="18" t="str">
-        <f aca="true">IF(J50 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H50" s="18"/>
       <c r="I50" s="18" t="str">
         <f aca="true">IF(J50 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K50" s="20" t="n">
-        <f aca="true">IF(J50 = "-", -INDIRECT("C" &amp; ROW() - 1),F50)</f>
-        <v>0</v>
+      <c r="K50" s="20" t="str">
+        <f aca="true">IF(J50 = "-", -INDIRECT("C" &amp; ROW() - 1),E50)</f>
+        <v/>
       </c>
       <c r="L50" s="17" t="n">
         <f aca="true">IF(J50 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K50)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K50)))), 0)</f>
@@ -3257,7 +3114,7 @@
         <v/>
       </c>
       <c r="E51" s="19" t="str">
-        <f aca="false">IF(D51="-", "-", IF(D51="", "", F51*VLOOKUP(D51, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D51="-", "-", IF(D51="", "", INT(F51*VLOOKUP(D51, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F51" s="20"/>
@@ -3265,17 +3122,14 @@
         <f aca="true">IF(J51="","",(INDIRECT("N" &amp; ROW() - 1) - N51))</f>
         <v/>
       </c>
-      <c r="H51" s="18" t="str">
-        <f aca="true">IF(J51 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H51" s="18"/>
       <c r="I51" s="18" t="str">
         <f aca="true">IF(J51 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K51" s="20" t="n">
-        <f aca="true">IF(J51 = "-", -INDIRECT("C" &amp; ROW() - 1),F51)</f>
-        <v>0</v>
+      <c r="K51" s="20" t="str">
+        <f aca="true">IF(J51 = "-", -INDIRECT("C" &amp; ROW() - 1),E51)</f>
+        <v/>
       </c>
       <c r="L51" s="17" t="n">
         <f aca="true">IF(J51 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K51)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K51)))), 0)</f>
@@ -3309,7 +3163,7 @@
         <v/>
       </c>
       <c r="E52" s="19" t="str">
-        <f aca="false">IF(D52="-", "-", IF(D52="", "", F52*VLOOKUP(D52, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D52="-", "-", IF(D52="", "", INT(F52*VLOOKUP(D52, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F52" s="20"/>
@@ -3317,17 +3171,14 @@
         <f aca="true">IF(J52="","",(INDIRECT("N" &amp; ROW() - 1) - N52))</f>
         <v/>
       </c>
-      <c r="H52" s="18" t="str">
-        <f aca="true">IF(J52 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H52" s="18"/>
       <c r="I52" s="18" t="str">
         <f aca="true">IF(J52 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K52" s="20" t="n">
-        <f aca="true">IF(J52 = "-", -INDIRECT("C" &amp; ROW() - 1),F52)</f>
-        <v>0</v>
+      <c r="K52" s="20" t="str">
+        <f aca="true">IF(J52 = "-", -INDIRECT("C" &amp; ROW() - 1),E52)</f>
+        <v/>
       </c>
       <c r="L52" s="17" t="n">
         <f aca="true">IF(J52 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K52)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K52)))), 0)</f>
@@ -3361,7 +3212,7 @@
         <v/>
       </c>
       <c r="E53" s="19" t="str">
-        <f aca="false">IF(D53="-", "-", IF(D53="", "", F53*VLOOKUP(D53, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D53="-", "-", IF(D53="", "", INT(F53*VLOOKUP(D53, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F53" s="20"/>
@@ -3369,17 +3220,14 @@
         <f aca="true">IF(J53="","",(INDIRECT("N" &amp; ROW() - 1) - N53))</f>
         <v/>
       </c>
-      <c r="H53" s="18" t="str">
-        <f aca="true">IF(J53 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H53" s="18"/>
       <c r="I53" s="18" t="str">
         <f aca="true">IF(J53 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K53" s="20" t="n">
-        <f aca="true">IF(J53 = "-", -INDIRECT("C" &amp; ROW() - 1),F53)</f>
-        <v>0</v>
+      <c r="K53" s="20" t="str">
+        <f aca="true">IF(J53 = "-", -INDIRECT("C" &amp; ROW() - 1),E53)</f>
+        <v/>
       </c>
       <c r="L53" s="17" t="n">
         <f aca="true">IF(J53 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K53)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K53)))), 0)</f>
@@ -3413,7 +3261,7 @@
         <v/>
       </c>
       <c r="E54" s="19" t="str">
-        <f aca="false">IF(D54="-", "-", IF(D54="", "", F54*VLOOKUP(D54, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D54="-", "-", IF(D54="", "", INT(F54*VLOOKUP(D54, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F54" s="20"/>
@@ -3421,17 +3269,14 @@
         <f aca="true">IF(J54="","",(INDIRECT("N" &amp; ROW() - 1) - N54))</f>
         <v/>
       </c>
-      <c r="H54" s="18" t="str">
-        <f aca="true">IF(J54 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H54" s="18"/>
       <c r="I54" s="18" t="str">
         <f aca="true">IF(J54 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K54" s="20" t="n">
-        <f aca="true">IF(J54 = "-", -INDIRECT("C" &amp; ROW() - 1),F54)</f>
-        <v>0</v>
+      <c r="K54" s="20" t="str">
+        <f aca="true">IF(J54 = "-", -INDIRECT("C" &amp; ROW() - 1),E54)</f>
+        <v/>
       </c>
       <c r="L54" s="17" t="n">
         <f aca="true">IF(J54 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K54)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K54)))), 0)</f>
@@ -3465,7 +3310,7 @@
         <v/>
       </c>
       <c r="E55" s="19" t="str">
-        <f aca="false">IF(D55="-", "-", IF(D55="", "", F55*VLOOKUP(D55, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D55="-", "-", IF(D55="", "", INT(F55*VLOOKUP(D55, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F55" s="20"/>
@@ -3473,17 +3318,14 @@
         <f aca="true">IF(J55="","",(INDIRECT("N" &amp; ROW() - 1) - N55))</f>
         <v/>
       </c>
-      <c r="H55" s="18" t="str">
-        <f aca="true">IF(J55 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H55" s="18"/>
       <c r="I55" s="18" t="str">
         <f aca="true">IF(J55 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K55" s="20" t="n">
-        <f aca="true">IF(J55 = "-", -INDIRECT("C" &amp; ROW() - 1),F55)</f>
-        <v>0</v>
+      <c r="K55" s="20" t="str">
+        <f aca="true">IF(J55 = "-", -INDIRECT("C" &amp; ROW() - 1),E55)</f>
+        <v/>
       </c>
       <c r="L55" s="17" t="n">
         <f aca="true">IF(J55 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K55)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K55)))), 0)</f>
@@ -3517,7 +3359,7 @@
         <v/>
       </c>
       <c r="E56" s="19" t="str">
-        <f aca="false">IF(D56="-", "-", IF(D56="", "", F56*VLOOKUP(D56, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D56="-", "-", IF(D56="", "", INT(F56*VLOOKUP(D56, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F56" s="20"/>
@@ -3525,17 +3367,14 @@
         <f aca="true">IF(J56="","",(INDIRECT("N" &amp; ROW() - 1) - N56))</f>
         <v/>
       </c>
-      <c r="H56" s="18" t="str">
-        <f aca="true">IF(J56 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H56" s="18"/>
       <c r="I56" s="18" t="str">
         <f aca="true">IF(J56 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K56" s="20" t="n">
-        <f aca="true">IF(J56 = "-", -INDIRECT("C" &amp; ROW() - 1),F56)</f>
-        <v>0</v>
+      <c r="K56" s="20" t="str">
+        <f aca="true">IF(J56 = "-", -INDIRECT("C" &amp; ROW() - 1),E56)</f>
+        <v/>
       </c>
       <c r="L56" s="17" t="n">
         <f aca="true">IF(J56 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K56)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K56)))), 0)</f>
@@ -3569,7 +3408,7 @@
         <v/>
       </c>
       <c r="E57" s="19" t="str">
-        <f aca="false">IF(D57="-", "-", IF(D57="", "", F57*VLOOKUP(D57, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D57="-", "-", IF(D57="", "", INT(F57*VLOOKUP(D57, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F57" s="20"/>
@@ -3577,17 +3416,14 @@
         <f aca="true">IF(J57="","",(INDIRECT("N" &amp; ROW() - 1) - N57))</f>
         <v/>
       </c>
-      <c r="H57" s="18" t="str">
-        <f aca="true">IF(J57 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H57" s="18"/>
       <c r="I57" s="18" t="str">
         <f aca="true">IF(J57 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K57" s="20" t="n">
-        <f aca="true">IF(J57 = "-", -INDIRECT("C" &amp; ROW() - 1),F57)</f>
-        <v>0</v>
+      <c r="K57" s="20" t="str">
+        <f aca="true">IF(J57 = "-", -INDIRECT("C" &amp; ROW() - 1),E57)</f>
+        <v/>
       </c>
       <c r="L57" s="17" t="n">
         <f aca="true">IF(J57 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K57)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K57)))), 0)</f>
@@ -3621,7 +3457,7 @@
         <v/>
       </c>
       <c r="E58" s="19" t="str">
-        <f aca="false">IF(D58="-", "-", IF(D58="", "", F58*VLOOKUP(D58, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D58="-", "-", IF(D58="", "", INT(F58*VLOOKUP(D58, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F58" s="20"/>
@@ -3629,17 +3465,14 @@
         <f aca="true">IF(J58="","",(INDIRECT("N" &amp; ROW() - 1) - N58))</f>
         <v/>
       </c>
-      <c r="H58" s="18" t="str">
-        <f aca="true">IF(J58 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H58" s="18"/>
       <c r="I58" s="18" t="str">
         <f aca="true">IF(J58 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K58" s="20" t="n">
-        <f aca="true">IF(J58 = "-", -INDIRECT("C" &amp; ROW() - 1),F58)</f>
-        <v>0</v>
+      <c r="K58" s="20" t="str">
+        <f aca="true">IF(J58 = "-", -INDIRECT("C" &amp; ROW() - 1),E58)</f>
+        <v/>
       </c>
       <c r="L58" s="17" t="n">
         <f aca="true">IF(J58 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K58)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K58)))), 0)</f>
@@ -3673,7 +3506,7 @@
         <v/>
       </c>
       <c r="E59" s="19" t="str">
-        <f aca="false">IF(D59="-", "-", IF(D59="", "", F59*VLOOKUP(D59, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D59="-", "-", IF(D59="", "", INT(F59*VLOOKUP(D59, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F59" s="20"/>
@@ -3681,17 +3514,14 @@
         <f aca="true">IF(J59="","",(INDIRECT("N" &amp; ROW() - 1) - N59))</f>
         <v/>
       </c>
-      <c r="H59" s="18" t="str">
-        <f aca="true">IF(J59 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H59" s="18"/>
       <c r="I59" s="18" t="str">
         <f aca="true">IF(J59 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K59" s="20" t="n">
-        <f aca="true">IF(J59 = "-", -INDIRECT("C" &amp; ROW() - 1),F59)</f>
-        <v>0</v>
+      <c r="K59" s="20" t="str">
+        <f aca="true">IF(J59 = "-", -INDIRECT("C" &amp; ROW() - 1),E59)</f>
+        <v/>
       </c>
       <c r="L59" s="17" t="n">
         <f aca="true">IF(J59 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K59)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K59)))), 0)</f>
@@ -3725,7 +3555,7 @@
         <v/>
       </c>
       <c r="E60" s="19" t="str">
-        <f aca="false">IF(D60="-", "-", IF(D60="", "", F60*VLOOKUP(D60, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D60="-", "-", IF(D60="", "", INT(F60*VLOOKUP(D60, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F60" s="20"/>
@@ -3733,17 +3563,14 @@
         <f aca="true">IF(J60="","",(INDIRECT("N" &amp; ROW() - 1) - N60))</f>
         <v/>
       </c>
-      <c r="H60" s="18" t="str">
-        <f aca="true">IF(J60 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H60" s="18"/>
       <c r="I60" s="18" t="str">
         <f aca="true">IF(J60 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K60" s="20" t="n">
-        <f aca="true">IF(J60 = "-", -INDIRECT("C" &amp; ROW() - 1),F60)</f>
-        <v>0</v>
+      <c r="K60" s="20" t="str">
+        <f aca="true">IF(J60 = "-", -INDIRECT("C" &amp; ROW() - 1),E60)</f>
+        <v/>
       </c>
       <c r="L60" s="17" t="n">
         <f aca="true">IF(J60 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K60)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K60)))), 0)</f>
@@ -3777,7 +3604,7 @@
         <v/>
       </c>
       <c r="E61" s="19" t="str">
-        <f aca="false">IF(D61="-", "-", IF(D61="", "", F61*VLOOKUP(D61, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D61="-", "-", IF(D61="", "", INT(F61*VLOOKUP(D61, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F61" s="20"/>
@@ -3785,17 +3612,14 @@
         <f aca="true">IF(J61="","",(INDIRECT("N" &amp; ROW() - 1) - N61))</f>
         <v/>
       </c>
-      <c r="H61" s="18" t="str">
-        <f aca="true">IF(J61 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H61" s="18"/>
       <c r="I61" s="18" t="str">
         <f aca="true">IF(J61 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K61" s="20" t="n">
-        <f aca="true">IF(J61 = "-", -INDIRECT("C" &amp; ROW() - 1),F61)</f>
-        <v>0</v>
+      <c r="K61" s="20" t="str">
+        <f aca="true">IF(J61 = "-", -INDIRECT("C" &amp; ROW() - 1),E61)</f>
+        <v/>
       </c>
       <c r="L61" s="17" t="n">
         <f aca="true">IF(J61 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K61)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K61)))), 0)</f>
@@ -3829,7 +3653,7 @@
         <v/>
       </c>
       <c r="E62" s="19" t="str">
-        <f aca="false">IF(D62="-", "-", IF(D62="", "", F62*VLOOKUP(D62, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D62="-", "-", IF(D62="", "", INT(F62*VLOOKUP(D62, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F62" s="20"/>
@@ -3837,17 +3661,14 @@
         <f aca="true">IF(J62="","",(INDIRECT("N" &amp; ROW() - 1) - N62))</f>
         <v/>
       </c>
-      <c r="H62" s="18" t="str">
-        <f aca="true">IF(J62 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H62" s="18"/>
       <c r="I62" s="18" t="str">
         <f aca="true">IF(J62 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K62" s="20" t="n">
-        <f aca="true">IF(J62 = "-", -INDIRECT("C" &amp; ROW() - 1),F62)</f>
-        <v>0</v>
+      <c r="K62" s="20" t="str">
+        <f aca="true">IF(J62 = "-", -INDIRECT("C" &amp; ROW() - 1),E62)</f>
+        <v/>
       </c>
       <c r="L62" s="17" t="n">
         <f aca="true">IF(J62 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K62)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K62)))), 0)</f>
@@ -3881,7 +3702,7 @@
         <v/>
       </c>
       <c r="E63" s="19" t="str">
-        <f aca="false">IF(D63="-", "-", IF(D63="", "", F63*VLOOKUP(D63, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D63="-", "-", IF(D63="", "", INT(F63*VLOOKUP(D63, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F63" s="20"/>
@@ -3889,17 +3710,14 @@
         <f aca="true">IF(J63="","",(INDIRECT("N" &amp; ROW() - 1) - N63))</f>
         <v/>
       </c>
-      <c r="H63" s="18" t="str">
-        <f aca="true">IF(J63 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H63" s="18"/>
       <c r="I63" s="18" t="str">
         <f aca="true">IF(J63 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K63" s="20" t="n">
-        <f aca="true">IF(J63 = "-", -INDIRECT("C" &amp; ROW() - 1),F63)</f>
-        <v>0</v>
+      <c r="K63" s="20" t="str">
+        <f aca="true">IF(J63 = "-", -INDIRECT("C" &amp; ROW() - 1),E63)</f>
+        <v/>
       </c>
       <c r="L63" s="17" t="n">
         <f aca="true">IF(J63 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K63)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K63)))), 0)</f>
@@ -3933,7 +3751,7 @@
         <v/>
       </c>
       <c r="E64" s="19" t="str">
-        <f aca="false">IF(D64="-", "-", IF(D64="", "", F64*VLOOKUP(D64, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D64="-", "-", IF(D64="", "", INT(F64*VLOOKUP(D64, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F64" s="20"/>
@@ -3941,17 +3759,14 @@
         <f aca="true">IF(J64="","",(INDIRECT("N" &amp; ROW() - 1) - N64))</f>
         <v/>
       </c>
-      <c r="H64" s="18" t="str">
-        <f aca="true">IF(J64 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H64" s="18"/>
       <c r="I64" s="18" t="str">
         <f aca="true">IF(J64 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K64" s="20" t="n">
-        <f aca="true">IF(J64 = "-", -INDIRECT("C" &amp; ROW() - 1),F64)</f>
-        <v>0</v>
+      <c r="K64" s="20" t="str">
+        <f aca="true">IF(J64 = "-", -INDIRECT("C" &amp; ROW() - 1),E64)</f>
+        <v/>
       </c>
       <c r="L64" s="17" t="n">
         <f aca="true">IF(J64 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K64)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K64)))), 0)</f>
@@ -3985,7 +3800,7 @@
         <v/>
       </c>
       <c r="E65" s="19" t="str">
-        <f aca="false">IF(D65="-", "-", IF(D65="", "", F65*VLOOKUP(D65, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D65="-", "-", IF(D65="", "", INT(F65*VLOOKUP(D65, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F65" s="20"/>
@@ -3993,17 +3808,14 @@
         <f aca="true">IF(J65="","",(INDIRECT("N" &amp; ROW() - 1) - N65))</f>
         <v/>
       </c>
-      <c r="H65" s="18" t="str">
-        <f aca="true">IF(J65 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H65" s="18"/>
       <c r="I65" s="18" t="str">
         <f aca="true">IF(J65 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K65" s="20" t="n">
-        <f aca="true">IF(J65 = "-", -INDIRECT("C" &amp; ROW() - 1),F65)</f>
-        <v>0</v>
+      <c r="K65" s="20" t="str">
+        <f aca="true">IF(J65 = "-", -INDIRECT("C" &amp; ROW() - 1),E65)</f>
+        <v/>
       </c>
       <c r="L65" s="17" t="n">
         <f aca="true">IF(J65 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K65)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K65)))), 0)</f>
@@ -4037,7 +3849,7 @@
         <v/>
       </c>
       <c r="E66" s="19" t="str">
-        <f aca="false">IF(D66="-", "-", IF(D66="", "", F66*VLOOKUP(D66, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D66="-", "-", IF(D66="", "", INT(F66*VLOOKUP(D66, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F66" s="20"/>
@@ -4045,17 +3857,14 @@
         <f aca="true">IF(J66="","",(INDIRECT("N" &amp; ROW() - 1) - N66))</f>
         <v/>
       </c>
-      <c r="H66" s="18" t="str">
-        <f aca="true">IF(J66 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H66" s="18"/>
       <c r="I66" s="18" t="str">
         <f aca="true">IF(J66 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K66" s="20" t="n">
-        <f aca="true">IF(J66 = "-", -INDIRECT("C" &amp; ROW() - 1),F66)</f>
-        <v>0</v>
+      <c r="K66" s="20" t="str">
+        <f aca="true">IF(J66 = "-", -INDIRECT("C" &amp; ROW() - 1),E66)</f>
+        <v/>
       </c>
       <c r="L66" s="17" t="n">
         <f aca="true">IF(J66 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K66)))), 0)</f>
@@ -4089,7 +3898,7 @@
         <v/>
       </c>
       <c r="E67" s="19" t="str">
-        <f aca="false">IF(D67="-", "-", IF(D67="", "", F67*VLOOKUP(D67, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D67="-", "-", IF(D67="", "", INT(F67*VLOOKUP(D67, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F67" s="20"/>
@@ -4097,17 +3906,14 @@
         <f aca="true">IF(J67="","",(INDIRECT("N" &amp; ROW() - 1) - N67))</f>
         <v/>
       </c>
-      <c r="H67" s="18" t="str">
-        <f aca="true">IF(J67 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H67" s="18"/>
       <c r="I67" s="18" t="str">
         <f aca="true">IF(J67 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K67" s="20" t="n">
-        <f aca="true">IF(J67 = "-", -INDIRECT("C" &amp; ROW() - 1),F67)</f>
-        <v>0</v>
+      <c r="K67" s="20" t="str">
+        <f aca="true">IF(J67 = "-", -INDIRECT("C" &amp; ROW() - 1),E67)</f>
+        <v/>
       </c>
       <c r="L67" s="17" t="n">
         <f aca="true">IF(J67 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K67)))), 0)</f>
@@ -4141,7 +3947,7 @@
         <v/>
       </c>
       <c r="E68" s="19" t="str">
-        <f aca="false">IF(D68="-", "-", IF(D68="", "", F68*VLOOKUP(D68, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D68="-", "-", IF(D68="", "", INT(F68*VLOOKUP(D68, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F68" s="20"/>
@@ -4149,17 +3955,14 @@
         <f aca="true">IF(J68="","",(INDIRECT("N" &amp; ROW() - 1) - N68))</f>
         <v/>
       </c>
-      <c r="H68" s="18" t="str">
-        <f aca="true">IF(J68 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H68" s="18"/>
       <c r="I68" s="18" t="str">
         <f aca="true">IF(J68 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K68" s="20" t="n">
-        <f aca="true">IF(J68 = "-", -INDIRECT("C" &amp; ROW() - 1),F68)</f>
-        <v>0</v>
+      <c r="K68" s="20" t="str">
+        <f aca="true">IF(J68 = "-", -INDIRECT("C" &amp; ROW() - 1),E68)</f>
+        <v/>
       </c>
       <c r="L68" s="17" t="n">
         <f aca="true">IF(J68 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K68)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K68)))), 0)</f>
@@ -4193,7 +3996,7 @@
         <v/>
       </c>
       <c r="E69" s="19" t="str">
-        <f aca="false">IF(D69="-", "-", IF(D69="", "", F69*VLOOKUP(D69, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D69="-", "-", IF(D69="", "", INT(F69*VLOOKUP(D69, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F69" s="20"/>
@@ -4201,17 +4004,14 @@
         <f aca="true">IF(J69="","",(INDIRECT("N" &amp; ROW() - 1) - N69))</f>
         <v/>
       </c>
-      <c r="H69" s="18" t="str">
-        <f aca="true">IF(J69 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H69" s="18"/>
       <c r="I69" s="18" t="str">
         <f aca="true">IF(J69 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K69" s="20" t="n">
-        <f aca="true">IF(J69 = "-", -INDIRECT("C" &amp; ROW() - 1),F69)</f>
-        <v>0</v>
+      <c r="K69" s="20" t="str">
+        <f aca="true">IF(J69 = "-", -INDIRECT("C" &amp; ROW() - 1),E69)</f>
+        <v/>
       </c>
       <c r="L69" s="17" t="n">
         <f aca="true">IF(J69 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K69)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K69)))), 0)</f>
@@ -4245,7 +4045,7 @@
         <v/>
       </c>
       <c r="E70" s="19" t="str">
-        <f aca="false">IF(D70="-", "-", IF(D70="", "", F70*VLOOKUP(D70, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D70="-", "-", IF(D70="", "", INT(F70*VLOOKUP(D70, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F70" s="20"/>
@@ -4253,17 +4053,14 @@
         <f aca="true">IF(J70="","",(INDIRECT("N" &amp; ROW() - 1) - N70))</f>
         <v/>
       </c>
-      <c r="H70" s="18" t="str">
-        <f aca="true">IF(J70 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H70" s="18"/>
       <c r="I70" s="18" t="str">
         <f aca="true">IF(J70 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K70" s="20" t="n">
-        <f aca="true">IF(J70 = "-", -INDIRECT("C" &amp; ROW() - 1),F70)</f>
-        <v>0</v>
+      <c r="K70" s="20" t="str">
+        <f aca="true">IF(J70 = "-", -INDIRECT("C" &amp; ROW() - 1),E70)</f>
+        <v/>
       </c>
       <c r="L70" s="17" t="n">
         <f aca="true">IF(J70 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K70)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K70)))), 0)</f>
@@ -4297,7 +4094,7 @@
         <v/>
       </c>
       <c r="E71" s="19" t="str">
-        <f aca="false">IF(D71="-", "-", IF(D71="", "", F71*VLOOKUP(D71, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D71="-", "-", IF(D71="", "", INT(F71*VLOOKUP(D71, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F71" s="20"/>
@@ -4305,17 +4102,14 @@
         <f aca="true">IF(J71="","",(INDIRECT("N" &amp; ROW() - 1) - N71))</f>
         <v/>
       </c>
-      <c r="H71" s="18" t="str">
-        <f aca="true">IF(J71 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H71" s="18"/>
       <c r="I71" s="18" t="str">
         <f aca="true">IF(J71 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K71" s="20" t="n">
-        <f aca="true">IF(J71 = "-", -INDIRECT("C" &amp; ROW() - 1),F71)</f>
-        <v>0</v>
+      <c r="K71" s="20" t="str">
+        <f aca="true">IF(J71 = "-", -INDIRECT("C" &amp; ROW() - 1),E71)</f>
+        <v/>
       </c>
       <c r="L71" s="17" t="n">
         <f aca="true">IF(J71 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K71)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K71)))), 0)</f>
@@ -4349,7 +4143,7 @@
         <v/>
       </c>
       <c r="E72" s="19" t="str">
-        <f aca="false">IF(D72="-", "-", IF(D72="", "", F72*VLOOKUP(D72, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D72="-", "-", IF(D72="", "", INT(F72*VLOOKUP(D72, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F72" s="20"/>
@@ -4357,17 +4151,14 @@
         <f aca="true">IF(J72="","",(INDIRECT("N" &amp; ROW() - 1) - N72))</f>
         <v/>
       </c>
-      <c r="H72" s="18" t="str">
-        <f aca="true">IF(J72 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H72" s="18"/>
       <c r="I72" s="18" t="str">
         <f aca="true">IF(J72 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K72" s="20" t="n">
-        <f aca="true">IF(J72 = "-", -INDIRECT("C" &amp; ROW() - 1),F72)</f>
-        <v>0</v>
+      <c r="K72" s="20" t="str">
+        <f aca="true">IF(J72 = "-", -INDIRECT("C" &amp; ROW() - 1),E72)</f>
+        <v/>
       </c>
       <c r="L72" s="17" t="n">
         <f aca="true">IF(J72 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K72)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K72)))), 0)</f>
@@ -4401,7 +4192,7 @@
         <v/>
       </c>
       <c r="E73" s="19" t="str">
-        <f aca="false">IF(D73="-", "-", IF(D73="", "", F73*VLOOKUP(D73, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D73="-", "-", IF(D73="", "", INT(F73*VLOOKUP(D73, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F73" s="20"/>
@@ -4409,17 +4200,14 @@
         <f aca="true">IF(J73="","",(INDIRECT("N" &amp; ROW() - 1) - N73))</f>
         <v/>
       </c>
-      <c r="H73" s="18" t="str">
-        <f aca="true">IF(J73 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H73" s="18"/>
       <c r="I73" s="18" t="str">
         <f aca="true">IF(J73 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K73" s="20" t="n">
-        <f aca="true">IF(J73 = "-", -INDIRECT("C" &amp; ROW() - 1),F73)</f>
-        <v>0</v>
+      <c r="K73" s="20" t="str">
+        <f aca="true">IF(J73 = "-", -INDIRECT("C" &amp; ROW() - 1),E73)</f>
+        <v/>
       </c>
       <c r="L73" s="17" t="n">
         <f aca="true">IF(J73 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K73)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K73)))), 0)</f>
@@ -4453,7 +4241,7 @@
         <v/>
       </c>
       <c r="E74" s="19" t="str">
-        <f aca="false">IF(D74="-", "-", IF(D74="", "", F74*VLOOKUP(D74, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D74="-", "-", IF(D74="", "", INT(F74*VLOOKUP(D74, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F74" s="20"/>
@@ -4461,17 +4249,14 @@
         <f aca="true">IF(J74="","",(INDIRECT("N" &amp; ROW() - 1) - N74))</f>
         <v/>
       </c>
-      <c r="H74" s="18" t="str">
-        <f aca="true">IF(J74 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H74" s="18"/>
       <c r="I74" s="18" t="str">
         <f aca="true">IF(J74 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K74" s="20" t="n">
-        <f aca="true">IF(J74 = "-", -INDIRECT("C" &amp; ROW() - 1),F74)</f>
-        <v>0</v>
+      <c r="K74" s="20" t="str">
+        <f aca="true">IF(J74 = "-", -INDIRECT("C" &amp; ROW() - 1),E74)</f>
+        <v/>
       </c>
       <c r="L74" s="17" t="n">
         <f aca="true">IF(J74 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K74)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K74)))), 0)</f>
@@ -4505,7 +4290,7 @@
         <v/>
       </c>
       <c r="E75" s="19" t="str">
-        <f aca="false">IF(D75="-", "-", IF(D75="", "", F75*VLOOKUP(D75, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D75="-", "-", IF(D75="", "", INT(F75*VLOOKUP(D75, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F75" s="20"/>
@@ -4513,17 +4298,14 @@
         <f aca="true">IF(J75="","",(INDIRECT("N" &amp; ROW() - 1) - N75))</f>
         <v/>
       </c>
-      <c r="H75" s="18" t="str">
-        <f aca="true">IF(J75 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H75" s="18"/>
       <c r="I75" s="18" t="str">
         <f aca="true">IF(J75 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K75" s="20" t="n">
-        <f aca="true">IF(J75 = "-", -INDIRECT("C" &amp; ROW() - 1),F75)</f>
-        <v>0</v>
+      <c r="K75" s="20" t="str">
+        <f aca="true">IF(J75 = "-", -INDIRECT("C" &amp; ROW() - 1),E75)</f>
+        <v/>
       </c>
       <c r="L75" s="17" t="n">
         <f aca="true">IF(J75="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K75))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K75)))),0)</f>
@@ -4557,7 +4339,7 @@
         <v/>
       </c>
       <c r="E76" s="19" t="str">
-        <f aca="false">IF(D76="-", "-", IF(D76="", "", F76*VLOOKUP(D76, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D76="-", "-", IF(D76="", "", INT(F76*VLOOKUP(D76, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F76" s="20"/>
@@ -4565,17 +4347,14 @@
         <f aca="true">IF(J76="","",(INDIRECT("N" &amp; ROW() - 1) - N76))</f>
         <v/>
       </c>
-      <c r="H76" s="18" t="str">
-        <f aca="true">IF(J76 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H76" s="18"/>
       <c r="I76" s="18" t="str">
         <f aca="true">IF(J76 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K76" s="20" t="n">
-        <f aca="true">IF(J76 = "-", -INDIRECT("C" &amp; ROW() - 1),F76)</f>
-        <v>0</v>
+      <c r="K76" s="20" t="str">
+        <f aca="true">IF(J76 = "-", -INDIRECT("C" &amp; ROW() - 1),E76)</f>
+        <v/>
       </c>
       <c r="L76" s="17" t="n">
         <f aca="true">IF(J76="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K76))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K76)))),0)</f>
@@ -4609,7 +4388,7 @@
         <v/>
       </c>
       <c r="E77" s="19" t="str">
-        <f aca="false">IF(D77="-", "-", IF(D77="", "", F77*VLOOKUP(D77, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D77="-", "-", IF(D77="", "", INT(F77*VLOOKUP(D77, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F77" s="20"/>
@@ -4617,17 +4396,14 @@
         <f aca="true">IF(J77="","",(INDIRECT("N" &amp; ROW() - 1) - N77))</f>
         <v/>
       </c>
-      <c r="H77" s="18" t="str">
-        <f aca="true">IF(J77 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H77" s="18"/>
       <c r="I77" s="18" t="str">
         <f aca="true">IF(J77 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K77" s="20" t="n">
-        <f aca="true">IF(J77 = "-", -INDIRECT("C" &amp; ROW() - 1),F77)</f>
-        <v>0</v>
+      <c r="K77" s="20" t="str">
+        <f aca="true">IF(J77 = "-", -INDIRECT("C" &amp; ROW() - 1),E77)</f>
+        <v/>
       </c>
       <c r="L77" s="17" t="n">
         <f aca="true">IF(J77="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K77))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K77)))),0)</f>
@@ -4661,7 +4437,7 @@
         <v/>
       </c>
       <c r="E78" s="19" t="str">
-        <f aca="false">IF(D78="-", "-", IF(D78="", "", F78*VLOOKUP(D78, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D78="-", "-", IF(D78="", "", INT(F78*VLOOKUP(D78, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F78" s="20"/>
@@ -4669,17 +4445,14 @@
         <f aca="true">IF(J78="","",(INDIRECT("N" &amp; ROW() - 1) - N78))</f>
         <v/>
       </c>
-      <c r="H78" s="18" t="str">
-        <f aca="true">IF(J78 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H78" s="18"/>
       <c r="I78" s="18" t="str">
         <f aca="true">IF(J78 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K78" s="20" t="n">
-        <f aca="true">IF(J78 = "-", -INDIRECT("C" &amp; ROW() - 1),F78)</f>
-        <v>0</v>
+      <c r="K78" s="20" t="str">
+        <f aca="true">IF(J78 = "-", -INDIRECT("C" &amp; ROW() - 1),E78)</f>
+        <v/>
       </c>
       <c r="L78" s="17" t="n">
         <f aca="true">IF(J78="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K78))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K78)))),0)</f>
@@ -4713,7 +4486,7 @@
         <v/>
       </c>
       <c r="E79" s="19" t="str">
-        <f aca="false">IF(D79="-", "-", IF(D79="", "", F79*VLOOKUP(D79, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D79="-", "-", IF(D79="", "", INT(F79*VLOOKUP(D79, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F79" s="20"/>
@@ -4721,17 +4494,14 @@
         <f aca="true">IF(J79="","",(INDIRECT("N" &amp; ROW() - 1) - N79))</f>
         <v/>
       </c>
-      <c r="H79" s="18" t="str">
-        <f aca="true">IF(J79 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H79" s="18"/>
       <c r="I79" s="18" t="str">
         <f aca="true">IF(J79 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K79" s="20" t="n">
-        <f aca="true">IF(J79 = "-", -INDIRECT("C" &amp; ROW() - 1),F79)</f>
-        <v>0</v>
+      <c r="K79" s="20" t="str">
+        <f aca="true">IF(J79 = "-", -INDIRECT("C" &amp; ROW() - 1),E79)</f>
+        <v/>
       </c>
       <c r="L79" s="17" t="n">
         <f aca="true">IF(J79="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K79))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K79)))),0)</f>
@@ -4765,7 +4535,7 @@
         <v/>
       </c>
       <c r="E80" s="19" t="str">
-        <f aca="false">IF(D80="-", "-", IF(D80="", "", F80*VLOOKUP(D80, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D80="-", "-", IF(D80="", "", INT(F80*VLOOKUP(D80, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F80" s="20"/>
@@ -4773,17 +4543,14 @@
         <f aca="true">IF(J80="","",(INDIRECT("N" &amp; ROW() - 1) - N80))</f>
         <v/>
       </c>
-      <c r="H80" s="18" t="str">
-        <f aca="true">IF(J80 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H80" s="18"/>
       <c r="I80" s="18" t="str">
         <f aca="true">IF(J80 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K80" s="20" t="n">
-        <f aca="true">IF(J80 = "-", -INDIRECT("C" &amp; ROW() - 1),F80)</f>
-        <v>0</v>
+      <c r="K80" s="20" t="str">
+        <f aca="true">IF(J80 = "-", -INDIRECT("C" &amp; ROW() - 1),E80)</f>
+        <v/>
       </c>
       <c r="L80" s="17" t="n">
         <f aca="true">IF(J80="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K80))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K80)))),0)</f>
@@ -4817,7 +4584,7 @@
         <v/>
       </c>
       <c r="E81" s="19" t="str">
-        <f aca="false">IF(D81="-", "-", IF(D81="", "", F81*VLOOKUP(D81, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D81="-", "-", IF(D81="", "", INT(F81*VLOOKUP(D81, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F81" s="20"/>
@@ -4825,17 +4592,14 @@
         <f aca="true">IF(J81="","",(INDIRECT("N" &amp; ROW() - 1) - N81))</f>
         <v/>
       </c>
-      <c r="H81" s="18" t="str">
-        <f aca="true">IF(J81 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H81" s="18"/>
       <c r="I81" s="18" t="str">
         <f aca="true">IF(J81 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K81" s="20" t="n">
-        <f aca="true">IF(J81 = "-", -INDIRECT("C" &amp; ROW() - 1),F81)</f>
-        <v>0</v>
+      <c r="K81" s="20" t="str">
+        <f aca="true">IF(J81 = "-", -INDIRECT("C" &amp; ROW() - 1),E81)</f>
+        <v/>
       </c>
       <c r="L81" s="17" t="n">
         <f aca="true">IF(J81="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K81))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K81)))),0)</f>
@@ -4869,7 +4633,7 @@
         <v/>
       </c>
       <c r="E82" s="19" t="str">
-        <f aca="false">IF(D82="-", "-", IF(D82="", "", F82*VLOOKUP(D82, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D82="-", "-", IF(D82="", "", INT(F82*VLOOKUP(D82, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F82" s="20"/>
@@ -4877,17 +4641,14 @@
         <f aca="true">IF(J82="","",(INDIRECT("N" &amp; ROW() - 1) - N82))</f>
         <v/>
       </c>
-      <c r="H82" s="18" t="str">
-        <f aca="true">IF(J82 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H82" s="18"/>
       <c r="I82" s="18" t="str">
         <f aca="true">IF(J82 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K82" s="20" t="n">
-        <f aca="true">IF(J82 = "-", -INDIRECT("C" &amp; ROW() - 1),F82)</f>
-        <v>0</v>
+      <c r="K82" s="20" t="str">
+        <f aca="true">IF(J82 = "-", -INDIRECT("C" &amp; ROW() - 1),E82)</f>
+        <v/>
       </c>
       <c r="L82" s="17" t="n">
         <f aca="true">IF(J82="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K82))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K82)))),0)</f>
@@ -4921,7 +4682,7 @@
         <v/>
       </c>
       <c r="E83" s="19" t="str">
-        <f aca="false">IF(D83="-", "-", IF(D83="", "", F83*VLOOKUP(D83, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D83="-", "-", IF(D83="", "", INT(F83*VLOOKUP(D83, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F83" s="20"/>
@@ -4929,17 +4690,14 @@
         <f aca="true">IF(J83="","",(INDIRECT("N" &amp; ROW() - 1) - N83))</f>
         <v/>
       </c>
-      <c r="H83" s="18" t="str">
-        <f aca="true">IF(J83 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H83" s="18"/>
       <c r="I83" s="18" t="str">
         <f aca="true">IF(J83 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K83" s="20" t="n">
-        <f aca="true">IF(J83 = "-", -INDIRECT("C" &amp; ROW() - 1),F83)</f>
-        <v>0</v>
+      <c r="K83" s="20" t="str">
+        <f aca="true">IF(J83 = "-", -INDIRECT("C" &amp; ROW() - 1),E83)</f>
+        <v/>
       </c>
       <c r="L83" s="17" t="n">
         <f aca="true">IF(J83="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K83))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K83)))),0)</f>
@@ -4973,7 +4731,7 @@
         <v/>
       </c>
       <c r="E84" s="19" t="str">
-        <f aca="false">IF(D84="-", "-", IF(D84="", "", F84*VLOOKUP(D84, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D84="-", "-", IF(D84="", "", INT(F84*VLOOKUP(D84, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F84" s="20"/>
@@ -4981,17 +4739,14 @@
         <f aca="true">IF(J84="","",(INDIRECT("N" &amp; ROW() - 1) - N84))</f>
         <v/>
       </c>
-      <c r="H84" s="18" t="str">
-        <f aca="true">IF(J84 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H84" s="18"/>
       <c r="I84" s="18" t="str">
         <f aca="true">IF(J84 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K84" s="20" t="n">
-        <f aca="true">IF(J84 = "-", -INDIRECT("C" &amp; ROW() - 1),F84)</f>
-        <v>0</v>
+      <c r="K84" s="20" t="str">
+        <f aca="true">IF(J84 = "-", -INDIRECT("C" &amp; ROW() - 1),E84)</f>
+        <v/>
       </c>
       <c r="L84" s="17" t="n">
         <f aca="true">IF(J84="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K84))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K84)))),0)</f>
@@ -5025,7 +4780,7 @@
         <v/>
       </c>
       <c r="E85" s="19" t="str">
-        <f aca="false">IF(D85="-", "-", IF(D85="", "", F85*VLOOKUP(D85, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D85="-", "-", IF(D85="", "", INT(F85*VLOOKUP(D85, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F85" s="20"/>
@@ -5033,17 +4788,14 @@
         <f aca="true">IF(J85="","",(INDIRECT("N" &amp; ROW() - 1) - N85))</f>
         <v/>
       </c>
-      <c r="H85" s="18" t="str">
-        <f aca="true">IF(J85 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H85" s="18"/>
       <c r="I85" s="18" t="str">
         <f aca="true">IF(J85 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K85" s="20" t="n">
-        <f aca="true">IF(J85 = "-", -INDIRECT("C" &amp; ROW() - 1),F85)</f>
-        <v>0</v>
+      <c r="K85" s="20" t="str">
+        <f aca="true">IF(J85 = "-", -INDIRECT("C" &amp; ROW() - 1),E85)</f>
+        <v/>
       </c>
       <c r="L85" s="17" t="n">
         <f aca="true">IF(J85="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K85))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K85)))),0)</f>
@@ -5077,7 +4829,7 @@
         <v/>
       </c>
       <c r="E86" s="19" t="str">
-        <f aca="false">IF(D86="-", "-", IF(D86="", "", F86*VLOOKUP(D86, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D86="-", "-", IF(D86="", "", INT(F86*VLOOKUP(D86, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F86" s="20"/>
@@ -5085,17 +4837,14 @@
         <f aca="true">IF(J86="","",(INDIRECT("N" &amp; ROW() - 1) - N86))</f>
         <v/>
       </c>
-      <c r="H86" s="18" t="str">
-        <f aca="true">IF(J86 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H86" s="18"/>
       <c r="I86" s="18" t="str">
         <f aca="true">IF(J86 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K86" s="20" t="n">
-        <f aca="true">IF(J86 = "-", -INDIRECT("C" &amp; ROW() - 1),F86)</f>
-        <v>0</v>
+      <c r="K86" s="20" t="str">
+        <f aca="true">IF(J86 = "-", -INDIRECT("C" &amp; ROW() - 1),E86)</f>
+        <v/>
       </c>
       <c r="L86" s="17" t="n">
         <f aca="true">IF(J86="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K86))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K86)))),0)</f>
@@ -5129,7 +4878,7 @@
         <v/>
       </c>
       <c r="E87" s="19" t="str">
-        <f aca="false">IF(D87="-", "-", IF(D87="", "", F87*VLOOKUP(D87, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D87="-", "-", IF(D87="", "", INT(F87*VLOOKUP(D87, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F87" s="20"/>
@@ -5137,17 +4886,14 @@
         <f aca="true">IF(J87="","",(INDIRECT("N" &amp; ROW() - 1) - N87))</f>
         <v/>
       </c>
-      <c r="H87" s="18" t="str">
-        <f aca="true">IF(J87 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H87" s="18"/>
       <c r="I87" s="18" t="str">
         <f aca="true">IF(J87 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K87" s="20" t="n">
-        <f aca="true">IF(J87 = "-", -INDIRECT("C" &amp; ROW() - 1),F87)</f>
-        <v>0</v>
+      <c r="K87" s="20" t="str">
+        <f aca="true">IF(J87 = "-", -INDIRECT("C" &amp; ROW() - 1),E87)</f>
+        <v/>
       </c>
       <c r="L87" s="17" t="n">
         <f aca="true">IF(J87="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K87))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K87)))),0)</f>
@@ -5181,7 +4927,7 @@
         <v/>
       </c>
       <c r="E88" s="19" t="str">
-        <f aca="false">IF(D88="-", "-", IF(D88="", "", F88*VLOOKUP(D88, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D88="-", "-", IF(D88="", "", INT(F88*VLOOKUP(D88, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F88" s="20"/>
@@ -5189,17 +4935,14 @@
         <f aca="true">IF(J88="","",(INDIRECT("N" &amp; ROW() - 1) - N88))</f>
         <v/>
       </c>
-      <c r="H88" s="18" t="str">
-        <f aca="true">IF(J88 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H88" s="18"/>
       <c r="I88" s="18" t="str">
         <f aca="true">IF(J88 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K88" s="20" t="n">
-        <f aca="true">IF(J88 = "-", -INDIRECT("C" &amp; ROW() - 1),F88)</f>
-        <v>0</v>
+      <c r="K88" s="20" t="str">
+        <f aca="true">IF(J88 = "-", -INDIRECT("C" &amp; ROW() - 1),E88)</f>
+        <v/>
       </c>
       <c r="L88" s="17" t="n">
         <f aca="true">IF(J88="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K88))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K88)))),0)</f>
@@ -5233,7 +4976,7 @@
         <v/>
       </c>
       <c r="E89" s="19" t="str">
-        <f aca="false">IF(D89="-", "-", IF(D89="", "", F89*VLOOKUP(D89, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D89="-", "-", IF(D89="", "", INT(F89*VLOOKUP(D89, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F89" s="20"/>
@@ -5241,17 +4984,14 @@
         <f aca="true">IF(J89="","",(INDIRECT("N" &amp; ROW() - 1) - N89))</f>
         <v/>
       </c>
-      <c r="H89" s="18" t="str">
-        <f aca="true">IF(J89 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H89" s="18"/>
       <c r="I89" s="18" t="str">
         <f aca="true">IF(J89 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K89" s="20" t="n">
-        <f aca="true">IF(J89 = "-", -INDIRECT("C" &amp; ROW() - 1),F89)</f>
-        <v>0</v>
+      <c r="K89" s="20" t="str">
+        <f aca="true">IF(J89 = "-", -INDIRECT("C" &amp; ROW() - 1),E89)</f>
+        <v/>
       </c>
       <c r="L89" s="17" t="n">
         <f aca="true">IF(J89="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K89))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K89)))),0)</f>
@@ -5285,7 +5025,7 @@
         <v/>
       </c>
       <c r="E90" s="19" t="str">
-        <f aca="false">IF(D90="-", "-", IF(D90="", "", F90*VLOOKUP(D90, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D90="-", "-", IF(D90="", "", INT(F90*VLOOKUP(D90, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F90" s="20"/>
@@ -5293,17 +5033,14 @@
         <f aca="true">IF(J90="","",(INDIRECT("N" &amp; ROW() - 1) - N90))</f>
         <v/>
       </c>
-      <c r="H90" s="18" t="str">
-        <f aca="true">IF(J90 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H90" s="18"/>
       <c r="I90" s="18" t="str">
         <f aca="true">IF(J90 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K90" s="20" t="n">
-        <f aca="true">IF(J90 = "-", -INDIRECT("C" &amp; ROW() - 1),F90)</f>
-        <v>0</v>
+      <c r="K90" s="20" t="str">
+        <f aca="true">IF(J90 = "-", -INDIRECT("C" &amp; ROW() - 1),E90)</f>
+        <v/>
       </c>
       <c r="L90" s="17" t="n">
         <f aca="true">IF(J90="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K90))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K90)))),0)</f>
@@ -5337,7 +5074,7 @@
         <v/>
       </c>
       <c r="E91" s="19" t="str">
-        <f aca="false">IF(D91="-", "-", IF(D91="", "", F91*VLOOKUP(D91, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D91="-", "-", IF(D91="", "", INT(F91*VLOOKUP(D91, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F91" s="20"/>
@@ -5345,17 +5082,14 @@
         <f aca="true">IF(J91="","",(INDIRECT("N" &amp; ROW() - 1) - N91))</f>
         <v/>
       </c>
-      <c r="H91" s="18" t="str">
-        <f aca="true">IF(J91 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H91" s="18"/>
       <c r="I91" s="18" t="str">
         <f aca="true">IF(J91 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K91" s="20" t="n">
-        <f aca="true">IF(J91 = "-", -INDIRECT("C" &amp; ROW() - 1),F91)</f>
-        <v>0</v>
+      <c r="K91" s="20" t="str">
+        <f aca="true">IF(J91 = "-", -INDIRECT("C" &amp; ROW() - 1),E91)</f>
+        <v/>
       </c>
       <c r="L91" s="17" t="n">
         <f aca="true">IF(J91="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K91))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K91)))),0)</f>
@@ -5389,7 +5123,7 @@
         <v/>
       </c>
       <c r="E92" s="19" t="str">
-        <f aca="false">IF(D92="-", "-", IF(D92="", "", F92*VLOOKUP(D92, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D92="-", "-", IF(D92="", "", INT(F92*VLOOKUP(D92, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F92" s="20"/>
@@ -5397,17 +5131,14 @@
         <f aca="true">IF(J92="","",(INDIRECT("N" &amp; ROW() - 1) - N92))</f>
         <v/>
       </c>
-      <c r="H92" s="18" t="str">
-        <f aca="true">IF(J92 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H92" s="18"/>
       <c r="I92" s="18" t="str">
         <f aca="true">IF(J92 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K92" s="20" t="n">
-        <f aca="true">IF(J92 = "-", -INDIRECT("C" &amp; ROW() - 1),F92)</f>
-        <v>0</v>
+      <c r="K92" s="20" t="str">
+        <f aca="true">IF(J92 = "-", -INDIRECT("C" &amp; ROW() - 1),E92)</f>
+        <v/>
       </c>
       <c r="L92" s="17" t="n">
         <f aca="true">IF(J92="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K92))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K92)))),0)</f>
@@ -5441,7 +5172,7 @@
         <v/>
       </c>
       <c r="E93" s="19" t="str">
-        <f aca="false">IF(D93="-", "-", IF(D93="", "", F93*VLOOKUP(D93, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D93="-", "-", IF(D93="", "", INT(F93*VLOOKUP(D93, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F93" s="20"/>
@@ -5449,17 +5180,14 @@
         <f aca="true">IF(J93="","",(INDIRECT("N" &amp; ROW() - 1) - N93))</f>
         <v/>
       </c>
-      <c r="H93" s="18" t="str">
-        <f aca="true">IF(J93 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H93" s="18"/>
       <c r="I93" s="18" t="str">
         <f aca="true">IF(J93 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K93" s="20" t="n">
-        <f aca="true">IF(J93 = "-", -INDIRECT("C" &amp; ROW() - 1),F93)</f>
-        <v>0</v>
+      <c r="K93" s="20" t="str">
+        <f aca="true">IF(J93 = "-", -INDIRECT("C" &amp; ROW() - 1),E93)</f>
+        <v/>
       </c>
       <c r="L93" s="17" t="n">
         <f aca="true">IF(J93="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K93))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K93)))),0)</f>
@@ -5493,7 +5221,7 @@
         <v/>
       </c>
       <c r="E94" s="19" t="str">
-        <f aca="false">IF(D94="-", "-", IF(D94="", "", F94*VLOOKUP(D94, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D94="-", "-", IF(D94="", "", INT(F94*VLOOKUP(D94, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F94" s="20"/>
@@ -5501,17 +5229,14 @@
         <f aca="true">IF(J94="","",(INDIRECT("N" &amp; ROW() - 1) - N94))</f>
         <v/>
       </c>
-      <c r="H94" s="18" t="str">
-        <f aca="true">IF(J94 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H94" s="18"/>
       <c r="I94" s="18" t="str">
         <f aca="true">IF(J94 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K94" s="20" t="n">
-        <f aca="true">IF(J94 = "-", -INDIRECT("C" &amp; ROW() - 1),F94)</f>
-        <v>0</v>
+      <c r="K94" s="20" t="str">
+        <f aca="true">IF(J94 = "-", -INDIRECT("C" &amp; ROW() - 1),E94)</f>
+        <v/>
       </c>
       <c r="L94" s="17" t="n">
         <f aca="true">IF(J94="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K94))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K94)))),0)</f>
@@ -5545,7 +5270,7 @@
         <v/>
       </c>
       <c r="E95" s="19" t="str">
-        <f aca="false">IF(D95="-", "-", IF(D95="", "", F95*VLOOKUP(D95, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D95="-", "-", IF(D95="", "", INT(F95*VLOOKUP(D95, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F95" s="20"/>
@@ -5553,17 +5278,14 @@
         <f aca="true">IF(J95="","",(INDIRECT("N" &amp; ROW() - 1) - N95))</f>
         <v/>
       </c>
-      <c r="H95" s="18" t="str">
-        <f aca="true">IF(J95 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H95" s="18"/>
       <c r="I95" s="18" t="str">
         <f aca="true">IF(J95 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K95" s="20" t="n">
-        <f aca="true">IF(J95 = "-", -INDIRECT("C" &amp; ROW() - 1),F95)</f>
-        <v>0</v>
+      <c r="K95" s="20" t="str">
+        <f aca="true">IF(J95 = "-", -INDIRECT("C" &amp; ROW() - 1),E95)</f>
+        <v/>
       </c>
       <c r="L95" s="17" t="n">
         <f aca="true">IF(J95="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K95))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K95)))),0)</f>
@@ -5597,7 +5319,7 @@
         <v/>
       </c>
       <c r="E96" s="19" t="str">
-        <f aca="false">IF(D96="-", "-", IF(D96="", "", F96*VLOOKUP(D96, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D96="-", "-", IF(D96="", "", INT(F96*VLOOKUP(D96, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F96" s="20"/>
@@ -5605,17 +5327,14 @@
         <f aca="true">IF(J96="","",(INDIRECT("N" &amp; ROW() - 1) - N96))</f>
         <v/>
       </c>
-      <c r="H96" s="18" t="str">
-        <f aca="true">IF(J96 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H96" s="18"/>
       <c r="I96" s="18" t="str">
         <f aca="true">IF(J96 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K96" s="20" t="n">
-        <f aca="true">IF(J96 = "-", -INDIRECT("C" &amp; ROW() - 1),F96)</f>
-        <v>0</v>
+      <c r="K96" s="20" t="str">
+        <f aca="true">IF(J96 = "-", -INDIRECT("C" &amp; ROW() - 1),E96)</f>
+        <v/>
       </c>
       <c r="L96" s="17" t="n">
         <f aca="true">IF(J96="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K96))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K96)))),0)</f>
@@ -5649,7 +5368,7 @@
         <v/>
       </c>
       <c r="E97" s="19" t="str">
-        <f aca="false">IF(D97="-", "-", IF(D97="", "", F97*VLOOKUP(D97, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D97="-", "-", IF(D97="", "", INT(F97*VLOOKUP(D97, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F97" s="20"/>
@@ -5657,17 +5376,14 @@
         <f aca="true">IF(J97="","",(INDIRECT("N" &amp; ROW() - 1) - N97))</f>
         <v/>
       </c>
-      <c r="H97" s="18" t="str">
-        <f aca="true">IF(J97 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H97" s="18"/>
       <c r="I97" s="18" t="str">
         <f aca="true">IF(J97 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K97" s="20" t="n">
-        <f aca="true">IF(J97 = "-", -INDIRECT("C" &amp; ROW() - 1),F97)</f>
-        <v>0</v>
+      <c r="K97" s="20" t="str">
+        <f aca="true">IF(J97 = "-", -INDIRECT("C" &amp; ROW() - 1),E97)</f>
+        <v/>
       </c>
       <c r="L97" s="17" t="n">
         <f aca="true">IF(J97="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K97))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K97)))),0)</f>
@@ -5701,7 +5417,7 @@
         <v/>
       </c>
       <c r="E98" s="19" t="str">
-        <f aca="false">IF(D98="-", "-", IF(D98="", "", F98*VLOOKUP(D98, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D98="-", "-", IF(D98="", "", INT(F98*VLOOKUP(D98, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F98" s="20"/>
@@ -5709,17 +5425,14 @@
         <f aca="true">IF(J98="","",(INDIRECT("N" &amp; ROW() - 1) - N98))</f>
         <v/>
       </c>
-      <c r="H98" s="18" t="str">
-        <f aca="true">IF(J98 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H98" s="18"/>
       <c r="I98" s="18" t="str">
         <f aca="true">IF(J98 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K98" s="20" t="n">
-        <f aca="true">IF(J98 = "-", -INDIRECT("C" &amp; ROW() - 1),F98)</f>
-        <v>0</v>
+      <c r="K98" s="20" t="str">
+        <f aca="true">IF(J98 = "-", -INDIRECT("C" &amp; ROW() - 1),E98)</f>
+        <v/>
       </c>
       <c r="L98" s="17" t="n">
         <f aca="true">IF(J98="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K98))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K98)))),0)</f>
@@ -5753,7 +5466,7 @@
         <v/>
       </c>
       <c r="E99" s="19" t="str">
-        <f aca="false">IF(D99="-", "-", IF(D99="", "", F99*VLOOKUP(D99, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D99="-", "-", IF(D99="", "", INT(F99*VLOOKUP(D99, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F99" s="20"/>
@@ -5761,17 +5474,14 @@
         <f aca="true">IF(J99="","",(INDIRECT("N" &amp; ROW() - 1) - N99))</f>
         <v/>
       </c>
-      <c r="H99" s="18" t="str">
-        <f aca="true">IF(J99 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H99" s="18"/>
       <c r="I99" s="18" t="str">
         <f aca="true">IF(J99 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K99" s="20" t="n">
-        <f aca="true">IF(J99 = "-", -INDIRECT("C" &amp; ROW() - 1),F99)</f>
-        <v>0</v>
+      <c r="K99" s="20" t="str">
+        <f aca="true">IF(J99 = "-", -INDIRECT("C" &amp; ROW() - 1),E99)</f>
+        <v/>
       </c>
       <c r="L99" s="17" t="n">
         <f aca="true">IF(J99="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K99))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K99)))),0)</f>
@@ -5805,7 +5515,7 @@
         <v/>
       </c>
       <c r="E100" s="19" t="str">
-        <f aca="false">IF(D100="-", "-", IF(D100="", "", F100*VLOOKUP(D100, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D100="-", "-", IF(D100="", "", INT(F100*VLOOKUP(D100, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F100" s="20"/>
@@ -5813,17 +5523,14 @@
         <f aca="true">IF(J100="","",(INDIRECT("N" &amp; ROW() - 1) - N100))</f>
         <v/>
       </c>
-      <c r="H100" s="18" t="str">
-        <f aca="true">IF(J100 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H100" s="18"/>
       <c r="I100" s="18" t="str">
         <f aca="true">IF(J100 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K100" s="20" t="n">
-        <f aca="true">IF(J100 = "-", -INDIRECT("C" &amp; ROW() - 1),F100)</f>
-        <v>0</v>
+      <c r="K100" s="20" t="str">
+        <f aca="true">IF(J100 = "-", -INDIRECT("C" &amp; ROW() - 1),E100)</f>
+        <v/>
       </c>
       <c r="L100" s="17" t="n">
         <f aca="true">IF(J100="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K100))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K100)))),0)</f>
@@ -5857,7 +5564,7 @@
         <v/>
       </c>
       <c r="E101" s="19" t="str">
-        <f aca="false">IF(D101="-", "-", IF(D101="", "", F101*VLOOKUP(D101, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D101="-", "-", IF(D101="", "", INT(F101*VLOOKUP(D101, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F101" s="20"/>
@@ -5865,17 +5572,14 @@
         <f aca="true">IF(J101="","",(INDIRECT("N" &amp; ROW() - 1) - N101))</f>
         <v/>
       </c>
-      <c r="H101" s="18" t="str">
-        <f aca="true">IF(J101 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H101" s="18"/>
       <c r="I101" s="18" t="str">
         <f aca="true">IF(J101 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K101" s="20" t="n">
-        <f aca="true">IF(J101 = "-", -INDIRECT("C" &amp; ROW() - 1),F101)</f>
-        <v>0</v>
+      <c r="K101" s="20" t="str">
+        <f aca="true">IF(J101 = "-", -INDIRECT("C" &amp; ROW() - 1),E101)</f>
+        <v/>
       </c>
       <c r="L101" s="17" t="n">
         <f aca="true">IF(J101 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K101)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K101)))), 0)</f>
@@ -5909,7 +5613,7 @@
         <v/>
       </c>
       <c r="E102" s="19" t="str">
-        <f aca="false">IF(D102="-", "-", IF(D102="", "", F102*VLOOKUP(D102, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D102="-", "-", IF(D102="", "", INT(F102*VLOOKUP(D102, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F102" s="20"/>
@@ -5917,17 +5621,14 @@
         <f aca="true">IF(J102="","",(INDIRECT("N" &amp; ROW() - 1) - N102))</f>
         <v/>
       </c>
-      <c r="H102" s="18" t="str">
-        <f aca="true">IF(J102 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H102" s="18"/>
       <c r="I102" s="18" t="str">
         <f aca="true">IF(J102 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K102" s="20" t="n">
-        <f aca="true">IF(J102 = "-", -INDIRECT("C" &amp; ROW() - 1),F102)</f>
-        <v>0</v>
+      <c r="K102" s="20" t="str">
+        <f aca="true">IF(J102 = "-", -INDIRECT("C" &amp; ROW() - 1),E102)</f>
+        <v/>
       </c>
       <c r="L102" s="17" t="n">
         <f aca="true">IF(J102 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K102)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K102)))), 0)</f>
@@ -5961,7 +5662,7 @@
         <v/>
       </c>
       <c r="E103" s="19" t="str">
-        <f aca="false">IF(D103="-", "-", IF(D103="", "", F103*VLOOKUP(D103, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D103="-", "-", IF(D103="", "", INT(F103*VLOOKUP(D103, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F103" s="20"/>
@@ -5969,17 +5670,14 @@
         <f aca="true">IF(J103="","",(INDIRECT("N" &amp; ROW() - 1) - N103))</f>
         <v/>
       </c>
-      <c r="H103" s="18" t="str">
-        <f aca="true">IF(J103 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H103" s="18"/>
       <c r="I103" s="18" t="str">
         <f aca="true">IF(J103 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K103" s="20" t="n">
-        <f aca="true">IF(J103 = "-", -INDIRECT("C" &amp; ROW() - 1),F103)</f>
-        <v>0</v>
+      <c r="K103" s="20" t="str">
+        <f aca="true">IF(J103 = "-", -INDIRECT("C" &amp; ROW() - 1),E103)</f>
+        <v/>
       </c>
       <c r="L103" s="17" t="n">
         <f aca="true">IF(J103 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K103)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K103)))), 0)</f>
@@ -6013,7 +5711,7 @@
         <v/>
       </c>
       <c r="E104" s="19" t="str">
-        <f aca="false">IF(D104="-", "-", IF(D104="", "", F104*VLOOKUP(D104, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D104="-", "-", IF(D104="", "", INT(F104*VLOOKUP(D104, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F104" s="20"/>
@@ -6021,17 +5719,14 @@
         <f aca="true">IF(J104="","",(INDIRECT("N" &amp; ROW() - 1) - N104))</f>
         <v/>
       </c>
-      <c r="H104" s="18" t="str">
-        <f aca="true">IF(J104 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H104" s="18"/>
       <c r="I104" s="18" t="str">
         <f aca="true">IF(J104 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K104" s="20" t="n">
-        <f aca="true">IF(J104 = "-", -INDIRECT("C" &amp; ROW() - 1),F104)</f>
-        <v>0</v>
+      <c r="K104" s="20" t="str">
+        <f aca="true">IF(J104 = "-", -INDIRECT("C" &amp; ROW() - 1),E104)</f>
+        <v/>
       </c>
       <c r="L104" s="17" t="n">
         <f aca="true">IF(J104 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K104)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K104)))), 0)</f>
@@ -6065,7 +5760,7 @@
         <v/>
       </c>
       <c r="E105" s="19" t="str">
-        <f aca="false">IF(D105="-", "-", IF(D105="", "", F105*VLOOKUP(D105, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D105="-", "-", IF(D105="", "", INT(F105*VLOOKUP(D105, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F105" s="20"/>
@@ -6073,17 +5768,14 @@
         <f aca="true">IF(J105="","",(INDIRECT("N" &amp; ROW() - 1) - N105))</f>
         <v/>
       </c>
-      <c r="H105" s="18" t="str">
-        <f aca="true">IF(J105 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H105" s="18"/>
       <c r="I105" s="18" t="str">
         <f aca="true">IF(J105 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K105" s="20" t="n">
-        <f aca="true">IF(J105 = "-", -INDIRECT("C" &amp; ROW() - 1),F105)</f>
-        <v>0</v>
+      <c r="K105" s="20" t="str">
+        <f aca="true">IF(J105 = "-", -INDIRECT("C" &amp; ROW() - 1),E105)</f>
+        <v/>
       </c>
       <c r="L105" s="17" t="n">
         <f aca="true">IF(J105 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K105)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K105)))), 0)</f>
@@ -6117,7 +5809,7 @@
         <v/>
       </c>
       <c r="E106" s="19" t="str">
-        <f aca="false">IF(D106="-", "-", IF(D106="", "", F106*VLOOKUP(D106, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D106="-", "-", IF(D106="", "", INT(F106*VLOOKUP(D106, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F106" s="20"/>
@@ -6125,17 +5817,14 @@
         <f aca="true">IF(J106="","",(INDIRECT("N" &amp; ROW() - 1) - N106))</f>
         <v/>
       </c>
-      <c r="H106" s="18" t="str">
-        <f aca="true">IF(J106 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H106" s="18"/>
       <c r="I106" s="18" t="str">
         <f aca="true">IF(J106 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K106" s="20" t="n">
-        <f aca="true">IF(J106 = "-", -INDIRECT("C" &amp; ROW() - 1),F106)</f>
-        <v>0</v>
+      <c r="K106" s="20" t="str">
+        <f aca="true">IF(J106 = "-", -INDIRECT("C" &amp; ROW() - 1),E106)</f>
+        <v/>
       </c>
       <c r="L106" s="17" t="n">
         <f aca="true">IF(J106 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K106)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K106)))), 0)</f>
@@ -6169,7 +5858,7 @@
         <v/>
       </c>
       <c r="E107" s="19" t="str">
-        <f aca="false">IF(D107="-", "-", IF(D107="", "", F107*VLOOKUP(D107, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D107="-", "-", IF(D107="", "", INT(F107*VLOOKUP(D107, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F107" s="20"/>
@@ -6177,17 +5866,14 @@
         <f aca="true">IF(J107="","",(INDIRECT("N" &amp; ROW() - 1) - N107))</f>
         <v/>
       </c>
-      <c r="H107" s="18" t="str">
-        <f aca="true">IF(J107 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H107" s="18"/>
       <c r="I107" s="18" t="str">
         <f aca="true">IF(J107 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K107" s="20" t="n">
-        <f aca="true">IF(J107 = "-", -INDIRECT("C" &amp; ROW() - 1),F107)</f>
-        <v>0</v>
+      <c r="K107" s="20" t="str">
+        <f aca="true">IF(J107 = "-", -INDIRECT("C" &amp; ROW() - 1),E107)</f>
+        <v/>
       </c>
       <c r="L107" s="17" t="n">
         <f aca="true">IF(J107 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K107)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K107)))), 0)</f>
@@ -6221,7 +5907,7 @@
         <v/>
       </c>
       <c r="E108" s="19" t="str">
-        <f aca="false">IF(D108="-", "-", IF(D108="", "", F108*VLOOKUP(D108, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D108="-", "-", IF(D108="", "", INT(F108*VLOOKUP(D108, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F108" s="20"/>
@@ -6229,17 +5915,14 @@
         <f aca="true">IF(J108="","",(INDIRECT("N" &amp; ROW() - 1) - N108))</f>
         <v/>
       </c>
-      <c r="H108" s="18" t="str">
-        <f aca="true">IF(J108 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H108" s="18"/>
       <c r="I108" s="18" t="str">
         <f aca="true">IF(J108 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K108" s="20" t="n">
-        <f aca="true">IF(J108 = "-", -INDIRECT("C" &amp; ROW() - 1),F108)</f>
-        <v>0</v>
+      <c r="K108" s="20" t="str">
+        <f aca="true">IF(J108 = "-", -INDIRECT("C" &amp; ROW() - 1),E108)</f>
+        <v/>
       </c>
       <c r="L108" s="17" t="n">
         <f aca="true">IF(J108 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K108)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K108)))), 0)</f>
@@ -6273,7 +5956,7 @@
         <v/>
       </c>
       <c r="E109" s="19" t="str">
-        <f aca="false">IF(D109="-", "-", IF(D109="", "", F109*VLOOKUP(D109, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D109="-", "-", IF(D109="", "", INT(F109*VLOOKUP(D109, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F109" s="20"/>
@@ -6281,17 +5964,14 @@
         <f aca="true">IF(J109="","",(INDIRECT("N" &amp; ROW() - 1) - N109))</f>
         <v/>
       </c>
-      <c r="H109" s="18" t="str">
-        <f aca="true">IF(J109 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H109" s="18"/>
       <c r="I109" s="18" t="str">
         <f aca="true">IF(J109 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K109" s="20" t="n">
-        <f aca="true">IF(J109 = "-", -INDIRECT("C" &amp; ROW() - 1),F109)</f>
-        <v>0</v>
+      <c r="K109" s="20" t="str">
+        <f aca="true">IF(J109 = "-", -INDIRECT("C" &amp; ROW() - 1),E109)</f>
+        <v/>
       </c>
       <c r="L109" s="17" t="n">
         <f aca="true">IF(J109 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K109)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K109)))), 0)</f>
@@ -6325,7 +6005,7 @@
         <v/>
       </c>
       <c r="E110" s="19" t="str">
-        <f aca="false">IF(D110="-", "-", IF(D110="", "", F110*VLOOKUP(D110, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D110="-", "-", IF(D110="", "", INT(F110*VLOOKUP(D110, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F110" s="20"/>
@@ -6333,17 +6013,14 @@
         <f aca="true">IF(J110="","",(INDIRECT("N" &amp; ROW() - 1) - N110))</f>
         <v/>
       </c>
-      <c r="H110" s="18" t="str">
-        <f aca="true">IF(J110 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H110" s="18"/>
       <c r="I110" s="18" t="str">
         <f aca="true">IF(J110 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K110" s="20" t="n">
-        <f aca="true">IF(J110 = "-", -INDIRECT("C" &amp; ROW() - 1),F110)</f>
-        <v>0</v>
+      <c r="K110" s="20" t="str">
+        <f aca="true">IF(J110 = "-", -INDIRECT("C" &amp; ROW() - 1),E110)</f>
+        <v/>
       </c>
       <c r="L110" s="17" t="n">
         <f aca="true">IF(J110 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K110)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K110)))), 0)</f>
@@ -6377,7 +6054,7 @@
         <v/>
       </c>
       <c r="E111" s="19" t="str">
-        <f aca="false">IF(D111="-", "-", IF(D111="", "", F111*VLOOKUP(D111, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D111="-", "-", IF(D111="", "", INT(F111*VLOOKUP(D111, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F111" s="20"/>
@@ -6385,17 +6062,14 @@
         <f aca="true">IF(J111="","",(INDIRECT("N" &amp; ROW() - 1) - N111))</f>
         <v/>
       </c>
-      <c r="H111" s="18" t="str">
-        <f aca="true">IF(J111 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H111" s="18"/>
       <c r="I111" s="18" t="str">
         <f aca="true">IF(J111 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K111" s="20" t="n">
-        <f aca="true">IF(J111 = "-", -INDIRECT("C" &amp; ROW() - 1),F111)</f>
-        <v>0</v>
+      <c r="K111" s="20" t="str">
+        <f aca="true">IF(J111 = "-", -INDIRECT("C" &amp; ROW() - 1),E111)</f>
+        <v/>
       </c>
       <c r="L111" s="17" t="n">
         <f aca="true">IF(J111 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K111)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K111)))), 0)</f>
@@ -6429,7 +6103,7 @@
         <v/>
       </c>
       <c r="E112" s="19" t="str">
-        <f aca="false">IF(D112="-", "-", IF(D112="", "", F112*VLOOKUP(D112, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D112="-", "-", IF(D112="", "", INT(F112*VLOOKUP(D112, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F112" s="20"/>
@@ -6437,17 +6111,14 @@
         <f aca="true">IF(J112="","",(INDIRECT("N" &amp; ROW() - 1) - N112))</f>
         <v/>
       </c>
-      <c r="H112" s="18" t="str">
-        <f aca="true">IF(J112 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H112" s="18"/>
       <c r="I112" s="18" t="str">
         <f aca="true">IF(J112 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K112" s="20" t="n">
-        <f aca="true">IF(J112 = "-", -INDIRECT("C" &amp; ROW() - 1),F112)</f>
-        <v>0</v>
+      <c r="K112" s="20" t="str">
+        <f aca="true">IF(J112 = "-", -INDIRECT("C" &amp; ROW() - 1),E112)</f>
+        <v/>
       </c>
       <c r="L112" s="17" t="n">
         <f aca="true">IF(J112 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K112)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K112)))), 0)</f>
@@ -6481,7 +6152,7 @@
         <v/>
       </c>
       <c r="E113" s="19" t="str">
-        <f aca="false">IF(D113="-", "-", IF(D113="", "", F113*VLOOKUP(D113, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D113="-", "-", IF(D113="", "", INT(F113*VLOOKUP(D113, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F113" s="20"/>
@@ -6489,17 +6160,14 @@
         <f aca="true">IF(J113="","",(INDIRECT("N" &amp; ROW() - 1) - N113))</f>
         <v/>
       </c>
-      <c r="H113" s="18" t="str">
-        <f aca="true">IF(J113 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H113" s="18"/>
       <c r="I113" s="18" t="str">
         <f aca="true">IF(J113 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K113" s="20" t="n">
-        <f aca="true">IF(J113 = "-", -INDIRECT("C" &amp; ROW() - 1),F113)</f>
-        <v>0</v>
+      <c r="K113" s="20" t="str">
+        <f aca="true">IF(J113 = "-", -INDIRECT("C" &amp; ROW() - 1),E113)</f>
+        <v/>
       </c>
       <c r="L113" s="17" t="n">
         <f aca="true">IF(J113 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K113)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K113)))), 0)</f>
@@ -6533,7 +6201,7 @@
         <v/>
       </c>
       <c r="E114" s="19" t="str">
-        <f aca="false">IF(D114="-", "-", IF(D114="", "", F114*VLOOKUP(D114, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D114="-", "-", IF(D114="", "", INT(F114*VLOOKUP(D114, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F114" s="20"/>
@@ -6541,17 +6209,14 @@
         <f aca="true">IF(J114="","",(INDIRECT("N" &amp; ROW() - 1) - N114))</f>
         <v/>
       </c>
-      <c r="H114" s="18" t="str">
-        <f aca="true">IF(J114 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H114" s="18"/>
       <c r="I114" s="18" t="str">
         <f aca="true">IF(J114 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K114" s="20" t="n">
-        <f aca="true">IF(J114 = "-", -INDIRECT("C" &amp; ROW() - 1),F114)</f>
-        <v>0</v>
+      <c r="K114" s="20" t="str">
+        <f aca="true">IF(J114 = "-", -INDIRECT("C" &amp; ROW() - 1),E114)</f>
+        <v/>
       </c>
       <c r="L114" s="17" t="n">
         <f aca="true">IF(J114 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K114)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K114)))), 0)</f>
@@ -6585,7 +6250,7 @@
         <v/>
       </c>
       <c r="E115" s="19" t="str">
-        <f aca="false">IF(D115="-", "-", IF(D115="", "", F115*VLOOKUP(D115, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D115="-", "-", IF(D115="", "", INT(F115*VLOOKUP(D115, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F115" s="20"/>
@@ -6593,17 +6258,14 @@
         <f aca="true">IF(J115="","",(INDIRECT("N" &amp; ROW() - 1) - N115))</f>
         <v/>
       </c>
-      <c r="H115" s="18" t="str">
-        <f aca="true">IF(J115 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H115" s="18"/>
       <c r="I115" s="18" t="str">
         <f aca="true">IF(J115 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K115" s="20" t="n">
-        <f aca="true">IF(J115 = "-", -INDIRECT("C" &amp; ROW() - 1),F115)</f>
-        <v>0</v>
+      <c r="K115" s="20" t="str">
+        <f aca="true">IF(J115 = "-", -INDIRECT("C" &amp; ROW() - 1),E115)</f>
+        <v/>
       </c>
       <c r="L115" s="17" t="n">
         <f aca="true">IF(J115 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K115)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K115)))), 0)</f>
@@ -6637,7 +6299,7 @@
         <v/>
       </c>
       <c r="E116" s="19" t="str">
-        <f aca="false">IF(D116="-", "-", IF(D116="", "", F116*VLOOKUP(D116, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D116="-", "-", IF(D116="", "", INT(F116*VLOOKUP(D116, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F116" s="20"/>
@@ -6645,17 +6307,14 @@
         <f aca="true">IF(J116="","",(INDIRECT("N" &amp; ROW() - 1) - N116))</f>
         <v/>
       </c>
-      <c r="H116" s="18" t="str">
-        <f aca="true">IF(J116 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H116" s="18"/>
       <c r="I116" s="18" t="str">
         <f aca="true">IF(J116 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K116" s="20" t="n">
-        <f aca="true">IF(J116 = "-", -INDIRECT("C" &amp; ROW() - 1),F116)</f>
-        <v>0</v>
+      <c r="K116" s="20" t="str">
+        <f aca="true">IF(J116 = "-", -INDIRECT("C" &amp; ROW() - 1),E116)</f>
+        <v/>
       </c>
       <c r="L116" s="17" t="n">
         <f aca="true">IF(J116 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K116)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K116)))), 0)</f>
@@ -6689,7 +6348,7 @@
         <v/>
       </c>
       <c r="E117" s="19" t="str">
-        <f aca="false">IF(D117="-", "-", IF(D117="", "", F117*VLOOKUP(D117, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D117="-", "-", IF(D117="", "", INT(F117*VLOOKUP(D117, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F117" s="20"/>
@@ -6697,17 +6356,14 @@
         <f aca="true">IF(J117="","",(INDIRECT("N" &amp; ROW() - 1) - N117))</f>
         <v/>
       </c>
-      <c r="H117" s="18" t="str">
-        <f aca="true">IF(J117 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H117" s="18"/>
       <c r="I117" s="18" t="str">
         <f aca="true">IF(J117 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K117" s="20" t="n">
-        <f aca="true">IF(J117 = "-", -INDIRECT("C" &amp; ROW() - 1),F117)</f>
-        <v>0</v>
+      <c r="K117" s="20" t="str">
+        <f aca="true">IF(J117 = "-", -INDIRECT("C" &amp; ROW() - 1),E117)</f>
+        <v/>
       </c>
       <c r="L117" s="17" t="n">
         <f aca="true">IF(J117 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K117)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K117)))), 0)</f>
@@ -6741,7 +6397,7 @@
         <v/>
       </c>
       <c r="E118" s="19" t="str">
-        <f aca="false">IF(D118="-", "-", IF(D118="", "", F118*VLOOKUP(D118, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D118="-", "-", IF(D118="", "", INT(F118*VLOOKUP(D118, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F118" s="20"/>
@@ -6749,17 +6405,14 @@
         <f aca="true">IF(J118="","",(INDIRECT("N" &amp; ROW() - 1) - N118))</f>
         <v/>
       </c>
-      <c r="H118" s="18" t="str">
-        <f aca="true">IF(J118 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H118" s="18"/>
       <c r="I118" s="18" t="str">
         <f aca="true">IF(J118 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K118" s="20" t="n">
-        <f aca="true">IF(J118 = "-", -INDIRECT("C" &amp; ROW() - 1),F118)</f>
-        <v>0</v>
+      <c r="K118" s="20" t="str">
+        <f aca="true">IF(J118 = "-", -INDIRECT("C" &amp; ROW() - 1),E118)</f>
+        <v/>
       </c>
       <c r="L118" s="17" t="n">
         <f aca="true">IF(J118 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K118)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K118)))), 0)</f>
@@ -6793,7 +6446,7 @@
         <v/>
       </c>
       <c r="E119" s="19" t="str">
-        <f aca="false">IF(D119="-", "-", IF(D119="", "", F119*VLOOKUP(D119, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D119="-", "-", IF(D119="", "", INT(F119*VLOOKUP(D119, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F119" s="20"/>
@@ -6801,17 +6454,14 @@
         <f aca="true">IF(J119="","",(INDIRECT("N" &amp; ROW() - 1) - N119))</f>
         <v/>
       </c>
-      <c r="H119" s="18" t="str">
-        <f aca="true">IF(J119 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H119" s="18"/>
       <c r="I119" s="18" t="str">
         <f aca="true">IF(J119 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K119" s="20" t="n">
-        <f aca="true">IF(J119 = "-", -INDIRECT("C" &amp; ROW() - 1),F119)</f>
-        <v>0</v>
+      <c r="K119" s="20" t="str">
+        <f aca="true">IF(J119 = "-", -INDIRECT("C" &amp; ROW() - 1),E119)</f>
+        <v/>
       </c>
       <c r="L119" s="17" t="n">
         <f aca="true">IF(J119 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K119)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K119)))), 0)</f>
@@ -6845,7 +6495,7 @@
         <v/>
       </c>
       <c r="E120" s="19" t="str">
-        <f aca="false">IF(D120="-", "-", IF(D120="", "", F120*VLOOKUP(D120, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D120="-", "-", IF(D120="", "", INT(F120*VLOOKUP(D120, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F120" s="20"/>
@@ -6853,17 +6503,14 @@
         <f aca="true">IF(J120="","",(INDIRECT("N" &amp; ROW() - 1) - N120))</f>
         <v/>
       </c>
-      <c r="H120" s="18" t="str">
-        <f aca="true">IF(J120 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H120" s="18"/>
       <c r="I120" s="18" t="str">
         <f aca="true">IF(J120 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K120" s="20" t="n">
-        <f aca="true">IF(J120 = "-", -INDIRECT("C" &amp; ROW() - 1),F120)</f>
-        <v>0</v>
+      <c r="K120" s="20" t="str">
+        <f aca="true">IF(J120 = "-", -INDIRECT("C" &amp; ROW() - 1),E120)</f>
+        <v/>
       </c>
       <c r="L120" s="17" t="n">
         <f aca="true">IF(J120 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K120)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K120)))), 0)</f>
@@ -6897,7 +6544,7 @@
         <v/>
       </c>
       <c r="E121" s="19" t="str">
-        <f aca="false">IF(D121="-", "-", IF(D121="", "", F121*VLOOKUP(D121, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D121="-", "-", IF(D121="", "", INT(F121*VLOOKUP(D121, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F121" s="20"/>
@@ -6905,17 +6552,14 @@
         <f aca="true">IF(J121="","",(INDIRECT("N" &amp; ROW() - 1) - N121))</f>
         <v/>
       </c>
-      <c r="H121" s="18" t="str">
-        <f aca="true">IF(J121 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H121" s="18"/>
       <c r="I121" s="18" t="str">
         <f aca="true">IF(J121 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K121" s="20" t="n">
-        <f aca="true">IF(J121 = "-", -INDIRECT("C" &amp; ROW() - 1),F121)</f>
-        <v>0</v>
+      <c r="K121" s="20" t="str">
+        <f aca="true">IF(J121 = "-", -INDIRECT("C" &amp; ROW() - 1),E121)</f>
+        <v/>
       </c>
       <c r="L121" s="17" t="n">
         <f aca="true">IF(J121 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K121)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K121)))), 0)</f>
@@ -6949,7 +6593,7 @@
         <v/>
       </c>
       <c r="E122" s="19" t="str">
-        <f aca="false">IF(D122="-", "-", IF(D122="", "", F122*VLOOKUP(D122, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D122="-", "-", IF(D122="", "", INT(F122*VLOOKUP(D122, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F122" s="20"/>
@@ -6957,17 +6601,14 @@
         <f aca="true">IF(J122="","",(INDIRECT("N" &amp; ROW() - 1) - N122))</f>
         <v/>
       </c>
-      <c r="H122" s="18" t="str">
-        <f aca="true">IF(J122 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H122" s="18"/>
       <c r="I122" s="18" t="str">
         <f aca="true">IF(J122 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K122" s="20" t="n">
-        <f aca="true">IF(J122 = "-", -INDIRECT("C" &amp; ROW() - 1),F122)</f>
-        <v>0</v>
+      <c r="K122" s="20" t="str">
+        <f aca="true">IF(J122 = "-", -INDIRECT("C" &amp; ROW() - 1),E122)</f>
+        <v/>
       </c>
       <c r="L122" s="17" t="n">
         <f aca="true">IF(J122 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K122)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K122)))), 0)</f>
@@ -7001,7 +6642,7 @@
         <v/>
       </c>
       <c r="E123" s="19" t="str">
-        <f aca="false">IF(D123="-", "-", IF(D123="", "", F123*VLOOKUP(D123, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D123="-", "-", IF(D123="", "", INT(F123*VLOOKUP(D123, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F123" s="20"/>
@@ -7009,17 +6650,14 @@
         <f aca="true">IF(J123="","",(INDIRECT("N" &amp; ROW() - 1) - N123))</f>
         <v/>
       </c>
-      <c r="H123" s="18" t="str">
-        <f aca="true">IF(J123 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
+      <c r="H123" s="18"/>
       <c r="I123" s="18" t="str">
         <f aca="true">IF(J123 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="K123" s="20" t="n">
-        <f aca="true">IF(J123 = "-", -INDIRECT("C" &amp; ROW() - 1),F123)</f>
-        <v>0</v>
+      <c r="K123" s="20" t="str">
+        <f aca="true">IF(J123 = "-", -INDIRECT("C" &amp; ROW() - 1),E123)</f>
+        <v/>
       </c>
       <c r="L123" s="17" t="n">
         <f aca="true">IF(J123 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K123)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K123)))), 0)</f>
@@ -7053,7 +6691,7 @@
         <v/>
       </c>
       <c r="E124" s="19" t="str">
-        <f aca="false">IF(D124="-", "-", IF(D124="", "", F124*VLOOKUP(D124, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D124="-", "-", IF(D124="", "", INT(F124*VLOOKUP(D124, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F124" s="20"/>
@@ -7089,7 +6727,7 @@
         <v/>
       </c>
       <c r="E125" s="19" t="str">
-        <f aca="false">IF(D125="-", "-", IF(D125="", "", F125*VLOOKUP(D125, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D125="-", "-", IF(D125="", "", INT(F125*VLOOKUP(D125, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F125" s="20"/>
@@ -7125,7 +6763,7 @@
         <v/>
       </c>
       <c r="E126" s="19" t="str">
-        <f aca="false">IF(D126="-", "-", IF(D126="", "", F126*VLOOKUP(D126, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D126="-", "-", IF(D126="", "", INT(F126*VLOOKUP(D126, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F126" s="20"/>
@@ -7161,7 +6799,7 @@
         <v/>
       </c>
       <c r="E127" s="19" t="str">
-        <f aca="false">IF(D127="-", "-", IF(D127="", "", F127*VLOOKUP(D127, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D127="-", "-", IF(D127="", "", INT(F127*VLOOKUP(D127, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F127" s="20"/>
@@ -7197,7 +6835,7 @@
         <v/>
       </c>
       <c r="E128" s="19" t="str">
-        <f aca="false">IF(D128="-", "-", IF(D128="", "", F128*VLOOKUP(D128, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D128="-", "-", IF(D128="", "", INT(F128*VLOOKUP(D128, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F128" s="20"/>
@@ -7233,7 +6871,7 @@
         <v/>
       </c>
       <c r="E129" s="19" t="str">
-        <f aca="false">IF(D129="-", "-", IF(D129="", "", F129*VLOOKUP(D129, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D129="-", "-", IF(D129="", "", INT(F129*VLOOKUP(D129, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F129" s="20"/>
@@ -7269,7 +6907,7 @@
         <v/>
       </c>
       <c r="E130" s="19" t="str">
-        <f aca="false">IF(D130="-", "-", IF(D130="", "", F130*VLOOKUP(D130, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D130="-", "-", IF(D130="", "", INT(F130*VLOOKUP(D130, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F130" s="20"/>
@@ -7305,7 +6943,7 @@
         <v/>
       </c>
       <c r="E131" s="19" t="str">
-        <f aca="false">IF(D131="-", "-", IF(D131="", "", F131*VLOOKUP(D131, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D131="-", "-", IF(D131="", "", INT(F131*VLOOKUP(D131, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F131" s="20"/>
@@ -7341,7 +6979,7 @@
         <v/>
       </c>
       <c r="E132" s="19" t="str">
-        <f aca="false">IF(D132="-", "-", IF(D132="", "", F132*VLOOKUP(D132, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D132="-", "-", IF(D132="", "", INT(F132*VLOOKUP(D132, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F132" s="20"/>
@@ -7377,7 +7015,7 @@
         <v/>
       </c>
       <c r="E133" s="19" t="str">
-        <f aca="false">IF(D133="-", "-", IF(D133="", "", F133*VLOOKUP(D133, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D133="-", "-", IF(D133="", "", INT(F133*VLOOKUP(D133, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F133" s="20"/>
@@ -7413,7 +7051,7 @@
         <v/>
       </c>
       <c r="E134" s="19" t="str">
-        <f aca="false">IF(D134="-", "-", IF(D134="", "", F134*VLOOKUP(D134, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D134="-", "-", IF(D134="", "", INT(F134*VLOOKUP(D134, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F134" s="20"/>
@@ -7449,7 +7087,7 @@
         <v/>
       </c>
       <c r="E135" s="19" t="str">
-        <f aca="false">IF(D135="-", "-", IF(D135="", "", F135*VLOOKUP(D135, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D135="-", "-", IF(D135="", "", INT(F135*VLOOKUP(D135, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F135" s="20"/>
@@ -7485,7 +7123,7 @@
         <v/>
       </c>
       <c r="E136" s="19" t="str">
-        <f aca="false">IF(D136="-", "-", IF(D136="", "", F136*VLOOKUP(D136, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D136="-", "-", IF(D136="", "", INT(F136*VLOOKUP(D136, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F136" s="20"/>
@@ -7521,7 +7159,7 @@
         <v/>
       </c>
       <c r="E137" s="19" t="str">
-        <f aca="false">IF(D137="-", "-", IF(D137="", "", F137*VLOOKUP(D137, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D137="-", "-", IF(D137="", "", INT(F137*VLOOKUP(D137, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F137" s="20"/>
@@ -7557,7 +7195,7 @@
         <v/>
       </c>
       <c r="E138" s="19" t="str">
-        <f aca="false">IF(D138="-", "-", IF(D138="", "", F138*VLOOKUP(D138, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D138="-", "-", IF(D138="", "", INT(F138*VLOOKUP(D138, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F138" s="20"/>
@@ -7593,7 +7231,7 @@
         <v/>
       </c>
       <c r="E139" s="19" t="str">
-        <f aca="false">IF(D139="-", "-", IF(D139="", "", F139*VLOOKUP(D139, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D139="-", "-", IF(D139="", "", INT(F139*VLOOKUP(D139, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F139" s="20"/>
@@ -7629,7 +7267,7 @@
         <v/>
       </c>
       <c r="E140" s="19" t="str">
-        <f aca="false">IF(D140="-", "-", IF(D140="", "", F140*VLOOKUP(D140, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D140="-", "-", IF(D140="", "", INT(F140*VLOOKUP(D140, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F140" s="20"/>
@@ -7665,7 +7303,7 @@
         <v/>
       </c>
       <c r="E141" s="19" t="str">
-        <f aca="false">IF(D141="-", "-", IF(D141="", "", F141*VLOOKUP(D141, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D141="-", "-", IF(D141="", "", INT(F141*VLOOKUP(D141, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F141" s="20"/>
@@ -7701,7 +7339,7 @@
         <v/>
       </c>
       <c r="E142" s="19" t="str">
-        <f aca="false">IF(D142="-", "-", IF(D142="", "", F142*VLOOKUP(D142, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D142="-", "-", IF(D142="", "", INT(F142*VLOOKUP(D142, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F142" s="20"/>
@@ -7737,7 +7375,7 @@
         <v/>
       </c>
       <c r="E143" s="19" t="str">
-        <f aca="false">IF(D143="-", "-", IF(D143="", "", F143*VLOOKUP(D143, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D143="-", "-", IF(D143="", "", INT(F143*VLOOKUP(D143, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F143" s="20"/>
@@ -7773,7 +7411,7 @@
         <v/>
       </c>
       <c r="E144" s="19" t="str">
-        <f aca="false">IF(D144="-", "-", IF(D144="", "", F144*VLOOKUP(D144, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D144="-", "-", IF(D144="", "", INT(F144*VLOOKUP(D144, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F144" s="20"/>
@@ -7809,7 +7447,7 @@
         <v/>
       </c>
       <c r="E145" s="19" t="str">
-        <f aca="false">IF(D145="-", "-", IF(D145="", "", F145*VLOOKUP(D145, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D145="-", "-", IF(D145="", "", INT(F145*VLOOKUP(D145, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F145" s="20"/>
@@ -7845,7 +7483,7 @@
         <v/>
       </c>
       <c r="E146" s="19" t="str">
-        <f aca="false">IF(D146="-", "-", IF(D146="", "", F146*VLOOKUP(D146, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D146="-", "-", IF(D146="", "", INT(F146*VLOOKUP(D146, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F146" s="20"/>
@@ -7881,7 +7519,7 @@
         <v/>
       </c>
       <c r="E147" s="19" t="str">
-        <f aca="false">IF(D147="-", "-", IF(D147="", "", F147*VLOOKUP(D147, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D147="-", "-", IF(D147="", "", INT(F147*VLOOKUP(D147, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F147" s="20"/>
@@ -7917,7 +7555,7 @@
         <v/>
       </c>
       <c r="E148" s="19" t="str">
-        <f aca="false">IF(D148="-", "-", IF(D148="", "", F148*VLOOKUP(D148, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D148="-", "-", IF(D148="", "", INT(F148*VLOOKUP(D148, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F148" s="20"/>
@@ -7953,7 +7591,7 @@
         <v/>
       </c>
       <c r="E149" s="19" t="str">
-        <f aca="false">IF(D149="-", "-", IF(D149="", "", F149*VLOOKUP(D149, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D149="-", "-", IF(D149="", "", INT(F149*VLOOKUP(D149, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F149" s="20"/>
@@ -7989,7 +7627,7 @@
         <v/>
       </c>
       <c r="E150" s="19" t="str">
-        <f aca="false">IF(D150="-", "-", IF(D150="", "", F150*VLOOKUP(D150, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D150="-", "-", IF(D150="", "", INT(F150*VLOOKUP(D150, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F150" s="20"/>
@@ -8025,7 +7663,7 @@
         <v/>
       </c>
       <c r="E151" s="19" t="str">
-        <f aca="false">IF(D151="-", "-", IF(D151="", "", F151*VLOOKUP(D151, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D151="-", "-", IF(D151="", "", INT(F151*VLOOKUP(D151, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F151" s="20"/>
@@ -8061,7 +7699,7 @@
         <v/>
       </c>
       <c r="E152" s="19" t="str">
-        <f aca="false">IF(D152="-", "-", IF(D152="", "", F152*VLOOKUP(D152, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D152="-", "-", IF(D152="", "", INT(F152*VLOOKUP(D152, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F152" s="20"/>
@@ -8097,7 +7735,7 @@
         <v/>
       </c>
       <c r="E153" s="19" t="str">
-        <f aca="false">IF(D153="-", "-", IF(D153="", "", F153*VLOOKUP(D153, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D153="-", "-", IF(D153="", "", INT(F153*VLOOKUP(D153, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F153" s="20"/>
@@ -8133,7 +7771,7 @@
         <v/>
       </c>
       <c r="E154" s="19" t="str">
-        <f aca="false">IF(D154="-", "-", IF(D154="", "", F154*VLOOKUP(D154, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D154="-", "-", IF(D154="", "", INT(F154*VLOOKUP(D154, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F154" s="20"/>
@@ -8169,7 +7807,7 @@
         <v/>
       </c>
       <c r="E155" s="19" t="str">
-        <f aca="false">IF(D155="-", "-", IF(D155="", "", F155*VLOOKUP(D155, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D155="-", "-", IF(D155="", "", INT(F155*VLOOKUP(D155, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F155" s="20"/>
@@ -8205,7 +7843,7 @@
         <v/>
       </c>
       <c r="E156" s="19" t="str">
-        <f aca="false">IF(D156="-", "-", IF(D156="", "", F156*VLOOKUP(D156, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D156="-", "-", IF(D156="", "", INT(F156*VLOOKUP(D156, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F156" s="24"/>
@@ -8240,7 +7878,7 @@
         <v/>
       </c>
       <c r="E157" s="19" t="str">
-        <f aca="false">IF(D157="-", "-", IF(D157="", "", F157*VLOOKUP(D157, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D157="-", "-", IF(D157="", "", INT(F157*VLOOKUP(D157, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F157" s="24"/>
@@ -8275,7 +7913,7 @@
         <v/>
       </c>
       <c r="E158" s="19" t="str">
-        <f aca="false">IF(D158="-", "-", IF(D158="", "", F158*VLOOKUP(D158, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D158="-", "-", IF(D158="", "", INT(F158*VLOOKUP(D158, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F158" s="24"/>
@@ -8310,7 +7948,7 @@
         <v/>
       </c>
       <c r="E159" s="19" t="str">
-        <f aca="false">IF(D159="-", "-", IF(D159="", "", F159*VLOOKUP(D159, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D159="-", "-", IF(D159="", "", INT(F159*VLOOKUP(D159, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F159" s="24"/>
@@ -8345,7 +7983,7 @@
         <v/>
       </c>
       <c r="E160" s="19" t="str">
-        <f aca="false">IF(D160="-", "-", IF(D160="", "", F160*VLOOKUP(D160, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D160="-", "-", IF(D160="", "", INT(F160*VLOOKUP(D160, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F160" s="24"/>
@@ -8380,7 +8018,7 @@
         <v/>
       </c>
       <c r="E161" s="19" t="str">
-        <f aca="false">IF(D161="-", "-", IF(D161="", "", F161*VLOOKUP(D161, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D161="-", "-", IF(D161="", "", INT(F161*VLOOKUP(D161, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F161" s="24"/>
@@ -8415,7 +8053,7 @@
         <v/>
       </c>
       <c r="E162" s="19" t="str">
-        <f aca="false">IF(D162="-", "-", IF(D162="", "", F162*VLOOKUP(D162, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D162="-", "-", IF(D162="", "", INT(F162*VLOOKUP(D162, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F162" s="24"/>
@@ -8450,7 +8088,7 @@
         <v/>
       </c>
       <c r="E163" s="19" t="str">
-        <f aca="false">IF(D163="-", "-", IF(D163="", "", F163*VLOOKUP(D163, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D163="-", "-", IF(D163="", "", INT(F163*VLOOKUP(D163, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F163" s="24"/>
@@ -8485,7 +8123,7 @@
         <v/>
       </c>
       <c r="E164" s="19" t="str">
-        <f aca="false">IF(D164="-", "-", IF(D164="", "", F164*VLOOKUP(D164, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D164="-", "-", IF(D164="", "", INT(F164*VLOOKUP(D164, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F164" s="24"/>
@@ -8520,7 +8158,7 @@
         <v/>
       </c>
       <c r="E165" s="19" t="str">
-        <f aca="false">IF(D165="-", "-", IF(D165="", "", F165*VLOOKUP(D165, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D165="-", "-", IF(D165="", "", INT(F165*VLOOKUP(D165, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F165" s="24"/>
@@ -8555,7 +8193,7 @@
         <v/>
       </c>
       <c r="E166" s="19" t="str">
-        <f aca="false">IF(D166="-", "-", IF(D166="", "", F166*VLOOKUP(D166, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D166="-", "-", IF(D166="", "", INT(F166*VLOOKUP(D166, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F166" s="24"/>
@@ -8586,7 +8224,7 @@
         <v/>
       </c>
       <c r="E167" s="19" t="str">
-        <f aca="false">IF(D167="-", "-", IF(D167="", "", F167*VLOOKUP(D167, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D167="-", "-", IF(D167="", "", INT(F167*VLOOKUP(D167, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F167" s="24"/>
@@ -8617,7 +8255,7 @@
         <v/>
       </c>
       <c r="E168" s="19" t="str">
-        <f aca="false">IF(D168="-", "-", IF(D168="", "", F168*VLOOKUP(D168, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D168="-", "-", IF(D168="", "", INT(F168*VLOOKUP(D168, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F168" s="24"/>
@@ -8648,7 +8286,7 @@
         <v/>
       </c>
       <c r="E169" s="19" t="str">
-        <f aca="false">IF(D169="-", "-", IF(D169="", "", F169*VLOOKUP(D169, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D169="-", "-", IF(D169="", "", INT(F169*VLOOKUP(D169, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F169" s="24"/>
@@ -8679,7 +8317,7 @@
         <v/>
       </c>
       <c r="E170" s="19" t="str">
-        <f aca="false">IF(D170="-", "-", IF(D170="", "", F170*VLOOKUP(D170, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D170="-", "-", IF(D170="", "", INT(F170*VLOOKUP(D170, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F170" s="24"/>
@@ -8710,7 +8348,7 @@
         <v/>
       </c>
       <c r="E171" s="19" t="str">
-        <f aca="false">IF(D171="-", "-", IF(D171="", "", F171*VLOOKUP(D171, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D171="-", "-", IF(D171="", "", INT(F171*VLOOKUP(D171, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F171" s="24"/>
@@ -8741,7 +8379,7 @@
         <v/>
       </c>
       <c r="E172" s="19" t="str">
-        <f aca="false">IF(D172="-", "-", IF(D172="", "", F172*VLOOKUP(D172, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D172="-", "-", IF(D172="", "", INT(F172*VLOOKUP(D172, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F172" s="24"/>
@@ -8772,7 +8410,7 @@
         <v/>
       </c>
       <c r="E173" s="19" t="str">
-        <f aca="false">IF(D173="-", "-", IF(D173="", "", F173*VLOOKUP(D173, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D173="-", "-", IF(D173="", "", INT(F173*VLOOKUP(D173, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F173" s="24"/>
@@ -8803,7 +8441,7 @@
         <v/>
       </c>
       <c r="E174" s="19" t="str">
-        <f aca="false">IF(D174="-", "-", IF(D174="", "", F174*VLOOKUP(D174, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D174="-", "-", IF(D174="", "", INT(F174*VLOOKUP(D174, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F174" s="24"/>
@@ -8834,7 +8472,7 @@
         <v/>
       </c>
       <c r="E175" s="19" t="str">
-        <f aca="false">IF(D175="-", "-", IF(D175="", "", F175*VLOOKUP(D175, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D175="-", "-", IF(D175="", "", INT(F175*VLOOKUP(D175, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F175" s="24"/>
@@ -8865,7 +8503,7 @@
         <v/>
       </c>
       <c r="E176" s="19" t="str">
-        <f aca="false">IF(D176="-", "-", IF(D176="", "", F176*VLOOKUP(D176, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D176="-", "-", IF(D176="", "", INT(F176*VLOOKUP(D176, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F176" s="24"/>
@@ -8896,7 +8534,7 @@
         <v/>
       </c>
       <c r="E177" s="19" t="str">
-        <f aca="false">IF(D177="-", "-", IF(D177="", "", F177*VLOOKUP(D177, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D177="-", "-", IF(D177="", "", INT(F177*VLOOKUP(D177, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F177" s="24"/>
@@ -8927,7 +8565,7 @@
         <v/>
       </c>
       <c r="E178" s="19" t="str">
-        <f aca="false">IF(D178="-", "-", IF(D178="", "", F178*VLOOKUP(D178, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D178="-", "-", IF(D178="", "", INT(F178*VLOOKUP(D178, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F178" s="24"/>
@@ -8958,7 +8596,7 @@
         <v/>
       </c>
       <c r="E179" s="19" t="str">
-        <f aca="false">IF(D179="-", "-", IF(D179="", "", F179*VLOOKUP(D179, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0)))</f>
+        <f aca="false">IF(D179="-", "-", IF(D179="", "", INT(F179*VLOOKUP(D179, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
         <v/>
       </c>
       <c r="F179" s="24"/>
@@ -12805,13 +12443,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12906,34 +12544,34 @@
     <row r="1" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="28"/>
       <c r="B1" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/templates/constructor_mascarpone.xlsx
+++ b/app/data/static/templates/constructor_mascarpone.xlsx
@@ -148,13 +148,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="General"/>
-    <numFmt numFmtId="169" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -281,7 +280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,6 +365,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -374,19 +377,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -657,7 +660,7 @@
   <dimension ref="A1:AMJ335"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -749,11 +752,11 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19" t="str">
-        <f aca="false">IF(I3="","",J2 - G3)</f>
+        <f aca="true">IF(I3="","",INDIRECT("J" &amp; ROW() - 1) - G3)</f>
         <v/>
       </c>
       <c r="G3" s="17" t="str">
-        <f aca="false">IF(I3 = "-", IF(VLOOKUP(D2, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H3 + VLOOKUP(D2, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D2, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H3) ,"")</f>
+        <f aca="true">IF(I3 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H3 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H3) ,"")</f>
         <v/>
       </c>
       <c r="H3" s="17" t="str">
@@ -798,11 +801,11 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="19" t="str">
-        <f aca="false">IF(I4="","",J3 - G4)</f>
+        <f aca="true">IF(I4="","",INDIRECT("J" &amp; ROW() - 1) - G4)</f>
         <v/>
       </c>
       <c r="G4" s="17" t="str">
-        <f aca="false">IF(I4 = "-", IF(VLOOKUP(D3, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H4 + VLOOKUP(D3, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D3, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H4) ,"")</f>
+        <f aca="true">IF(I4 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H4 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H4) ,"")</f>
         <v/>
       </c>
       <c r="H4" s="17" t="str">
@@ -847,11 +850,11 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="19" t="str">
-        <f aca="false">IF(I5="","",J4 - G5)</f>
+        <f aca="true">IF(I5="","",INDIRECT("J" &amp; ROW() - 1) - G5)</f>
         <v/>
       </c>
       <c r="G5" s="17" t="str">
-        <f aca="false">IF(I5 = "-", IF(VLOOKUP(D4, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H5 + VLOOKUP(D4, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D4, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H5) ,"")</f>
+        <f aca="true">IF(I5 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H5 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H5) ,"")</f>
         <v/>
       </c>
       <c r="H5" s="17" t="str">
@@ -896,11 +899,11 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="str">
-        <f aca="false">IF(I6="","",J5 - G6)</f>
+        <f aca="true">IF(I6="","",INDIRECT("J" &amp; ROW() - 1) - G6)</f>
         <v/>
       </c>
       <c r="G6" s="17" t="str">
-        <f aca="false">IF(I6 = "-", IF(VLOOKUP(D5, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H6 + VLOOKUP(D5, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D5, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H6) ,"")</f>
+        <f aca="true">IF(I6 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H6 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H6) ,"")</f>
         <v/>
       </c>
       <c r="H6" s="17" t="str">
@@ -945,11 +948,11 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19" t="str">
-        <f aca="false">IF(I7="","",J6 - G7)</f>
+        <f aca="true">IF(I7="","",INDIRECT("J" &amp; ROW() - 1) - G7)</f>
         <v/>
       </c>
       <c r="G7" s="17" t="str">
-        <f aca="false">IF(I7 = "-", IF(VLOOKUP(D6, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H7 + VLOOKUP(D6, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D6, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H7) ,"")</f>
+        <f aca="true">IF(I7 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H7 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H7) ,"")</f>
         <v/>
       </c>
       <c r="H7" s="17" t="str">
@@ -994,11 +997,11 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="str">
-        <f aca="false">IF(I8="","",J7 - G8)</f>
+        <f aca="true">IF(I8="","",INDIRECT("J" &amp; ROW() - 1) - G8)</f>
         <v/>
       </c>
       <c r="G8" s="17" t="str">
-        <f aca="false">IF(I8 = "-", IF(VLOOKUP(D7, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H8 + VLOOKUP(D7, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D7, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H8) ,"")</f>
+        <f aca="true">IF(I8 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H8 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H8) ,"")</f>
         <v/>
       </c>
       <c r="H8" s="17" t="str">
@@ -1043,11 +1046,11 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19" t="str">
-        <f aca="false">IF(I9="","",J8 - G9)</f>
+        <f aca="true">IF(I9="","",INDIRECT("J" &amp; ROW() - 1) - G9)</f>
         <v/>
       </c>
       <c r="G9" s="17" t="str">
-        <f aca="false">IF(I9 = "-", IF(VLOOKUP(D8, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H9 + VLOOKUP(D8, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D8, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H9) ,"")</f>
+        <f aca="true">IF(I9 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H9 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H9) ,"")</f>
         <v/>
       </c>
       <c r="H9" s="17" t="str">
@@ -1092,11 +1095,11 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="19" t="str">
-        <f aca="false">IF(I10="","",J9 - G10)</f>
+        <f aca="true">IF(I10="","",INDIRECT("J" &amp; ROW() - 1) - G10)</f>
         <v/>
       </c>
       <c r="G10" s="17" t="str">
-        <f aca="false">IF(I10 = "-", IF(VLOOKUP(D9, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H10 + VLOOKUP(D9, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D9, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H10) ,"")</f>
+        <f aca="true">IF(I10 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H10 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H10) ,"")</f>
         <v/>
       </c>
       <c r="H10" s="17" t="str">
@@ -1141,11 +1144,11 @@
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19" t="str">
-        <f aca="false">IF(I11="","",J10 - G11)</f>
+        <f aca="true">IF(I11="","",INDIRECT("J" &amp; ROW() - 1) - G11)</f>
         <v/>
       </c>
       <c r="G11" s="17" t="str">
-        <f aca="false">IF(I11 = "-", IF(VLOOKUP(D10, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H11 + VLOOKUP(D10, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D10, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H11) ,"")</f>
+        <f aca="true">IF(I11 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H11 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H11) ,"")</f>
         <v/>
       </c>
       <c r="H11" s="17" t="str">
@@ -1190,11 +1193,11 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="str">
-        <f aca="false">IF(I12="","",J11 - G12)</f>
+        <f aca="true">IF(I12="","",INDIRECT("J" &amp; ROW() - 1) - G12)</f>
         <v/>
       </c>
       <c r="G12" s="17" t="str">
-        <f aca="false">IF(I12 = "-", IF(VLOOKUP(D11, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H12 + VLOOKUP(D11, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D11, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H12) ,"")</f>
+        <f aca="true">IF(I12 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H12 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H12) ,"")</f>
         <v/>
       </c>
       <c r="H12" s="17" t="str">
@@ -1239,11 +1242,11 @@
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="19" t="str">
-        <f aca="false">IF(I13="","",J12 - G13)</f>
+        <f aca="true">IF(I13="","",INDIRECT("J" &amp; ROW() - 1) - G13)</f>
         <v/>
       </c>
       <c r="G13" s="17" t="str">
-        <f aca="false">IF(I13 = "-", IF(VLOOKUP(D12, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H13 + VLOOKUP(D12, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D12, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H13) ,"")</f>
+        <f aca="true">IF(I13 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H13 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H13) ,"")</f>
         <v/>
       </c>
       <c r="H13" s="17" t="str">
@@ -1288,11 +1291,11 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19" t="str">
-        <f aca="false">IF(I14="","",J13 - G14)</f>
+        <f aca="true">IF(I14="","",INDIRECT("J" &amp; ROW() - 1) - G14)</f>
         <v/>
       </c>
       <c r="G14" s="17" t="str">
-        <f aca="false">IF(I14 = "-", IF(VLOOKUP(D13, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H14 + VLOOKUP(D13, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D13, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H14) ,"")</f>
+        <f aca="true">IF(I14 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H14 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H14) ,"")</f>
         <v/>
       </c>
       <c r="H14" s="17" t="str">
@@ -1337,11 +1340,11 @@
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19" t="str">
-        <f aca="false">IF(I15="","",J14 - G15)</f>
+        <f aca="true">IF(I15="","",INDIRECT("J" &amp; ROW() - 1) - G15)</f>
         <v/>
       </c>
       <c r="G15" s="17" t="str">
-        <f aca="false">IF(I15 = "-", IF(VLOOKUP(D14, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H15 + VLOOKUP(D14, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D14, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H15) ,"")</f>
+        <f aca="true">IF(I15 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H15 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H15) ,"")</f>
         <v/>
       </c>
       <c r="H15" s="17" t="str">
@@ -1386,11 +1389,11 @@
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19" t="str">
-        <f aca="false">IF(I16="","",J15 - G16)</f>
+        <f aca="true">IF(I16="","",INDIRECT("J" &amp; ROW() - 1) - G16)</f>
         <v/>
       </c>
       <c r="G16" s="17" t="str">
-        <f aca="false">IF(I16 = "-", IF(VLOOKUP(D15, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H16 + VLOOKUP(D15, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D15, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H16) ,"")</f>
+        <f aca="true">IF(I16 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H16 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H16) ,"")</f>
         <v/>
       </c>
       <c r="H16" s="17" t="str">
@@ -1435,11 +1438,11 @@
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="str">
-        <f aca="false">IF(I17="","",J16 - G17)</f>
+        <f aca="true">IF(I17="","",INDIRECT("J" &amp; ROW() - 1) - G17)</f>
         <v/>
       </c>
       <c r="G17" s="17" t="str">
-        <f aca="false">IF(I17 = "-", IF(VLOOKUP(D16, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H17 + VLOOKUP(D16, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D16, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H17) ,"")</f>
+        <f aca="true">IF(I17 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H17 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H17) ,"")</f>
         <v/>
       </c>
       <c r="H17" s="17" t="str">
@@ -1484,11 +1487,11 @@
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="str">
-        <f aca="false">IF(I18="","",J17 - G18)</f>
+        <f aca="true">IF(I18="","",INDIRECT("J" &amp; ROW() - 1) - G18)</f>
         <v/>
       </c>
       <c r="G18" s="17" t="str">
-        <f aca="false">IF(I18 = "-", IF(VLOOKUP(D17, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H18 + VLOOKUP(D17, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D17, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H18) ,"")</f>
+        <f aca="true">IF(I18 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H18 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H18) ,"")</f>
         <v/>
       </c>
       <c r="H18" s="17" t="str">
@@ -1533,11 +1536,11 @@
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="19" t="str">
-        <f aca="false">IF(I19="","",J18 - G19)</f>
+        <f aca="true">IF(I19="","",INDIRECT("J" &amp; ROW() - 1) - G19)</f>
         <v/>
       </c>
       <c r="G19" s="17" t="str">
-        <f aca="false">IF(I19 = "-", IF(VLOOKUP(D18, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H19 + VLOOKUP(D18, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D18, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H19) ,"")</f>
+        <f aca="true">IF(I19 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H19 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H19) ,"")</f>
         <v/>
       </c>
       <c r="H19" s="17" t="str">
@@ -1582,11 +1585,11 @@
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="19" t="str">
-        <f aca="false">IF(I20="","",J19 - G20)</f>
+        <f aca="true">IF(I20="","",INDIRECT("J" &amp; ROW() - 1) - G20)</f>
         <v/>
       </c>
       <c r="G20" s="17" t="str">
-        <f aca="false">IF(I20 = "-", IF(VLOOKUP(D19, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H20 + VLOOKUP(D19, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D19, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H20) ,"")</f>
+        <f aca="true">IF(I20 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H20 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H20) ,"")</f>
         <v/>
       </c>
       <c r="H20" s="17" t="str">
@@ -1631,11 +1634,11 @@
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="19" t="str">
-        <f aca="false">IF(I21="","",J20 - G21)</f>
+        <f aca="true">IF(I21="","",INDIRECT("J" &amp; ROW() - 1) - G21)</f>
         <v/>
       </c>
       <c r="G21" s="17" t="str">
-        <f aca="false">IF(I21 = "-", IF(VLOOKUP(D20, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H21 + VLOOKUP(D20, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D20, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H21) ,"")</f>
+        <f aca="true">IF(I21 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H21 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H21) ,"")</f>
         <v/>
       </c>
       <c r="H21" s="17" t="str">
@@ -1680,11 +1683,11 @@
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="19" t="str">
-        <f aca="false">IF(I22="","",J21 - G22)</f>
+        <f aca="true">IF(I22="","",INDIRECT("J" &amp; ROW() - 1) - G22)</f>
         <v/>
       </c>
       <c r="G22" s="17" t="str">
-        <f aca="false">IF(I22 = "-", IF(VLOOKUP(D21, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H22 + VLOOKUP(D21, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D21, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H22) ,"")</f>
+        <f aca="true">IF(I22 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H22 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H22) ,"")</f>
         <v/>
       </c>
       <c r="H22" s="17" t="str">
@@ -1729,11 +1732,11 @@
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="19" t="str">
-        <f aca="false">IF(I23="","",J22 - G23)</f>
+        <f aca="true">IF(I23="","",INDIRECT("J" &amp; ROW() - 1) - G23)</f>
         <v/>
       </c>
       <c r="G23" s="17" t="str">
-        <f aca="false">IF(I23 = "-", IF(VLOOKUP(D22, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H23 + VLOOKUP(D22, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D22, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H23) ,"")</f>
+        <f aca="true">IF(I23 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H23 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H23) ,"")</f>
         <v/>
       </c>
       <c r="H23" s="17" t="str">
@@ -1778,11 +1781,11 @@
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="19" t="str">
-        <f aca="false">IF(I24="","",J23 - G24)</f>
+        <f aca="true">IF(I24="","",INDIRECT("J" &amp; ROW() - 1) - G24)</f>
         <v/>
       </c>
       <c r="G24" s="17" t="str">
-        <f aca="false">IF(I24 = "-", IF(VLOOKUP(D23, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H24 + VLOOKUP(D23, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D23, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H24) ,"")</f>
+        <f aca="true">IF(I24 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H24 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H24) ,"")</f>
         <v/>
       </c>
       <c r="H24" s="17" t="str">
@@ -1827,11 +1830,11 @@
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="19" t="str">
-        <f aca="false">IF(I25="","",J24 - G25)</f>
+        <f aca="true">IF(I25="","",INDIRECT("J" &amp; ROW() - 1) - G25)</f>
         <v/>
       </c>
       <c r="G25" s="17" t="str">
-        <f aca="false">IF(I25 = "-", IF(VLOOKUP(D24, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H25 + VLOOKUP(D24, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D24, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H25) ,"")</f>
+        <f aca="true">IF(I25 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H25 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H25) ,"")</f>
         <v/>
       </c>
       <c r="H25" s="17" t="str">
@@ -1876,11 +1879,11 @@
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19" t="str">
-        <f aca="false">IF(I26="","",J25 - G26)</f>
+        <f aca="true">IF(I26="","",INDIRECT("J" &amp; ROW() - 1) - G26)</f>
         <v/>
       </c>
       <c r="G26" s="17" t="str">
-        <f aca="false">IF(I26 = "-", IF(VLOOKUP(D25, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H26 + VLOOKUP(D25, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D25, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H26) ,"")</f>
+        <f aca="true">IF(I26 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H26 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H26) ,"")</f>
         <v/>
       </c>
       <c r="H26" s="17" t="str">
@@ -1925,11 +1928,11 @@
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="19" t="str">
-        <f aca="false">IF(I27="","",J26 - G27)</f>
+        <f aca="true">IF(I27="","",INDIRECT("J" &amp; ROW() - 1) - G27)</f>
         <v/>
       </c>
       <c r="G27" s="17" t="str">
-        <f aca="false">IF(I27 = "-", IF(VLOOKUP(D26, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H27 + VLOOKUP(D26, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D26, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H27) ,"")</f>
+        <f aca="true">IF(I27 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H27 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H27) ,"")</f>
         <v/>
       </c>
       <c r="H27" s="17" t="str">
@@ -1974,11 +1977,11 @@
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="19" t="str">
-        <f aca="false">IF(I28="","",J27 - G28)</f>
+        <f aca="true">IF(I28="","",INDIRECT("J" &amp; ROW() - 1) - G28)</f>
         <v/>
       </c>
       <c r="G28" s="17" t="str">
-        <f aca="false">IF(I28 = "-", IF(VLOOKUP(D27, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H28 + VLOOKUP(D27, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D27, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H28) ,"")</f>
+        <f aca="true">IF(I28 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H28 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H28) ,"")</f>
         <v/>
       </c>
       <c r="H28" s="17" t="str">
@@ -2023,11 +2026,11 @@
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="19" t="str">
-        <f aca="false">IF(I29="","",J28 - G29)</f>
+        <f aca="true">IF(I29="","",INDIRECT("J" &amp; ROW() - 1) - G29)</f>
         <v/>
       </c>
       <c r="G29" s="17" t="str">
-        <f aca="false">IF(I29 = "-", IF(VLOOKUP(D28, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H29 + VLOOKUP(D28, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D28, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H29) ,"")</f>
+        <f aca="true">IF(I29 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H29 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H29) ,"")</f>
         <v/>
       </c>
       <c r="H29" s="17" t="str">
@@ -2072,11 +2075,11 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="19" t="str">
-        <f aca="false">IF(I30="","",J29 - G30)</f>
+        <f aca="true">IF(I30="","",INDIRECT("J" &amp; ROW() - 1) - G30)</f>
         <v/>
       </c>
       <c r="G30" s="17" t="str">
-        <f aca="false">IF(I30 = "-", IF(VLOOKUP(D29, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H30 + VLOOKUP(D29, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D29, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H30) ,"")</f>
+        <f aca="true">IF(I30 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H30 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H30) ,"")</f>
         <v/>
       </c>
       <c r="H30" s="17" t="str">
@@ -2121,11 +2124,11 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="19" t="str">
-        <f aca="false">IF(I31="","",J30 - G31)</f>
+        <f aca="true">IF(I31="","",INDIRECT("J" &amp; ROW() - 1) - G31)</f>
         <v/>
       </c>
       <c r="G31" s="17" t="str">
-        <f aca="false">IF(I31 = "-", IF(VLOOKUP(D30, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H31 + VLOOKUP(D30, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D30, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H31) ,"")</f>
+        <f aca="true">IF(I31 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H31 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H31) ,"")</f>
         <v/>
       </c>
       <c r="H31" s="17" t="str">
@@ -2170,11 +2173,11 @@
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="19" t="str">
-        <f aca="false">IF(I32="","",J31 - G32)</f>
+        <f aca="true">IF(I32="","",INDIRECT("J" &amp; ROW() - 1) - G32)</f>
         <v/>
       </c>
       <c r="G32" s="17" t="str">
-        <f aca="false">IF(I32 = "-", IF(VLOOKUP(D31, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H32 + VLOOKUP(D31, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D31, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H32) ,"")</f>
+        <f aca="true">IF(I32 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H32 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H32) ,"")</f>
         <v/>
       </c>
       <c r="H32" s="17" t="str">
@@ -2219,11 +2222,11 @@
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="19" t="str">
-        <f aca="false">IF(I33="","",J32 - G33)</f>
+        <f aca="true">IF(I33="","",INDIRECT("J" &amp; ROW() - 1) - G33)</f>
         <v/>
       </c>
       <c r="G33" s="17" t="str">
-        <f aca="false">IF(I33 = "-", IF(VLOOKUP(D32, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H33 + VLOOKUP(D32, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D32, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H33) ,"")</f>
+        <f aca="true">IF(I33 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H33 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H33) ,"")</f>
         <v/>
       </c>
       <c r="H33" s="17" t="str">
@@ -2268,11 +2271,11 @@
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="19" t="str">
-        <f aca="false">IF(I34="","",J33 - G34)</f>
+        <f aca="true">IF(I34="","",INDIRECT("J" &amp; ROW() - 1) - G34)</f>
         <v/>
       </c>
       <c r="G34" s="17" t="str">
-        <f aca="false">IF(I34 = "-", IF(VLOOKUP(D33, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H34 + VLOOKUP(D33, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D33, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H34) ,"")</f>
+        <f aca="true">IF(I34 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H34 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H34) ,"")</f>
         <v/>
       </c>
       <c r="H34" s="17" t="str">
@@ -2317,11 +2320,11 @@
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="19" t="str">
-        <f aca="false">IF(I35="","",J34 - G35)</f>
+        <f aca="true">IF(I35="","",INDIRECT("J" &amp; ROW() - 1) - G35)</f>
         <v/>
       </c>
       <c r="G35" s="17" t="str">
-        <f aca="false">IF(I35 = "-", IF(VLOOKUP(D34, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H35 + VLOOKUP(D34, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D34, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H35) ,"")</f>
+        <f aca="true">IF(I35 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H35 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H35) ,"")</f>
         <v/>
       </c>
       <c r="H35" s="17" t="str">
@@ -2366,11 +2369,11 @@
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="19" t="str">
-        <f aca="false">IF(I36="","",J35 - G36)</f>
+        <f aca="true">IF(I36="","",INDIRECT("J" &amp; ROW() - 1) - G36)</f>
         <v/>
       </c>
       <c r="G36" s="17" t="str">
-        <f aca="false">IF(I36 = "-", IF(VLOOKUP(D35, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H36 + VLOOKUP(D35, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D35, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H36) ,"")</f>
+        <f aca="true">IF(I36 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H36 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H36) ,"")</f>
         <v/>
       </c>
       <c r="H36" s="17" t="str">
@@ -2415,11 +2418,11 @@
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="19" t="str">
-        <f aca="false">IF(I37="","",J36 - G37)</f>
+        <f aca="true">IF(I37="","",INDIRECT("J" &amp; ROW() - 1) - G37)</f>
         <v/>
       </c>
       <c r="G37" s="17" t="str">
-        <f aca="false">IF(I37 = "-", IF(VLOOKUP(D36, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H37 + VLOOKUP(D36, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D36, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H37) ,"")</f>
+        <f aca="true">IF(I37 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H37 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H37) ,"")</f>
         <v/>
       </c>
       <c r="H37" s="17" t="str">
@@ -2464,11 +2467,11 @@
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="19" t="str">
-        <f aca="false">IF(I38="","",J37 - G38)</f>
+        <f aca="true">IF(I38="","",INDIRECT("J" &amp; ROW() - 1) - G38)</f>
         <v/>
       </c>
       <c r="G38" s="17" t="str">
-        <f aca="false">IF(I38 = "-", IF(VLOOKUP(D37, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H38 + VLOOKUP(D37, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D37, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H38) ,"")</f>
+        <f aca="true">IF(I38 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H38 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H38) ,"")</f>
         <v/>
       </c>
       <c r="H38" s="17" t="str">
@@ -2513,11 +2516,11 @@
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="19" t="str">
-        <f aca="false">IF(I39="","",J38 - G39)</f>
+        <f aca="true">IF(I39="","",INDIRECT("J" &amp; ROW() - 1) - G39)</f>
         <v/>
       </c>
       <c r="G39" s="17" t="str">
-        <f aca="false">IF(I39 = "-", IF(VLOOKUP(D38, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H39 + VLOOKUP(D38, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D38, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H39) ,"")</f>
+        <f aca="true">IF(I39 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H39 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H39) ,"")</f>
         <v/>
       </c>
       <c r="H39" s="17" t="str">
@@ -2562,11 +2565,11 @@
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="19" t="str">
-        <f aca="false">IF(I40="","",J39 - G40)</f>
+        <f aca="true">IF(I40="","",INDIRECT("J" &amp; ROW() - 1) - G40)</f>
         <v/>
       </c>
       <c r="G40" s="17" t="str">
-        <f aca="false">IF(I40 = "-", IF(VLOOKUP(D39, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H40 + VLOOKUP(D39, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D39, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H40) ,"")</f>
+        <f aca="true">IF(I40 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H40 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H40) ,"")</f>
         <v/>
       </c>
       <c r="H40" s="17" t="str">
@@ -2611,11 +2614,11 @@
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="19" t="str">
-        <f aca="false">IF(I41="","",J40 - G41)</f>
+        <f aca="true">IF(I41="","",INDIRECT("J" &amp; ROW() - 1) - G41)</f>
         <v/>
       </c>
       <c r="G41" s="17" t="str">
-        <f aca="false">IF(I41 = "-", IF(VLOOKUP(D40, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H41 + VLOOKUP(D40, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D40, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H41) ,"")</f>
+        <f aca="true">IF(I41 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H41 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H41) ,"")</f>
         <v/>
       </c>
       <c r="H41" s="17" t="str">
@@ -2660,11 +2663,11 @@
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="19" t="str">
-        <f aca="false">IF(I42="","",J41 - G42)</f>
+        <f aca="true">IF(I42="","",INDIRECT("J" &amp; ROW() - 1) - G42)</f>
         <v/>
       </c>
       <c r="G42" s="17" t="str">
-        <f aca="false">IF(I42 = "-", IF(VLOOKUP(D41, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H42 + VLOOKUP(D41, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D41, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H42) ,"")</f>
+        <f aca="true">IF(I42 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H42 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H42) ,"")</f>
         <v/>
       </c>
       <c r="H42" s="17" t="str">
@@ -2709,11 +2712,11 @@
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="19" t="str">
-        <f aca="false">IF(I43="","",J42 - G43)</f>
+        <f aca="true">IF(I43="","",INDIRECT("J" &amp; ROW() - 1) - G43)</f>
         <v/>
       </c>
       <c r="G43" s="17" t="str">
-        <f aca="false">IF(I43 = "-", IF(VLOOKUP(D42, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H43 + VLOOKUP(D42, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D42, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H43) ,"")</f>
+        <f aca="true">IF(I43 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H43 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H43) ,"")</f>
         <v/>
       </c>
       <c r="H43" s="17" t="str">
@@ -2758,11 +2761,11 @@
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="19" t="str">
-        <f aca="false">IF(I44="","",J43 - G44)</f>
+        <f aca="true">IF(I44="","",INDIRECT("J" &amp; ROW() - 1) - G44)</f>
         <v/>
       </c>
       <c r="G44" s="17" t="str">
-        <f aca="false">IF(I44 = "-", IF(VLOOKUP(D43, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H44 + VLOOKUP(D43, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D43, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H44) ,"")</f>
+        <f aca="true">IF(I44 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H44 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H44) ,"")</f>
         <v/>
       </c>
       <c r="H44" s="17" t="str">
@@ -2807,11 +2810,11 @@
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="19" t="str">
-        <f aca="false">IF(I45="","",J44 - G45)</f>
+        <f aca="true">IF(I45="","",INDIRECT("J" &amp; ROW() - 1) - G45)</f>
         <v/>
       </c>
       <c r="G45" s="17" t="str">
-        <f aca="false">IF(I45 = "-", IF(VLOOKUP(D44, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H45 + VLOOKUP(D44, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D44, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H45) ,"")</f>
+        <f aca="true">IF(I45 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H45 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H45) ,"")</f>
         <v/>
       </c>
       <c r="H45" s="17" t="str">
@@ -2856,11 +2859,11 @@
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="19" t="str">
-        <f aca="false">IF(I46="","",J45 - G46)</f>
+        <f aca="true">IF(I46="","",INDIRECT("J" &amp; ROW() - 1) - G46)</f>
         <v/>
       </c>
       <c r="G46" s="17" t="str">
-        <f aca="false">IF(I46 = "-", IF(VLOOKUP(D45, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H46 + VLOOKUP(D45, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D45, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H46) ,"")</f>
+        <f aca="true">IF(I46 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H46 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H46) ,"")</f>
         <v/>
       </c>
       <c r="H46" s="17" t="str">
@@ -2905,11 +2908,11 @@
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="19" t="str">
-        <f aca="false">IF(I47="","",J46 - G47)</f>
+        <f aca="true">IF(I47="","",INDIRECT("J" &amp; ROW() - 1) - G47)</f>
         <v/>
       </c>
       <c r="G47" s="17" t="str">
-        <f aca="false">IF(I47 = "-", IF(VLOOKUP(D46, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H47 + VLOOKUP(D46, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D46, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H47) ,"")</f>
+        <f aca="true">IF(I47 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H47 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H47) ,"")</f>
         <v/>
       </c>
       <c r="H47" s="17" t="str">
@@ -2954,11 +2957,11 @@
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="19" t="str">
-        <f aca="false">IF(I48="","",J47 - G48)</f>
+        <f aca="true">IF(I48="","",INDIRECT("J" &amp; ROW() - 1) - G48)</f>
         <v/>
       </c>
       <c r="G48" s="17" t="str">
-        <f aca="false">IF(I48 = "-", IF(VLOOKUP(D47, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H48 + VLOOKUP(D47, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D47, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H48) ,"")</f>
+        <f aca="true">IF(I48 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H48 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H48) ,"")</f>
         <v/>
       </c>
       <c r="H48" s="17" t="str">
@@ -3003,11 +3006,11 @@
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="19" t="str">
-        <f aca="false">IF(I49="","",J48 - G49)</f>
+        <f aca="true">IF(I49="","",INDIRECT("J" &amp; ROW() - 1) - G49)</f>
         <v/>
       </c>
       <c r="G49" s="17" t="str">
-        <f aca="false">IF(I49 = "-", IF(VLOOKUP(D48, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H49 + VLOOKUP(D48, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D48, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H49) ,"")</f>
+        <f aca="true">IF(I49 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H49 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H49) ,"")</f>
         <v/>
       </c>
       <c r="H49" s="17" t="str">
@@ -3052,11 +3055,11 @@
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="19" t="str">
-        <f aca="false">IF(I50="","",J49 - G50)</f>
+        <f aca="true">IF(I50="","",INDIRECT("J" &amp; ROW() - 1) - G50)</f>
         <v/>
       </c>
       <c r="G50" s="17" t="str">
-        <f aca="false">IF(I50 = "-", IF(VLOOKUP(D49, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H50 + VLOOKUP(D49, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D49, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H50) ,"")</f>
+        <f aca="true">IF(I50 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H50 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H50) ,"")</f>
         <v/>
       </c>
       <c r="H50" s="17" t="str">
@@ -3101,11 +3104,11 @@
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="19" t="str">
-        <f aca="false">IF(I51="","",J50 - G51)</f>
+        <f aca="true">IF(I51="","",INDIRECT("J" &amp; ROW() - 1) - G51)</f>
         <v/>
       </c>
       <c r="G51" s="17" t="str">
-        <f aca="false">IF(I51 = "-", IF(VLOOKUP(D50, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H51 + VLOOKUP(D50, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D50, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H51) ,"")</f>
+        <f aca="true">IF(I51 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H51 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H51) ,"")</f>
         <v/>
       </c>
       <c r="H51" s="17" t="str">
@@ -3150,11 +3153,11 @@
       </c>
       <c r="E52" s="18"/>
       <c r="F52" s="19" t="str">
-        <f aca="false">IF(I52="","",J51 - G52)</f>
+        <f aca="true">IF(I52="","",INDIRECT("J" &amp; ROW() - 1) - G52)</f>
         <v/>
       </c>
       <c r="G52" s="17" t="str">
-        <f aca="false">IF(I52 = "-", IF(VLOOKUP(D51, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H52 + VLOOKUP(D51, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D51, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H52) ,"")</f>
+        <f aca="true">IF(I52 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H52 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H52) ,"")</f>
         <v/>
       </c>
       <c r="H52" s="17" t="str">
@@ -3199,11 +3202,11 @@
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="19" t="str">
-        <f aca="false">IF(I53="","",J52 - G53)</f>
+        <f aca="true">IF(I53="","",INDIRECT("J" &amp; ROW() - 1) - G53)</f>
         <v/>
       </c>
       <c r="G53" s="17" t="str">
-        <f aca="false">IF(I53 = "-", IF(VLOOKUP(D52, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H53 + VLOOKUP(D52, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D52, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H53) ,"")</f>
+        <f aca="true">IF(I53 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H53 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H53) ,"")</f>
         <v/>
       </c>
       <c r="H53" s="17" t="str">
@@ -3248,11 +3251,11 @@
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="19" t="str">
-        <f aca="false">IF(I54="","",J53 - G54)</f>
+        <f aca="true">IF(I54="","",INDIRECT("J" &amp; ROW() - 1) - G54)</f>
         <v/>
       </c>
       <c r="G54" s="17" t="str">
-        <f aca="false">IF(I54 = "-", IF(VLOOKUP(D53, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H54 + VLOOKUP(D53, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D53, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H54) ,"")</f>
+        <f aca="true">IF(I54 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H54 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H54) ,"")</f>
         <v/>
       </c>
       <c r="H54" s="17" t="str">
@@ -3297,11 +3300,11 @@
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="19" t="str">
-        <f aca="false">IF(I55="","",J54 - G55)</f>
+        <f aca="true">IF(I55="","",INDIRECT("J" &amp; ROW() - 1) - G55)</f>
         <v/>
       </c>
       <c r="G55" s="17" t="str">
-        <f aca="false">IF(I55 = "-", IF(VLOOKUP(D54, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H55 + VLOOKUP(D54, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D54, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H55) ,"")</f>
+        <f aca="true">IF(I55 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H55 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H55) ,"")</f>
         <v/>
       </c>
       <c r="H55" s="17" t="str">
@@ -3346,11 +3349,11 @@
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="19" t="str">
-        <f aca="false">IF(I56="","",J55 - G56)</f>
+        <f aca="true">IF(I56="","",INDIRECT("J" &amp; ROW() - 1) - G56)</f>
         <v/>
       </c>
       <c r="G56" s="17" t="str">
-        <f aca="false">IF(I56 = "-", IF(VLOOKUP(D55, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H56 + VLOOKUP(D55, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D55, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H56) ,"")</f>
+        <f aca="true">IF(I56 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H56 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H56) ,"")</f>
         <v/>
       </c>
       <c r="H56" s="17" t="str">
@@ -3395,11 +3398,11 @@
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="19" t="str">
-        <f aca="false">IF(I57="","",J56 - G57)</f>
+        <f aca="true">IF(I57="","",INDIRECT("J" &amp; ROW() - 1) - G57)</f>
         <v/>
       </c>
       <c r="G57" s="17" t="str">
-        <f aca="false">IF(I57 = "-", IF(VLOOKUP(D56, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H57 + VLOOKUP(D56, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D56, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H57) ,"")</f>
+        <f aca="true">IF(I57 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H57 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H57) ,"")</f>
         <v/>
       </c>
       <c r="H57" s="17" t="str">
@@ -3444,11 +3447,11 @@
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="19" t="str">
-        <f aca="false">IF(I58="","",J57 - G58)</f>
+        <f aca="true">IF(I58="","",INDIRECT("J" &amp; ROW() - 1) - G58)</f>
         <v/>
       </c>
       <c r="G58" s="17" t="str">
-        <f aca="false">IF(I58 = "-", IF(VLOOKUP(D57, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H58 + VLOOKUP(D57, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D57, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H58) ,"")</f>
+        <f aca="true">IF(I58 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H58 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H58) ,"")</f>
         <v/>
       </c>
       <c r="H58" s="17" t="str">
@@ -3493,11 +3496,11 @@
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="19" t="str">
-        <f aca="false">IF(I59="","",J58 - G59)</f>
+        <f aca="true">IF(I59="","",INDIRECT("J" &amp; ROW() - 1) - G59)</f>
         <v/>
       </c>
       <c r="G59" s="17" t="str">
-        <f aca="false">IF(I59 = "-", IF(VLOOKUP(D58, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H59 + VLOOKUP(D58, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D58, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H59) ,"")</f>
+        <f aca="true">IF(I59 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H59 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H59) ,"")</f>
         <v/>
       </c>
       <c r="H59" s="17" t="str">
@@ -3542,11 +3545,11 @@
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="19" t="str">
-        <f aca="false">IF(I60="","",J59 - G60)</f>
+        <f aca="true">IF(I60="","",INDIRECT("J" &amp; ROW() - 1) - G60)</f>
         <v/>
       </c>
       <c r="G60" s="17" t="str">
-        <f aca="false">IF(I60 = "-", IF(VLOOKUP(D59, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H60 + VLOOKUP(D59, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D59, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H60) ,"")</f>
+        <f aca="true">IF(I60 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H60 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H60) ,"")</f>
         <v/>
       </c>
       <c r="H60" s="17" t="str">
@@ -3591,11 +3594,11 @@
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="19" t="str">
-        <f aca="false">IF(I61="","",J60 - G61)</f>
+        <f aca="true">IF(I61="","",INDIRECT("J" &amp; ROW() - 1) - G61)</f>
         <v/>
       </c>
       <c r="G61" s="17" t="str">
-        <f aca="false">IF(I61 = "-", IF(VLOOKUP(D60, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H61 + VLOOKUP(D60, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D60, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H61) ,"")</f>
+        <f aca="true">IF(I61 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H61 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H61) ,"")</f>
         <v/>
       </c>
       <c r="H61" s="17" t="str">
@@ -3640,11 +3643,11 @@
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="19" t="str">
-        <f aca="false">IF(I62="","",J61 - G62)</f>
+        <f aca="true">IF(I62="","",INDIRECT("J" &amp; ROW() - 1) - G62)</f>
         <v/>
       </c>
       <c r="G62" s="17" t="str">
-        <f aca="false">IF(I62 = "-", IF(VLOOKUP(D61, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H62 + VLOOKUP(D61, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D61, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H62) ,"")</f>
+        <f aca="true">IF(I62 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H62 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H62) ,"")</f>
         <v/>
       </c>
       <c r="H62" s="17" t="str">
@@ -3689,11 +3692,11 @@
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="19" t="str">
-        <f aca="false">IF(I63="","",J62 - G63)</f>
+        <f aca="true">IF(I63="","",INDIRECT("J" &amp; ROW() - 1) - G63)</f>
         <v/>
       </c>
       <c r="G63" s="17" t="str">
-        <f aca="false">IF(I63 = "-", IF(VLOOKUP(D62, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H63 + VLOOKUP(D62, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D62, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H63) ,"")</f>
+        <f aca="true">IF(I63 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H63 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H63) ,"")</f>
         <v/>
       </c>
       <c r="H63" s="17" t="str">
@@ -3738,11 +3741,11 @@
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="19" t="str">
-        <f aca="false">IF(I64="","",J63 - G64)</f>
+        <f aca="true">IF(I64="","",INDIRECT("J" &amp; ROW() - 1) - G64)</f>
         <v/>
       </c>
       <c r="G64" s="17" t="str">
-        <f aca="false">IF(I64 = "-", IF(VLOOKUP(D63, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H64 + VLOOKUP(D63, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D63, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H64) ,"")</f>
+        <f aca="true">IF(I64 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H64 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H64) ,"")</f>
         <v/>
       </c>
       <c r="H64" s="17" t="str">
@@ -3787,11 +3790,11 @@
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="19" t="str">
-        <f aca="false">IF(I65="","",J64 - G65)</f>
+        <f aca="true">IF(I65="","",INDIRECT("J" &amp; ROW() - 1) - G65)</f>
         <v/>
       </c>
       <c r="G65" s="17" t="str">
-        <f aca="false">IF(I65 = "-", IF(VLOOKUP(D64, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H65 + VLOOKUP(D64, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D64, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H65) ,"")</f>
+        <f aca="true">IF(I65 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H65 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H65) ,"")</f>
         <v/>
       </c>
       <c r="H65" s="17" t="str">
@@ -3836,11 +3839,11 @@
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="19" t="str">
-        <f aca="false">IF(I66="","",J65 - G66)</f>
+        <f aca="true">IF(I66="","",INDIRECT("J" &amp; ROW() - 1) - G66)</f>
         <v/>
       </c>
       <c r="G66" s="17" t="str">
-        <f aca="false">IF(I66 = "-", IF(VLOOKUP(D65, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H66 + VLOOKUP(D65, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D65, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H66) ,"")</f>
+        <f aca="true">IF(I66 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H66 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H66) ,"")</f>
         <v/>
       </c>
       <c r="H66" s="17" t="str">
@@ -3885,11 +3888,11 @@
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="19" t="str">
-        <f aca="false">IF(I67="","",J66 - G67)</f>
+        <f aca="true">IF(I67="","",INDIRECT("J" &amp; ROW() - 1) - G67)</f>
         <v/>
       </c>
       <c r="G67" s="17" t="str">
-        <f aca="false">IF(I67 = "-", IF(VLOOKUP(D66, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H67 + VLOOKUP(D66, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D66, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H67) ,"")</f>
+        <f aca="true">IF(I67 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H67 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H67) ,"")</f>
         <v/>
       </c>
       <c r="H67" s="17" t="str">
@@ -3934,11 +3937,11 @@
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="19" t="str">
-        <f aca="false">IF(I68="","",J67 - G68)</f>
+        <f aca="true">IF(I68="","",INDIRECT("J" &amp; ROW() - 1) - G68)</f>
         <v/>
       </c>
       <c r="G68" s="17" t="str">
-        <f aca="false">IF(I68 = "-", IF(VLOOKUP(D67, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H68 + VLOOKUP(D67, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D67, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H68) ,"")</f>
+        <f aca="true">IF(I68 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H68 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H68) ,"")</f>
         <v/>
       </c>
       <c r="H68" s="17" t="str">
@@ -3983,11 +3986,11 @@
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="19" t="str">
-        <f aca="false">IF(I69="","",J68 - G69)</f>
+        <f aca="true">IF(I69="","",INDIRECT("J" &amp; ROW() - 1) - G69)</f>
         <v/>
       </c>
       <c r="G69" s="17" t="str">
-        <f aca="false">IF(I69 = "-", IF(VLOOKUP(D68, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H69 + VLOOKUP(D68, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D68, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H69) ,"")</f>
+        <f aca="true">IF(I69 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H69 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H69) ,"")</f>
         <v/>
       </c>
       <c r="H69" s="17" t="str">
@@ -4032,11 +4035,11 @@
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="19" t="str">
-        <f aca="false">IF(I70="","",J69 - G70)</f>
+        <f aca="true">IF(I70="","",INDIRECT("J" &amp; ROW() - 1) - G70)</f>
         <v/>
       </c>
       <c r="G70" s="17" t="str">
-        <f aca="false">IF(I70 = "-", IF(VLOOKUP(D69, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H70 + VLOOKUP(D69, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D69, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H70) ,"")</f>
+        <f aca="true">IF(I70 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H70 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H70) ,"")</f>
         <v/>
       </c>
       <c r="H70" s="17" t="str">
@@ -4081,11 +4084,11 @@
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="19" t="str">
-        <f aca="false">IF(I71="","",J70 - G71)</f>
+        <f aca="true">IF(I71="","",INDIRECT("J" &amp; ROW() - 1) - G71)</f>
         <v/>
       </c>
       <c r="G71" s="17" t="str">
-        <f aca="false">IF(I71 = "-", IF(VLOOKUP(D70, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H71 + VLOOKUP(D70, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D70, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H71) ,"")</f>
+        <f aca="true">IF(I71 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H71 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H71) ,"")</f>
         <v/>
       </c>
       <c r="H71" s="17" t="str">
@@ -4130,11 +4133,11 @@
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="19" t="str">
-        <f aca="false">IF(I72="","",J71 - G72)</f>
+        <f aca="true">IF(I72="","",INDIRECT("J" &amp; ROW() - 1) - G72)</f>
         <v/>
       </c>
       <c r="G72" s="17" t="str">
-        <f aca="false">IF(I72 = "-", IF(VLOOKUP(D71, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H72 + VLOOKUP(D71, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D71, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H72) ,"")</f>
+        <f aca="true">IF(I72 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H72 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H72) ,"")</f>
         <v/>
       </c>
       <c r="H72" s="17" t="str">
@@ -4179,11 +4182,11 @@
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="19" t="str">
-        <f aca="false">IF(I73="","",J72 - G73)</f>
+        <f aca="true">IF(I73="","",INDIRECT("J" &amp; ROW() - 1) - G73)</f>
         <v/>
       </c>
       <c r="G73" s="17" t="str">
-        <f aca="false">IF(I73 = "-", IF(VLOOKUP(D72, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H73 + VLOOKUP(D72, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D72, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H73) ,"")</f>
+        <f aca="true">IF(I73 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H73 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H73) ,"")</f>
         <v/>
       </c>
       <c r="H73" s="17" t="str">
@@ -4228,11 +4231,11 @@
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="19" t="str">
-        <f aca="false">IF(I74="","",J73 - G74)</f>
+        <f aca="true">IF(I74="","",INDIRECT("J" &amp; ROW() - 1) - G74)</f>
         <v/>
       </c>
       <c r="G74" s="17" t="str">
-        <f aca="false">IF(I74 = "-", IF(VLOOKUP(D73, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H74 + VLOOKUP(D73, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D73, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H74) ,"")</f>
+        <f aca="true">IF(I74 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H74 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H74) ,"")</f>
         <v/>
       </c>
       <c r="H74" s="17" t="str">
@@ -4277,11 +4280,11 @@
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="19" t="str">
-        <f aca="false">IF(I75="","",J74 - G75)</f>
+        <f aca="true">IF(I75="","",INDIRECT("J" &amp; ROW() - 1) - G75)</f>
         <v/>
       </c>
       <c r="G75" s="17" t="str">
-        <f aca="false">IF(I75 = "-", IF(VLOOKUP(D74, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H75 + VLOOKUP(D74, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D74, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H75) ,"")</f>
+        <f aca="true">IF(I75 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H75 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H75) ,"")</f>
         <v/>
       </c>
       <c r="H75" s="17" t="str">
@@ -4326,11 +4329,11 @@
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="19" t="str">
-        <f aca="false">IF(I76="","",J75 - G76)</f>
+        <f aca="true">IF(I76="","",INDIRECT("J" &amp; ROW() - 1) - G76)</f>
         <v/>
       </c>
       <c r="G76" s="17" t="str">
-        <f aca="false">IF(I76 = "-", IF(VLOOKUP(D75, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H76 + VLOOKUP(D75, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D75, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H76) ,"")</f>
+        <f aca="true">IF(I76 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H76 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H76) ,"")</f>
         <v/>
       </c>
       <c r="H76" s="17" t="str">
@@ -4375,11 +4378,11 @@
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="19" t="str">
-        <f aca="false">IF(I77="","",J76 - G77)</f>
+        <f aca="true">IF(I77="","",INDIRECT("J" &amp; ROW() - 1) - G77)</f>
         <v/>
       </c>
       <c r="G77" s="17" t="str">
-        <f aca="false">IF(I77 = "-", IF(VLOOKUP(D76, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H77 + VLOOKUP(D76, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D76, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H77) ,"")</f>
+        <f aca="true">IF(I77 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H77 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H77) ,"")</f>
         <v/>
       </c>
       <c r="H77" s="17" t="str">
@@ -4424,11 +4427,11 @@
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="19" t="str">
-        <f aca="false">IF(I78="","",J77 - G78)</f>
+        <f aca="true">IF(I78="","",INDIRECT("J" &amp; ROW() - 1) - G78)</f>
         <v/>
       </c>
       <c r="G78" s="17" t="str">
-        <f aca="false">IF(I78 = "-", IF(VLOOKUP(D77, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H78 + VLOOKUP(D77, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D77, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H78) ,"")</f>
+        <f aca="true">IF(I78 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H78 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H78) ,"")</f>
         <v/>
       </c>
       <c r="H78" s="17" t="str">
@@ -4473,11 +4476,11 @@
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="19" t="str">
-        <f aca="false">IF(I79="","",J78 - G79)</f>
+        <f aca="true">IF(I79="","",INDIRECT("J" &amp; ROW() - 1) - G79)</f>
         <v/>
       </c>
       <c r="G79" s="17" t="str">
-        <f aca="false">IF(I79 = "-", IF(VLOOKUP(D78, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H79 + VLOOKUP(D78, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D78, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H79) ,"")</f>
+        <f aca="true">IF(I79 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H79 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H79) ,"")</f>
         <v/>
       </c>
       <c r="H79" s="17" t="str">
@@ -4522,11 +4525,11 @@
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="19" t="str">
-        <f aca="false">IF(I80="","",J79 - G80)</f>
+        <f aca="true">IF(I80="","",INDIRECT("J" &amp; ROW() - 1) - G80)</f>
         <v/>
       </c>
       <c r="G80" s="17" t="str">
-        <f aca="false">IF(I80 = "-", IF(VLOOKUP(D79, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H80 + VLOOKUP(D79, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D79, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H80) ,"")</f>
+        <f aca="true">IF(I80 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H80 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H80) ,"")</f>
         <v/>
       </c>
       <c r="H80" s="17" t="str">
@@ -4571,11 +4574,11 @@
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="19" t="str">
-        <f aca="false">IF(I81="","",J80 - G81)</f>
+        <f aca="true">IF(I81="","",INDIRECT("J" &amp; ROW() - 1) - G81)</f>
         <v/>
       </c>
       <c r="G81" s="17" t="str">
-        <f aca="false">IF(I81 = "-", IF(VLOOKUP(D80, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H81 + VLOOKUP(D80, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D80, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H81) ,"")</f>
+        <f aca="true">IF(I81 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H81 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H81) ,"")</f>
         <v/>
       </c>
       <c r="H81" s="17" t="str">
@@ -4620,11 +4623,11 @@
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="19" t="str">
-        <f aca="false">IF(I82="","",J81 - G82)</f>
+        <f aca="true">IF(I82="","",INDIRECT("J" &amp; ROW() - 1) - G82)</f>
         <v/>
       </c>
       <c r="G82" s="17" t="str">
-        <f aca="false">IF(I82 = "-", IF(VLOOKUP(D81, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H82 + VLOOKUP(D81, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D81, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H82) ,"")</f>
+        <f aca="true">IF(I82 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H82 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H82) ,"")</f>
         <v/>
       </c>
       <c r="H82" s="17" t="str">
@@ -4669,11 +4672,11 @@
       </c>
       <c r="E83" s="18"/>
       <c r="F83" s="19" t="str">
-        <f aca="false">IF(I83="","",J82 - G83)</f>
+        <f aca="true">IF(I83="","",INDIRECT("J" &amp; ROW() - 1) - G83)</f>
         <v/>
       </c>
       <c r="G83" s="17" t="str">
-        <f aca="false">IF(I83 = "-", IF(VLOOKUP(D82, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H83 + VLOOKUP(D82, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D82, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H83) ,"")</f>
+        <f aca="true">IF(I83 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H83 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H83) ,"")</f>
         <v/>
       </c>
       <c r="H83" s="17" t="str">
@@ -4718,11 +4721,11 @@
       </c>
       <c r="E84" s="18"/>
       <c r="F84" s="19" t="str">
-        <f aca="false">IF(I84="","",J83 - G84)</f>
+        <f aca="true">IF(I84="","",INDIRECT("J" &amp; ROW() - 1) - G84)</f>
         <v/>
       </c>
       <c r="G84" s="17" t="str">
-        <f aca="false">IF(I84 = "-", IF(VLOOKUP(D83, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H84 + VLOOKUP(D83, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D83, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H84) ,"")</f>
+        <f aca="true">IF(I84 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H84 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H84) ,"")</f>
         <v/>
       </c>
       <c r="H84" s="17" t="str">
@@ -4767,11 +4770,11 @@
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="19" t="str">
-        <f aca="false">IF(I85="","",J84 - G85)</f>
+        <f aca="true">IF(I85="","",INDIRECT("J" &amp; ROW() - 1) - G85)</f>
         <v/>
       </c>
       <c r="G85" s="17" t="str">
-        <f aca="false">IF(I85 = "-", IF(VLOOKUP(D84, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H85 + VLOOKUP(D84, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D84, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H85) ,"")</f>
+        <f aca="true">IF(I85 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H85 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H85) ,"")</f>
         <v/>
       </c>
       <c r="H85" s="17" t="str">
@@ -4816,11 +4819,11 @@
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="19" t="str">
-        <f aca="false">IF(I86="","",J85 - G86)</f>
+        <f aca="true">IF(I86="","",INDIRECT("J" &amp; ROW() - 1) - G86)</f>
         <v/>
       </c>
       <c r="G86" s="17" t="str">
-        <f aca="false">IF(I86 = "-", IF(VLOOKUP(D85, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H86 + VLOOKUP(D85, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D85, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H86) ,"")</f>
+        <f aca="true">IF(I86 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H86 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H86) ,"")</f>
         <v/>
       </c>
       <c r="H86" s="17" t="str">
@@ -4865,11 +4868,11 @@
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="19" t="str">
-        <f aca="false">IF(I87="","",J86 - G87)</f>
+        <f aca="true">IF(I87="","",INDIRECT("J" &amp; ROW() - 1) - G87)</f>
         <v/>
       </c>
       <c r="G87" s="17" t="str">
-        <f aca="false">IF(I87 = "-", IF(VLOOKUP(D86, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H87 + VLOOKUP(D86, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D86, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H87) ,"")</f>
+        <f aca="true">IF(I87 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H87 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H87) ,"")</f>
         <v/>
       </c>
       <c r="H87" s="17" t="str">
@@ -4914,11 +4917,11 @@
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="19" t="str">
-        <f aca="false">IF(I88="","",J87 - G88)</f>
+        <f aca="true">IF(I88="","",INDIRECT("J" &amp; ROW() - 1) - G88)</f>
         <v/>
       </c>
       <c r="G88" s="17" t="str">
-        <f aca="false">IF(I88 = "-", IF(VLOOKUP(D87, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H88 + VLOOKUP(D87, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D87, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H88) ,"")</f>
+        <f aca="true">IF(I88 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H88 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H88) ,"")</f>
         <v/>
       </c>
       <c r="H88" s="17" t="str">
@@ -4963,11 +4966,11 @@
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="19" t="str">
-        <f aca="false">IF(I89="","",J88 - G89)</f>
+        <f aca="true">IF(I89="","",INDIRECT("J" &amp; ROW() - 1) - G89)</f>
         <v/>
       </c>
       <c r="G89" s="17" t="str">
-        <f aca="false">IF(I89 = "-", IF(VLOOKUP(D88, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H89 + VLOOKUP(D88, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D88, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H89) ,"")</f>
+        <f aca="true">IF(I89 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H89 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H89) ,"")</f>
         <v/>
       </c>
       <c r="H89" s="17" t="str">
@@ -5012,11 +5015,11 @@
       </c>
       <c r="E90" s="18"/>
       <c r="F90" s="19" t="str">
-        <f aca="false">IF(I90="","",J89 - G90)</f>
+        <f aca="true">IF(I90="","",INDIRECT("J" &amp; ROW() - 1) - G90)</f>
         <v/>
       </c>
       <c r="G90" s="17" t="str">
-        <f aca="false">IF(I90 = "-", IF(VLOOKUP(D89, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H90 + VLOOKUP(D89, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D89, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H90) ,"")</f>
+        <f aca="true">IF(I90 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H90 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H90) ,"")</f>
         <v/>
       </c>
       <c r="H90" s="17" t="str">
@@ -5061,11 +5064,11 @@
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="19" t="str">
-        <f aca="false">IF(I91="","",J90 - G91)</f>
+        <f aca="true">IF(I91="","",INDIRECT("J" &amp; ROW() - 1) - G91)</f>
         <v/>
       </c>
       <c r="G91" s="17" t="str">
-        <f aca="false">IF(I91 = "-", IF(VLOOKUP(D90, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H91 + VLOOKUP(D90, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D90, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H91) ,"")</f>
+        <f aca="true">IF(I91 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H91 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H91) ,"")</f>
         <v/>
       </c>
       <c r="H91" s="17" t="str">
@@ -5110,11 +5113,11 @@
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="19" t="str">
-        <f aca="false">IF(I92="","",J91 - G92)</f>
+        <f aca="true">IF(I92="","",INDIRECT("J" &amp; ROW() - 1) - G92)</f>
         <v/>
       </c>
       <c r="G92" s="17" t="str">
-        <f aca="false">IF(I92 = "-", IF(VLOOKUP(D91, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H92 + VLOOKUP(D91, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D91, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H92) ,"")</f>
+        <f aca="true">IF(I92 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H92 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H92) ,"")</f>
         <v/>
       </c>
       <c r="H92" s="17" t="str">
@@ -5159,11 +5162,11 @@
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="19" t="str">
-        <f aca="false">IF(I93="","",J92 - G93)</f>
+        <f aca="true">IF(I93="","",INDIRECT("J" &amp; ROW() - 1) - G93)</f>
         <v/>
       </c>
       <c r="G93" s="17" t="str">
-        <f aca="false">IF(I93 = "-", IF(VLOOKUP(D92, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H93 + VLOOKUP(D92, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D92, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H93) ,"")</f>
+        <f aca="true">IF(I93 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H93 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H93) ,"")</f>
         <v/>
       </c>
       <c r="H93" s="17" t="str">
@@ -5208,11 +5211,11 @@
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="19" t="str">
-        <f aca="false">IF(I94="","",J93 - G94)</f>
+        <f aca="true">IF(I94="","",INDIRECT("J" &amp; ROW() - 1) - G94)</f>
         <v/>
       </c>
       <c r="G94" s="17" t="str">
-        <f aca="false">IF(I94 = "-", IF(VLOOKUP(D93, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H94 + VLOOKUP(D93, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D93, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H94) ,"")</f>
+        <f aca="true">IF(I94 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H94 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H94) ,"")</f>
         <v/>
       </c>
       <c r="H94" s="17" t="str">
@@ -5257,11 +5260,11 @@
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="19" t="str">
-        <f aca="false">IF(I95="","",J94 - G95)</f>
+        <f aca="true">IF(I95="","",INDIRECT("J" &amp; ROW() - 1) - G95)</f>
         <v/>
       </c>
       <c r="G95" s="17" t="str">
-        <f aca="false">IF(I95 = "-", IF(VLOOKUP(D94, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H95 + VLOOKUP(D94, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D94, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H95) ,"")</f>
+        <f aca="true">IF(I95 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H95 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H95) ,"")</f>
         <v/>
       </c>
       <c r="H95" s="17" t="str">
@@ -5306,11 +5309,11 @@
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="19" t="str">
-        <f aca="false">IF(I96="","",J95 - G96)</f>
+        <f aca="true">IF(I96="","",INDIRECT("J" &amp; ROW() - 1) - G96)</f>
         <v/>
       </c>
       <c r="G96" s="17" t="str">
-        <f aca="false">IF(I96 = "-", IF(VLOOKUP(D95, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H96 + VLOOKUP(D95, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D95, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H96) ,"")</f>
+        <f aca="true">IF(I96 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H96 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H96) ,"")</f>
         <v/>
       </c>
       <c r="H96" s="17" t="str">
@@ -5355,11 +5358,11 @@
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="19" t="str">
-        <f aca="false">IF(I97="","",J96 - G97)</f>
+        <f aca="true">IF(I97="","",INDIRECT("J" &amp; ROW() - 1) - G97)</f>
         <v/>
       </c>
       <c r="G97" s="17" t="str">
-        <f aca="false">IF(I97 = "-", IF(VLOOKUP(D96, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H97 + VLOOKUP(D96, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D96, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H97) ,"")</f>
+        <f aca="true">IF(I97 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H97 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H97) ,"")</f>
         <v/>
       </c>
       <c r="H97" s="17" t="str">
@@ -5404,11 +5407,11 @@
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="19" t="str">
-        <f aca="false">IF(I98="","",J97 - G98)</f>
+        <f aca="true">IF(I98="","",INDIRECT("J" &amp; ROW() - 1) - G98)</f>
         <v/>
       </c>
       <c r="G98" s="17" t="str">
-        <f aca="false">IF(I98 = "-", IF(VLOOKUP(D97, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H98 + VLOOKUP(D97, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D97, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H98) ,"")</f>
+        <f aca="true">IF(I98 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H98 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H98) ,"")</f>
         <v/>
       </c>
       <c r="H98" s="17" t="str">
@@ -5453,11 +5456,11 @@
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="19" t="str">
-        <f aca="false">IF(I99="","",J98 - G99)</f>
+        <f aca="true">IF(I99="","",INDIRECT("J" &amp; ROW() - 1) - G99)</f>
         <v/>
       </c>
       <c r="G99" s="17" t="str">
-        <f aca="false">IF(I99 = "-", IF(VLOOKUP(D98, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H99 + VLOOKUP(D98, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D98, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H99) ,"")</f>
+        <f aca="true">IF(I99 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H99 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H99) ,"")</f>
         <v/>
       </c>
       <c r="H99" s="17" t="str">
@@ -5502,11 +5505,11 @@
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="19" t="str">
-        <f aca="false">IF(I100="","",J99 - G100)</f>
+        <f aca="true">IF(I100="","",INDIRECT("J" &amp; ROW() - 1) - G100)</f>
         <v/>
       </c>
       <c r="G100" s="17" t="str">
-        <f aca="false">IF(I100 = "-", IF(VLOOKUP(D99, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H100 + VLOOKUP(D99, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D99, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H100) ,"")</f>
+        <f aca="true">IF(I100 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H100 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H100) ,"")</f>
         <v/>
       </c>
       <c r="H100" s="17" t="str">
@@ -5551,11 +5554,11 @@
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="19" t="str">
-        <f aca="false">IF(I101="","",J100 - G101)</f>
+        <f aca="true">IF(I101="","",INDIRECT("J" &amp; ROW() - 1) - G101)</f>
         <v/>
       </c>
       <c r="G101" s="17" t="str">
-        <f aca="false">IF(I101 = "-", IF(VLOOKUP(D100, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H101 + VLOOKUP(D100, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D100, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H101) ,"")</f>
+        <f aca="true">IF(I101 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H101 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H101) ,"")</f>
         <v/>
       </c>
       <c r="H101" s="17" t="str">
@@ -5594,17 +5597,17 @@
         <f aca="false">IF(D102="","",VLOOKUP(D102, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C102" s="17" t="str">
+      <c r="C102" s="21" t="str">
         <f aca="false">IF(D102="","",VLOOKUP(D102, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="19" t="str">
-        <f aca="false">IF(I102="","",J101 - G102)</f>
+        <f aca="true">IF(I102="","",INDIRECT("J" &amp; ROW() - 1) - G102)</f>
         <v/>
       </c>
       <c r="G102" s="17" t="str">
-        <f aca="false">IF(I102 = "-", IF(VLOOKUP(D101, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H102 + VLOOKUP(D101, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D101, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H102) ,"")</f>
+        <f aca="true">IF(I102 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H102 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H102) ,"")</f>
         <v/>
       </c>
       <c r="H102" s="17" t="str">
@@ -5643,17 +5646,17 @@
         <f aca="false">IF(D103="","",VLOOKUP(D103, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C103" s="17" t="str">
+      <c r="C103" s="21" t="str">
         <f aca="false">IF(D103="","",VLOOKUP(D103, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="19" t="str">
-        <f aca="false">IF(I103="","",J102 - G103)</f>
+        <f aca="true">IF(I103="","",INDIRECT("J" &amp; ROW() - 1) - G103)</f>
         <v/>
       </c>
       <c r="G103" s="17" t="str">
-        <f aca="false">IF(I103 = "-", IF(VLOOKUP(D102, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H103 + VLOOKUP(D102, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D102, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H103) ,"")</f>
+        <f aca="true">IF(I103 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H103 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H103) ,"")</f>
         <v/>
       </c>
       <c r="H103" s="17" t="str">
@@ -5692,17 +5695,17 @@
         <f aca="false">IF(D104="","",VLOOKUP(D104, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C104" s="17" t="str">
+      <c r="C104" s="21" t="str">
         <f aca="false">IF(D104="","",VLOOKUP(D104, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="19" t="str">
-        <f aca="false">IF(I104="","",J103 - G104)</f>
+        <f aca="true">IF(I104="","",INDIRECT("J" &amp; ROW() - 1) - G104)</f>
         <v/>
       </c>
       <c r="G104" s="17" t="str">
-        <f aca="false">IF(I104 = "-", IF(VLOOKUP(D103, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H104 + VLOOKUP(D103, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D103, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H104) ,"")</f>
+        <f aca="true">IF(I104 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H104 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H104) ,"")</f>
         <v/>
       </c>
       <c r="H104" s="17" t="str">
@@ -5741,17 +5744,17 @@
         <f aca="false">IF(D105="","",VLOOKUP(D105, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C105" s="17" t="str">
+      <c r="C105" s="21" t="str">
         <f aca="false">IF(D105="","",VLOOKUP(D105, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E105" s="18"/>
       <c r="F105" s="19" t="str">
-        <f aca="false">IF(I105="","",J104 - G105)</f>
+        <f aca="true">IF(I105="","",INDIRECT("J" &amp; ROW() - 1) - G105)</f>
         <v/>
       </c>
       <c r="G105" s="17" t="str">
-        <f aca="false">IF(I105 = "-", IF(VLOOKUP(D104, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H105 + VLOOKUP(D104, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D104, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H105) ,"")</f>
+        <f aca="true">IF(I105 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H105 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H105) ,"")</f>
         <v/>
       </c>
       <c r="H105" s="17" t="str">
@@ -5790,17 +5793,17 @@
         <f aca="false">IF(D106="","",VLOOKUP(D106, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C106" s="17" t="str">
+      <c r="C106" s="21" t="str">
         <f aca="false">IF(D106="","",VLOOKUP(D106, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="19" t="str">
-        <f aca="false">IF(I106="","",J105 - G106)</f>
+        <f aca="true">IF(I106="","",INDIRECT("J" &amp; ROW() - 1) - G106)</f>
         <v/>
       </c>
       <c r="G106" s="17" t="str">
-        <f aca="false">IF(I106 = "-", IF(VLOOKUP(D105, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H106 + VLOOKUP(D105, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D105, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H106) ,"")</f>
+        <f aca="true">IF(I106 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H106 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H106) ,"")</f>
         <v/>
       </c>
       <c r="H106" s="17" t="str">
@@ -5839,17 +5842,17 @@
         <f aca="false">IF(D107="","",VLOOKUP(D107, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C107" s="17" t="str">
+      <c r="C107" s="21" t="str">
         <f aca="false">IF(D107="","",VLOOKUP(D107, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E107" s="18"/>
       <c r="F107" s="19" t="str">
-        <f aca="false">IF(I107="","",J106 - G107)</f>
+        <f aca="true">IF(I107="","",INDIRECT("J" &amp; ROW() - 1) - G107)</f>
         <v/>
       </c>
       <c r="G107" s="17" t="str">
-        <f aca="false">IF(I107 = "-", IF(VLOOKUP(D106, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H107 + VLOOKUP(D106, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D106, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H107) ,"")</f>
+        <f aca="true">IF(I107 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H107 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H107) ,"")</f>
         <v/>
       </c>
       <c r="H107" s="17" t="str">
@@ -5888,17 +5891,17 @@
         <f aca="false">IF(D108="","",VLOOKUP(D108, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C108" s="17" t="str">
+      <c r="C108" s="21" t="str">
         <f aca="false">IF(D108="","",VLOOKUP(D108, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19" t="str">
-        <f aca="false">IF(I108="","",J107 - G108)</f>
+        <f aca="true">IF(I108="","",INDIRECT("J" &amp; ROW() - 1) - G108)</f>
         <v/>
       </c>
       <c r="G108" s="17" t="str">
-        <f aca="false">IF(I108 = "-", IF(VLOOKUP(D107, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H108 + VLOOKUP(D107, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D107, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H108) ,"")</f>
+        <f aca="true">IF(I108 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H108 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H108) ,"")</f>
         <v/>
       </c>
       <c r="H108" s="17" t="str">
@@ -5937,17 +5940,17 @@
         <f aca="false">IF(D109="","",VLOOKUP(D109, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C109" s="17" t="str">
+      <c r="C109" s="21" t="str">
         <f aca="false">IF(D109="","",VLOOKUP(D109, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="19" t="str">
-        <f aca="false">IF(I109="","",J108 - G109)</f>
+        <f aca="true">IF(I109="","",INDIRECT("J" &amp; ROW() - 1) - G109)</f>
         <v/>
       </c>
       <c r="G109" s="17" t="str">
-        <f aca="false">IF(I109 = "-", IF(VLOOKUP(D108, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H109 + VLOOKUP(D108, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D108, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H109) ,"")</f>
+        <f aca="true">IF(I109 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H109 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H109) ,"")</f>
         <v/>
       </c>
       <c r="H109" s="17" t="str">
@@ -5986,17 +5989,17 @@
         <f aca="false">IF(D110="","",VLOOKUP(D110, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C110" s="17" t="str">
+      <c r="C110" s="21" t="str">
         <f aca="false">IF(D110="","",VLOOKUP(D110, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E110" s="18"/>
       <c r="F110" s="19" t="str">
-        <f aca="false">IF(I110="","",J109 - G110)</f>
+        <f aca="true">IF(I110="","",INDIRECT("J" &amp; ROW() - 1) - G110)</f>
         <v/>
       </c>
       <c r="G110" s="17" t="str">
-        <f aca="false">IF(I110 = "-", IF(VLOOKUP(D109, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H110 + VLOOKUP(D109, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D109, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H110) ,"")</f>
+        <f aca="true">IF(I110 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H110 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H110) ,"")</f>
         <v/>
       </c>
       <c r="H110" s="17" t="str">
@@ -6035,17 +6038,17 @@
         <f aca="false">IF(D111="","",VLOOKUP(D111, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C111" s="17" t="str">
+      <c r="C111" s="21" t="str">
         <f aca="false">IF(D111="","",VLOOKUP(D111, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E111" s="18"/>
       <c r="F111" s="19" t="str">
-        <f aca="false">IF(I111="","",J110 - G111)</f>
+        <f aca="true">IF(I111="","",INDIRECT("J" &amp; ROW() - 1) - G111)</f>
         <v/>
       </c>
       <c r="G111" s="17" t="str">
-        <f aca="false">IF(I111 = "-", IF(VLOOKUP(D110, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H111 + VLOOKUP(D110, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D110, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H111) ,"")</f>
+        <f aca="true">IF(I111 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H111 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H111) ,"")</f>
         <v/>
       </c>
       <c r="H111" s="17" t="str">
@@ -6084,17 +6087,17 @@
         <f aca="false">IF(D112="","",VLOOKUP(D112, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C112" s="17" t="str">
+      <c r="C112" s="21" t="str">
         <f aca="false">IF(D112="","",VLOOKUP(D112, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E112" s="18"/>
       <c r="F112" s="19" t="str">
-        <f aca="false">IF(I112="","",J111 - G112)</f>
+        <f aca="true">IF(I112="","",INDIRECT("J" &amp; ROW() - 1) - G112)</f>
         <v/>
       </c>
       <c r="G112" s="17" t="str">
-        <f aca="false">IF(I112 = "-", IF(VLOOKUP(D111, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H112 + VLOOKUP(D111, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D111, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H112) ,"")</f>
+        <f aca="true">IF(I112 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H112 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H112) ,"")</f>
         <v/>
       </c>
       <c r="H112" s="17" t="str">
@@ -6133,17 +6136,17 @@
         <f aca="false">IF(D113="","",VLOOKUP(D113, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C113" s="17" t="str">
+      <c r="C113" s="21" t="str">
         <f aca="false">IF(D113="","",VLOOKUP(D113, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E113" s="18"/>
       <c r="F113" s="19" t="str">
-        <f aca="false">IF(I113="","",J112 - G113)</f>
+        <f aca="true">IF(I113="","",INDIRECT("J" &amp; ROW() - 1) - G113)</f>
         <v/>
       </c>
       <c r="G113" s="17" t="str">
-        <f aca="false">IF(I113 = "-", IF(VLOOKUP(D112, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H113 + VLOOKUP(D112, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D112, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H113) ,"")</f>
+        <f aca="true">IF(I113 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H113 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H113) ,"")</f>
         <v/>
       </c>
       <c r="H113" s="17" t="str">
@@ -6182,17 +6185,17 @@
         <f aca="false">IF(D114="","",VLOOKUP(D114, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C114" s="17" t="str">
+      <c r="C114" s="21" t="str">
         <f aca="false">IF(D114="","",VLOOKUP(D114, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E114" s="18"/>
       <c r="F114" s="19" t="str">
-        <f aca="false">IF(I114="","",J113 - G114)</f>
+        <f aca="true">IF(I114="","",INDIRECT("J" &amp; ROW() - 1) - G114)</f>
         <v/>
       </c>
       <c r="G114" s="17" t="str">
-        <f aca="false">IF(I114 = "-", IF(VLOOKUP(D113, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H114 + VLOOKUP(D113, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D113, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H114) ,"")</f>
+        <f aca="true">IF(I114 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H114 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H114) ,"")</f>
         <v/>
       </c>
       <c r="H114" s="17" t="str">
@@ -6231,17 +6234,17 @@
         <f aca="false">IF(D115="","",VLOOKUP(D115, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C115" s="17" t="str">
+      <c r="C115" s="21" t="str">
         <f aca="false">IF(D115="","",VLOOKUP(D115, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E115" s="18"/>
       <c r="F115" s="19" t="str">
-        <f aca="false">IF(I115="","",J114 - G115)</f>
+        <f aca="true">IF(I115="","",INDIRECT("J" &amp; ROW() - 1) - G115)</f>
         <v/>
       </c>
       <c r="G115" s="17" t="str">
-        <f aca="false">IF(I115 = "-", IF(VLOOKUP(D114, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H115 + VLOOKUP(D114, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D114, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H115) ,"")</f>
+        <f aca="true">IF(I115 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H115 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H115) ,"")</f>
         <v/>
       </c>
       <c r="H115" s="17" t="str">
@@ -6280,17 +6283,17 @@
         <f aca="false">IF(D116="","",VLOOKUP(D116, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C116" s="17" t="str">
+      <c r="C116" s="21" t="str">
         <f aca="false">IF(D116="","",VLOOKUP(D116, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E116" s="18"/>
       <c r="F116" s="19" t="str">
-        <f aca="false">IF(I116="","",J115 - G116)</f>
+        <f aca="true">IF(I116="","",INDIRECT("J" &amp; ROW() - 1) - G116)</f>
         <v/>
       </c>
       <c r="G116" s="17" t="str">
-        <f aca="false">IF(I116 = "-", IF(VLOOKUP(D115, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H116 + VLOOKUP(D115, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D115, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H116) ,"")</f>
+        <f aca="true">IF(I116 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H116 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H116) ,"")</f>
         <v/>
       </c>
       <c r="H116" s="17" t="str">
@@ -6329,17 +6332,17 @@
         <f aca="false">IF(D117="","",VLOOKUP(D117, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C117" s="17" t="str">
+      <c r="C117" s="21" t="str">
         <f aca="false">IF(D117="","",VLOOKUP(D117, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E117" s="18"/>
       <c r="F117" s="19" t="str">
-        <f aca="false">IF(I117="","",J116 - G117)</f>
+        <f aca="true">IF(I117="","",INDIRECT("J" &amp; ROW() - 1) - G117)</f>
         <v/>
       </c>
       <c r="G117" s="17" t="str">
-        <f aca="false">IF(I117 = "-", IF(VLOOKUP(D116, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H117 + VLOOKUP(D116, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D116, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H117) ,"")</f>
+        <f aca="true">IF(I117 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H117 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H117) ,"")</f>
         <v/>
       </c>
       <c r="H117" s="17" t="str">
@@ -6374,21 +6377,21 @@
       <c r="AMJ117" s="0"/>
     </row>
     <row r="118" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="17" t="str">
+      <c r="B118" s="21" t="str">
         <f aca="false">IF(D118="","",VLOOKUP(D118, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C118" s="17" t="str">
+      <c r="C118" s="21" t="str">
         <f aca="false">IF(D118="","",VLOOKUP(D118, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E118" s="18"/>
       <c r="F118" s="19" t="str">
-        <f aca="false">IF(I118="","",J117 - G118)</f>
+        <f aca="true">IF(I118="","",INDIRECT("J" &amp; ROW() - 1) - G118)</f>
         <v/>
       </c>
       <c r="G118" s="17" t="str">
-        <f aca="false">IF(I118 = "-", IF(VLOOKUP(D117, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H118 + VLOOKUP(D117, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D117, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H118) ,"")</f>
+        <f aca="true">IF(I118 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H118 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H118) ,"")</f>
         <v/>
       </c>
       <c r="H118" s="17" t="str">
@@ -6423,21 +6426,21 @@
       <c r="AMJ118" s="0"/>
     </row>
     <row r="119" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="17" t="str">
+      <c r="B119" s="21" t="str">
         <f aca="false">IF(D119="","",VLOOKUP(D119, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C119" s="17" t="str">
+      <c r="C119" s="21" t="str">
         <f aca="false">IF(D119="","",VLOOKUP(D119, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E119" s="18"/>
       <c r="F119" s="19" t="str">
-        <f aca="false">IF(I119="","",J118 - G119)</f>
+        <f aca="true">IF(I119="","",INDIRECT("J" &amp; ROW() - 1) - G119)</f>
         <v/>
       </c>
       <c r="G119" s="17" t="str">
-        <f aca="false">IF(I119 = "-", IF(VLOOKUP(D118, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H119 + VLOOKUP(D118, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D118, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H119) ,"")</f>
+        <f aca="true">IF(I119 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H119 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H119) ,"")</f>
         <v/>
       </c>
       <c r="H119" s="17" t="str">
@@ -6472,21 +6475,21 @@
       <c r="AMJ119" s="0"/>
     </row>
     <row r="120" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="17" t="str">
+      <c r="B120" s="21" t="str">
         <f aca="false">IF(D120="","",VLOOKUP(D120, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C120" s="17" t="str">
+      <c r="C120" s="21" t="str">
         <f aca="false">IF(D120="","",VLOOKUP(D120, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E120" s="18"/>
       <c r="F120" s="19" t="str">
-        <f aca="false">IF(I120="","",J119 - G120)</f>
+        <f aca="true">IF(I120="","",INDIRECT("J" &amp; ROW() - 1) - G120)</f>
         <v/>
       </c>
       <c r="G120" s="17" t="str">
-        <f aca="false">IF(I120 = "-", IF(VLOOKUP(D119, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H120 + VLOOKUP(D119, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D119, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H120) ,"")</f>
+        <f aca="true">IF(I120 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H120 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H120) ,"")</f>
         <v/>
       </c>
       <c r="H120" s="17" t="str">
@@ -6521,21 +6524,21 @@
       <c r="AMJ120" s="0"/>
     </row>
     <row r="121" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="17" t="str">
+      <c r="B121" s="21" t="str">
         <f aca="false">IF(D121="","",VLOOKUP(D121, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C121" s="17" t="str">
+      <c r="C121" s="21" t="str">
         <f aca="false">IF(D121="","",VLOOKUP(D121, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E121" s="18"/>
       <c r="F121" s="19" t="str">
-        <f aca="false">IF(I121="","",J120 - G121)</f>
+        <f aca="true">IF(I121="","",INDIRECT("J" &amp; ROW() - 1) - G121)</f>
         <v/>
       </c>
       <c r="G121" s="17" t="str">
-        <f aca="false">IF(I121 = "-", IF(VLOOKUP(D120, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H121 + VLOOKUP(D120, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D120, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H121) ,"")</f>
+        <f aca="true">IF(I121 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H121 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H121) ,"")</f>
         <v/>
       </c>
       <c r="H121" s="17" t="str">
@@ -6570,21 +6573,21 @@
       <c r="AMJ121" s="0"/>
     </row>
     <row r="122" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="17" t="str">
+      <c r="B122" s="21" t="str">
         <f aca="false">IF(D122="","",VLOOKUP(D122, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C122" s="17" t="str">
+      <c r="C122" s="21" t="str">
         <f aca="false">IF(D122="","",VLOOKUP(D122, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E122" s="18"/>
       <c r="F122" s="19" t="str">
-        <f aca="false">IF(I122="","",J121 - G122)</f>
+        <f aca="true">IF(I122="","",INDIRECT("J" &amp; ROW() - 1) - G122)</f>
         <v/>
       </c>
       <c r="G122" s="17" t="str">
-        <f aca="false">IF(I122 = "-", IF(VLOOKUP(D121, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H122 + VLOOKUP(D121, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D121, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H122) ,"")</f>
+        <f aca="true">IF(I122 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H122 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H122) ,"")</f>
         <v/>
       </c>
       <c r="H122" s="17" t="str">
@@ -6619,21 +6622,21 @@
       <c r="AMJ122" s="0"/>
     </row>
     <row r="123" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="17" t="str">
+      <c r="B123" s="21" t="str">
         <f aca="false">IF(D123="","",VLOOKUP(D123, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="C123" s="17" t="str">
+      <c r="C123" s="21" t="str">
         <f aca="false">IF(D123="","",VLOOKUP(D123, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
       <c r="E123" s="18"/>
       <c r="F123" s="19" t="str">
-        <f aca="false">IF(I123="","",J122 - G123)</f>
+        <f aca="true">IF(I123="","",INDIRECT("J" &amp; ROW() - 1) - G123)</f>
         <v/>
       </c>
       <c r="G123" s="17" t="str">
-        <f aca="false">IF(I123 = "-", IF(VLOOKUP(D122, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H123 + VLOOKUP(D122, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(D122, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H123) ,"")</f>
+        <f aca="true">IF(I123 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H123 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H123) ,"")</f>
         <v/>
       </c>
       <c r="H123" s="17" t="str">
@@ -6668,8 +6671,8 @@
       <c r="AMJ123" s="0"/>
     </row>
     <row r="124" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
       <c r="E124" s="18"/>
       <c r="F124" s="19" t="str">
         <f aca="true">IF(I124="","",(INDIRECT("N" &amp; ROW() - 1) - M124))</f>
@@ -6695,8 +6698,8 @@
       <c r="AMJ124" s="0"/>
     </row>
     <row r="125" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
       <c r="E125" s="18"/>
       <c r="F125" s="19" t="str">
         <f aca="true">IF(I125="","",(INDIRECT("N" &amp; ROW() - 1) - M125))</f>
@@ -6722,8 +6725,8 @@
       <c r="AMJ125" s="0"/>
     </row>
     <row r="126" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
       <c r="E126" s="18"/>
       <c r="F126" s="19" t="str">
         <f aca="true">IF(I126="","",(INDIRECT("N" &amp; ROW() - 1) - M126))</f>
@@ -6749,8 +6752,8 @@
       <c r="AMJ126" s="0"/>
     </row>
     <row r="127" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
       <c r="E127" s="18"/>
       <c r="F127" s="19" t="str">
         <f aca="true">IF(I127="","",(INDIRECT("N" &amp; ROW() - 1) - M127))</f>
@@ -6776,8 +6779,8 @@
       <c r="AMJ127" s="0"/>
     </row>
     <row r="128" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
       <c r="E128" s="18"/>
       <c r="F128" s="19" t="str">
         <f aca="true">IF(I128="","",(INDIRECT("N" &amp; ROW() - 1) - M128))</f>
@@ -6803,8 +6806,8 @@
       <c r="AMJ128" s="0"/>
     </row>
     <row r="129" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
       <c r="E129" s="18"/>
       <c r="F129" s="19" t="str">
         <f aca="true">IF(I129="","",(INDIRECT("N" &amp; ROW() - 1) - M129))</f>
@@ -6830,8 +6833,8 @@
       <c r="AMJ129" s="0"/>
     </row>
     <row r="130" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
       <c r="E130" s="18"/>
       <c r="F130" s="19" t="str">
         <f aca="true">IF(I130="","",(INDIRECT("N" &amp; ROW() - 1) - M130))</f>
@@ -6857,8 +6860,8 @@
       <c r="AMJ130" s="0"/>
     </row>
     <row r="131" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
       <c r="E131" s="18"/>
       <c r="F131" s="19" t="str">
         <f aca="true">IF(I131="","",(INDIRECT("N" &amp; ROW() - 1) - M131))</f>
@@ -6884,8 +6887,8 @@
       <c r="AMJ131" s="0"/>
     </row>
     <row r="132" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
       <c r="E132" s="18"/>
       <c r="F132" s="19" t="str">
         <f aca="true">IF(I132="","",(INDIRECT("N" &amp; ROW() - 1) - M132))</f>
@@ -6911,8 +6914,8 @@
       <c r="AMJ132" s="0"/>
     </row>
     <row r="133" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
       <c r="E133" s="18"/>
       <c r="F133" s="19" t="str">
         <f aca="true">IF(I133="","",(INDIRECT("N" &amp; ROW() - 1) - M133))</f>
@@ -6938,8 +6941,8 @@
       <c r="AMJ133" s="0"/>
     </row>
     <row r="134" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
       <c r="E134" s="18"/>
       <c r="F134" s="19" t="str">
         <f aca="true">IF(I134="","",(INDIRECT("N" &amp; ROW() - 1) - M134))</f>
@@ -6965,8 +6968,8 @@
       <c r="AMJ134" s="0"/>
     </row>
     <row r="135" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
       <c r="E135" s="18"/>
       <c r="F135" s="19" t="str">
         <f aca="true">IF(I135="","",(INDIRECT("N" &amp; ROW() - 1) - M135))</f>
@@ -6992,8 +6995,8 @@
       <c r="AMJ135" s="0"/>
     </row>
     <row r="136" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
       <c r="E136" s="18"/>
       <c r="F136" s="19" t="str">
         <f aca="true">IF(I136="","",(INDIRECT("N" &amp; ROW() - 1) - M136))</f>
@@ -7019,8 +7022,8 @@
       <c r="AMJ136" s="0"/>
     </row>
     <row r="137" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
       <c r="E137" s="18"/>
       <c r="F137" s="19" t="str">
         <f aca="true">IF(I137="","",(INDIRECT("N" &amp; ROW() - 1) - M137))</f>
@@ -7046,8 +7049,8 @@
       <c r="AMJ137" s="0"/>
     </row>
     <row r="138" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
       <c r="E138" s="18"/>
       <c r="F138" s="19" t="str">
         <f aca="true">IF(I138="","",(INDIRECT("N" &amp; ROW() - 1) - M138))</f>
@@ -7073,8 +7076,8 @@
       <c r="AMJ138" s="0"/>
     </row>
     <row r="139" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
       <c r="E139" s="18"/>
       <c r="F139" s="19" t="str">
         <f aca="true">IF(I139="","",(INDIRECT("N" &amp; ROW() - 1) - M139))</f>
@@ -7100,8 +7103,8 @@
       <c r="AMJ139" s="0"/>
     </row>
     <row r="140" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="17"/>
-      <c r="C140" s="17"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
       <c r="E140" s="18"/>
       <c r="F140" s="19" t="str">
         <f aca="true">IF(I140="","",(INDIRECT("N" &amp; ROW() - 1) - M140))</f>
@@ -7127,8 +7130,8 @@
       <c r="AMJ140" s="0"/>
     </row>
     <row r="141" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="17"/>
-      <c r="C141" s="17"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
       <c r="E141" s="18"/>
       <c r="F141" s="19" t="str">
         <f aca="true">IF(I141="","",(INDIRECT("N" &amp; ROW() - 1) - M141))</f>
@@ -7154,8 +7157,8 @@
       <c r="AMJ141" s="0"/>
     </row>
     <row r="142" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="17"/>
-      <c r="C142" s="17"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
       <c r="E142" s="18"/>
       <c r="F142" s="19" t="str">
         <f aca="true">IF(I142="","",(INDIRECT("N" &amp; ROW() - 1) - M142))</f>
@@ -7181,8 +7184,8 @@
       <c r="AMJ142" s="0"/>
     </row>
     <row r="143" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
       <c r="E143" s="18"/>
       <c r="F143" s="19" t="str">
         <f aca="true">IF(I143="","",(INDIRECT("N" &amp; ROW() - 1) - M143))</f>
@@ -7208,8 +7211,8 @@
       <c r="AMJ143" s="0"/>
     </row>
     <row r="144" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="17"/>
-      <c r="C144" s="17"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
       <c r="E144" s="18"/>
       <c r="F144" s="19" t="str">
         <f aca="true">IF(I144="","",(INDIRECT("N" &amp; ROW() - 1) - M144))</f>
@@ -7235,8 +7238,8 @@
       <c r="AMJ144" s="0"/>
     </row>
     <row r="145" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="17"/>
-      <c r="C145" s="17"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="21"/>
       <c r="E145" s="18"/>
       <c r="F145" s="19" t="str">
         <f aca="true">IF(I145="","",(INDIRECT("N" &amp; ROW() - 1) - M145))</f>
@@ -7262,8 +7265,8 @@
       <c r="AMJ145" s="0"/>
     </row>
     <row r="146" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="17"/>
-      <c r="C146" s="17"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
       <c r="E146" s="18"/>
       <c r="F146" s="19" t="str">
         <f aca="true">IF(I146="","",(INDIRECT("N" &amp; ROW() - 1) - M146))</f>
@@ -7289,8 +7292,8 @@
       <c r="AMJ146" s="0"/>
     </row>
     <row r="147" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="17"/>
-      <c r="C147" s="17"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
       <c r="E147" s="18"/>
       <c r="F147" s="19" t="str">
         <f aca="true">IF(I147="","",(INDIRECT("N" &amp; ROW() - 1) - M147))</f>
@@ -7316,8 +7319,8 @@
       <c r="AMJ147" s="0"/>
     </row>
     <row r="148" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
       <c r="E148" s="18"/>
       <c r="F148" s="19" t="str">
         <f aca="true">IF(I148="","",(INDIRECT("N" &amp; ROW() - 1) - M148))</f>
@@ -7343,8 +7346,8 @@
       <c r="AMJ148" s="0"/>
     </row>
     <row r="149" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="17"/>
-      <c r="C149" s="17"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
       <c r="E149" s="18"/>
       <c r="F149" s="19" t="str">
         <f aca="true">IF(I149="","",(INDIRECT("N" &amp; ROW() - 1) - M149))</f>
@@ -7370,8 +7373,8 @@
       <c r="AMJ149" s="0"/>
     </row>
     <row r="150" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="17"/>
-      <c r="C150" s="17"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
       <c r="E150" s="18"/>
       <c r="F150" s="19" t="str">
         <f aca="true">IF(I150="","",(INDIRECT("N" &amp; ROW() - 1) - M150))</f>
@@ -7397,8 +7400,8 @@
       <c r="AMJ150" s="0"/>
     </row>
     <row r="151" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="21"/>
       <c r="E151" s="18"/>
       <c r="F151" s="19" t="str">
         <f aca="true">IF(I151="","",(INDIRECT("N" &amp; ROW() - 1) - M151))</f>
@@ -7424,8 +7427,8 @@
       <c r="AMJ151" s="0"/>
     </row>
     <row r="152" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="21"/>
       <c r="E152" s="18"/>
       <c r="F152" s="19" t="str">
         <f aca="true">IF(I152="","",(INDIRECT("N" &amp; ROW() - 1) - M152))</f>
@@ -7451,8 +7454,8 @@
       <c r="AMJ152" s="0"/>
     </row>
     <row r="153" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
       <c r="E153" s="18"/>
       <c r="F153" s="19" t="str">
         <f aca="true">IF(I153="","",(INDIRECT("N" &amp; ROW() - 1) - M153))</f>
@@ -7478,8 +7481,8 @@
       <c r="AMJ153" s="0"/>
     </row>
     <row r="154" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
+      <c r="B154" s="21"/>
+      <c r="C154" s="21"/>
       <c r="E154" s="18"/>
       <c r="F154" s="19" t="str">
         <f aca="true">IF(I154="","",(INDIRECT("N" &amp; ROW() - 1) - M154))</f>
@@ -7505,8 +7508,8 @@
       <c r="AMJ154" s="0"/>
     </row>
     <row r="155" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="21"/>
       <c r="E155" s="18"/>
       <c r="F155" s="19" t="str">
         <f aca="true">IF(I155="","",(INDIRECT("N" &amp; ROW() - 1) - M155))</f>
@@ -7532,2327 +7535,2327 @@
       <c r="AMJ155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="22" t="str">
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="23" t="str">
         <f aca="true">IF(I156="","",(INDIRECT("N" &amp; ROW() - 1) - M156))</f>
         <v/>
       </c>
-      <c r="G156" s="23" t="str">
+      <c r="G156" s="24" t="str">
         <f aca="true">IF(I156 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H156" s="23" t="str">
+      <c r="H156" s="24" t="str">
         <f aca="true">IF(I156 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q156" s="24" t="str">
+      <c r="Q156" s="25" t="str">
         <f aca="true">IF(P156 = "", "", P156 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R156" s="24" t="str">
+      <c r="R156" s="25" t="str">
         <f aca="true">IF(I156="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="22" t="str">
+      <c r="B157" s="21"/>
+      <c r="C157" s="21"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="23" t="str">
         <f aca="true">IF(I157="","",(INDIRECT("N" &amp; ROW() - 1) - M157))</f>
         <v/>
       </c>
-      <c r="G157" s="23" t="str">
+      <c r="G157" s="24" t="str">
         <f aca="true">IF(I157 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H157" s="23" t="str">
+      <c r="H157" s="24" t="str">
         <f aca="true">IF(I157 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q157" s="24" t="str">
+      <c r="Q157" s="25" t="str">
         <f aca="true">IF(P157 = "", "", P157 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R157" s="24" t="str">
+      <c r="R157" s="25" t="str">
         <f aca="true">IF(I157="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="17"/>
-      <c r="C158" s="17"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="22" t="str">
+      <c r="B158" s="21"/>
+      <c r="C158" s="21"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="23" t="str">
         <f aca="true">IF(I158="","",(INDIRECT("N" &amp; ROW() - 1) - M158))</f>
         <v/>
       </c>
-      <c r="G158" s="23" t="str">
+      <c r="G158" s="24" t="str">
         <f aca="true">IF(I158 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H158" s="23" t="str">
+      <c r="H158" s="24" t="str">
         <f aca="true">IF(I158 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q158" s="24" t="str">
+      <c r="Q158" s="25" t="str">
         <f aca="true">IF(P158 = "", "", P158 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R158" s="24" t="str">
+      <c r="R158" s="25" t="str">
         <f aca="true">IF(I158="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="22" t="str">
+      <c r="B159" s="21"/>
+      <c r="C159" s="21"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="23" t="str">
         <f aca="true">IF(I159="","",(INDIRECT("N" &amp; ROW() - 1) - M159))</f>
         <v/>
       </c>
-      <c r="G159" s="23" t="str">
+      <c r="G159" s="24" t="str">
         <f aca="true">IF(I159 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H159" s="23" t="str">
+      <c r="H159" s="24" t="str">
         <f aca="true">IF(I159 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q159" s="24" t="str">
+      <c r="Q159" s="25" t="str">
         <f aca="true">IF(P159 = "", "", P159 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R159" s="24" t="str">
+      <c r="R159" s="25" t="str">
         <f aca="true">IF(I159="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="17"/>
-      <c r="C160" s="17"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="22" t="str">
+      <c r="B160" s="21"/>
+      <c r="C160" s="21"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="23" t="str">
         <f aca="true">IF(I160="","",(INDIRECT("N" &amp; ROW() - 1) - M160))</f>
         <v/>
       </c>
-      <c r="G160" s="23" t="str">
+      <c r="G160" s="24" t="str">
         <f aca="true">IF(I160 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H160" s="23" t="str">
+      <c r="H160" s="24" t="str">
         <f aca="true">IF(I160 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q160" s="24" t="str">
+      <c r="Q160" s="25" t="str">
         <f aca="true">IF(P160 = "", "", P160 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R160" s="24" t="str">
+      <c r="R160" s="25" t="str">
         <f aca="true">IF(I160="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="22" t="str">
+      <c r="B161" s="21"/>
+      <c r="C161" s="21"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="23" t="str">
         <f aca="true">IF(I161="","",(INDIRECT("N" &amp; ROW() - 1) - M161))</f>
         <v/>
       </c>
-      <c r="G161" s="23" t="str">
+      <c r="G161" s="24" t="str">
         <f aca="true">IF(I161 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H161" s="23" t="str">
+      <c r="H161" s="24" t="str">
         <f aca="true">IF(I161 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q161" s="24" t="str">
+      <c r="Q161" s="25" t="str">
         <f aca="true">IF(P161 = "", "", P161 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R161" s="24" t="str">
+      <c r="R161" s="25" t="str">
         <f aca="true">IF(I161="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="22" t="str">
+      <c r="B162" s="21"/>
+      <c r="C162" s="21"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="23" t="str">
         <f aca="true">IF(I162="","",(INDIRECT("N" &amp; ROW() - 1) - M162))</f>
         <v/>
       </c>
-      <c r="G162" s="23" t="str">
+      <c r="G162" s="24" t="str">
         <f aca="true">IF(I162 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H162" s="23" t="str">
+      <c r="H162" s="24" t="str">
         <f aca="true">IF(I162 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q162" s="24" t="str">
+      <c r="Q162" s="25" t="str">
         <f aca="true">IF(P162 = "", "", P162 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R162" s="24" t="str">
+      <c r="R162" s="25" t="str">
         <f aca="true">IF(I162="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="17"/>
-      <c r="C163" s="17"/>
-      <c r="E163" s="21"/>
-      <c r="F163" s="22" t="str">
+      <c r="B163" s="21"/>
+      <c r="C163" s="21"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="23" t="str">
         <f aca="true">IF(I163="","",(INDIRECT("N" &amp; ROW() - 1) - M163))</f>
         <v/>
       </c>
-      <c r="G163" s="23" t="str">
+      <c r="G163" s="24" t="str">
         <f aca="true">IF(I163 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H163" s="23" t="str">
+      <c r="H163" s="24" t="str">
         <f aca="true">IF(I163 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q163" s="24" t="str">
+      <c r="Q163" s="25" t="str">
         <f aca="true">IF(P163 = "", "", P163 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R163" s="24" t="str">
+      <c r="R163" s="25" t="str">
         <f aca="true">IF(I163="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="17"/>
-      <c r="C164" s="17"/>
-      <c r="E164" s="21"/>
-      <c r="F164" s="22" t="str">
+      <c r="B164" s="21"/>
+      <c r="C164" s="21"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="23" t="str">
         <f aca="true">IF(I164="","",(INDIRECT("N" &amp; ROW() - 1) - M164))</f>
         <v/>
       </c>
-      <c r="G164" s="23" t="str">
+      <c r="G164" s="24" t="str">
         <f aca="true">IF(I164 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H164" s="23" t="str">
+      <c r="H164" s="24" t="str">
         <f aca="true">IF(I164 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q164" s="24" t="str">
+      <c r="Q164" s="25" t="str">
         <f aca="true">IF(P164 = "", "", P164 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R164" s="24" t="str">
+      <c r="R164" s="25" t="str">
         <f aca="true">IF(I164="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="17"/>
-      <c r="C165" s="17"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="22" t="str">
+      <c r="B165" s="21"/>
+      <c r="C165" s="21"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="23" t="str">
         <f aca="true">IF(I165="","",(INDIRECT("N" &amp; ROW() - 1) - M165))</f>
         <v/>
       </c>
-      <c r="G165" s="23" t="str">
+      <c r="G165" s="24" t="str">
         <f aca="true">IF(I165 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H165" s="23" t="str">
+      <c r="H165" s="24" t="str">
         <f aca="true">IF(I165 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q165" s="24" t="str">
+      <c r="Q165" s="25" t="str">
         <f aca="true">IF(P165 = "", "", P165 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R165" s="24" t="str">
+      <c r="R165" s="25" t="str">
         <f aca="true">IF(I165="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="17"/>
-      <c r="C166" s="17"/>
-      <c r="E166" s="21"/>
-      <c r="F166" s="22" t="str">
+      <c r="B166" s="21"/>
+      <c r="C166" s="21"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="23" t="str">
         <f aca="true">IF(I166="","",(INDIRECT("N" &amp; ROW() - 1) - M166))</f>
         <v/>
       </c>
-      <c r="H166" s="23" t="str">
+      <c r="H166" s="24" t="str">
         <f aca="true">IF(I166 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q166" s="24" t="str">
+      <c r="Q166" s="25" t="str">
         <f aca="true">IF(P166 = "", "", P166 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R166" s="24" t="str">
+      <c r="R166" s="25" t="str">
         <f aca="true">IF(I166="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="17"/>
-      <c r="C167" s="17"/>
-      <c r="E167" s="21"/>
-      <c r="F167" s="22" t="str">
+      <c r="B167" s="21"/>
+      <c r="C167" s="21"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="23" t="str">
         <f aca="true">IF(I167="","",(INDIRECT("N" &amp; ROW() - 1) - M167))</f>
         <v/>
       </c>
-      <c r="H167" s="23" t="str">
+      <c r="H167" s="24" t="str">
         <f aca="true">IF(I167 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q167" s="24" t="str">
+      <c r="Q167" s="25" t="str">
         <f aca="true">IF(P167 = "", "", P167 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R167" s="24" t="str">
+      <c r="R167" s="25" t="str">
         <f aca="true">IF(I167="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="17"/>
-      <c r="C168" s="17"/>
-      <c r="E168" s="21"/>
-      <c r="F168" s="22" t="str">
+      <c r="B168" s="21"/>
+      <c r="C168" s="21"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="23" t="str">
         <f aca="true">IF(I168="","",(INDIRECT("N" &amp; ROW() - 1) - M168))</f>
         <v/>
       </c>
-      <c r="H168" s="23" t="str">
+      <c r="H168" s="24" t="str">
         <f aca="true">IF(I168 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q168" s="24" t="str">
+      <c r="Q168" s="25" t="str">
         <f aca="true">IF(P168 = "", "", P168 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R168" s="24" t="str">
+      <c r="R168" s="25" t="str">
         <f aca="true">IF(I168="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="17"/>
-      <c r="C169" s="17"/>
-      <c r="E169" s="21"/>
-      <c r="F169" s="22" t="str">
+      <c r="B169" s="21"/>
+      <c r="C169" s="21"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="23" t="str">
         <f aca="true">IF(I169="","",(INDIRECT("N" &amp; ROW() - 1) - M169))</f>
         <v/>
       </c>
-      <c r="H169" s="23" t="str">
+      <c r="H169" s="24" t="str">
         <f aca="true">IF(I169 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q169" s="24" t="str">
+      <c r="Q169" s="25" t="str">
         <f aca="true">IF(P169 = "", "", P169 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R169" s="24" t="str">
+      <c r="R169" s="25" t="str">
         <f aca="true">IF(I169="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="17"/>
-      <c r="C170" s="17"/>
-      <c r="E170" s="21"/>
-      <c r="F170" s="22" t="str">
+      <c r="B170" s="21"/>
+      <c r="C170" s="21"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="23" t="str">
         <f aca="true">IF(I170="","",(INDIRECT("N" &amp; ROW() - 1) - M170))</f>
         <v/>
       </c>
-      <c r="H170" s="23" t="str">
+      <c r="H170" s="24" t="str">
         <f aca="true">IF(I170 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q170" s="24" t="str">
+      <c r="Q170" s="25" t="str">
         <f aca="true">IF(P170 = "", "", P170 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R170" s="24" t="str">
+      <c r="R170" s="25" t="str">
         <f aca="true">IF(I170="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
-      <c r="E171" s="21"/>
-      <c r="F171" s="22" t="str">
+      <c r="B171" s="21"/>
+      <c r="C171" s="21"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="23" t="str">
         <f aca="true">IF(I171="","",(INDIRECT("N" &amp; ROW() - 1) - M171))</f>
         <v/>
       </c>
-      <c r="H171" s="23" t="str">
+      <c r="H171" s="24" t="str">
         <f aca="true">IF(I171 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q171" s="24" t="str">
+      <c r="Q171" s="25" t="str">
         <f aca="true">IF(P171 = "", "", P171 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R171" s="24" t="str">
+      <c r="R171" s="25" t="str">
         <f aca="true">IF(I171="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="17"/>
-      <c r="C172" s="17"/>
-      <c r="E172" s="21"/>
-      <c r="F172" s="22" t="str">
+      <c r="B172" s="21"/>
+      <c r="C172" s="21"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="23" t="str">
         <f aca="true">IF(I172="","",(INDIRECT("N" &amp; ROW() - 1) - M172))</f>
         <v/>
       </c>
-      <c r="H172" s="23" t="str">
+      <c r="H172" s="24" t="str">
         <f aca="true">IF(I172 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q172" s="24" t="str">
+      <c r="Q172" s="25" t="str">
         <f aca="true">IF(P172 = "", "", P172 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R172" s="24" t="str">
+      <c r="R172" s="25" t="str">
         <f aca="true">IF(I172="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="17"/>
-      <c r="C173" s="17"/>
-      <c r="E173" s="21"/>
-      <c r="F173" s="22" t="str">
+      <c r="B173" s="21"/>
+      <c r="C173" s="21"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="23" t="str">
         <f aca="true">IF(I173="","",(INDIRECT("N" &amp; ROW() - 1) - M173))</f>
         <v/>
       </c>
-      <c r="H173" s="23" t="str">
+      <c r="H173" s="24" t="str">
         <f aca="true">IF(I173 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q173" s="24" t="str">
+      <c r="Q173" s="25" t="str">
         <f aca="true">IF(P173 = "", "", P173 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R173" s="24" t="str">
+      <c r="R173" s="25" t="str">
         <f aca="true">IF(I173="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="17"/>
-      <c r="C174" s="17"/>
-      <c r="E174" s="21"/>
-      <c r="F174" s="22" t="str">
+      <c r="B174" s="21"/>
+      <c r="C174" s="21"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="23" t="str">
         <f aca="true">IF(I174="","",(INDIRECT("N" &amp; ROW() - 1) - M174))</f>
         <v/>
       </c>
-      <c r="H174" s="23" t="str">
+      <c r="H174" s="24" t="str">
         <f aca="true">IF(I174 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q174" s="24" t="str">
+      <c r="Q174" s="25" t="str">
         <f aca="true">IF(P174 = "", "", P174 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R174" s="24" t="str">
+      <c r="R174" s="25" t="str">
         <f aca="true">IF(I174="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="17"/>
-      <c r="C175" s="17"/>
-      <c r="E175" s="21"/>
-      <c r="F175" s="22" t="str">
+      <c r="B175" s="21"/>
+      <c r="C175" s="21"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="23" t="str">
         <f aca="true">IF(I175="","",(INDIRECT("N" &amp; ROW() - 1) - M175))</f>
         <v/>
       </c>
-      <c r="H175" s="23" t="str">
+      <c r="H175" s="24" t="str">
         <f aca="true">IF(I175 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q175" s="24" t="str">
+      <c r="Q175" s="25" t="str">
         <f aca="true">IF(P175 = "", "", P175 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R175" s="24" t="str">
+      <c r="R175" s="25" t="str">
         <f aca="true">IF(I175="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="17"/>
-      <c r="C176" s="17"/>
-      <c r="E176" s="21"/>
-      <c r="F176" s="22" t="str">
+      <c r="B176" s="21"/>
+      <c r="C176" s="21"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="23" t="str">
         <f aca="true">IF(I176="","",(INDIRECT("N" &amp; ROW() - 1) - M176))</f>
         <v/>
       </c>
-      <c r="H176" s="23" t="str">
+      <c r="H176" s="24" t="str">
         <f aca="true">IF(I176 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q176" s="24" t="str">
+      <c r="Q176" s="25" t="str">
         <f aca="true">IF(P176 = "", "", P176 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R176" s="24" t="str">
+      <c r="R176" s="25" t="str">
         <f aca="true">IF(I176="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="17"/>
-      <c r="C177" s="17"/>
-      <c r="E177" s="21"/>
-      <c r="F177" s="22" t="str">
+      <c r="B177" s="21"/>
+      <c r="C177" s="21"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="23" t="str">
         <f aca="true">IF(I177="","",(INDIRECT("N" &amp; ROW() - 1) - M177))</f>
         <v/>
       </c>
-      <c r="H177" s="23" t="str">
+      <c r="H177" s="24" t="str">
         <f aca="true">IF(I177 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q177" s="24" t="str">
+      <c r="Q177" s="25" t="str">
         <f aca="true">IF(P177 = "", "", P177 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R177" s="24" t="str">
+      <c r="R177" s="25" t="str">
         <f aca="true">IF(I177="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="17"/>
-      <c r="C178" s="17"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="22" t="str">
+      <c r="B178" s="21"/>
+      <c r="C178" s="21"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="23" t="str">
         <f aca="true">IF(I178="","",(INDIRECT("N" &amp; ROW() - 1) - M178))</f>
         <v/>
       </c>
-      <c r="H178" s="23" t="str">
+      <c r="H178" s="24" t="str">
         <f aca="true">IF(I178 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q178" s="24" t="str">
+      <c r="Q178" s="25" t="str">
         <f aca="true">IF(P178 = "", "", P178 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R178" s="24" t="str">
+      <c r="R178" s="25" t="str">
         <f aca="true">IF(I178="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="17"/>
-      <c r="C179" s="17"/>
-      <c r="E179" s="21"/>
-      <c r="F179" s="22" t="str">
+      <c r="B179" s="21"/>
+      <c r="C179" s="21"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="23" t="str">
         <f aca="true">IF(I179="","",(INDIRECT("N" &amp; ROW() - 1) - M179))</f>
         <v/>
       </c>
-      <c r="H179" s="23" t="str">
+      <c r="H179" s="24" t="str">
         <f aca="true">IF(I179 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q179" s="24" t="str">
+      <c r="Q179" s="25" t="str">
         <f aca="true">IF(P179 = "", "", P179 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R179" s="24" t="str">
+      <c r="R179" s="25" t="str">
         <f aca="true">IF(I179="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="17"/>
-      <c r="C180" s="17"/>
-      <c r="E180" s="21"/>
-      <c r="F180" s="22" t="str">
+      <c r="B180" s="21"/>
+      <c r="C180" s="21"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="23" t="str">
         <f aca="true">IF(I180="","",(INDIRECT("N" &amp; ROW() - 1) - M180))</f>
         <v/>
       </c>
-      <c r="H180" s="23" t="str">
+      <c r="H180" s="24" t="str">
         <f aca="true">IF(I180 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q180" s="24" t="str">
+      <c r="Q180" s="25" t="str">
         <f aca="true">IF(P180 = "", "", P180 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R180" s="24" t="str">
+      <c r="R180" s="25" t="str">
         <f aca="true">IF(I180="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="17"/>
-      <c r="C181" s="17"/>
-      <c r="E181" s="21"/>
-      <c r="F181" s="22" t="str">
+      <c r="B181" s="21"/>
+      <c r="C181" s="21"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="23" t="str">
         <f aca="true">IF(I181="","",(INDIRECT("N" &amp; ROW() - 1) - M181))</f>
         <v/>
       </c>
-      <c r="H181" s="23" t="str">
+      <c r="H181" s="24" t="str">
         <f aca="true">IF(I181 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q181" s="24" t="str">
+      <c r="Q181" s="25" t="str">
         <f aca="true">IF(P181 = "", "", P181 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R181" s="24" t="str">
+      <c r="R181" s="25" t="str">
         <f aca="true">IF(I181="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="17"/>
-      <c r="C182" s="17"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="22" t="str">
+      <c r="B182" s="21"/>
+      <c r="C182" s="21"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="23" t="str">
         <f aca="true">IF(I182="","",(INDIRECT("N" &amp; ROW() - 1) - M182))</f>
         <v/>
       </c>
-      <c r="H182" s="23" t="str">
+      <c r="H182" s="24" t="str">
         <f aca="true">IF(I182 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q182" s="24" t="str">
+      <c r="Q182" s="25" t="str">
         <f aca="true">IF(P182 = "", "", P182 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R182" s="24" t="str">
+      <c r="R182" s="25" t="str">
         <f aca="true">IF(I182="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="17"/>
-      <c r="C183" s="17"/>
-      <c r="E183" s="21"/>
-      <c r="F183" s="22" t="str">
+      <c r="B183" s="21"/>
+      <c r="C183" s="21"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="23" t="str">
         <f aca="true">IF(I183="","",(INDIRECT("N" &amp; ROW() - 1) - M183))</f>
         <v/>
       </c>
-      <c r="H183" s="23" t="str">
+      <c r="H183" s="24" t="str">
         <f aca="true">IF(I183 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q183" s="24" t="str">
+      <c r="Q183" s="25" t="str">
         <f aca="true">IF(P183 = "", "", P183 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R183" s="24" t="str">
+      <c r="R183" s="25" t="str">
         <f aca="true">IF(I183="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="17"/>
-      <c r="C184" s="17"/>
-      <c r="E184" s="21"/>
-      <c r="F184" s="22" t="str">
+      <c r="B184" s="21"/>
+      <c r="C184" s="21"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="23" t="str">
         <f aca="true">IF(I184="","",(INDIRECT("N" &amp; ROW() - 1) - M184))</f>
         <v/>
       </c>
-      <c r="H184" s="23" t="str">
+      <c r="H184" s="24" t="str">
         <f aca="true">IF(I184 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q184" s="24" t="str">
+      <c r="Q184" s="25" t="str">
         <f aca="true">IF(P184 = "", "", P184 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R184" s="24" t="str">
+      <c r="R184" s="25" t="str">
         <f aca="true">IF(I184="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="17"/>
-      <c r="C185" s="17"/>
-      <c r="E185" s="21"/>
-      <c r="F185" s="22" t="str">
+      <c r="B185" s="21"/>
+      <c r="C185" s="21"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="23" t="str">
         <f aca="true">IF(I185="","",(INDIRECT("N" &amp; ROW() - 1) - M185))</f>
         <v/>
       </c>
-      <c r="H185" s="23" t="str">
+      <c r="H185" s="24" t="str">
         <f aca="true">IF(I185 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q185" s="24"/>
-      <c r="R185" s="24" t="str">
+      <c r="Q185" s="25"/>
+      <c r="R185" s="25" t="str">
         <f aca="true">IF(I185="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="17"/>
-      <c r="C186" s="17"/>
-      <c r="E186" s="21"/>
-      <c r="F186" s="22" t="str">
+      <c r="B186" s="21"/>
+      <c r="C186" s="21"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="23" t="str">
         <f aca="true">IF(I186="","",(INDIRECT("N" &amp; ROW() - 1) - M186))</f>
         <v/>
       </c>
-      <c r="H186" s="23" t="str">
+      <c r="H186" s="24" t="str">
         <f aca="true">IF(I186 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q186" s="24"/>
-      <c r="R186" s="24" t="str">
+      <c r="Q186" s="25"/>
+      <c r="R186" s="25" t="str">
         <f aca="true">IF(I186="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="17"/>
-      <c r="C187" s="17"/>
-      <c r="E187" s="21"/>
-      <c r="F187" s="22" t="str">
+      <c r="B187" s="21"/>
+      <c r="C187" s="21"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="23" t="str">
         <f aca="true">IF(I187="","",(INDIRECT("N" &amp; ROW() - 1) - M187))</f>
         <v/>
       </c>
-      <c r="H187" s="23" t="str">
+      <c r="H187" s="24" t="str">
         <f aca="true">IF(I187 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q187" s="24"/>
-      <c r="R187" s="24" t="str">
+      <c r="Q187" s="25"/>
+      <c r="R187" s="25" t="str">
         <f aca="true">IF(I187="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="17"/>
-      <c r="C188" s="17"/>
-      <c r="E188" s="21"/>
-      <c r="F188" s="22" t="str">
+      <c r="B188" s="21"/>
+      <c r="C188" s="21"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="23" t="str">
         <f aca="true">IF(I188="","",(INDIRECT("N" &amp; ROW() - 1) - M188))</f>
         <v/>
       </c>
-      <c r="H188" s="23" t="str">
+      <c r="H188" s="24" t="str">
         <f aca="true">IF(I188 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q188" s="24"/>
-      <c r="R188" s="24" t="str">
+      <c r="Q188" s="25"/>
+      <c r="R188" s="25" t="str">
         <f aca="true">IF(I188="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="17"/>
-      <c r="C189" s="17"/>
-      <c r="E189" s="21"/>
-      <c r="F189" s="22" t="str">
+      <c r="B189" s="21"/>
+      <c r="C189" s="21"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="23" t="str">
         <f aca="true">IF(I189="","",(INDIRECT("N" &amp; ROW() - 1) - M189))</f>
         <v/>
       </c>
-      <c r="H189" s="23" t="str">
+      <c r="H189" s="24" t="str">
         <f aca="true">IF(I189 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q189" s="24"/>
-      <c r="R189" s="24" t="str">
+      <c r="Q189" s="25"/>
+      <c r="R189" s="25" t="str">
         <f aca="true">IF(I189="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="17"/>
-      <c r="C190" s="17"/>
-      <c r="E190" s="21"/>
-      <c r="F190" s="22" t="str">
+      <c r="B190" s="21"/>
+      <c r="C190" s="21"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="23" t="str">
         <f aca="true">IF(I190="","",(INDIRECT("N" &amp; ROW() - 1) - M190))</f>
         <v/>
       </c>
-      <c r="H190" s="23" t="str">
+      <c r="H190" s="24" t="str">
         <f aca="true">IF(I190 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q190" s="24"/>
-      <c r="R190" s="24" t="str">
+      <c r="Q190" s="25"/>
+      <c r="R190" s="25" t="str">
         <f aca="true">IF(I190="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="17"/>
-      <c r="C191" s="17"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="22" t="str">
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="23" t="str">
         <f aca="true">IF(I191="","",(INDIRECT("N" &amp; ROW() - 1) - M191))</f>
         <v/>
       </c>
-      <c r="H191" s="23" t="str">
+      <c r="H191" s="24" t="str">
         <f aca="true">IF(I191 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q191" s="24"/>
-      <c r="R191" s="24" t="str">
+      <c r="Q191" s="25"/>
+      <c r="R191" s="25" t="str">
         <f aca="true">IF(I191="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="17"/>
-      <c r="C192" s="17"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="22" t="str">
+      <c r="B192" s="21"/>
+      <c r="C192" s="21"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="23" t="str">
         <f aca="true">IF(I192="","",(INDIRECT("N" &amp; ROW() - 1) - M192))</f>
         <v/>
       </c>
-      <c r="H192" s="23" t="str">
+      <c r="H192" s="24" t="str">
         <f aca="true">IF(I192 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q192" s="24"/>
-      <c r="R192" s="24" t="str">
+      <c r="Q192" s="25"/>
+      <c r="R192" s="25" t="str">
         <f aca="true">IF(I192="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="17"/>
-      <c r="C193" s="17"/>
-      <c r="E193" s="21"/>
-      <c r="F193" s="22" t="str">
+      <c r="B193" s="21"/>
+      <c r="C193" s="21"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="23" t="str">
         <f aca="true">IF(I193="","",(INDIRECT("N" &amp; ROW() - 1) - M193))</f>
         <v/>
       </c>
-      <c r="H193" s="23" t="str">
+      <c r="H193" s="24" t="str">
         <f aca="true">IF(I193 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q193" s="24"/>
-      <c r="R193" s="24" t="str">
+      <c r="Q193" s="25"/>
+      <c r="R193" s="25" t="str">
         <f aca="true">IF(I193="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="17"/>
-      <c r="C194" s="17"/>
-      <c r="E194" s="21"/>
-      <c r="F194" s="22" t="str">
+      <c r="B194" s="21"/>
+      <c r="C194" s="21"/>
+      <c r="E194" s="22"/>
+      <c r="F194" s="23" t="str">
         <f aca="true">IF(I194="","",(INDIRECT("N" &amp; ROW() - 1) - M194))</f>
         <v/>
       </c>
-      <c r="H194" s="23" t="str">
+      <c r="H194" s="24" t="str">
         <f aca="true">IF(I194 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q194" s="24"/>
-      <c r="R194" s="24" t="str">
+      <c r="Q194" s="25"/>
+      <c r="R194" s="25" t="str">
         <f aca="true">IF(I194="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="17"/>
-      <c r="C195" s="17"/>
-      <c r="E195" s="21"/>
-      <c r="F195" s="22" t="str">
+      <c r="B195" s="21"/>
+      <c r="C195" s="21"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="23" t="str">
         <f aca="true">IF(I195="","",(INDIRECT("N" &amp; ROW() - 1) - M195))</f>
         <v/>
       </c>
-      <c r="H195" s="23" t="str">
+      <c r="H195" s="24" t="str">
         <f aca="true">IF(I195 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q195" s="24"/>
-      <c r="R195" s="24" t="str">
+      <c r="Q195" s="25"/>
+      <c r="R195" s="25" t="str">
         <f aca="true">IF(I195="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="17"/>
-      <c r="C196" s="17"/>
-      <c r="E196" s="21"/>
-      <c r="F196" s="22" t="str">
+      <c r="B196" s="21"/>
+      <c r="C196" s="21"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="23" t="str">
         <f aca="true">IF(I196="","",(INDIRECT("N" &amp; ROW() - 1) - M196))</f>
         <v/>
       </c>
-      <c r="H196" s="23" t="str">
+      <c r="H196" s="24" t="str">
         <f aca="true">IF(I196 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q196" s="24"/>
-      <c r="R196" s="24" t="str">
+      <c r="Q196" s="25"/>
+      <c r="R196" s="25" t="str">
         <f aca="true">IF(I196="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="17"/>
-      <c r="C197" s="17"/>
-      <c r="E197" s="21"/>
-      <c r="F197" s="22" t="str">
+      <c r="B197" s="21"/>
+      <c r="C197" s="21"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="23" t="str">
         <f aca="true">IF(I197="","",(INDIRECT("N" &amp; ROW() - 1) - M197))</f>
         <v/>
       </c>
-      <c r="H197" s="23" t="str">
+      <c r="H197" s="24" t="str">
         <f aca="true">IF(I197 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q197" s="24"/>
-      <c r="R197" s="24" t="str">
+      <c r="Q197" s="25"/>
+      <c r="R197" s="25" t="str">
         <f aca="true">IF(I197="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="17"/>
-      <c r="C198" s="17"/>
-      <c r="E198" s="21"/>
-      <c r="F198" s="21"/>
-      <c r="H198" s="23" t="str">
+      <c r="B198" s="21"/>
+      <c r="C198" s="21"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="22"/>
+      <c r="H198" s="24" t="str">
         <f aca="true">IF(I198 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q198" s="24"/>
-      <c r="R198" s="24" t="str">
+      <c r="Q198" s="25"/>
+      <c r="R198" s="25" t="str">
         <f aca="true">IF(I198="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="17"/>
-      <c r="C199" s="17"/>
-      <c r="E199" s="21"/>
-      <c r="F199" s="21"/>
-      <c r="H199" s="23" t="str">
+      <c r="B199" s="21"/>
+      <c r="C199" s="21"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
+      <c r="H199" s="24" t="str">
         <f aca="true">IF(I199 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q199" s="24"/>
-      <c r="R199" s="24" t="str">
+      <c r="Q199" s="25"/>
+      <c r="R199" s="25" t="str">
         <f aca="true">IF(I199="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="17"/>
-      <c r="C200" s="17"/>
-      <c r="E200" s="21"/>
-      <c r="F200" s="21"/>
-      <c r="H200" s="23" t="str">
+      <c r="B200" s="21"/>
+      <c r="C200" s="21"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22"/>
+      <c r="H200" s="24" t="str">
         <f aca="true">IF(I200 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q200" s="24"/>
-      <c r="R200" s="24" t="str">
+      <c r="Q200" s="25"/>
+      <c r="R200" s="25" t="str">
         <f aca="true">IF(I200="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="17"/>
-      <c r="C201" s="17"/>
-      <c r="E201" s="21"/>
-      <c r="F201" s="21"/>
-      <c r="H201" s="23" t="str">
+      <c r="B201" s="21"/>
+      <c r="C201" s="21"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
+      <c r="H201" s="24" t="str">
         <f aca="true">IF(I201 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q201" s="24"/>
-      <c r="R201" s="24" t="str">
+      <c r="Q201" s="25"/>
+      <c r="R201" s="25" t="str">
         <f aca="true">IF(I201="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="17"/>
-      <c r="C202" s="17"/>
-      <c r="E202" s="21"/>
-      <c r="F202" s="21"/>
-      <c r="H202" s="23" t="str">
+      <c r="B202" s="21"/>
+      <c r="C202" s="21"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22"/>
+      <c r="H202" s="24" t="str">
         <f aca="true">IF(I202 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q202" s="24"/>
-      <c r="R202" s="24" t="str">
+      <c r="Q202" s="25"/>
+      <c r="R202" s="25" t="str">
         <f aca="true">IF(I202="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="17"/>
-      <c r="C203" s="17"/>
-      <c r="E203" s="21"/>
-      <c r="F203" s="21"/>
-      <c r="H203" s="23" t="str">
+      <c r="B203" s="21"/>
+      <c r="C203" s="21"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="22"/>
+      <c r="H203" s="24" t="str">
         <f aca="true">IF(I203 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q203" s="24"/>
-      <c r="R203" s="24" t="str">
+      <c r="Q203" s="25"/>
+      <c r="R203" s="25" t="str">
         <f aca="true">IF(I203="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="17"/>
-      <c r="C204" s="17"/>
-      <c r="E204" s="21"/>
-      <c r="F204" s="21"/>
-      <c r="H204" s="23" t="str">
+      <c r="B204" s="21"/>
+      <c r="C204" s="21"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="22"/>
+      <c r="H204" s="24" t="str">
         <f aca="true">IF(I204 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q204" s="24"/>
-      <c r="R204" s="24" t="str">
+      <c r="Q204" s="25"/>
+      <c r="R204" s="25" t="str">
         <f aca="true">IF(I204="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="17"/>
-      <c r="C205" s="17"/>
-      <c r="E205" s="21"/>
-      <c r="F205" s="21"/>
-      <c r="H205" s="23" t="str">
+      <c r="B205" s="21"/>
+      <c r="C205" s="21"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="H205" s="24" t="str">
         <f aca="true">IF(I205 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q205" s="24"/>
-      <c r="R205" s="24" t="str">
+      <c r="Q205" s="25"/>
+      <c r="R205" s="25" t="str">
         <f aca="true">IF(I205="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="17"/>
-      <c r="C206" s="17"/>
-      <c r="E206" s="21"/>
-      <c r="F206" s="21"/>
-      <c r="H206" s="23" t="str">
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="22"/>
+      <c r="H206" s="24" t="str">
         <f aca="true">IF(I206 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q206" s="24"/>
-      <c r="R206" s="24" t="str">
+      <c r="Q206" s="25"/>
+      <c r="R206" s="25" t="str">
         <f aca="true">IF(I206="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="17"/>
-      <c r="C207" s="17"/>
-      <c r="E207" s="21"/>
-      <c r="F207" s="21"/>
-      <c r="H207" s="23" t="str">
+      <c r="B207" s="21"/>
+      <c r="C207" s="21"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
+      <c r="H207" s="24" t="str">
         <f aca="true">IF(I207 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q207" s="24"/>
-      <c r="R207" s="24" t="str">
+      <c r="Q207" s="25"/>
+      <c r="R207" s="25" t="str">
         <f aca="true">IF(I207="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="17"/>
-      <c r="C208" s="17"/>
-      <c r="E208" s="21"/>
-      <c r="F208" s="21"/>
-      <c r="H208" s="23" t="str">
+      <c r="B208" s="21"/>
+      <c r="C208" s="21"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22"/>
+      <c r="H208" s="24" t="str">
         <f aca="true">IF(I208 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q208" s="24"/>
-      <c r="R208" s="24" t="str">
+      <c r="Q208" s="25"/>
+      <c r="R208" s="25" t="str">
         <f aca="true">IF(I208="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="17"/>
-      <c r="C209" s="17"/>
-      <c r="E209" s="21"/>
-      <c r="F209" s="21"/>
-      <c r="H209" s="23" t="str">
+      <c r="B209" s="21"/>
+      <c r="C209" s="21"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
+      <c r="H209" s="24" t="str">
         <f aca="true">IF(I209 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q209" s="24"/>
-      <c r="R209" s="24" t="str">
+      <c r="Q209" s="25"/>
+      <c r="R209" s="25" t="str">
         <f aca="true">IF(I209="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="17"/>
-      <c r="C210" s="17"/>
-      <c r="E210" s="21"/>
-      <c r="H210" s="23" t="str">
+      <c r="B210" s="21"/>
+      <c r="C210" s="21"/>
+      <c r="E210" s="22"/>
+      <c r="H210" s="24" t="str">
         <f aca="true">IF(I210 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q210" s="24"/>
-      <c r="R210" s="24" t="str">
+      <c r="Q210" s="25"/>
+      <c r="R210" s="25" t="str">
         <f aca="true">IF(I210="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="17"/>
-      <c r="C211" s="17"/>
-      <c r="E211" s="21"/>
-      <c r="H211" s="23" t="str">
+      <c r="B211" s="21"/>
+      <c r="C211" s="21"/>
+      <c r="E211" s="22"/>
+      <c r="H211" s="24" t="str">
         <f aca="true">IF(I211 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q211" s="24"/>
-      <c r="R211" s="24" t="str">
+      <c r="Q211" s="25"/>
+      <c r="R211" s="25" t="str">
         <f aca="true">IF(I211="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="17"/>
-      <c r="C212" s="17"/>
-      <c r="E212" s="21"/>
-      <c r="H212" s="23" t="str">
+      <c r="B212" s="21"/>
+      <c r="C212" s="21"/>
+      <c r="E212" s="22"/>
+      <c r="H212" s="24" t="str">
         <f aca="true">IF(I212 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q212" s="24"/>
-      <c r="R212" s="24" t="str">
+      <c r="Q212" s="25"/>
+      <c r="R212" s="25" t="str">
         <f aca="true">IF(I212="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="17"/>
-      <c r="C213" s="17"/>
-      <c r="E213" s="21"/>
-      <c r="H213" s="23" t="str">
+      <c r="B213" s="21"/>
+      <c r="C213" s="21"/>
+      <c r="E213" s="22"/>
+      <c r="H213" s="24" t="str">
         <f aca="true">IF(I213 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q213" s="24"/>
-      <c r="R213" s="24" t="str">
+      <c r="Q213" s="25"/>
+      <c r="R213" s="25" t="str">
         <f aca="true">IF(I213="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
-      <c r="E214" s="21"/>
-      <c r="H214" s="23" t="str">
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
+      <c r="E214" s="22"/>
+      <c r="H214" s="24" t="str">
         <f aca="true">IF(I214 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q214" s="24"/>
-      <c r="R214" s="24" t="str">
+      <c r="Q214" s="25"/>
+      <c r="R214" s="25" t="str">
         <f aca="true">IF(I214="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="17"/>
-      <c r="C215" s="17"/>
-      <c r="E215" s="21"/>
-      <c r="H215" s="23" t="str">
+      <c r="B215" s="21"/>
+      <c r="C215" s="21"/>
+      <c r="E215" s="22"/>
+      <c r="H215" s="24" t="str">
         <f aca="true">IF(I215 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q215" s="24"/>
-      <c r="R215" s="24" t="str">
+      <c r="Q215" s="25"/>
+      <c r="R215" s="25" t="str">
         <f aca="true">IF(I215="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="17"/>
-      <c r="C216" s="17"/>
-      <c r="E216" s="21"/>
-      <c r="H216" s="23" t="str">
+      <c r="B216" s="21"/>
+      <c r="C216" s="21"/>
+      <c r="E216" s="22"/>
+      <c r="H216" s="24" t="str">
         <f aca="true">IF(I216 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q216" s="24"/>
-      <c r="R216" s="24" t="str">
+      <c r="Q216" s="25"/>
+      <c r="R216" s="25" t="str">
         <f aca="true">IF(I216="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="17"/>
-      <c r="C217" s="17"/>
-      <c r="E217" s="21"/>
-      <c r="H217" s="23" t="str">
+      <c r="B217" s="21"/>
+      <c r="C217" s="21"/>
+      <c r="E217" s="22"/>
+      <c r="H217" s="24" t="str">
         <f aca="true">IF(I217 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q217" s="24"/>
-      <c r="R217" s="24" t="str">
+      <c r="Q217" s="25"/>
+      <c r="R217" s="25" t="str">
         <f aca="true">IF(I217="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="17"/>
-      <c r="C218" s="17"/>
-      <c r="E218" s="21"/>
-      <c r="H218" s="23" t="str">
+      <c r="B218" s="21"/>
+      <c r="C218" s="21"/>
+      <c r="E218" s="22"/>
+      <c r="H218" s="24" t="str">
         <f aca="true">IF(I218 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q218" s="24"/>
-      <c r="R218" s="24" t="str">
+      <c r="Q218" s="25"/>
+      <c r="R218" s="25" t="str">
         <f aca="true">IF(I218="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="17"/>
-      <c r="C219" s="17"/>
-      <c r="E219" s="21"/>
-      <c r="H219" s="23" t="str">
+      <c r="B219" s="21"/>
+      <c r="C219" s="21"/>
+      <c r="E219" s="22"/>
+      <c r="H219" s="24" t="str">
         <f aca="true">IF(I219 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q219" s="24"/>
-      <c r="R219" s="24" t="str">
+      <c r="Q219" s="25"/>
+      <c r="R219" s="25" t="str">
         <f aca="true">IF(I219="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="17"/>
-      <c r="C220" s="17"/>
-      <c r="E220" s="21"/>
-      <c r="H220" s="23" t="str">
+      <c r="B220" s="21"/>
+      <c r="C220" s="21"/>
+      <c r="E220" s="22"/>
+      <c r="H220" s="24" t="str">
         <f aca="true">IF(I220 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q220" s="24"/>
-      <c r="R220" s="24" t="str">
+      <c r="Q220" s="25"/>
+      <c r="R220" s="25" t="str">
         <f aca="true">IF(I220="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="17"/>
-      <c r="C221" s="17"/>
-      <c r="E221" s="21"/>
-      <c r="H221" s="23" t="str">
+      <c r="B221" s="21"/>
+      <c r="C221" s="21"/>
+      <c r="E221" s="22"/>
+      <c r="H221" s="24" t="str">
         <f aca="true">IF(I221 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q221" s="24"/>
-      <c r="R221" s="24" t="str">
+      <c r="Q221" s="25"/>
+      <c r="R221" s="25" t="str">
         <f aca="true">IF(I221="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="17"/>
-      <c r="C222" s="17"/>
-      <c r="E222" s="21"/>
-      <c r="H222" s="23" t="str">
+      <c r="B222" s="21"/>
+      <c r="C222" s="21"/>
+      <c r="E222" s="22"/>
+      <c r="H222" s="24" t="str">
         <f aca="true">IF(I222 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q222" s="24"/>
-      <c r="R222" s="24" t="str">
+      <c r="Q222" s="25"/>
+      <c r="R222" s="25" t="str">
         <f aca="true">IF(I222="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="17"/>
-      <c r="C223" s="17"/>
-      <c r="E223" s="21"/>
-      <c r="H223" s="23" t="str">
+      <c r="B223" s="21"/>
+      <c r="C223" s="21"/>
+      <c r="E223" s="22"/>
+      <c r="H223" s="24" t="str">
         <f aca="true">IF(I223 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q223" s="24"/>
-      <c r="R223" s="24" t="str">
+      <c r="Q223" s="25"/>
+      <c r="R223" s="25" t="str">
         <f aca="true">IF(I223="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="17"/>
-      <c r="C224" s="17"/>
-      <c r="E224" s="21"/>
-      <c r="H224" s="23" t="str">
+      <c r="B224" s="21"/>
+      <c r="C224" s="21"/>
+      <c r="E224" s="22"/>
+      <c r="H224" s="24" t="str">
         <f aca="true">IF(I224 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q224" s="24"/>
-      <c r="R224" s="24" t="str">
+      <c r="Q224" s="25"/>
+      <c r="R224" s="25" t="str">
         <f aca="true">IF(I224="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="17"/>
-      <c r="C225" s="17"/>
-      <c r="E225" s="21"/>
-      <c r="H225" s="23" t="str">
+      <c r="B225" s="21"/>
+      <c r="C225" s="21"/>
+      <c r="E225" s="22"/>
+      <c r="H225" s="24" t="str">
         <f aca="true">IF(I225 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q225" s="24"/>
-      <c r="R225" s="24" t="str">
+      <c r="Q225" s="25"/>
+      <c r="R225" s="25" t="str">
         <f aca="true">IF(I225="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="17"/>
-      <c r="C226" s="17"/>
-      <c r="E226" s="21"/>
-      <c r="H226" s="23" t="str">
+      <c r="B226" s="21"/>
+      <c r="C226" s="21"/>
+      <c r="E226" s="22"/>
+      <c r="H226" s="24" t="str">
         <f aca="true">IF(I226 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q226" s="24"/>
-      <c r="R226" s="24" t="str">
+      <c r="Q226" s="25"/>
+      <c r="R226" s="25" t="str">
         <f aca="true">IF(I226="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="17"/>
-      <c r="C227" s="17"/>
-      <c r="E227" s="21"/>
-      <c r="H227" s="23" t="str">
+      <c r="B227" s="21"/>
+      <c r="C227" s="21"/>
+      <c r="E227" s="22"/>
+      <c r="H227" s="24" t="str">
         <f aca="true">IF(I227 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q227" s="24"/>
-      <c r="R227" s="24" t="str">
+      <c r="Q227" s="25"/>
+      <c r="R227" s="25" t="str">
         <f aca="true">IF(I227="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="17"/>
-      <c r="C228" s="17"/>
-      <c r="E228" s="21"/>
-      <c r="H228" s="23" t="str">
+      <c r="B228" s="21"/>
+      <c r="C228" s="21"/>
+      <c r="E228" s="22"/>
+      <c r="H228" s="24" t="str">
         <f aca="true">IF(I228 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q228" s="24"/>
-      <c r="R228" s="24" t="str">
+      <c r="Q228" s="25"/>
+      <c r="R228" s="25" t="str">
         <f aca="true">IF(I228="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="17"/>
-      <c r="C229" s="17"/>
-      <c r="E229" s="21"/>
-      <c r="H229" s="23" t="str">
+      <c r="B229" s="21"/>
+      <c r="C229" s="21"/>
+      <c r="E229" s="22"/>
+      <c r="H229" s="24" t="str">
         <f aca="true">IF(I229 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q229" s="24"/>
-      <c r="R229" s="24" t="str">
+      <c r="Q229" s="25"/>
+      <c r="R229" s="25" t="str">
         <f aca="true">IF(I229="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="17"/>
-      <c r="C230" s="17"/>
-      <c r="E230" s="21"/>
-      <c r="H230" s="23" t="str">
+      <c r="B230" s="21"/>
+      <c r="C230" s="21"/>
+      <c r="E230" s="22"/>
+      <c r="H230" s="24" t="str">
         <f aca="true">IF(I230 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q230" s="24"/>
-      <c r="R230" s="24"/>
+      <c r="Q230" s="25"/>
+      <c r="R230" s="25"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="17"/>
-      <c r="C231" s="17"/>
-      <c r="E231" s="21"/>
-      <c r="H231" s="23" t="str">
+      <c r="B231" s="21"/>
+      <c r="C231" s="21"/>
+      <c r="E231" s="22"/>
+      <c r="H231" s="24" t="str">
         <f aca="true">IF(I231 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q231" s="24"/>
-      <c r="R231" s="24"/>
+      <c r="Q231" s="25"/>
+      <c r="R231" s="25"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="17"/>
-      <c r="C232" s="17"/>
-      <c r="E232" s="21"/>
-      <c r="H232" s="23" t="str">
+      <c r="B232" s="21"/>
+      <c r="C232" s="21"/>
+      <c r="E232" s="22"/>
+      <c r="H232" s="24" t="str">
         <f aca="true">IF(I232 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q232" s="24"/>
-      <c r="R232" s="24"/>
+      <c r="Q232" s="25"/>
+      <c r="R232" s="25"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="17"/>
-      <c r="C233" s="17"/>
-      <c r="E233" s="21"/>
-      <c r="H233" s="23" t="str">
+      <c r="B233" s="21"/>
+      <c r="C233" s="21"/>
+      <c r="E233" s="22"/>
+      <c r="H233" s="24" t="str">
         <f aca="true">IF(I233 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q233" s="24"/>
-      <c r="R233" s="24"/>
+      <c r="Q233" s="25"/>
+      <c r="R233" s="25"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="17"/>
-      <c r="C234" s="17"/>
-      <c r="E234" s="21"/>
-      <c r="H234" s="23" t="str">
+      <c r="B234" s="21"/>
+      <c r="C234" s="21"/>
+      <c r="E234" s="22"/>
+      <c r="H234" s="24" t="str">
         <f aca="true">IF(I234 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q234" s="24"/>
-      <c r="R234" s="24"/>
+      <c r="Q234" s="25"/>
+      <c r="R234" s="25"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="17"/>
-      <c r="C235" s="17"/>
-      <c r="E235" s="21"/>
-      <c r="H235" s="23" t="str">
+      <c r="B235" s="21"/>
+      <c r="C235" s="21"/>
+      <c r="E235" s="22"/>
+      <c r="H235" s="24" t="str">
         <f aca="true">IF(I235 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q235" s="24"/>
-      <c r="R235" s="24"/>
+      <c r="Q235" s="25"/>
+      <c r="R235" s="25"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="17"/>
-      <c r="C236" s="17"/>
-      <c r="E236" s="21"/>
-      <c r="H236" s="23" t="str">
+      <c r="B236" s="21"/>
+      <c r="C236" s="21"/>
+      <c r="E236" s="22"/>
+      <c r="H236" s="24" t="str">
         <f aca="true">IF(I236 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q236" s="24"/>
-      <c r="R236" s="24"/>
+      <c r="Q236" s="25"/>
+      <c r="R236" s="25"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="17"/>
-      <c r="C237" s="17"/>
-      <c r="E237" s="21"/>
-      <c r="H237" s="23" t="str">
+      <c r="B237" s="21"/>
+      <c r="C237" s="21"/>
+      <c r="E237" s="22"/>
+      <c r="H237" s="24" t="str">
         <f aca="true">IF(I237 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q237" s="24"/>
-      <c r="R237" s="24"/>
+      <c r="Q237" s="25"/>
+      <c r="R237" s="25"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="17"/>
-      <c r="C238" s="17"/>
-      <c r="E238" s="21"/>
-      <c r="H238" s="23" t="str">
+      <c r="B238" s="21"/>
+      <c r="C238" s="21"/>
+      <c r="E238" s="22"/>
+      <c r="H238" s="24" t="str">
         <f aca="true">IF(I238 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q238" s="24"/>
-      <c r="R238" s="24"/>
+      <c r="Q238" s="25"/>
+      <c r="R238" s="25"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="17"/>
-      <c r="C239" s="17"/>
-      <c r="E239" s="21"/>
-      <c r="H239" s="23" t="str">
+      <c r="B239" s="21"/>
+      <c r="C239" s="21"/>
+      <c r="E239" s="22"/>
+      <c r="H239" s="24" t="str">
         <f aca="true">IF(I239 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q239" s="24"/>
-      <c r="R239" s="24"/>
+      <c r="Q239" s="25"/>
+      <c r="R239" s="25"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="17"/>
-      <c r="C240" s="17"/>
-      <c r="E240" s="21"/>
-      <c r="H240" s="23" t="str">
+      <c r="B240" s="21"/>
+      <c r="C240" s="21"/>
+      <c r="E240" s="22"/>
+      <c r="H240" s="24" t="str">
         <f aca="true">IF(I240 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q240" s="24"/>
-      <c r="R240" s="24"/>
+      <c r="Q240" s="25"/>
+      <c r="R240" s="25"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="17"/>
-      <c r="C241" s="17"/>
-      <c r="E241" s="21"/>
-      <c r="H241" s="23" t="str">
+      <c r="B241" s="21"/>
+      <c r="C241" s="21"/>
+      <c r="E241" s="22"/>
+      <c r="H241" s="24" t="str">
         <f aca="true">IF(I241 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q241" s="24"/>
-      <c r="R241" s="24"/>
+      <c r="Q241" s="25"/>
+      <c r="R241" s="25"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="17"/>
-      <c r="C242" s="17"/>
-      <c r="E242" s="21"/>
-      <c r="H242" s="23" t="str">
+      <c r="B242" s="21"/>
+      <c r="C242" s="21"/>
+      <c r="E242" s="22"/>
+      <c r="H242" s="24" t="str">
         <f aca="true">IF(I242 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q242" s="24"/>
-      <c r="R242" s="24"/>
+      <c r="Q242" s="25"/>
+      <c r="R242" s="25"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="17"/>
-      <c r="C243" s="17"/>
-      <c r="E243" s="21"/>
-      <c r="H243" s="23" t="str">
+      <c r="B243" s="21"/>
+      <c r="C243" s="21"/>
+      <c r="E243" s="22"/>
+      <c r="H243" s="24" t="str">
         <f aca="true">IF(I243 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q243" s="24"/>
-      <c r="R243" s="24"/>
+      <c r="Q243" s="25"/>
+      <c r="R243" s="25"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="17"/>
-      <c r="C244" s="17"/>
-      <c r="E244" s="21"/>
-      <c r="H244" s="23" t="str">
+      <c r="B244" s="21"/>
+      <c r="C244" s="21"/>
+      <c r="E244" s="22"/>
+      <c r="H244" s="24" t="str">
         <f aca="true">IF(I244 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q244" s="24"/>
-      <c r="R244" s="24"/>
+      <c r="Q244" s="25"/>
+      <c r="R244" s="25"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="17"/>
-      <c r="C245" s="17"/>
-      <c r="E245" s="21"/>
-      <c r="H245" s="23" t="str">
+      <c r="B245" s="21"/>
+      <c r="C245" s="21"/>
+      <c r="E245" s="22"/>
+      <c r="H245" s="24" t="str">
         <f aca="true">IF(I245 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q245" s="24"/>
-      <c r="R245" s="24"/>
+      <c r="Q245" s="25"/>
+      <c r="R245" s="25"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="17"/>
-      <c r="C246" s="17"/>
-      <c r="E246" s="21"/>
-      <c r="H246" s="23" t="str">
+      <c r="B246" s="21"/>
+      <c r="C246" s="21"/>
+      <c r="E246" s="22"/>
+      <c r="H246" s="24" t="str">
         <f aca="true">IF(I246 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q246" s="24"/>
-      <c r="R246" s="24"/>
+      <c r="Q246" s="25"/>
+      <c r="R246" s="25"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="17"/>
-      <c r="C247" s="17"/>
-      <c r="E247" s="21"/>
-      <c r="H247" s="23" t="str">
+      <c r="B247" s="21"/>
+      <c r="C247" s="21"/>
+      <c r="E247" s="22"/>
+      <c r="H247" s="24" t="str">
         <f aca="true">IF(I247 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q247" s="24"/>
-      <c r="R247" s="24"/>
+      <c r="Q247" s="25"/>
+      <c r="R247" s="25"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="17"/>
-      <c r="C248" s="17"/>
-      <c r="E248" s="21"/>
-      <c r="H248" s="23" t="str">
+      <c r="B248" s="21"/>
+      <c r="C248" s="21"/>
+      <c r="E248" s="22"/>
+      <c r="H248" s="24" t="str">
         <f aca="true">IF(I248 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q248" s="24"/>
-      <c r="R248" s="24"/>
+      <c r="Q248" s="25"/>
+      <c r="R248" s="25"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="17"/>
-      <c r="C249" s="17"/>
-      <c r="E249" s="21"/>
-      <c r="H249" s="23" t="str">
+      <c r="B249" s="21"/>
+      <c r="C249" s="21"/>
+      <c r="E249" s="22"/>
+      <c r="H249" s="24" t="str">
         <f aca="true">IF(I249 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q249" s="24"/>
-      <c r="R249" s="24"/>
+      <c r="Q249" s="25"/>
+      <c r="R249" s="25"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="17"/>
-      <c r="C250" s="17"/>
-      <c r="E250" s="21"/>
-      <c r="H250" s="23" t="str">
+      <c r="B250" s="21"/>
+      <c r="C250" s="21"/>
+      <c r="E250" s="22"/>
+      <c r="H250" s="24" t="str">
         <f aca="true">IF(I250 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q250" s="24"/>
-      <c r="R250" s="24"/>
+      <c r="Q250" s="25"/>
+      <c r="R250" s="25"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="17"/>
-      <c r="C251" s="17"/>
-      <c r="E251" s="21"/>
-      <c r="H251" s="23" t="str">
+      <c r="B251" s="21"/>
+      <c r="C251" s="21"/>
+      <c r="E251" s="22"/>
+      <c r="H251" s="24" t="str">
         <f aca="true">IF(I251 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q251" s="24"/>
-      <c r="R251" s="24"/>
+      <c r="Q251" s="25"/>
+      <c r="R251" s="25"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="17"/>
-      <c r="C252" s="17"/>
-      <c r="E252" s="21"/>
-      <c r="H252" s="23" t="str">
+      <c r="B252" s="21"/>
+      <c r="C252" s="21"/>
+      <c r="E252" s="22"/>
+      <c r="H252" s="24" t="str">
         <f aca="true">IF(I252 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q252" s="24"/>
-      <c r="R252" s="24"/>
+      <c r="Q252" s="25"/>
+      <c r="R252" s="25"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="17"/>
-      <c r="C253" s="17"/>
-      <c r="E253" s="21"/>
-      <c r="H253" s="23" t="str">
+      <c r="B253" s="21"/>
+      <c r="C253" s="21"/>
+      <c r="E253" s="22"/>
+      <c r="H253" s="24" t="str">
         <f aca="true">IF(I253 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q253" s="24"/>
-      <c r="R253" s="24"/>
+      <c r="Q253" s="25"/>
+      <c r="R253" s="25"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="17"/>
-      <c r="C254" s="17"/>
-      <c r="E254" s="21"/>
-      <c r="H254" s="23" t="str">
+      <c r="B254" s="21"/>
+      <c r="C254" s="21"/>
+      <c r="E254" s="22"/>
+      <c r="H254" s="24" t="str">
         <f aca="true">IF(I254 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q254" s="24"/>
-      <c r="R254" s="24"/>
+      <c r="Q254" s="25"/>
+      <c r="R254" s="25"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="17"/>
-      <c r="C255" s="17"/>
-      <c r="E255" s="21"/>
-      <c r="H255" s="23" t="str">
+      <c r="B255" s="21"/>
+      <c r="C255" s="21"/>
+      <c r="E255" s="22"/>
+      <c r="H255" s="24" t="str">
         <f aca="true">IF(I255 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q255" s="24"/>
-      <c r="R255" s="24"/>
+      <c r="Q255" s="25"/>
+      <c r="R255" s="25"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="17"/>
-      <c r="C256" s="17"/>
-      <c r="E256" s="21"/>
-      <c r="H256" s="23" t="str">
+      <c r="B256" s="21"/>
+      <c r="C256" s="21"/>
+      <c r="E256" s="22"/>
+      <c r="H256" s="24" t="str">
         <f aca="true">IF(I256 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q256" s="24"/>
-      <c r="R256" s="24"/>
+      <c r="Q256" s="25"/>
+      <c r="R256" s="25"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="17"/>
-      <c r="C257" s="17"/>
-      <c r="E257" s="21"/>
-      <c r="H257" s="23" t="str">
+      <c r="B257" s="21"/>
+      <c r="C257" s="21"/>
+      <c r="E257" s="22"/>
+      <c r="H257" s="24" t="str">
         <f aca="true">IF(I257 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q257" s="24"/>
-      <c r="R257" s="24"/>
+      <c r="Q257" s="25"/>
+      <c r="R257" s="25"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="17"/>
-      <c r="C258" s="17"/>
-      <c r="E258" s="21"/>
-      <c r="H258" s="23" t="str">
+      <c r="B258" s="21"/>
+      <c r="C258" s="21"/>
+      <c r="E258" s="22"/>
+      <c r="H258" s="24" t="str">
         <f aca="true">IF(I258 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q258" s="24"/>
-      <c r="R258" s="24"/>
+      <c r="Q258" s="25"/>
+      <c r="R258" s="25"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="17"/>
-      <c r="C259" s="17"/>
-      <c r="E259" s="21"/>
-      <c r="H259" s="23" t="str">
+      <c r="B259" s="21"/>
+      <c r="C259" s="21"/>
+      <c r="E259" s="22"/>
+      <c r="H259" s="24" t="str">
         <f aca="true">IF(I259 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q259" s="24"/>
-      <c r="R259" s="24"/>
+      <c r="Q259" s="25"/>
+      <c r="R259" s="25"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="17"/>
-      <c r="C260" s="17"/>
-      <c r="E260" s="21"/>
-      <c r="H260" s="23" t="str">
+      <c r="B260" s="21"/>
+      <c r="C260" s="21"/>
+      <c r="E260" s="22"/>
+      <c r="H260" s="24" t="str">
         <f aca="true">IF(I260 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q260" s="24"/>
-      <c r="R260" s="24"/>
+      <c r="Q260" s="25"/>
+      <c r="R260" s="25"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="17"/>
-      <c r="C261" s="17"/>
-      <c r="E261" s="21"/>
-      <c r="H261" s="23" t="str">
+      <c r="B261" s="21"/>
+      <c r="C261" s="21"/>
+      <c r="E261" s="22"/>
+      <c r="H261" s="24" t="str">
         <f aca="true">IF(I261 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q261" s="24"/>
-      <c r="R261" s="24"/>
+      <c r="Q261" s="25"/>
+      <c r="R261" s="25"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="17"/>
-      <c r="C262" s="17"/>
-      <c r="E262" s="21"/>
-      <c r="H262" s="23" t="str">
+      <c r="B262" s="21"/>
+      <c r="C262" s="21"/>
+      <c r="E262" s="22"/>
+      <c r="H262" s="24" t="str">
         <f aca="true">IF(I262 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q262" s="24"/>
-      <c r="R262" s="24"/>
+      <c r="Q262" s="25"/>
+      <c r="R262" s="25"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="17"/>
-      <c r="C263" s="17"/>
-      <c r="E263" s="21"/>
-      <c r="H263" s="23" t="str">
+      <c r="B263" s="21"/>
+      <c r="C263" s="21"/>
+      <c r="E263" s="22"/>
+      <c r="H263" s="24" t="str">
         <f aca="true">IF(I263 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q263" s="24"/>
-      <c r="R263" s="24"/>
+      <c r="Q263" s="25"/>
+      <c r="R263" s="25"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="17"/>
-      <c r="C264" s="17"/>
-      <c r="E264" s="21"/>
-      <c r="H264" s="23" t="str">
+      <c r="B264" s="21"/>
+      <c r="C264" s="21"/>
+      <c r="E264" s="22"/>
+      <c r="H264" s="24" t="str">
         <f aca="true">IF(I264 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q264" s="24"/>
-      <c r="R264" s="24"/>
+      <c r="Q264" s="25"/>
+      <c r="R264" s="25"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="17"/>
-      <c r="C265" s="17"/>
-      <c r="E265" s="21"/>
-      <c r="H265" s="23" t="str">
+      <c r="B265" s="21"/>
+      <c r="C265" s="21"/>
+      <c r="E265" s="22"/>
+      <c r="H265" s="24" t="str">
         <f aca="true">IF(I265 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q265" s="24"/>
-      <c r="R265" s="24"/>
+      <c r="Q265" s="25"/>
+      <c r="R265" s="25"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="17"/>
-      <c r="C266" s="17"/>
-      <c r="E266" s="21"/>
-      <c r="H266" s="23" t="str">
+      <c r="B266" s="21"/>
+      <c r="C266" s="21"/>
+      <c r="E266" s="22"/>
+      <c r="H266" s="24" t="str">
         <f aca="true">IF(I266 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q266" s="24"/>
-      <c r="R266" s="24"/>
+      <c r="Q266" s="25"/>
+      <c r="R266" s="25"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="17"/>
-      <c r="C267" s="17"/>
-      <c r="E267" s="21"/>
-      <c r="H267" s="23" t="str">
+      <c r="B267" s="21"/>
+      <c r="C267" s="21"/>
+      <c r="E267" s="22"/>
+      <c r="H267" s="24" t="str">
         <f aca="true">IF(I267 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q267" s="24"/>
-      <c r="R267" s="24"/>
+      <c r="Q267" s="25"/>
+      <c r="R267" s="25"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="17"/>
-      <c r="C268" s="17"/>
-      <c r="E268" s="21"/>
-      <c r="H268" s="23" t="str">
+      <c r="B268" s="21"/>
+      <c r="C268" s="21"/>
+      <c r="E268" s="22"/>
+      <c r="H268" s="24" t="str">
         <f aca="true">IF(I268 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="17"/>
-      <c r="C269" s="17"/>
-      <c r="E269" s="21"/>
-      <c r="H269" s="23" t="str">
+      <c r="B269" s="21"/>
+      <c r="C269" s="21"/>
+      <c r="E269" s="22"/>
+      <c r="H269" s="24" t="str">
         <f aca="true">IF(I269 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="17"/>
-      <c r="C270" s="17"/>
-      <c r="E270" s="21"/>
-      <c r="H270" s="23" t="str">
+      <c r="B270" s="21"/>
+      <c r="C270" s="21"/>
+      <c r="E270" s="22"/>
+      <c r="H270" s="24" t="str">
         <f aca="true">IF(I270 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="17"/>
-      <c r="C271" s="17"/>
-      <c r="E271" s="21"/>
-      <c r="H271" s="23" t="str">
+      <c r="B271" s="21"/>
+      <c r="C271" s="21"/>
+      <c r="E271" s="22"/>
+      <c r="H271" s="24" t="str">
         <f aca="true">IF(I271 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="17"/>
-      <c r="C272" s="17"/>
-      <c r="E272" s="21"/>
-      <c r="H272" s="23" t="str">
+      <c r="B272" s="21"/>
+      <c r="C272" s="21"/>
+      <c r="E272" s="22"/>
+      <c r="H272" s="24" t="str">
         <f aca="true">IF(I272 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="17"/>
-      <c r="C273" s="17"/>
-      <c r="E273" s="21"/>
-      <c r="H273" s="23" t="str">
+      <c r="B273" s="21"/>
+      <c r="C273" s="21"/>
+      <c r="E273" s="22"/>
+      <c r="H273" s="24" t="str">
         <f aca="true">IF(I273 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="17"/>
-      <c r="C274" s="17"/>
-      <c r="E274" s="21"/>
-      <c r="H274" s="23" t="str">
+      <c r="B274" s="21"/>
+      <c r="C274" s="21"/>
+      <c r="E274" s="22"/>
+      <c r="H274" s="24" t="str">
         <f aca="true">IF(I274 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
-      <c r="E275" s="21"/>
-      <c r="H275" s="23" t="str">
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
+      <c r="E275" s="22"/>
+      <c r="H275" s="24" t="str">
         <f aca="true">IF(I275 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="17"/>
-      <c r="C276" s="17"/>
-      <c r="E276" s="21"/>
-      <c r="H276" s="23" t="str">
+      <c r="B276" s="21"/>
+      <c r="C276" s="21"/>
+      <c r="E276" s="22"/>
+      <c r="H276" s="24" t="str">
         <f aca="true">IF(I276 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="17"/>
-      <c r="C277" s="17"/>
-      <c r="E277" s="21"/>
-      <c r="H277" s="23" t="str">
+      <c r="B277" s="21"/>
+      <c r="C277" s="21"/>
+      <c r="E277" s="22"/>
+      <c r="H277" s="24" t="str">
         <f aca="true">IF(I277 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="17"/>
-      <c r="C278" s="17"/>
-      <c r="E278" s="21"/>
-      <c r="H278" s="23" t="str">
+      <c r="B278" s="21"/>
+      <c r="C278" s="21"/>
+      <c r="E278" s="22"/>
+      <c r="H278" s="24" t="str">
         <f aca="true">IF(I278 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="17"/>
-      <c r="C279" s="17"/>
-      <c r="E279" s="21"/>
-      <c r="H279" s="23" t="str">
+      <c r="B279" s="21"/>
+      <c r="C279" s="21"/>
+      <c r="E279" s="22"/>
+      <c r="H279" s="24" t="str">
         <f aca="true">IF(I279 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="17"/>
-      <c r="C280" s="17"/>
-      <c r="E280" s="21"/>
-      <c r="H280" s="23" t="str">
+      <c r="B280" s="21"/>
+      <c r="C280" s="21"/>
+      <c r="E280" s="22"/>
+      <c r="H280" s="24" t="str">
         <f aca="true">IF(I280 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="17"/>
-      <c r="C281" s="17"/>
-      <c r="E281" s="21"/>
-      <c r="H281" s="23" t="str">
+      <c r="B281" s="21"/>
+      <c r="C281" s="21"/>
+      <c r="E281" s="22"/>
+      <c r="H281" s="24" t="str">
         <f aca="true">IF(I281 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="17"/>
-      <c r="C282" s="17"/>
-      <c r="E282" s="21"/>
-      <c r="H282" s="23" t="str">
+      <c r="B282" s="21"/>
+      <c r="C282" s="21"/>
+      <c r="E282" s="22"/>
+      <c r="H282" s="24" t="str">
         <f aca="true">IF(I282 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="17"/>
-      <c r="C283" s="17"/>
-      <c r="E283" s="21"/>
-      <c r="H283" s="23" t="str">
+      <c r="B283" s="21"/>
+      <c r="C283" s="21"/>
+      <c r="E283" s="22"/>
+      <c r="H283" s="24" t="str">
         <f aca="true">IF(I283 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="17"/>
-      <c r="C284" s="17"/>
-      <c r="E284" s="21"/>
-      <c r="H284" s="23" t="str">
+      <c r="B284" s="21"/>
+      <c r="C284" s="21"/>
+      <c r="E284" s="22"/>
+      <c r="H284" s="24" t="str">
         <f aca="true">IF(I284 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="17"/>
-      <c r="C285" s="17"/>
-      <c r="E285" s="21"/>
-      <c r="H285" s="23" t="str">
+      <c r="B285" s="21"/>
+      <c r="C285" s="21"/>
+      <c r="E285" s="22"/>
+      <c r="H285" s="24" t="str">
         <f aca="true">IF(I285 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="17"/>
-      <c r="C286" s="17"/>
-      <c r="E286" s="21"/>
-      <c r="H286" s="23" t="str">
+      <c r="B286" s="21"/>
+      <c r="C286" s="21"/>
+      <c r="E286" s="22"/>
+      <c r="H286" s="24" t="str">
         <f aca="true">IF(I286 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="17"/>
-      <c r="C287" s="17"/>
-      <c r="E287" s="21"/>
-      <c r="H287" s="23" t="str">
+      <c r="B287" s="21"/>
+      <c r="C287" s="21"/>
+      <c r="E287" s="22"/>
+      <c r="H287" s="24" t="str">
         <f aca="true">IF(I287 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="17"/>
-      <c r="C288" s="17"/>
-      <c r="E288" s="21"/>
-      <c r="H288" s="23" t="str">
+      <c r="B288" s="21"/>
+      <c r="C288" s="21"/>
+      <c r="E288" s="22"/>
+      <c r="H288" s="24" t="str">
         <f aca="true">IF(I288 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B289" s="17"/>
-      <c r="C289" s="17"/>
-      <c r="E289" s="21"/>
-      <c r="H289" s="23" t="str">
+      <c r="B289" s="21"/>
+      <c r="C289" s="21"/>
+      <c r="E289" s="22"/>
+      <c r="H289" s="24" t="str">
         <f aca="true">IF(I289 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="17"/>
-      <c r="C290" s="17"/>
-      <c r="E290" s="21"/>
-      <c r="H290" s="23" t="str">
+      <c r="B290" s="21"/>
+      <c r="C290" s="21"/>
+      <c r="E290" s="22"/>
+      <c r="H290" s="24" t="str">
         <f aca="true">IF(I290 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="17"/>
-      <c r="C291" s="17"/>
-      <c r="E291" s="21"/>
-      <c r="H291" s="23" t="str">
+      <c r="B291" s="21"/>
+      <c r="C291" s="21"/>
+      <c r="E291" s="22"/>
+      <c r="H291" s="24" t="str">
         <f aca="true">IF(I291 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="17"/>
-      <c r="C292" s="17"/>
-      <c r="E292" s="21"/>
-      <c r="H292" s="23" t="str">
+      <c r="B292" s="21"/>
+      <c r="C292" s="21"/>
+      <c r="E292" s="22"/>
+      <c r="H292" s="24" t="str">
         <f aca="true">IF(I292 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="17"/>
-      <c r="C293" s="17"/>
-      <c r="E293" s="21"/>
-      <c r="H293" s="23" t="str">
+      <c r="B293" s="21"/>
+      <c r="C293" s="21"/>
+      <c r="E293" s="22"/>
+      <c r="H293" s="24" t="str">
         <f aca="true">IF(I293 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="17"/>
-      <c r="C294" s="17"/>
-      <c r="E294" s="21"/>
-      <c r="H294" s="23" t="str">
+      <c r="B294" s="21"/>
+      <c r="C294" s="21"/>
+      <c r="E294" s="22"/>
+      <c r="H294" s="24" t="str">
         <f aca="true">IF(I294 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="17"/>
-      <c r="C295" s="17"/>
-      <c r="E295" s="21"/>
-      <c r="H295" s="23" t="str">
+      <c r="B295" s="21"/>
+      <c r="C295" s="21"/>
+      <c r="E295" s="22"/>
+      <c r="H295" s="24" t="str">
         <f aca="true">IF(I295 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="17"/>
-      <c r="C296" s="17"/>
-      <c r="E296" s="21"/>
-      <c r="H296" s="23" t="str">
+      <c r="B296" s="21"/>
+      <c r="C296" s="21"/>
+      <c r="E296" s="22"/>
+      <c r="H296" s="24" t="str">
         <f aca="true">IF(I296 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="17"/>
-      <c r="C297" s="17"/>
-      <c r="E297" s="21"/>
-      <c r="H297" s="23" t="str">
+      <c r="B297" s="21"/>
+      <c r="C297" s="21"/>
+      <c r="E297" s="22"/>
+      <c r="H297" s="24" t="str">
         <f aca="true">IF(I297 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="17"/>
-      <c r="C298" s="17"/>
-      <c r="E298" s="21"/>
-      <c r="H298" s="23" t="str">
+      <c r="B298" s="21"/>
+      <c r="C298" s="21"/>
+      <c r="E298" s="22"/>
+      <c r="H298" s="24" t="str">
         <f aca="true">IF(I298 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="17"/>
-      <c r="C299" s="17"/>
-      <c r="E299" s="21"/>
-      <c r="H299" s="23" t="str">
+      <c r="B299" s="21"/>
+      <c r="C299" s="21"/>
+      <c r="E299" s="22"/>
+      <c r="H299" s="24" t="str">
         <f aca="true">IF(I299 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="17"/>
-      <c r="C300" s="17"/>
-      <c r="E300" s="21"/>
-      <c r="H300" s="23" t="str">
+      <c r="B300" s="21"/>
+      <c r="C300" s="21"/>
+      <c r="E300" s="22"/>
+      <c r="H300" s="24" t="str">
         <f aca="true">IF(I300 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="17"/>
-      <c r="C301" s="17"/>
-      <c r="E301" s="21"/>
-      <c r="H301" s="23" t="str">
+      <c r="B301" s="21"/>
+      <c r="C301" s="21"/>
+      <c r="E301" s="22"/>
+      <c r="H301" s="24" t="str">
         <f aca="true">IF(I301 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="17"/>
-      <c r="C302" s="17"/>
-      <c r="E302" s="21"/>
-      <c r="H302" s="23" t="str">
+      <c r="B302" s="21"/>
+      <c r="C302" s="21"/>
+      <c r="E302" s="22"/>
+      <c r="H302" s="24" t="str">
         <f aca="true">IF(I302 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="17"/>
-      <c r="C303" s="17"/>
-      <c r="E303" s="21"/>
-      <c r="H303" s="23" t="str">
+      <c r="B303" s="21"/>
+      <c r="C303" s="21"/>
+      <c r="E303" s="22"/>
+      <c r="H303" s="24" t="str">
         <f aca="true">IF(I303 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="17"/>
-      <c r="C304" s="17"/>
-      <c r="E304" s="21"/>
-      <c r="H304" s="23" t="str">
+      <c r="B304" s="21"/>
+      <c r="C304" s="21"/>
+      <c r="E304" s="22"/>
+      <c r="H304" s="24" t="str">
         <f aca="true">IF(I304 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="17"/>
-      <c r="C305" s="17"/>
-      <c r="E305" s="21"/>
-      <c r="H305" s="23" t="str">
+      <c r="B305" s="21"/>
+      <c r="C305" s="21"/>
+      <c r="E305" s="22"/>
+      <c r="H305" s="24" t="str">
         <f aca="true">IF(I305 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="17"/>
-      <c r="C306" s="17"/>
-      <c r="E306" s="21"/>
-      <c r="H306" s="23" t="str">
+      <c r="B306" s="21"/>
+      <c r="C306" s="21"/>
+      <c r="E306" s="22"/>
+      <c r="H306" s="24" t="str">
         <f aca="true">IF(I306 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="17"/>
-      <c r="C307" s="17"/>
-      <c r="E307" s="21"/>
-      <c r="H307" s="23" t="str">
+      <c r="B307" s="21"/>
+      <c r="C307" s="21"/>
+      <c r="E307" s="22"/>
+      <c r="H307" s="24" t="str">
         <f aca="true">IF(I307 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="17"/>
-      <c r="C308" s="17"/>
-      <c r="E308" s="21"/>
-      <c r="H308" s="23" t="str">
+      <c r="B308" s="21"/>
+      <c r="C308" s="21"/>
+      <c r="E308" s="22"/>
+      <c r="H308" s="24" t="str">
         <f aca="true">IF(I308 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="17"/>
-      <c r="C309" s="17"/>
-      <c r="E309" s="21"/>
-      <c r="H309" s="23" t="str">
+      <c r="B309" s="21"/>
+      <c r="C309" s="21"/>
+      <c r="E309" s="22"/>
+      <c r="H309" s="24" t="str">
         <f aca="true">IF(I309 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="17"/>
-      <c r="C310" s="17"/>
-      <c r="E310" s="21"/>
-      <c r="H310" s="23" t="str">
+      <c r="B310" s="21"/>
+      <c r="C310" s="21"/>
+      <c r="E310" s="22"/>
+      <c r="H310" s="24" t="str">
         <f aca="true">IF(I310 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="17"/>
-      <c r="C311" s="17"/>
-      <c r="E311" s="21"/>
-      <c r="H311" s="23" t="str">
+      <c r="B311" s="21"/>
+      <c r="C311" s="21"/>
+      <c r="E311" s="22"/>
+      <c r="H311" s="24" t="str">
         <f aca="true">IF(I311 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="17"/>
-      <c r="C312" s="17"/>
-      <c r="E312" s="21"/>
-      <c r="H312" s="23" t="str">
+      <c r="B312" s="21"/>
+      <c r="C312" s="21"/>
+      <c r="E312" s="22"/>
+      <c r="H312" s="24" t="str">
         <f aca="true">IF(I312 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="17"/>
-      <c r="C313" s="17"/>
-      <c r="E313" s="21"/>
-      <c r="H313" s="23" t="str">
+      <c r="B313" s="21"/>
+      <c r="C313" s="21"/>
+      <c r="E313" s="22"/>
+      <c r="H313" s="24" t="str">
         <f aca="true">IF(I313 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="17"/>
-      <c r="C314" s="17"/>
-      <c r="E314" s="21"/>
-      <c r="H314" s="23" t="str">
+      <c r="B314" s="21"/>
+      <c r="C314" s="21"/>
+      <c r="E314" s="22"/>
+      <c r="H314" s="24" t="str">
         <f aca="true">IF(I314 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="17"/>
-      <c r="C315" s="17"/>
-      <c r="E315" s="21"/>
-      <c r="H315" s="23" t="str">
+      <c r="B315" s="21"/>
+      <c r="C315" s="21"/>
+      <c r="E315" s="22"/>
+      <c r="H315" s="24" t="str">
         <f aca="true">IF(I315 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="17"/>
-      <c r="C316" s="17"/>
-      <c r="E316" s="21"/>
-      <c r="H316" s="23" t="str">
+      <c r="B316" s="21"/>
+      <c r="C316" s="21"/>
+      <c r="E316" s="22"/>
+      <c r="H316" s="24" t="str">
         <f aca="true">IF(I316 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B317" s="17"/>
-      <c r="C317" s="17"/>
-      <c r="E317" s="21"/>
-      <c r="H317" s="23" t="str">
+      <c r="B317" s="21"/>
+      <c r="C317" s="21"/>
+      <c r="E317" s="22"/>
+      <c r="H317" s="24" t="str">
         <f aca="true">IF(I317 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B318" s="17"/>
-      <c r="C318" s="17"/>
-      <c r="E318" s="21"/>
-      <c r="H318" s="23" t="str">
+      <c r="B318" s="21"/>
+      <c r="C318" s="21"/>
+      <c r="E318" s="22"/>
+      <c r="H318" s="24" t="str">
         <f aca="true">IF(I318 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B319" s="17"/>
-      <c r="C319" s="17"/>
-      <c r="E319" s="21"/>
-      <c r="H319" s="23" t="str">
+      <c r="B319" s="21"/>
+      <c r="C319" s="21"/>
+      <c r="E319" s="22"/>
+      <c r="H319" s="24" t="str">
         <f aca="true">IF(I319 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B320" s="17"/>
-      <c r="C320" s="17"/>
-      <c r="E320" s="21"/>
-      <c r="H320" s="23" t="str">
+      <c r="B320" s="21"/>
+      <c r="C320" s="21"/>
+      <c r="E320" s="22"/>
+      <c r="H320" s="24" t="str">
         <f aca="true">IF(I320 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B321" s="17"/>
-      <c r="C321" s="17"/>
-      <c r="E321" s="21"/>
-      <c r="H321" s="23" t="str">
+      <c r="B321" s="21"/>
+      <c r="C321" s="21"/>
+      <c r="E321" s="22"/>
+      <c r="H321" s="24" t="str">
         <f aca="true">IF(I321 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B322" s="17"/>
-      <c r="C322" s="17"/>
-      <c r="H322" s="23" t="str">
+      <c r="B322" s="21"/>
+      <c r="C322" s="21"/>
+      <c r="H322" s="24" t="str">
         <f aca="true">IF(I322 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B323" s="17"/>
-      <c r="C323" s="17"/>
-      <c r="H323" s="23" t="str">
+      <c r="B323" s="21"/>
+      <c r="C323" s="21"/>
+      <c r="H323" s="24" t="str">
         <f aca="true">IF(I323 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B324" s="17"/>
-      <c r="C324" s="17"/>
-      <c r="H324" s="23" t="str">
+      <c r="B324" s="21"/>
+      <c r="C324" s="21"/>
+      <c r="H324" s="24" t="str">
         <f aca="true">IF(I324 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B325" s="17"/>
-      <c r="C325" s="17"/>
-      <c r="H325" s="23" t="str">
+      <c r="B325" s="21"/>
+      <c r="C325" s="21"/>
+      <c r="H325" s="24" t="str">
         <f aca="true">IF(I325 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B326" s="17"/>
-      <c r="C326" s="17"/>
-      <c r="H326" s="23" t="str">
+      <c r="B326" s="21"/>
+      <c r="C326" s="21"/>
+      <c r="H326" s="24" t="str">
         <f aca="true">IF(I326 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B327" s="17"/>
-      <c r="C327" s="17"/>
+      <c r="B327" s="21"/>
+      <c r="C327" s="21"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B328" s="17"/>
-      <c r="C328" s="17"/>
+      <c r="B328" s="21"/>
+      <c r="C328" s="21"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B329" s="17"/>
-      <c r="C329" s="17"/>
+      <c r="B329" s="21"/>
+      <c r="C329" s="21"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B330" s="17"/>
-      <c r="C330" s="17"/>
+      <c r="B330" s="21"/>
+      <c r="C330" s="21"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B331" s="17"/>
-      <c r="C331" s="17"/>
+      <c r="B331" s="21"/>
+      <c r="C331" s="21"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B332" s="17"/>
-      <c r="C332" s="17"/>
+      <c r="B332" s="21"/>
+      <c r="C332" s="21"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B333" s="17"/>
-      <c r="C333" s="17"/>
+      <c r="B333" s="21"/>
+      <c r="C333" s="21"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="17"/>
-      <c r="C334" s="17"/>
+      <c r="B334" s="21"/>
+      <c r="C334" s="21"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="17"/>
-      <c r="C335" s="17"/>
+      <c r="B335" s="21"/>
+      <c r="C335" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10184,36 +10187,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25" t="s">
+    <row r="1" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="26" t="s">
         <v>37</v>
       </c>
     </row>

--- a/app/data/static/templates/constructor_mascarpone.xlsx
+++ b/app/data/static/templates/constructor_mascarpone.xlsx
@@ -148,12 +148,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -280,7 +281,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -365,10 +366,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -377,19 +374,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -660,7 +657,7 @@
   <dimension ref="A1:AMJ335"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5597,7 +5594,7 @@
         <f aca="false">IF(D102="","",VLOOKUP(D102, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C102" s="21" t="str">
+      <c r="C102" s="17" t="str">
         <f aca="false">IF(D102="","",VLOOKUP(D102, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -5646,7 +5643,7 @@
         <f aca="false">IF(D103="","",VLOOKUP(D103, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C103" s="21" t="str">
+      <c r="C103" s="17" t="str">
         <f aca="false">IF(D103="","",VLOOKUP(D103, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -5695,7 +5692,7 @@
         <f aca="false">IF(D104="","",VLOOKUP(D104, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C104" s="21" t="str">
+      <c r="C104" s="17" t="str">
         <f aca="false">IF(D104="","",VLOOKUP(D104, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -5744,7 +5741,7 @@
         <f aca="false">IF(D105="","",VLOOKUP(D105, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C105" s="21" t="str">
+      <c r="C105" s="17" t="str">
         <f aca="false">IF(D105="","",VLOOKUP(D105, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -5793,7 +5790,7 @@
         <f aca="false">IF(D106="","",VLOOKUP(D106, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C106" s="21" t="str">
+      <c r="C106" s="17" t="str">
         <f aca="false">IF(D106="","",VLOOKUP(D106, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -5842,7 +5839,7 @@
         <f aca="false">IF(D107="","",VLOOKUP(D107, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C107" s="21" t="str">
+      <c r="C107" s="17" t="str">
         <f aca="false">IF(D107="","",VLOOKUP(D107, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -5891,7 +5888,7 @@
         <f aca="false">IF(D108="","",VLOOKUP(D108, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C108" s="21" t="str">
+      <c r="C108" s="17" t="str">
         <f aca="false">IF(D108="","",VLOOKUP(D108, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -5940,7 +5937,7 @@
         <f aca="false">IF(D109="","",VLOOKUP(D109, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C109" s="21" t="str">
+      <c r="C109" s="17" t="str">
         <f aca="false">IF(D109="","",VLOOKUP(D109, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -5989,7 +5986,7 @@
         <f aca="false">IF(D110="","",VLOOKUP(D110, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C110" s="21" t="str">
+      <c r="C110" s="17" t="str">
         <f aca="false">IF(D110="","",VLOOKUP(D110, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6038,7 +6035,7 @@
         <f aca="false">IF(D111="","",VLOOKUP(D111, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C111" s="21" t="str">
+      <c r="C111" s="17" t="str">
         <f aca="false">IF(D111="","",VLOOKUP(D111, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6087,7 +6084,7 @@
         <f aca="false">IF(D112="","",VLOOKUP(D112, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C112" s="21" t="str">
+      <c r="C112" s="17" t="str">
         <f aca="false">IF(D112="","",VLOOKUP(D112, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6136,7 +6133,7 @@
         <f aca="false">IF(D113="","",VLOOKUP(D113, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C113" s="21" t="str">
+      <c r="C113" s="17" t="str">
         <f aca="false">IF(D113="","",VLOOKUP(D113, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6185,7 +6182,7 @@
         <f aca="false">IF(D114="","",VLOOKUP(D114, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C114" s="21" t="str">
+      <c r="C114" s="17" t="str">
         <f aca="false">IF(D114="","",VLOOKUP(D114, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6234,7 +6231,7 @@
         <f aca="false">IF(D115="","",VLOOKUP(D115, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C115" s="21" t="str">
+      <c r="C115" s="17" t="str">
         <f aca="false">IF(D115="","",VLOOKUP(D115, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6283,7 +6280,7 @@
         <f aca="false">IF(D116="","",VLOOKUP(D116, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C116" s="21" t="str">
+      <c r="C116" s="17" t="str">
         <f aca="false">IF(D116="","",VLOOKUP(D116, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6332,7 +6329,7 @@
         <f aca="false">IF(D117="","",VLOOKUP(D117, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C117" s="21" t="str">
+      <c r="C117" s="17" t="str">
         <f aca="false">IF(D117="","",VLOOKUP(D117, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6377,11 +6374,11 @@
       <c r="AMJ117" s="0"/>
     </row>
     <row r="118" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="21" t="str">
+      <c r="B118" s="17" t="str">
         <f aca="false">IF(D118="","",VLOOKUP(D118, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C118" s="21" t="str">
+      <c r="C118" s="17" t="str">
         <f aca="false">IF(D118="","",VLOOKUP(D118, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6426,11 +6423,11 @@
       <c r="AMJ118" s="0"/>
     </row>
     <row r="119" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="21" t="str">
+      <c r="B119" s="17" t="str">
         <f aca="false">IF(D119="","",VLOOKUP(D119, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C119" s="21" t="str">
+      <c r="C119" s="17" t="str">
         <f aca="false">IF(D119="","",VLOOKUP(D119, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6475,11 +6472,11 @@
       <c r="AMJ119" s="0"/>
     </row>
     <row r="120" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="21" t="str">
+      <c r="B120" s="17" t="str">
         <f aca="false">IF(D120="","",VLOOKUP(D120, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C120" s="21" t="str">
+      <c r="C120" s="17" t="str">
         <f aca="false">IF(D120="","",VLOOKUP(D120, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6524,11 +6521,11 @@
       <c r="AMJ120" s="0"/>
     </row>
     <row r="121" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="21" t="str">
+      <c r="B121" s="17" t="str">
         <f aca="false">IF(D121="","",VLOOKUP(D121, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C121" s="21" t="str">
+      <c r="C121" s="17" t="str">
         <f aca="false">IF(D121="","",VLOOKUP(D121, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6573,11 +6570,11 @@
       <c r="AMJ121" s="0"/>
     </row>
     <row r="122" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="21" t="str">
+      <c r="B122" s="17" t="str">
         <f aca="false">IF(D122="","",VLOOKUP(D122, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C122" s="21" t="str">
+      <c r="C122" s="17" t="str">
         <f aca="false">IF(D122="","",VLOOKUP(D122, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6622,11 +6619,11 @@
       <c r="AMJ122" s="0"/>
     </row>
     <row r="123" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="21" t="str">
+      <c r="B123" s="17" t="str">
         <f aca="false">IF(D123="","",VLOOKUP(D123, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="C123" s="21" t="str">
+      <c r="C123" s="17" t="str">
         <f aca="false">IF(D123="","",VLOOKUP(D123, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
@@ -6671,8 +6668,8 @@
       <c r="AMJ123" s="0"/>
     </row>
     <row r="124" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="21"/>
-      <c r="C124" s="21"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
       <c r="E124" s="18"/>
       <c r="F124" s="19" t="str">
         <f aca="true">IF(I124="","",(INDIRECT("N" &amp; ROW() - 1) - M124))</f>
@@ -6698,8 +6695,8 @@
       <c r="AMJ124" s="0"/>
     </row>
     <row r="125" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="21"/>
-      <c r="C125" s="21"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
       <c r="E125" s="18"/>
       <c r="F125" s="19" t="str">
         <f aca="true">IF(I125="","",(INDIRECT("N" &amp; ROW() - 1) - M125))</f>
@@ -6725,8 +6722,8 @@
       <c r="AMJ125" s="0"/>
     </row>
     <row r="126" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="21"/>
-      <c r="C126" s="21"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
       <c r="E126" s="18"/>
       <c r="F126" s="19" t="str">
         <f aca="true">IF(I126="","",(INDIRECT("N" &amp; ROW() - 1) - M126))</f>
@@ -6752,8 +6749,8 @@
       <c r="AMJ126" s="0"/>
     </row>
     <row r="127" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
       <c r="E127" s="18"/>
       <c r="F127" s="19" t="str">
         <f aca="true">IF(I127="","",(INDIRECT("N" &amp; ROW() - 1) - M127))</f>
@@ -6779,8 +6776,8 @@
       <c r="AMJ127" s="0"/>
     </row>
     <row r="128" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="21"/>
-      <c r="C128" s="21"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
       <c r="E128" s="18"/>
       <c r="F128" s="19" t="str">
         <f aca="true">IF(I128="","",(INDIRECT("N" &amp; ROW() - 1) - M128))</f>
@@ -6806,8 +6803,8 @@
       <c r="AMJ128" s="0"/>
     </row>
     <row r="129" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="21"/>
-      <c r="C129" s="21"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
       <c r="E129" s="18"/>
       <c r="F129" s="19" t="str">
         <f aca="true">IF(I129="","",(INDIRECT("N" &amp; ROW() - 1) - M129))</f>
@@ -6833,8 +6830,8 @@
       <c r="AMJ129" s="0"/>
     </row>
     <row r="130" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="21"/>
-      <c r="C130" s="21"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
       <c r="E130" s="18"/>
       <c r="F130" s="19" t="str">
         <f aca="true">IF(I130="","",(INDIRECT("N" &amp; ROW() - 1) - M130))</f>
@@ -6860,8 +6857,8 @@
       <c r="AMJ130" s="0"/>
     </row>
     <row r="131" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
       <c r="E131" s="18"/>
       <c r="F131" s="19" t="str">
         <f aca="true">IF(I131="","",(INDIRECT("N" &amp; ROW() - 1) - M131))</f>
@@ -6887,8 +6884,8 @@
       <c r="AMJ131" s="0"/>
     </row>
     <row r="132" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="21"/>
-      <c r="C132" s="21"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
       <c r="E132" s="18"/>
       <c r="F132" s="19" t="str">
         <f aca="true">IF(I132="","",(INDIRECT("N" &amp; ROW() - 1) - M132))</f>
@@ -6914,8 +6911,8 @@
       <c r="AMJ132" s="0"/>
     </row>
     <row r="133" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
       <c r="E133" s="18"/>
       <c r="F133" s="19" t="str">
         <f aca="true">IF(I133="","",(INDIRECT("N" &amp; ROW() - 1) - M133))</f>
@@ -6941,8 +6938,8 @@
       <c r="AMJ133" s="0"/>
     </row>
     <row r="134" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="21"/>
-      <c r="C134" s="21"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
       <c r="E134" s="18"/>
       <c r="F134" s="19" t="str">
         <f aca="true">IF(I134="","",(INDIRECT("N" &amp; ROW() - 1) - M134))</f>
@@ -6968,8 +6965,8 @@
       <c r="AMJ134" s="0"/>
     </row>
     <row r="135" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="21"/>
-      <c r="C135" s="21"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
       <c r="E135" s="18"/>
       <c r="F135" s="19" t="str">
         <f aca="true">IF(I135="","",(INDIRECT("N" &amp; ROW() - 1) - M135))</f>
@@ -6995,8 +6992,8 @@
       <c r="AMJ135" s="0"/>
     </row>
     <row r="136" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="21"/>
-      <c r="C136" s="21"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="17"/>
       <c r="E136" s="18"/>
       <c r="F136" s="19" t="str">
         <f aca="true">IF(I136="","",(INDIRECT("N" &amp; ROW() - 1) - M136))</f>
@@ -7022,8 +7019,8 @@
       <c r="AMJ136" s="0"/>
     </row>
     <row r="137" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
       <c r="E137" s="18"/>
       <c r="F137" s="19" t="str">
         <f aca="true">IF(I137="","",(INDIRECT("N" &amp; ROW() - 1) - M137))</f>
@@ -7049,8 +7046,8 @@
       <c r="AMJ137" s="0"/>
     </row>
     <row r="138" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
       <c r="E138" s="18"/>
       <c r="F138" s="19" t="str">
         <f aca="true">IF(I138="","",(INDIRECT("N" &amp; ROW() - 1) - M138))</f>
@@ -7076,8 +7073,8 @@
       <c r="AMJ138" s="0"/>
     </row>
     <row r="139" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="17"/>
       <c r="E139" s="18"/>
       <c r="F139" s="19" t="str">
         <f aca="true">IF(I139="","",(INDIRECT("N" &amp; ROW() - 1) - M139))</f>
@@ -7103,8 +7100,8 @@
       <c r="AMJ139" s="0"/>
     </row>
     <row r="140" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="21"/>
-      <c r="C140" s="21"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="17"/>
       <c r="E140" s="18"/>
       <c r="F140" s="19" t="str">
         <f aca="true">IF(I140="","",(INDIRECT("N" &amp; ROW() - 1) - M140))</f>
@@ -7130,8 +7127,8 @@
       <c r="AMJ140" s="0"/>
     </row>
     <row r="141" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
       <c r="E141" s="18"/>
       <c r="F141" s="19" t="str">
         <f aca="true">IF(I141="","",(INDIRECT("N" &amp; ROW() - 1) - M141))</f>
@@ -7157,8 +7154,8 @@
       <c r="AMJ141" s="0"/>
     </row>
     <row r="142" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
       <c r="E142" s="18"/>
       <c r="F142" s="19" t="str">
         <f aca="true">IF(I142="","",(INDIRECT("N" &amp; ROW() - 1) - M142))</f>
@@ -7184,8 +7181,8 @@
       <c r="AMJ142" s="0"/>
     </row>
     <row r="143" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
       <c r="E143" s="18"/>
       <c r="F143" s="19" t="str">
         <f aca="true">IF(I143="","",(INDIRECT("N" &amp; ROW() - 1) - M143))</f>
@@ -7211,8 +7208,8 @@
       <c r="AMJ143" s="0"/>
     </row>
     <row r="144" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
       <c r="E144" s="18"/>
       <c r="F144" s="19" t="str">
         <f aca="true">IF(I144="","",(INDIRECT("N" &amp; ROW() - 1) - M144))</f>
@@ -7238,8 +7235,8 @@
       <c r="AMJ144" s="0"/>
     </row>
     <row r="145" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="21"/>
-      <c r="C145" s="21"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
       <c r="E145" s="18"/>
       <c r="F145" s="19" t="str">
         <f aca="true">IF(I145="","",(INDIRECT("N" &amp; ROW() - 1) - M145))</f>
@@ -7265,8 +7262,8 @@
       <c r="AMJ145" s="0"/>
     </row>
     <row r="146" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
       <c r="E146" s="18"/>
       <c r="F146" s="19" t="str">
         <f aca="true">IF(I146="","",(INDIRECT("N" &amp; ROW() - 1) - M146))</f>
@@ -7292,8 +7289,8 @@
       <c r="AMJ146" s="0"/>
     </row>
     <row r="147" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
       <c r="E147" s="18"/>
       <c r="F147" s="19" t="str">
         <f aca="true">IF(I147="","",(INDIRECT("N" &amp; ROW() - 1) - M147))</f>
@@ -7319,8 +7316,8 @@
       <c r="AMJ147" s="0"/>
     </row>
     <row r="148" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
       <c r="E148" s="18"/>
       <c r="F148" s="19" t="str">
         <f aca="true">IF(I148="","",(INDIRECT("N" &amp; ROW() - 1) - M148))</f>
@@ -7346,8 +7343,8 @@
       <c r="AMJ148" s="0"/>
     </row>
     <row r="149" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="21"/>
-      <c r="C149" s="21"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
       <c r="E149" s="18"/>
       <c r="F149" s="19" t="str">
         <f aca="true">IF(I149="","",(INDIRECT("N" &amp; ROW() - 1) - M149))</f>
@@ -7373,8 +7370,8 @@
       <c r="AMJ149" s="0"/>
     </row>
     <row r="150" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="21"/>
-      <c r="C150" s="21"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="17"/>
       <c r="E150" s="18"/>
       <c r="F150" s="19" t="str">
         <f aca="true">IF(I150="","",(INDIRECT("N" &amp; ROW() - 1) - M150))</f>
@@ -7400,8 +7397,8 @@
       <c r="AMJ150" s="0"/>
     </row>
     <row r="151" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="21"/>
-      <c r="C151" s="21"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="17"/>
       <c r="E151" s="18"/>
       <c r="F151" s="19" t="str">
         <f aca="true">IF(I151="","",(INDIRECT("N" &amp; ROW() - 1) - M151))</f>
@@ -7427,8 +7424,8 @@
       <c r="AMJ151" s="0"/>
     </row>
     <row r="152" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="21"/>
-      <c r="C152" s="21"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
       <c r="E152" s="18"/>
       <c r="F152" s="19" t="str">
         <f aca="true">IF(I152="","",(INDIRECT("N" &amp; ROW() - 1) - M152))</f>
@@ -7454,8 +7451,8 @@
       <c r="AMJ152" s="0"/>
     </row>
     <row r="153" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="21"/>
-      <c r="C153" s="21"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
       <c r="E153" s="18"/>
       <c r="F153" s="19" t="str">
         <f aca="true">IF(I153="","",(INDIRECT("N" &amp; ROW() - 1) - M153))</f>
@@ -7481,8 +7478,8 @@
       <c r="AMJ153" s="0"/>
     </row>
     <row r="154" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="21"/>
-      <c r="C154" s="21"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
       <c r="E154" s="18"/>
       <c r="F154" s="19" t="str">
         <f aca="true">IF(I154="","",(INDIRECT("N" &amp; ROW() - 1) - M154))</f>
@@ -7508,8 +7505,8 @@
       <c r="AMJ154" s="0"/>
     </row>
     <row r="155" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="21"/>
-      <c r="C155" s="21"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
       <c r="E155" s="18"/>
       <c r="F155" s="19" t="str">
         <f aca="true">IF(I155="","",(INDIRECT("N" &amp; ROW() - 1) - M155))</f>
@@ -7535,2327 +7532,2327 @@
       <c r="AMJ155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-      <c r="E156" s="22"/>
-      <c r="F156" s="23" t="str">
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="22" t="str">
         <f aca="true">IF(I156="","",(INDIRECT("N" &amp; ROW() - 1) - M156))</f>
         <v/>
       </c>
-      <c r="G156" s="24" t="str">
+      <c r="G156" s="23" t="str">
         <f aca="true">IF(I156 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H156" s="24" t="str">
+      <c r="H156" s="23" t="str">
         <f aca="true">IF(I156 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q156" s="25" t="str">
+      <c r="Q156" s="24" t="str">
         <f aca="true">IF(P156 = "", "", P156 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R156" s="25" t="str">
+      <c r="R156" s="24" t="str">
         <f aca="true">IF(I156="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="21"/>
-      <c r="C157" s="21"/>
-      <c r="E157" s="22"/>
-      <c r="F157" s="23" t="str">
+      <c r="B157" s="17"/>
+      <c r="C157" s="17"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="22" t="str">
         <f aca="true">IF(I157="","",(INDIRECT("N" &amp; ROW() - 1) - M157))</f>
         <v/>
       </c>
-      <c r="G157" s="24" t="str">
+      <c r="G157" s="23" t="str">
         <f aca="true">IF(I157 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H157" s="24" t="str">
+      <c r="H157" s="23" t="str">
         <f aca="true">IF(I157 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q157" s="25" t="str">
+      <c r="Q157" s="24" t="str">
         <f aca="true">IF(P157 = "", "", P157 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R157" s="25" t="str">
+      <c r="R157" s="24" t="str">
         <f aca="true">IF(I157="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="21"/>
-      <c r="C158" s="21"/>
-      <c r="E158" s="22"/>
-      <c r="F158" s="23" t="str">
+      <c r="B158" s="17"/>
+      <c r="C158" s="17"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="22" t="str">
         <f aca="true">IF(I158="","",(INDIRECT("N" &amp; ROW() - 1) - M158))</f>
         <v/>
       </c>
-      <c r="G158" s="24" t="str">
+      <c r="G158" s="23" t="str">
         <f aca="true">IF(I158 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H158" s="24" t="str">
+      <c r="H158" s="23" t="str">
         <f aca="true">IF(I158 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q158" s="25" t="str">
+      <c r="Q158" s="24" t="str">
         <f aca="true">IF(P158 = "", "", P158 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R158" s="25" t="str">
+      <c r="R158" s="24" t="str">
         <f aca="true">IF(I158="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="21"/>
-      <c r="C159" s="21"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="23" t="str">
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="22" t="str">
         <f aca="true">IF(I159="","",(INDIRECT("N" &amp; ROW() - 1) - M159))</f>
         <v/>
       </c>
-      <c r="G159" s="24" t="str">
+      <c r="G159" s="23" t="str">
         <f aca="true">IF(I159 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H159" s="24" t="str">
+      <c r="H159" s="23" t="str">
         <f aca="true">IF(I159 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q159" s="25" t="str">
+      <c r="Q159" s="24" t="str">
         <f aca="true">IF(P159 = "", "", P159 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R159" s="25" t="str">
+      <c r="R159" s="24" t="str">
         <f aca="true">IF(I159="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="23" t="str">
+      <c r="B160" s="17"/>
+      <c r="C160" s="17"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="22" t="str">
         <f aca="true">IF(I160="","",(INDIRECT("N" &amp; ROW() - 1) - M160))</f>
         <v/>
       </c>
-      <c r="G160" s="24" t="str">
+      <c r="G160" s="23" t="str">
         <f aca="true">IF(I160 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H160" s="24" t="str">
+      <c r="H160" s="23" t="str">
         <f aca="true">IF(I160 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q160" s="25" t="str">
+      <c r="Q160" s="24" t="str">
         <f aca="true">IF(P160 = "", "", P160 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R160" s="25" t="str">
+      <c r="R160" s="24" t="str">
         <f aca="true">IF(I160="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="21"/>
-      <c r="C161" s="21"/>
-      <c r="E161" s="22"/>
-      <c r="F161" s="23" t="str">
+      <c r="B161" s="17"/>
+      <c r="C161" s="17"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="22" t="str">
         <f aca="true">IF(I161="","",(INDIRECT("N" &amp; ROW() - 1) - M161))</f>
         <v/>
       </c>
-      <c r="G161" s="24" t="str">
+      <c r="G161" s="23" t="str">
         <f aca="true">IF(I161 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H161" s="24" t="str">
+      <c r="H161" s="23" t="str">
         <f aca="true">IF(I161 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q161" s="25" t="str">
+      <c r="Q161" s="24" t="str">
         <f aca="true">IF(P161 = "", "", P161 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R161" s="25" t="str">
+      <c r="R161" s="24" t="str">
         <f aca="true">IF(I161="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="21"/>
-      <c r="C162" s="21"/>
-      <c r="E162" s="22"/>
-      <c r="F162" s="23" t="str">
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="22" t="str">
         <f aca="true">IF(I162="","",(INDIRECT("N" &amp; ROW() - 1) - M162))</f>
         <v/>
       </c>
-      <c r="G162" s="24" t="str">
+      <c r="G162" s="23" t="str">
         <f aca="true">IF(I162 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H162" s="24" t="str">
+      <c r="H162" s="23" t="str">
         <f aca="true">IF(I162 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q162" s="25" t="str">
+      <c r="Q162" s="24" t="str">
         <f aca="true">IF(P162 = "", "", P162 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R162" s="25" t="str">
+      <c r="R162" s="24" t="str">
         <f aca="true">IF(I162="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="21"/>
-      <c r="C163" s="21"/>
-      <c r="E163" s="22"/>
-      <c r="F163" s="23" t="str">
+      <c r="B163" s="17"/>
+      <c r="C163" s="17"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="22" t="str">
         <f aca="true">IF(I163="","",(INDIRECT("N" &amp; ROW() - 1) - M163))</f>
         <v/>
       </c>
-      <c r="G163" s="24" t="str">
+      <c r="G163" s="23" t="str">
         <f aca="true">IF(I163 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H163" s="24" t="str">
+      <c r="H163" s="23" t="str">
         <f aca="true">IF(I163 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q163" s="25" t="str">
+      <c r="Q163" s="24" t="str">
         <f aca="true">IF(P163 = "", "", P163 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R163" s="25" t="str">
+      <c r="R163" s="24" t="str">
         <f aca="true">IF(I163="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="21"/>
-      <c r="C164" s="21"/>
-      <c r="E164" s="22"/>
-      <c r="F164" s="23" t="str">
+      <c r="B164" s="17"/>
+      <c r="C164" s="17"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="22" t="str">
         <f aca="true">IF(I164="","",(INDIRECT("N" &amp; ROW() - 1) - M164))</f>
         <v/>
       </c>
-      <c r="G164" s="24" t="str">
+      <c r="G164" s="23" t="str">
         <f aca="true">IF(I164 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H164" s="24" t="str">
+      <c r="H164" s="23" t="str">
         <f aca="true">IF(I164 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q164" s="25" t="str">
+      <c r="Q164" s="24" t="str">
         <f aca="true">IF(P164 = "", "", P164 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R164" s="25" t="str">
+      <c r="R164" s="24" t="str">
         <f aca="true">IF(I164="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="21"/>
-      <c r="C165" s="21"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="23" t="str">
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="22" t="str">
         <f aca="true">IF(I165="","",(INDIRECT("N" &amp; ROW() - 1) - M165))</f>
         <v/>
       </c>
-      <c r="G165" s="24" t="str">
+      <c r="G165" s="23" t="str">
         <f aca="true">IF(I165 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H165" s="24" t="str">
+      <c r="H165" s="23" t="str">
         <f aca="true">IF(I165 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q165" s="25" t="str">
+      <c r="Q165" s="24" t="str">
         <f aca="true">IF(P165 = "", "", P165 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R165" s="25" t="str">
+      <c r="R165" s="24" t="str">
         <f aca="true">IF(I165="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="21"/>
-      <c r="C166" s="21"/>
-      <c r="E166" s="22"/>
-      <c r="F166" s="23" t="str">
+      <c r="B166" s="17"/>
+      <c r="C166" s="17"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="22" t="str">
         <f aca="true">IF(I166="","",(INDIRECT("N" &amp; ROW() - 1) - M166))</f>
         <v/>
       </c>
-      <c r="H166" s="24" t="str">
+      <c r="H166" s="23" t="str">
         <f aca="true">IF(I166 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q166" s="25" t="str">
+      <c r="Q166" s="24" t="str">
         <f aca="true">IF(P166 = "", "", P166 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R166" s="25" t="str">
+      <c r="R166" s="24" t="str">
         <f aca="true">IF(I166="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="21"/>
-      <c r="C167" s="21"/>
-      <c r="E167" s="22"/>
-      <c r="F167" s="23" t="str">
+      <c r="B167" s="17"/>
+      <c r="C167" s="17"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="22" t="str">
         <f aca="true">IF(I167="","",(INDIRECT("N" &amp; ROW() - 1) - M167))</f>
         <v/>
       </c>
-      <c r="H167" s="24" t="str">
+      <c r="H167" s="23" t="str">
         <f aca="true">IF(I167 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q167" s="25" t="str">
+      <c r="Q167" s="24" t="str">
         <f aca="true">IF(P167 = "", "", P167 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R167" s="25" t="str">
+      <c r="R167" s="24" t="str">
         <f aca="true">IF(I167="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="21"/>
-      <c r="C168" s="21"/>
-      <c r="E168" s="22"/>
-      <c r="F168" s="23" t="str">
+      <c r="B168" s="17"/>
+      <c r="C168" s="17"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="22" t="str">
         <f aca="true">IF(I168="","",(INDIRECT("N" &amp; ROW() - 1) - M168))</f>
         <v/>
       </c>
-      <c r="H168" s="24" t="str">
+      <c r="H168" s="23" t="str">
         <f aca="true">IF(I168 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q168" s="25" t="str">
+      <c r="Q168" s="24" t="str">
         <f aca="true">IF(P168 = "", "", P168 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R168" s="25" t="str">
+      <c r="R168" s="24" t="str">
         <f aca="true">IF(I168="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="21"/>
-      <c r="C169" s="21"/>
-      <c r="E169" s="22"/>
-      <c r="F169" s="23" t="str">
+      <c r="B169" s="17"/>
+      <c r="C169" s="17"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="22" t="str">
         <f aca="true">IF(I169="","",(INDIRECT("N" &amp; ROW() - 1) - M169))</f>
         <v/>
       </c>
-      <c r="H169" s="24" t="str">
+      <c r="H169" s="23" t="str">
         <f aca="true">IF(I169 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q169" s="25" t="str">
+      <c r="Q169" s="24" t="str">
         <f aca="true">IF(P169 = "", "", P169 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R169" s="25" t="str">
+      <c r="R169" s="24" t="str">
         <f aca="true">IF(I169="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="21"/>
-      <c r="C170" s="21"/>
-      <c r="E170" s="22"/>
-      <c r="F170" s="23" t="str">
+      <c r="B170" s="17"/>
+      <c r="C170" s="17"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="22" t="str">
         <f aca="true">IF(I170="","",(INDIRECT("N" &amp; ROW() - 1) - M170))</f>
         <v/>
       </c>
-      <c r="H170" s="24" t="str">
+      <c r="H170" s="23" t="str">
         <f aca="true">IF(I170 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q170" s="25" t="str">
+      <c r="Q170" s="24" t="str">
         <f aca="true">IF(P170 = "", "", P170 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R170" s="25" t="str">
+      <c r="R170" s="24" t="str">
         <f aca="true">IF(I170="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="21"/>
-      <c r="C171" s="21"/>
-      <c r="E171" s="22"/>
-      <c r="F171" s="23" t="str">
+      <c r="B171" s="17"/>
+      <c r="C171" s="17"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="22" t="str">
         <f aca="true">IF(I171="","",(INDIRECT("N" &amp; ROW() - 1) - M171))</f>
         <v/>
       </c>
-      <c r="H171" s="24" t="str">
+      <c r="H171" s="23" t="str">
         <f aca="true">IF(I171 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q171" s="25" t="str">
+      <c r="Q171" s="24" t="str">
         <f aca="true">IF(P171 = "", "", P171 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R171" s="25" t="str">
+      <c r="R171" s="24" t="str">
         <f aca="true">IF(I171="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="21"/>
-      <c r="C172" s="21"/>
-      <c r="E172" s="22"/>
-      <c r="F172" s="23" t="str">
+      <c r="B172" s="17"/>
+      <c r="C172" s="17"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="22" t="str">
         <f aca="true">IF(I172="","",(INDIRECT("N" &amp; ROW() - 1) - M172))</f>
         <v/>
       </c>
-      <c r="H172" s="24" t="str">
+      <c r="H172" s="23" t="str">
         <f aca="true">IF(I172 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q172" s="25" t="str">
+      <c r="Q172" s="24" t="str">
         <f aca="true">IF(P172 = "", "", P172 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R172" s="25" t="str">
+      <c r="R172" s="24" t="str">
         <f aca="true">IF(I172="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="21"/>
-      <c r="C173" s="21"/>
-      <c r="E173" s="22"/>
-      <c r="F173" s="23" t="str">
+      <c r="B173" s="17"/>
+      <c r="C173" s="17"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="22" t="str">
         <f aca="true">IF(I173="","",(INDIRECT("N" &amp; ROW() - 1) - M173))</f>
         <v/>
       </c>
-      <c r="H173" s="24" t="str">
+      <c r="H173" s="23" t="str">
         <f aca="true">IF(I173 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q173" s="25" t="str">
+      <c r="Q173" s="24" t="str">
         <f aca="true">IF(P173 = "", "", P173 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R173" s="25" t="str">
+      <c r="R173" s="24" t="str">
         <f aca="true">IF(I173="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="21"/>
-      <c r="C174" s="21"/>
-      <c r="E174" s="22"/>
-      <c r="F174" s="23" t="str">
+      <c r="B174" s="17"/>
+      <c r="C174" s="17"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="22" t="str">
         <f aca="true">IF(I174="","",(INDIRECT("N" &amp; ROW() - 1) - M174))</f>
         <v/>
       </c>
-      <c r="H174" s="24" t="str">
+      <c r="H174" s="23" t="str">
         <f aca="true">IF(I174 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q174" s="25" t="str">
+      <c r="Q174" s="24" t="str">
         <f aca="true">IF(P174 = "", "", P174 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R174" s="25" t="str">
+      <c r="R174" s="24" t="str">
         <f aca="true">IF(I174="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="21"/>
-      <c r="C175" s="21"/>
-      <c r="E175" s="22"/>
-      <c r="F175" s="23" t="str">
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="22" t="str">
         <f aca="true">IF(I175="","",(INDIRECT("N" &amp; ROW() - 1) - M175))</f>
         <v/>
       </c>
-      <c r="H175" s="24" t="str">
+      <c r="H175" s="23" t="str">
         <f aca="true">IF(I175 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q175" s="25" t="str">
+      <c r="Q175" s="24" t="str">
         <f aca="true">IF(P175 = "", "", P175 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R175" s="25" t="str">
+      <c r="R175" s="24" t="str">
         <f aca="true">IF(I175="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="21"/>
-      <c r="C176" s="21"/>
-      <c r="E176" s="22"/>
-      <c r="F176" s="23" t="str">
+      <c r="B176" s="17"/>
+      <c r="C176" s="17"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="22" t="str">
         <f aca="true">IF(I176="","",(INDIRECT("N" &amp; ROW() - 1) - M176))</f>
         <v/>
       </c>
-      <c r="H176" s="24" t="str">
+      <c r="H176" s="23" t="str">
         <f aca="true">IF(I176 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q176" s="25" t="str">
+      <c r="Q176" s="24" t="str">
         <f aca="true">IF(P176 = "", "", P176 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R176" s="25" t="str">
+      <c r="R176" s="24" t="str">
         <f aca="true">IF(I176="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="21"/>
-      <c r="C177" s="21"/>
-      <c r="E177" s="22"/>
-      <c r="F177" s="23" t="str">
+      <c r="B177" s="17"/>
+      <c r="C177" s="17"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="22" t="str">
         <f aca="true">IF(I177="","",(INDIRECT("N" &amp; ROW() - 1) - M177))</f>
         <v/>
       </c>
-      <c r="H177" s="24" t="str">
+      <c r="H177" s="23" t="str">
         <f aca="true">IF(I177 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q177" s="25" t="str">
+      <c r="Q177" s="24" t="str">
         <f aca="true">IF(P177 = "", "", P177 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R177" s="25" t="str">
+      <c r="R177" s="24" t="str">
         <f aca="true">IF(I177="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="21"/>
-      <c r="C178" s="21"/>
-      <c r="E178" s="22"/>
-      <c r="F178" s="23" t="str">
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="22" t="str">
         <f aca="true">IF(I178="","",(INDIRECT("N" &amp; ROW() - 1) - M178))</f>
         <v/>
       </c>
-      <c r="H178" s="24" t="str">
+      <c r="H178" s="23" t="str">
         <f aca="true">IF(I178 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q178" s="25" t="str">
+      <c r="Q178" s="24" t="str">
         <f aca="true">IF(P178 = "", "", P178 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R178" s="25" t="str">
+      <c r="R178" s="24" t="str">
         <f aca="true">IF(I178="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="21"/>
-      <c r="C179" s="21"/>
-      <c r="E179" s="22"/>
-      <c r="F179" s="23" t="str">
+      <c r="B179" s="17"/>
+      <c r="C179" s="17"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="22" t="str">
         <f aca="true">IF(I179="","",(INDIRECT("N" &amp; ROW() - 1) - M179))</f>
         <v/>
       </c>
-      <c r="H179" s="24" t="str">
+      <c r="H179" s="23" t="str">
         <f aca="true">IF(I179 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q179" s="25" t="str">
+      <c r="Q179" s="24" t="str">
         <f aca="true">IF(P179 = "", "", P179 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R179" s="25" t="str">
+      <c r="R179" s="24" t="str">
         <f aca="true">IF(I179="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="21"/>
-      <c r="C180" s="21"/>
-      <c r="E180" s="22"/>
-      <c r="F180" s="23" t="str">
+      <c r="B180" s="17"/>
+      <c r="C180" s="17"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="22" t="str">
         <f aca="true">IF(I180="","",(INDIRECT("N" &amp; ROW() - 1) - M180))</f>
         <v/>
       </c>
-      <c r="H180" s="24" t="str">
+      <c r="H180" s="23" t="str">
         <f aca="true">IF(I180 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q180" s="25" t="str">
+      <c r="Q180" s="24" t="str">
         <f aca="true">IF(P180 = "", "", P180 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R180" s="25" t="str">
+      <c r="R180" s="24" t="str">
         <f aca="true">IF(I180="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="21"/>
-      <c r="C181" s="21"/>
-      <c r="E181" s="22"/>
-      <c r="F181" s="23" t="str">
+      <c r="B181" s="17"/>
+      <c r="C181" s="17"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="22" t="str">
         <f aca="true">IF(I181="","",(INDIRECT("N" &amp; ROW() - 1) - M181))</f>
         <v/>
       </c>
-      <c r="H181" s="24" t="str">
+      <c r="H181" s="23" t="str">
         <f aca="true">IF(I181 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q181" s="25" t="str">
+      <c r="Q181" s="24" t="str">
         <f aca="true">IF(P181 = "", "", P181 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R181" s="25" t="str">
+      <c r="R181" s="24" t="str">
         <f aca="true">IF(I181="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="21"/>
-      <c r="C182" s="21"/>
-      <c r="E182" s="22"/>
-      <c r="F182" s="23" t="str">
+      <c r="B182" s="17"/>
+      <c r="C182" s="17"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="22" t="str">
         <f aca="true">IF(I182="","",(INDIRECT("N" &amp; ROW() - 1) - M182))</f>
         <v/>
       </c>
-      <c r="H182" s="24" t="str">
+      <c r="H182" s="23" t="str">
         <f aca="true">IF(I182 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q182" s="25" t="str">
+      <c r="Q182" s="24" t="str">
         <f aca="true">IF(P182 = "", "", P182 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R182" s="25" t="str">
+      <c r="R182" s="24" t="str">
         <f aca="true">IF(I182="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="21"/>
-      <c r="C183" s="21"/>
-      <c r="E183" s="22"/>
-      <c r="F183" s="23" t="str">
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="22" t="str">
         <f aca="true">IF(I183="","",(INDIRECT("N" &amp; ROW() - 1) - M183))</f>
         <v/>
       </c>
-      <c r="H183" s="24" t="str">
+      <c r="H183" s="23" t="str">
         <f aca="true">IF(I183 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q183" s="25" t="str">
+      <c r="Q183" s="24" t="str">
         <f aca="true">IF(P183 = "", "", P183 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R183" s="25" t="str">
+      <c r="R183" s="24" t="str">
         <f aca="true">IF(I183="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="21"/>
-      <c r="C184" s="21"/>
-      <c r="E184" s="22"/>
-      <c r="F184" s="23" t="str">
+      <c r="B184" s="17"/>
+      <c r="C184" s="17"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="22" t="str">
         <f aca="true">IF(I184="","",(INDIRECT("N" &amp; ROW() - 1) - M184))</f>
         <v/>
       </c>
-      <c r="H184" s="24" t="str">
+      <c r="H184" s="23" t="str">
         <f aca="true">IF(I184 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q184" s="25" t="str">
+      <c r="Q184" s="24" t="str">
         <f aca="true">IF(P184 = "", "", P184 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="R184" s="25" t="str">
+      <c r="R184" s="24" t="str">
         <f aca="true">IF(I184="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="21"/>
-      <c r="C185" s="21"/>
-      <c r="E185" s="22"/>
-      <c r="F185" s="23" t="str">
+      <c r="B185" s="17"/>
+      <c r="C185" s="17"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="22" t="str">
         <f aca="true">IF(I185="","",(INDIRECT("N" &amp; ROW() - 1) - M185))</f>
         <v/>
       </c>
-      <c r="H185" s="24" t="str">
+      <c r="H185" s="23" t="str">
         <f aca="true">IF(I185 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q185" s="25"/>
-      <c r="R185" s="25" t="str">
+      <c r="Q185" s="24"/>
+      <c r="R185" s="24" t="str">
         <f aca="true">IF(I185="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="21"/>
-      <c r="C186" s="21"/>
-      <c r="E186" s="22"/>
-      <c r="F186" s="23" t="str">
+      <c r="B186" s="17"/>
+      <c r="C186" s="17"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="22" t="str">
         <f aca="true">IF(I186="","",(INDIRECT("N" &amp; ROW() - 1) - M186))</f>
         <v/>
       </c>
-      <c r="H186" s="24" t="str">
+      <c r="H186" s="23" t="str">
         <f aca="true">IF(I186 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q186" s="25"/>
-      <c r="R186" s="25" t="str">
+      <c r="Q186" s="24"/>
+      <c r="R186" s="24" t="str">
         <f aca="true">IF(I186="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="21"/>
-      <c r="C187" s="21"/>
-      <c r="E187" s="22"/>
-      <c r="F187" s="23" t="str">
+      <c r="B187" s="17"/>
+      <c r="C187" s="17"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="22" t="str">
         <f aca="true">IF(I187="","",(INDIRECT("N" &amp; ROW() - 1) - M187))</f>
         <v/>
       </c>
-      <c r="H187" s="24" t="str">
+      <c r="H187" s="23" t="str">
         <f aca="true">IF(I187 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q187" s="25"/>
-      <c r="R187" s="25" t="str">
+      <c r="Q187" s="24"/>
+      <c r="R187" s="24" t="str">
         <f aca="true">IF(I187="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="21"/>
-      <c r="C188" s="21"/>
-      <c r="E188" s="22"/>
-      <c r="F188" s="23" t="str">
+      <c r="B188" s="17"/>
+      <c r="C188" s="17"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="22" t="str">
         <f aca="true">IF(I188="","",(INDIRECT("N" &amp; ROW() - 1) - M188))</f>
         <v/>
       </c>
-      <c r="H188" s="24" t="str">
+      <c r="H188" s="23" t="str">
         <f aca="true">IF(I188 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q188" s="25"/>
-      <c r="R188" s="25" t="str">
+      <c r="Q188" s="24"/>
+      <c r="R188" s="24" t="str">
         <f aca="true">IF(I188="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="21"/>
-      <c r="C189" s="21"/>
-      <c r="E189" s="22"/>
-      <c r="F189" s="23" t="str">
+      <c r="B189" s="17"/>
+      <c r="C189" s="17"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="22" t="str">
         <f aca="true">IF(I189="","",(INDIRECT("N" &amp; ROW() - 1) - M189))</f>
         <v/>
       </c>
-      <c r="H189" s="24" t="str">
+      <c r="H189" s="23" t="str">
         <f aca="true">IF(I189 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q189" s="25"/>
-      <c r="R189" s="25" t="str">
+      <c r="Q189" s="24"/>
+      <c r="R189" s="24" t="str">
         <f aca="true">IF(I189="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="21"/>
-      <c r="C190" s="21"/>
-      <c r="E190" s="22"/>
-      <c r="F190" s="23" t="str">
+      <c r="B190" s="17"/>
+      <c r="C190" s="17"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="22" t="str">
         <f aca="true">IF(I190="","",(INDIRECT("N" &amp; ROW() - 1) - M190))</f>
         <v/>
       </c>
-      <c r="H190" s="24" t="str">
+      <c r="H190" s="23" t="str">
         <f aca="true">IF(I190 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q190" s="25"/>
-      <c r="R190" s="25" t="str">
+      <c r="Q190" s="24"/>
+      <c r="R190" s="24" t="str">
         <f aca="true">IF(I190="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
-      <c r="E191" s="22"/>
-      <c r="F191" s="23" t="str">
+      <c r="B191" s="17"/>
+      <c r="C191" s="17"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="22" t="str">
         <f aca="true">IF(I191="","",(INDIRECT("N" &amp; ROW() - 1) - M191))</f>
         <v/>
       </c>
-      <c r="H191" s="24" t="str">
+      <c r="H191" s="23" t="str">
         <f aca="true">IF(I191 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q191" s="25"/>
-      <c r="R191" s="25" t="str">
+      <c r="Q191" s="24"/>
+      <c r="R191" s="24" t="str">
         <f aca="true">IF(I191="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="21"/>
-      <c r="C192" s="21"/>
-      <c r="E192" s="22"/>
-      <c r="F192" s="23" t="str">
+      <c r="B192" s="17"/>
+      <c r="C192" s="17"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="22" t="str">
         <f aca="true">IF(I192="","",(INDIRECT("N" &amp; ROW() - 1) - M192))</f>
         <v/>
       </c>
-      <c r="H192" s="24" t="str">
+      <c r="H192" s="23" t="str">
         <f aca="true">IF(I192 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q192" s="25"/>
-      <c r="R192" s="25" t="str">
+      <c r="Q192" s="24"/>
+      <c r="R192" s="24" t="str">
         <f aca="true">IF(I192="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="21"/>
-      <c r="C193" s="21"/>
-      <c r="E193" s="22"/>
-      <c r="F193" s="23" t="str">
+      <c r="B193" s="17"/>
+      <c r="C193" s="17"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="22" t="str">
         <f aca="true">IF(I193="","",(INDIRECT("N" &amp; ROW() - 1) - M193))</f>
         <v/>
       </c>
-      <c r="H193" s="24" t="str">
+      <c r="H193" s="23" t="str">
         <f aca="true">IF(I193 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q193" s="25"/>
-      <c r="R193" s="25" t="str">
+      <c r="Q193" s="24"/>
+      <c r="R193" s="24" t="str">
         <f aca="true">IF(I193="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="21"/>
-      <c r="C194" s="21"/>
-      <c r="E194" s="22"/>
-      <c r="F194" s="23" t="str">
+      <c r="B194" s="17"/>
+      <c r="C194" s="17"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="22" t="str">
         <f aca="true">IF(I194="","",(INDIRECT("N" &amp; ROW() - 1) - M194))</f>
         <v/>
       </c>
-      <c r="H194" s="24" t="str">
+      <c r="H194" s="23" t="str">
         <f aca="true">IF(I194 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q194" s="25"/>
-      <c r="R194" s="25" t="str">
+      <c r="Q194" s="24"/>
+      <c r="R194" s="24" t="str">
         <f aca="true">IF(I194="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="21"/>
-      <c r="C195" s="21"/>
-      <c r="E195" s="22"/>
-      <c r="F195" s="23" t="str">
+      <c r="B195" s="17"/>
+      <c r="C195" s="17"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="22" t="str">
         <f aca="true">IF(I195="","",(INDIRECT("N" &amp; ROW() - 1) - M195))</f>
         <v/>
       </c>
-      <c r="H195" s="24" t="str">
+      <c r="H195" s="23" t="str">
         <f aca="true">IF(I195 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q195" s="25"/>
-      <c r="R195" s="25" t="str">
+      <c r="Q195" s="24"/>
+      <c r="R195" s="24" t="str">
         <f aca="true">IF(I195="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="21"/>
-      <c r="C196" s="21"/>
-      <c r="E196" s="22"/>
-      <c r="F196" s="23" t="str">
+      <c r="B196" s="17"/>
+      <c r="C196" s="17"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="22" t="str">
         <f aca="true">IF(I196="","",(INDIRECT("N" &amp; ROW() - 1) - M196))</f>
         <v/>
       </c>
-      <c r="H196" s="24" t="str">
+      <c r="H196" s="23" t="str">
         <f aca="true">IF(I196 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q196" s="25"/>
-      <c r="R196" s="25" t="str">
+      <c r="Q196" s="24"/>
+      <c r="R196" s="24" t="str">
         <f aca="true">IF(I196="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="21"/>
-      <c r="C197" s="21"/>
-      <c r="E197" s="22"/>
-      <c r="F197" s="23" t="str">
+      <c r="B197" s="17"/>
+      <c r="C197" s="17"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="22" t="str">
         <f aca="true">IF(I197="","",(INDIRECT("N" &amp; ROW() - 1) - M197))</f>
         <v/>
       </c>
-      <c r="H197" s="24" t="str">
+      <c r="H197" s="23" t="str">
         <f aca="true">IF(I197 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q197" s="25"/>
-      <c r="R197" s="25" t="str">
+      <c r="Q197" s="24"/>
+      <c r="R197" s="24" t="str">
         <f aca="true">IF(I197="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="21"/>
-      <c r="C198" s="21"/>
-      <c r="E198" s="22"/>
-      <c r="F198" s="22"/>
-      <c r="H198" s="24" t="str">
+      <c r="B198" s="17"/>
+      <c r="C198" s="17"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="21"/>
+      <c r="H198" s="23" t="str">
         <f aca="true">IF(I198 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q198" s="25"/>
-      <c r="R198" s="25" t="str">
+      <c r="Q198" s="24"/>
+      <c r="R198" s="24" t="str">
         <f aca="true">IF(I198="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="21"/>
-      <c r="C199" s="21"/>
-      <c r="E199" s="22"/>
-      <c r="F199" s="22"/>
-      <c r="H199" s="24" t="str">
+      <c r="B199" s="17"/>
+      <c r="C199" s="17"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+      <c r="H199" s="23" t="str">
         <f aca="true">IF(I199 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q199" s="25"/>
-      <c r="R199" s="25" t="str">
+      <c r="Q199" s="24"/>
+      <c r="R199" s="24" t="str">
         <f aca="true">IF(I199="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="21"/>
-      <c r="C200" s="21"/>
-      <c r="E200" s="22"/>
-      <c r="F200" s="22"/>
-      <c r="H200" s="24" t="str">
+      <c r="B200" s="17"/>
+      <c r="C200" s="17"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="21"/>
+      <c r="H200" s="23" t="str">
         <f aca="true">IF(I200 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q200" s="25"/>
-      <c r="R200" s="25" t="str">
+      <c r="Q200" s="24"/>
+      <c r="R200" s="24" t="str">
         <f aca="true">IF(I200="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="21"/>
-      <c r="C201" s="21"/>
-      <c r="E201" s="22"/>
-      <c r="F201" s="22"/>
-      <c r="H201" s="24" t="str">
+      <c r="B201" s="17"/>
+      <c r="C201" s="17"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+      <c r="H201" s="23" t="str">
         <f aca="true">IF(I201 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q201" s="25"/>
-      <c r="R201" s="25" t="str">
+      <c r="Q201" s="24"/>
+      <c r="R201" s="24" t="str">
         <f aca="true">IF(I201="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="21"/>
-      <c r="C202" s="21"/>
-      <c r="E202" s="22"/>
-      <c r="F202" s="22"/>
-      <c r="H202" s="24" t="str">
+      <c r="B202" s="17"/>
+      <c r="C202" s="17"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+      <c r="H202" s="23" t="str">
         <f aca="true">IF(I202 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q202" s="25"/>
-      <c r="R202" s="25" t="str">
+      <c r="Q202" s="24"/>
+      <c r="R202" s="24" t="str">
         <f aca="true">IF(I202="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="21"/>
-      <c r="C203" s="21"/>
-      <c r="E203" s="22"/>
-      <c r="F203" s="22"/>
-      <c r="H203" s="24" t="str">
+      <c r="B203" s="17"/>
+      <c r="C203" s="17"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
+      <c r="H203" s="23" t="str">
         <f aca="true">IF(I203 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q203" s="25"/>
-      <c r="R203" s="25" t="str">
+      <c r="Q203" s="24"/>
+      <c r="R203" s="24" t="str">
         <f aca="true">IF(I203="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="21"/>
-      <c r="C204" s="21"/>
-      <c r="E204" s="22"/>
-      <c r="F204" s="22"/>
-      <c r="H204" s="24" t="str">
+      <c r="B204" s="17"/>
+      <c r="C204" s="17"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
+      <c r="H204" s="23" t="str">
         <f aca="true">IF(I204 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q204" s="25"/>
-      <c r="R204" s="25" t="str">
+      <c r="Q204" s="24"/>
+      <c r="R204" s="24" t="str">
         <f aca="true">IF(I204="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="21"/>
-      <c r="C205" s="21"/>
-      <c r="E205" s="22"/>
-      <c r="F205" s="22"/>
-      <c r="H205" s="24" t="str">
+      <c r="B205" s="17"/>
+      <c r="C205" s="17"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="H205" s="23" t="str">
         <f aca="true">IF(I205 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q205" s="25"/>
-      <c r="R205" s="25" t="str">
+      <c r="Q205" s="24"/>
+      <c r="R205" s="24" t="str">
         <f aca="true">IF(I205="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="21"/>
-      <c r="C206" s="21"/>
-      <c r="E206" s="22"/>
-      <c r="F206" s="22"/>
-      <c r="H206" s="24" t="str">
+      <c r="B206" s="17"/>
+      <c r="C206" s="17"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+      <c r="H206" s="23" t="str">
         <f aca="true">IF(I206 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q206" s="25"/>
-      <c r="R206" s="25" t="str">
+      <c r="Q206" s="24"/>
+      <c r="R206" s="24" t="str">
         <f aca="true">IF(I206="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="21"/>
-      <c r="C207" s="21"/>
-      <c r="E207" s="22"/>
-      <c r="F207" s="22"/>
-      <c r="H207" s="24" t="str">
+      <c r="B207" s="17"/>
+      <c r="C207" s="17"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+      <c r="H207" s="23" t="str">
         <f aca="true">IF(I207 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q207" s="25"/>
-      <c r="R207" s="25" t="str">
+      <c r="Q207" s="24"/>
+      <c r="R207" s="24" t="str">
         <f aca="true">IF(I207="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="21"/>
-      <c r="C208" s="21"/>
-      <c r="E208" s="22"/>
-      <c r="F208" s="22"/>
-      <c r="H208" s="24" t="str">
+      <c r="B208" s="17"/>
+      <c r="C208" s="17"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+      <c r="H208" s="23" t="str">
         <f aca="true">IF(I208 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q208" s="25"/>
-      <c r="R208" s="25" t="str">
+      <c r="Q208" s="24"/>
+      <c r="R208" s="24" t="str">
         <f aca="true">IF(I208="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="21"/>
-      <c r="C209" s="21"/>
-      <c r="E209" s="22"/>
-      <c r="F209" s="22"/>
-      <c r="H209" s="24" t="str">
+      <c r="B209" s="17"/>
+      <c r="C209" s="17"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="21"/>
+      <c r="H209" s="23" t="str">
         <f aca="true">IF(I209 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q209" s="25"/>
-      <c r="R209" s="25" t="str">
+      <c r="Q209" s="24"/>
+      <c r="R209" s="24" t="str">
         <f aca="true">IF(I209="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="21"/>
-      <c r="C210" s="21"/>
-      <c r="E210" s="22"/>
-      <c r="H210" s="24" t="str">
+      <c r="B210" s="17"/>
+      <c r="C210" s="17"/>
+      <c r="E210" s="21"/>
+      <c r="H210" s="23" t="str">
         <f aca="true">IF(I210 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q210" s="25"/>
-      <c r="R210" s="25" t="str">
+      <c r="Q210" s="24"/>
+      <c r="R210" s="24" t="str">
         <f aca="true">IF(I210="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="21"/>
-      <c r="C211" s="21"/>
-      <c r="E211" s="22"/>
-      <c r="H211" s="24" t="str">
+      <c r="B211" s="17"/>
+      <c r="C211" s="17"/>
+      <c r="E211" s="21"/>
+      <c r="H211" s="23" t="str">
         <f aca="true">IF(I211 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q211" s="25"/>
-      <c r="R211" s="25" t="str">
+      <c r="Q211" s="24"/>
+      <c r="R211" s="24" t="str">
         <f aca="true">IF(I211="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="21"/>
-      <c r="C212" s="21"/>
-      <c r="E212" s="22"/>
-      <c r="H212" s="24" t="str">
+      <c r="B212" s="17"/>
+      <c r="C212" s="17"/>
+      <c r="E212" s="21"/>
+      <c r="H212" s="23" t="str">
         <f aca="true">IF(I212 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q212" s="25"/>
-      <c r="R212" s="25" t="str">
+      <c r="Q212" s="24"/>
+      <c r="R212" s="24" t="str">
         <f aca="true">IF(I212="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="21"/>
-      <c r="C213" s="21"/>
-      <c r="E213" s="22"/>
-      <c r="H213" s="24" t="str">
+      <c r="B213" s="17"/>
+      <c r="C213" s="17"/>
+      <c r="E213" s="21"/>
+      <c r="H213" s="23" t="str">
         <f aca="true">IF(I213 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q213" s="25"/>
-      <c r="R213" s="25" t="str">
+      <c r="Q213" s="24"/>
+      <c r="R213" s="24" t="str">
         <f aca="true">IF(I213="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
-      <c r="E214" s="22"/>
-      <c r="H214" s="24" t="str">
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
+      <c r="E214" s="21"/>
+      <c r="H214" s="23" t="str">
         <f aca="true">IF(I214 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q214" s="25"/>
-      <c r="R214" s="25" t="str">
+      <c r="Q214" s="24"/>
+      <c r="R214" s="24" t="str">
         <f aca="true">IF(I214="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="21"/>
-      <c r="C215" s="21"/>
-      <c r="E215" s="22"/>
-      <c r="H215" s="24" t="str">
+      <c r="B215" s="17"/>
+      <c r="C215" s="17"/>
+      <c r="E215" s="21"/>
+      <c r="H215" s="23" t="str">
         <f aca="true">IF(I215 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q215" s="25"/>
-      <c r="R215" s="25" t="str">
+      <c r="Q215" s="24"/>
+      <c r="R215" s="24" t="str">
         <f aca="true">IF(I215="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="21"/>
-      <c r="C216" s="21"/>
-      <c r="E216" s="22"/>
-      <c r="H216" s="24" t="str">
+      <c r="B216" s="17"/>
+      <c r="C216" s="17"/>
+      <c r="E216" s="21"/>
+      <c r="H216" s="23" t="str">
         <f aca="true">IF(I216 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q216" s="25"/>
-      <c r="R216" s="25" t="str">
+      <c r="Q216" s="24"/>
+      <c r="R216" s="24" t="str">
         <f aca="true">IF(I216="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="21"/>
-      <c r="C217" s="21"/>
-      <c r="E217" s="22"/>
-      <c r="H217" s="24" t="str">
+      <c r="B217" s="17"/>
+      <c r="C217" s="17"/>
+      <c r="E217" s="21"/>
+      <c r="H217" s="23" t="str">
         <f aca="true">IF(I217 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q217" s="25"/>
-      <c r="R217" s="25" t="str">
+      <c r="Q217" s="24"/>
+      <c r="R217" s="24" t="str">
         <f aca="true">IF(I217="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="21"/>
-      <c r="C218" s="21"/>
-      <c r="E218" s="22"/>
-      <c r="H218" s="24" t="str">
+      <c r="B218" s="17"/>
+      <c r="C218" s="17"/>
+      <c r="E218" s="21"/>
+      <c r="H218" s="23" t="str">
         <f aca="true">IF(I218 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q218" s="25"/>
-      <c r="R218" s="25" t="str">
+      <c r="Q218" s="24"/>
+      <c r="R218" s="24" t="str">
         <f aca="true">IF(I218="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="21"/>
-      <c r="C219" s="21"/>
-      <c r="E219" s="22"/>
-      <c r="H219" s="24" t="str">
+      <c r="B219" s="17"/>
+      <c r="C219" s="17"/>
+      <c r="E219" s="21"/>
+      <c r="H219" s="23" t="str">
         <f aca="true">IF(I219 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q219" s="25"/>
-      <c r="R219" s="25" t="str">
+      <c r="Q219" s="24"/>
+      <c r="R219" s="24" t="str">
         <f aca="true">IF(I219="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="21"/>
-      <c r="C220" s="21"/>
-      <c r="E220" s="22"/>
-      <c r="H220" s="24" t="str">
+      <c r="B220" s="17"/>
+      <c r="C220" s="17"/>
+      <c r="E220" s="21"/>
+      <c r="H220" s="23" t="str">
         <f aca="true">IF(I220 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q220" s="25"/>
-      <c r="R220" s="25" t="str">
+      <c r="Q220" s="24"/>
+      <c r="R220" s="24" t="str">
         <f aca="true">IF(I220="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="21"/>
-      <c r="C221" s="21"/>
-      <c r="E221" s="22"/>
-      <c r="H221" s="24" t="str">
+      <c r="B221" s="17"/>
+      <c r="C221" s="17"/>
+      <c r="E221" s="21"/>
+      <c r="H221" s="23" t="str">
         <f aca="true">IF(I221 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q221" s="25"/>
-      <c r="R221" s="25" t="str">
+      <c r="Q221" s="24"/>
+      <c r="R221" s="24" t="str">
         <f aca="true">IF(I221="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="21"/>
-      <c r="C222" s="21"/>
-      <c r="E222" s="22"/>
-      <c r="H222" s="24" t="str">
+      <c r="B222" s="17"/>
+      <c r="C222" s="17"/>
+      <c r="E222" s="21"/>
+      <c r="H222" s="23" t="str">
         <f aca="true">IF(I222 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q222" s="25"/>
-      <c r="R222" s="25" t="str">
+      <c r="Q222" s="24"/>
+      <c r="R222" s="24" t="str">
         <f aca="true">IF(I222="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="21"/>
-      <c r="C223" s="21"/>
-      <c r="E223" s="22"/>
-      <c r="H223" s="24" t="str">
+      <c r="B223" s="17"/>
+      <c r="C223" s="17"/>
+      <c r="E223" s="21"/>
+      <c r="H223" s="23" t="str">
         <f aca="true">IF(I223 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q223" s="25"/>
-      <c r="R223" s="25" t="str">
+      <c r="Q223" s="24"/>
+      <c r="R223" s="24" t="str">
         <f aca="true">IF(I223="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="21"/>
-      <c r="C224" s="21"/>
-      <c r="E224" s="22"/>
-      <c r="H224" s="24" t="str">
+      <c r="B224" s="17"/>
+      <c r="C224" s="17"/>
+      <c r="E224" s="21"/>
+      <c r="H224" s="23" t="str">
         <f aca="true">IF(I224 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q224" s="25"/>
-      <c r="R224" s="25" t="str">
+      <c r="Q224" s="24"/>
+      <c r="R224" s="24" t="str">
         <f aca="true">IF(I224="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="21"/>
-      <c r="C225" s="21"/>
-      <c r="E225" s="22"/>
-      <c r="H225" s="24" t="str">
+      <c r="B225" s="17"/>
+      <c r="C225" s="17"/>
+      <c r="E225" s="21"/>
+      <c r="H225" s="23" t="str">
         <f aca="true">IF(I225 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q225" s="25"/>
-      <c r="R225" s="25" t="str">
+      <c r="Q225" s="24"/>
+      <c r="R225" s="24" t="str">
         <f aca="true">IF(I225="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="21"/>
-      <c r="C226" s="21"/>
-      <c r="E226" s="22"/>
-      <c r="H226" s="24" t="str">
+      <c r="B226" s="17"/>
+      <c r="C226" s="17"/>
+      <c r="E226" s="21"/>
+      <c r="H226" s="23" t="str">
         <f aca="true">IF(I226 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q226" s="25"/>
-      <c r="R226" s="25" t="str">
+      <c r="Q226" s="24"/>
+      <c r="R226" s="24" t="str">
         <f aca="true">IF(I226="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="21"/>
-      <c r="C227" s="21"/>
-      <c r="E227" s="22"/>
-      <c r="H227" s="24" t="str">
+      <c r="B227" s="17"/>
+      <c r="C227" s="17"/>
+      <c r="E227" s="21"/>
+      <c r="H227" s="23" t="str">
         <f aca="true">IF(I227 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q227" s="25"/>
-      <c r="R227" s="25" t="str">
+      <c r="Q227" s="24"/>
+      <c r="R227" s="24" t="str">
         <f aca="true">IF(I227="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="21"/>
-      <c r="C228" s="21"/>
-      <c r="E228" s="22"/>
-      <c r="H228" s="24" t="str">
+      <c r="B228" s="17"/>
+      <c r="C228" s="17"/>
+      <c r="E228" s="21"/>
+      <c r="H228" s="23" t="str">
         <f aca="true">IF(I228 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q228" s="25"/>
-      <c r="R228" s="25" t="str">
+      <c r="Q228" s="24"/>
+      <c r="R228" s="24" t="str">
         <f aca="true">IF(I228="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="21"/>
-      <c r="C229" s="21"/>
-      <c r="E229" s="22"/>
-      <c r="H229" s="24" t="str">
+      <c r="B229" s="17"/>
+      <c r="C229" s="17"/>
+      <c r="E229" s="21"/>
+      <c r="H229" s="23" t="str">
         <f aca="true">IF(I229 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q229" s="25"/>
-      <c r="R229" s="25" t="str">
+      <c r="Q229" s="24"/>
+      <c r="R229" s="24" t="str">
         <f aca="true">IF(I229="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="21"/>
-      <c r="C230" s="21"/>
-      <c r="E230" s="22"/>
-      <c r="H230" s="24" t="str">
+      <c r="B230" s="17"/>
+      <c r="C230" s="17"/>
+      <c r="E230" s="21"/>
+      <c r="H230" s="23" t="str">
         <f aca="true">IF(I230 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q230" s="25"/>
-      <c r="R230" s="25"/>
+      <c r="Q230" s="24"/>
+      <c r="R230" s="24"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="21"/>
-      <c r="C231" s="21"/>
-      <c r="E231" s="22"/>
-      <c r="H231" s="24" t="str">
+      <c r="B231" s="17"/>
+      <c r="C231" s="17"/>
+      <c r="E231" s="21"/>
+      <c r="H231" s="23" t="str">
         <f aca="true">IF(I231 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q231" s="25"/>
-      <c r="R231" s="25"/>
+      <c r="Q231" s="24"/>
+      <c r="R231" s="24"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="21"/>
-      <c r="C232" s="21"/>
-      <c r="E232" s="22"/>
-      <c r="H232" s="24" t="str">
+      <c r="B232" s="17"/>
+      <c r="C232" s="17"/>
+      <c r="E232" s="21"/>
+      <c r="H232" s="23" t="str">
         <f aca="true">IF(I232 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q232" s="25"/>
-      <c r="R232" s="25"/>
+      <c r="Q232" s="24"/>
+      <c r="R232" s="24"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="21"/>
-      <c r="C233" s="21"/>
-      <c r="E233" s="22"/>
-      <c r="H233" s="24" t="str">
+      <c r="B233" s="17"/>
+      <c r="C233" s="17"/>
+      <c r="E233" s="21"/>
+      <c r="H233" s="23" t="str">
         <f aca="true">IF(I233 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q233" s="25"/>
-      <c r="R233" s="25"/>
+      <c r="Q233" s="24"/>
+      <c r="R233" s="24"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="21"/>
-      <c r="C234" s="21"/>
-      <c r="E234" s="22"/>
-      <c r="H234" s="24" t="str">
+      <c r="B234" s="17"/>
+      <c r="C234" s="17"/>
+      <c r="E234" s="21"/>
+      <c r="H234" s="23" t="str">
         <f aca="true">IF(I234 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q234" s="25"/>
-      <c r="R234" s="25"/>
+      <c r="Q234" s="24"/>
+      <c r="R234" s="24"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="21"/>
-      <c r="C235" s="21"/>
-      <c r="E235" s="22"/>
-      <c r="H235" s="24" t="str">
+      <c r="B235" s="17"/>
+      <c r="C235" s="17"/>
+      <c r="E235" s="21"/>
+      <c r="H235" s="23" t="str">
         <f aca="true">IF(I235 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q235" s="25"/>
-      <c r="R235" s="25"/>
+      <c r="Q235" s="24"/>
+      <c r="R235" s="24"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="21"/>
-      <c r="C236" s="21"/>
-      <c r="E236" s="22"/>
-      <c r="H236" s="24" t="str">
+      <c r="B236" s="17"/>
+      <c r="C236" s="17"/>
+      <c r="E236" s="21"/>
+      <c r="H236" s="23" t="str">
         <f aca="true">IF(I236 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q236" s="25"/>
-      <c r="R236" s="25"/>
+      <c r="Q236" s="24"/>
+      <c r="R236" s="24"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="21"/>
-      <c r="C237" s="21"/>
-      <c r="E237" s="22"/>
-      <c r="H237" s="24" t="str">
+      <c r="B237" s="17"/>
+      <c r="C237" s="17"/>
+      <c r="E237" s="21"/>
+      <c r="H237" s="23" t="str">
         <f aca="true">IF(I237 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q237" s="25"/>
-      <c r="R237" s="25"/>
+      <c r="Q237" s="24"/>
+      <c r="R237" s="24"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="21"/>
-      <c r="C238" s="21"/>
-      <c r="E238" s="22"/>
-      <c r="H238" s="24" t="str">
+      <c r="B238" s="17"/>
+      <c r="C238" s="17"/>
+      <c r="E238" s="21"/>
+      <c r="H238" s="23" t="str">
         <f aca="true">IF(I238 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q238" s="25"/>
-      <c r="R238" s="25"/>
+      <c r="Q238" s="24"/>
+      <c r="R238" s="24"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="21"/>
-      <c r="C239" s="21"/>
-      <c r="E239" s="22"/>
-      <c r="H239" s="24" t="str">
+      <c r="B239" s="17"/>
+      <c r="C239" s="17"/>
+      <c r="E239" s="21"/>
+      <c r="H239" s="23" t="str">
         <f aca="true">IF(I239 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q239" s="25"/>
-      <c r="R239" s="25"/>
+      <c r="Q239" s="24"/>
+      <c r="R239" s="24"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="21"/>
-      <c r="C240" s="21"/>
-      <c r="E240" s="22"/>
-      <c r="H240" s="24" t="str">
+      <c r="B240" s="17"/>
+      <c r="C240" s="17"/>
+      <c r="E240" s="21"/>
+      <c r="H240" s="23" t="str">
         <f aca="true">IF(I240 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q240" s="25"/>
-      <c r="R240" s="25"/>
+      <c r="Q240" s="24"/>
+      <c r="R240" s="24"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="21"/>
-      <c r="C241" s="21"/>
-      <c r="E241" s="22"/>
-      <c r="H241" s="24" t="str">
+      <c r="B241" s="17"/>
+      <c r="C241" s="17"/>
+      <c r="E241" s="21"/>
+      <c r="H241" s="23" t="str">
         <f aca="true">IF(I241 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q241" s="25"/>
-      <c r="R241" s="25"/>
+      <c r="Q241" s="24"/>
+      <c r="R241" s="24"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="21"/>
-      <c r="C242" s="21"/>
-      <c r="E242" s="22"/>
-      <c r="H242" s="24" t="str">
+      <c r="B242" s="17"/>
+      <c r="C242" s="17"/>
+      <c r="E242" s="21"/>
+      <c r="H242" s="23" t="str">
         <f aca="true">IF(I242 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q242" s="25"/>
-      <c r="R242" s="25"/>
+      <c r="Q242" s="24"/>
+      <c r="R242" s="24"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="21"/>
-      <c r="C243" s="21"/>
-      <c r="E243" s="22"/>
-      <c r="H243" s="24" t="str">
+      <c r="B243" s="17"/>
+      <c r="C243" s="17"/>
+      <c r="E243" s="21"/>
+      <c r="H243" s="23" t="str">
         <f aca="true">IF(I243 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q243" s="25"/>
-      <c r="R243" s="25"/>
+      <c r="Q243" s="24"/>
+      <c r="R243" s="24"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="21"/>
-      <c r="C244" s="21"/>
-      <c r="E244" s="22"/>
-      <c r="H244" s="24" t="str">
+      <c r="B244" s="17"/>
+      <c r="C244" s="17"/>
+      <c r="E244" s="21"/>
+      <c r="H244" s="23" t="str">
         <f aca="true">IF(I244 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q244" s="25"/>
-      <c r="R244" s="25"/>
+      <c r="Q244" s="24"/>
+      <c r="R244" s="24"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="21"/>
-      <c r="C245" s="21"/>
-      <c r="E245" s="22"/>
-      <c r="H245" s="24" t="str">
+      <c r="B245" s="17"/>
+      <c r="C245" s="17"/>
+      <c r="E245" s="21"/>
+      <c r="H245" s="23" t="str">
         <f aca="true">IF(I245 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q245" s="25"/>
-      <c r="R245" s="25"/>
+      <c r="Q245" s="24"/>
+      <c r="R245" s="24"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="21"/>
-      <c r="C246" s="21"/>
-      <c r="E246" s="22"/>
-      <c r="H246" s="24" t="str">
+      <c r="B246" s="17"/>
+      <c r="C246" s="17"/>
+      <c r="E246" s="21"/>
+      <c r="H246" s="23" t="str">
         <f aca="true">IF(I246 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q246" s="25"/>
-      <c r="R246" s="25"/>
+      <c r="Q246" s="24"/>
+      <c r="R246" s="24"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="21"/>
-      <c r="C247" s="21"/>
-      <c r="E247" s="22"/>
-      <c r="H247" s="24" t="str">
+      <c r="B247" s="17"/>
+      <c r="C247" s="17"/>
+      <c r="E247" s="21"/>
+      <c r="H247" s="23" t="str">
         <f aca="true">IF(I247 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q247" s="25"/>
-      <c r="R247" s="25"/>
+      <c r="Q247" s="24"/>
+      <c r="R247" s="24"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="21"/>
-      <c r="C248" s="21"/>
-      <c r="E248" s="22"/>
-      <c r="H248" s="24" t="str">
+      <c r="B248" s="17"/>
+      <c r="C248" s="17"/>
+      <c r="E248" s="21"/>
+      <c r="H248" s="23" t="str">
         <f aca="true">IF(I248 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q248" s="25"/>
-      <c r="R248" s="25"/>
+      <c r="Q248" s="24"/>
+      <c r="R248" s="24"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="21"/>
-      <c r="C249" s="21"/>
-      <c r="E249" s="22"/>
-      <c r="H249" s="24" t="str">
+      <c r="B249" s="17"/>
+      <c r="C249" s="17"/>
+      <c r="E249" s="21"/>
+      <c r="H249" s="23" t="str">
         <f aca="true">IF(I249 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q249" s="25"/>
-      <c r="R249" s="25"/>
+      <c r="Q249" s="24"/>
+      <c r="R249" s="24"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="21"/>
-      <c r="C250" s="21"/>
-      <c r="E250" s="22"/>
-      <c r="H250" s="24" t="str">
+      <c r="B250" s="17"/>
+      <c r="C250" s="17"/>
+      <c r="E250" s="21"/>
+      <c r="H250" s="23" t="str">
         <f aca="true">IF(I250 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q250" s="25"/>
-      <c r="R250" s="25"/>
+      <c r="Q250" s="24"/>
+      <c r="R250" s="24"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="21"/>
-      <c r="C251" s="21"/>
-      <c r="E251" s="22"/>
-      <c r="H251" s="24" t="str">
+      <c r="B251" s="17"/>
+      <c r="C251" s="17"/>
+      <c r="E251" s="21"/>
+      <c r="H251" s="23" t="str">
         <f aca="true">IF(I251 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q251" s="25"/>
-      <c r="R251" s="25"/>
+      <c r="Q251" s="24"/>
+      <c r="R251" s="24"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="21"/>
-      <c r="C252" s="21"/>
-      <c r="E252" s="22"/>
-      <c r="H252" s="24" t="str">
+      <c r="B252" s="17"/>
+      <c r="C252" s="17"/>
+      <c r="E252" s="21"/>
+      <c r="H252" s="23" t="str">
         <f aca="true">IF(I252 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q252" s="25"/>
-      <c r="R252" s="25"/>
+      <c r="Q252" s="24"/>
+      <c r="R252" s="24"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="21"/>
-      <c r="C253" s="21"/>
-      <c r="E253" s="22"/>
-      <c r="H253" s="24" t="str">
+      <c r="B253" s="17"/>
+      <c r="C253" s="17"/>
+      <c r="E253" s="21"/>
+      <c r="H253" s="23" t="str">
         <f aca="true">IF(I253 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q253" s="25"/>
-      <c r="R253" s="25"/>
+      <c r="Q253" s="24"/>
+      <c r="R253" s="24"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="21"/>
-      <c r="C254" s="21"/>
-      <c r="E254" s="22"/>
-      <c r="H254" s="24" t="str">
+      <c r="B254" s="17"/>
+      <c r="C254" s="17"/>
+      <c r="E254" s="21"/>
+      <c r="H254" s="23" t="str">
         <f aca="true">IF(I254 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q254" s="25"/>
-      <c r="R254" s="25"/>
+      <c r="Q254" s="24"/>
+      <c r="R254" s="24"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="21"/>
-      <c r="C255" s="21"/>
-      <c r="E255" s="22"/>
-      <c r="H255" s="24" t="str">
+      <c r="B255" s="17"/>
+      <c r="C255" s="17"/>
+      <c r="E255" s="21"/>
+      <c r="H255" s="23" t="str">
         <f aca="true">IF(I255 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q255" s="25"/>
-      <c r="R255" s="25"/>
+      <c r="Q255" s="24"/>
+      <c r="R255" s="24"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="21"/>
-      <c r="C256" s="21"/>
-      <c r="E256" s="22"/>
-      <c r="H256" s="24" t="str">
+      <c r="B256" s="17"/>
+      <c r="C256" s="17"/>
+      <c r="E256" s="21"/>
+      <c r="H256" s="23" t="str">
         <f aca="true">IF(I256 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q256" s="25"/>
-      <c r="R256" s="25"/>
+      <c r="Q256" s="24"/>
+      <c r="R256" s="24"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="21"/>
-      <c r="C257" s="21"/>
-      <c r="E257" s="22"/>
-      <c r="H257" s="24" t="str">
+      <c r="B257" s="17"/>
+      <c r="C257" s="17"/>
+      <c r="E257" s="21"/>
+      <c r="H257" s="23" t="str">
         <f aca="true">IF(I257 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q257" s="25"/>
-      <c r="R257" s="25"/>
+      <c r="Q257" s="24"/>
+      <c r="R257" s="24"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="21"/>
-      <c r="C258" s="21"/>
-      <c r="E258" s="22"/>
-      <c r="H258" s="24" t="str">
+      <c r="B258" s="17"/>
+      <c r="C258" s="17"/>
+      <c r="E258" s="21"/>
+      <c r="H258" s="23" t="str">
         <f aca="true">IF(I258 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q258" s="25"/>
-      <c r="R258" s="25"/>
+      <c r="Q258" s="24"/>
+      <c r="R258" s="24"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="21"/>
-      <c r="C259" s="21"/>
-      <c r="E259" s="22"/>
-      <c r="H259" s="24" t="str">
+      <c r="B259" s="17"/>
+      <c r="C259" s="17"/>
+      <c r="E259" s="21"/>
+      <c r="H259" s="23" t="str">
         <f aca="true">IF(I259 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q259" s="25"/>
-      <c r="R259" s="25"/>
+      <c r="Q259" s="24"/>
+      <c r="R259" s="24"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="21"/>
-      <c r="C260" s="21"/>
-      <c r="E260" s="22"/>
-      <c r="H260" s="24" t="str">
+      <c r="B260" s="17"/>
+      <c r="C260" s="17"/>
+      <c r="E260" s="21"/>
+      <c r="H260" s="23" t="str">
         <f aca="true">IF(I260 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q260" s="25"/>
-      <c r="R260" s="25"/>
+      <c r="Q260" s="24"/>
+      <c r="R260" s="24"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="21"/>
-      <c r="C261" s="21"/>
-      <c r="E261" s="22"/>
-      <c r="H261" s="24" t="str">
+      <c r="B261" s="17"/>
+      <c r="C261" s="17"/>
+      <c r="E261" s="21"/>
+      <c r="H261" s="23" t="str">
         <f aca="true">IF(I261 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q261" s="25"/>
-      <c r="R261" s="25"/>
+      <c r="Q261" s="24"/>
+      <c r="R261" s="24"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="21"/>
-      <c r="C262" s="21"/>
-      <c r="E262" s="22"/>
-      <c r="H262" s="24" t="str">
+      <c r="B262" s="17"/>
+      <c r="C262" s="17"/>
+      <c r="E262" s="21"/>
+      <c r="H262" s="23" t="str">
         <f aca="true">IF(I262 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q262" s="25"/>
-      <c r="R262" s="25"/>
+      <c r="Q262" s="24"/>
+      <c r="R262" s="24"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="21"/>
-      <c r="C263" s="21"/>
-      <c r="E263" s="22"/>
-      <c r="H263" s="24" t="str">
+      <c r="B263" s="17"/>
+      <c r="C263" s="17"/>
+      <c r="E263" s="21"/>
+      <c r="H263" s="23" t="str">
         <f aca="true">IF(I263 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q263" s="25"/>
-      <c r="R263" s="25"/>
+      <c r="Q263" s="24"/>
+      <c r="R263" s="24"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="21"/>
-      <c r="C264" s="21"/>
-      <c r="E264" s="22"/>
-      <c r="H264" s="24" t="str">
+      <c r="B264" s="17"/>
+      <c r="C264" s="17"/>
+      <c r="E264" s="21"/>
+      <c r="H264" s="23" t="str">
         <f aca="true">IF(I264 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q264" s="25"/>
-      <c r="R264" s="25"/>
+      <c r="Q264" s="24"/>
+      <c r="R264" s="24"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="21"/>
-      <c r="C265" s="21"/>
-      <c r="E265" s="22"/>
-      <c r="H265" s="24" t="str">
+      <c r="B265" s="17"/>
+      <c r="C265" s="17"/>
+      <c r="E265" s="21"/>
+      <c r="H265" s="23" t="str">
         <f aca="true">IF(I265 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q265" s="25"/>
-      <c r="R265" s="25"/>
+      <c r="Q265" s="24"/>
+      <c r="R265" s="24"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="21"/>
-      <c r="C266" s="21"/>
-      <c r="E266" s="22"/>
-      <c r="H266" s="24" t="str">
+      <c r="B266" s="17"/>
+      <c r="C266" s="17"/>
+      <c r="E266" s="21"/>
+      <c r="H266" s="23" t="str">
         <f aca="true">IF(I266 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q266" s="25"/>
-      <c r="R266" s="25"/>
+      <c r="Q266" s="24"/>
+      <c r="R266" s="24"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="21"/>
-      <c r="C267" s="21"/>
-      <c r="E267" s="22"/>
-      <c r="H267" s="24" t="str">
+      <c r="B267" s="17"/>
+      <c r="C267" s="17"/>
+      <c r="E267" s="21"/>
+      <c r="H267" s="23" t="str">
         <f aca="true">IF(I267 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="Q267" s="25"/>
-      <c r="R267" s="25"/>
+      <c r="Q267" s="24"/>
+      <c r="R267" s="24"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="21"/>
-      <c r="C268" s="21"/>
-      <c r="E268" s="22"/>
-      <c r="H268" s="24" t="str">
+      <c r="B268" s="17"/>
+      <c r="C268" s="17"/>
+      <c r="E268" s="21"/>
+      <c r="H268" s="23" t="str">
         <f aca="true">IF(I268 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="21"/>
-      <c r="C269" s="21"/>
-      <c r="E269" s="22"/>
-      <c r="H269" s="24" t="str">
+      <c r="B269" s="17"/>
+      <c r="C269" s="17"/>
+      <c r="E269" s="21"/>
+      <c r="H269" s="23" t="str">
         <f aca="true">IF(I269 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="21"/>
-      <c r="C270" s="21"/>
-      <c r="E270" s="22"/>
-      <c r="H270" s="24" t="str">
+      <c r="B270" s="17"/>
+      <c r="C270" s="17"/>
+      <c r="E270" s="21"/>
+      <c r="H270" s="23" t="str">
         <f aca="true">IF(I270 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="21"/>
-      <c r="C271" s="21"/>
-      <c r="E271" s="22"/>
-      <c r="H271" s="24" t="str">
+      <c r="B271" s="17"/>
+      <c r="C271" s="17"/>
+      <c r="E271" s="21"/>
+      <c r="H271" s="23" t="str">
         <f aca="true">IF(I271 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="21"/>
-      <c r="C272" s="21"/>
-      <c r="E272" s="22"/>
-      <c r="H272" s="24" t="str">
+      <c r="B272" s="17"/>
+      <c r="C272" s="17"/>
+      <c r="E272" s="21"/>
+      <c r="H272" s="23" t="str">
         <f aca="true">IF(I272 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="21"/>
-      <c r="C273" s="21"/>
-      <c r="E273" s="22"/>
-      <c r="H273" s="24" t="str">
+      <c r="B273" s="17"/>
+      <c r="C273" s="17"/>
+      <c r="E273" s="21"/>
+      <c r="H273" s="23" t="str">
         <f aca="true">IF(I273 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="21"/>
-      <c r="C274" s="21"/>
-      <c r="E274" s="22"/>
-      <c r="H274" s="24" t="str">
+      <c r="B274" s="17"/>
+      <c r="C274" s="17"/>
+      <c r="E274" s="21"/>
+      <c r="H274" s="23" t="str">
         <f aca="true">IF(I274 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
-      <c r="E275" s="22"/>
-      <c r="H275" s="24" t="str">
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
+      <c r="E275" s="21"/>
+      <c r="H275" s="23" t="str">
         <f aca="true">IF(I275 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="21"/>
-      <c r="C276" s="21"/>
-      <c r="E276" s="22"/>
-      <c r="H276" s="24" t="str">
+      <c r="B276" s="17"/>
+      <c r="C276" s="17"/>
+      <c r="E276" s="21"/>
+      <c r="H276" s="23" t="str">
         <f aca="true">IF(I276 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="21"/>
-      <c r="C277" s="21"/>
-      <c r="E277" s="22"/>
-      <c r="H277" s="24" t="str">
+      <c r="B277" s="17"/>
+      <c r="C277" s="17"/>
+      <c r="E277" s="21"/>
+      <c r="H277" s="23" t="str">
         <f aca="true">IF(I277 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="21"/>
-      <c r="C278" s="21"/>
-      <c r="E278" s="22"/>
-      <c r="H278" s="24" t="str">
+      <c r="B278" s="17"/>
+      <c r="C278" s="17"/>
+      <c r="E278" s="21"/>
+      <c r="H278" s="23" t="str">
         <f aca="true">IF(I278 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="21"/>
-      <c r="C279" s="21"/>
-      <c r="E279" s="22"/>
-      <c r="H279" s="24" t="str">
+      <c r="B279" s="17"/>
+      <c r="C279" s="17"/>
+      <c r="E279" s="21"/>
+      <c r="H279" s="23" t="str">
         <f aca="true">IF(I279 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="21"/>
-      <c r="C280" s="21"/>
-      <c r="E280" s="22"/>
-      <c r="H280" s="24" t="str">
+      <c r="B280" s="17"/>
+      <c r="C280" s="17"/>
+      <c r="E280" s="21"/>
+      <c r="H280" s="23" t="str">
         <f aca="true">IF(I280 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="21"/>
-      <c r="C281" s="21"/>
-      <c r="E281" s="22"/>
-      <c r="H281" s="24" t="str">
+      <c r="B281" s="17"/>
+      <c r="C281" s="17"/>
+      <c r="E281" s="21"/>
+      <c r="H281" s="23" t="str">
         <f aca="true">IF(I281 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="21"/>
-      <c r="C282" s="21"/>
-      <c r="E282" s="22"/>
-      <c r="H282" s="24" t="str">
+      <c r="B282" s="17"/>
+      <c r="C282" s="17"/>
+      <c r="E282" s="21"/>
+      <c r="H282" s="23" t="str">
         <f aca="true">IF(I282 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="21"/>
-      <c r="C283" s="21"/>
-      <c r="E283" s="22"/>
-      <c r="H283" s="24" t="str">
+      <c r="B283" s="17"/>
+      <c r="C283" s="17"/>
+      <c r="E283" s="21"/>
+      <c r="H283" s="23" t="str">
         <f aca="true">IF(I283 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="21"/>
-      <c r="C284" s="21"/>
-      <c r="E284" s="22"/>
-      <c r="H284" s="24" t="str">
+      <c r="B284" s="17"/>
+      <c r="C284" s="17"/>
+      <c r="E284" s="21"/>
+      <c r="H284" s="23" t="str">
         <f aca="true">IF(I284 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="21"/>
-      <c r="C285" s="21"/>
-      <c r="E285" s="22"/>
-      <c r="H285" s="24" t="str">
+      <c r="B285" s="17"/>
+      <c r="C285" s="17"/>
+      <c r="E285" s="21"/>
+      <c r="H285" s="23" t="str">
         <f aca="true">IF(I285 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="21"/>
-      <c r="C286" s="21"/>
-      <c r="E286" s="22"/>
-      <c r="H286" s="24" t="str">
+      <c r="B286" s="17"/>
+      <c r="C286" s="17"/>
+      <c r="E286" s="21"/>
+      <c r="H286" s="23" t="str">
         <f aca="true">IF(I286 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="21"/>
-      <c r="C287" s="21"/>
-      <c r="E287" s="22"/>
-      <c r="H287" s="24" t="str">
+      <c r="B287" s="17"/>
+      <c r="C287" s="17"/>
+      <c r="E287" s="21"/>
+      <c r="H287" s="23" t="str">
         <f aca="true">IF(I287 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="21"/>
-      <c r="C288" s="21"/>
-      <c r="E288" s="22"/>
-      <c r="H288" s="24" t="str">
+      <c r="B288" s="17"/>
+      <c r="C288" s="17"/>
+      <c r="E288" s="21"/>
+      <c r="H288" s="23" t="str">
         <f aca="true">IF(I288 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B289" s="21"/>
-      <c r="C289" s="21"/>
-      <c r="E289" s="22"/>
-      <c r="H289" s="24" t="str">
+      <c r="B289" s="17"/>
+      <c r="C289" s="17"/>
+      <c r="E289" s="21"/>
+      <c r="H289" s="23" t="str">
         <f aca="true">IF(I289 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="21"/>
-      <c r="C290" s="21"/>
-      <c r="E290" s="22"/>
-      <c r="H290" s="24" t="str">
+      <c r="B290" s="17"/>
+      <c r="C290" s="17"/>
+      <c r="E290" s="21"/>
+      <c r="H290" s="23" t="str">
         <f aca="true">IF(I290 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="21"/>
-      <c r="C291" s="21"/>
-      <c r="E291" s="22"/>
-      <c r="H291" s="24" t="str">
+      <c r="B291" s="17"/>
+      <c r="C291" s="17"/>
+      <c r="E291" s="21"/>
+      <c r="H291" s="23" t="str">
         <f aca="true">IF(I291 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="21"/>
-      <c r="C292" s="21"/>
-      <c r="E292" s="22"/>
-      <c r="H292" s="24" t="str">
+      <c r="B292" s="17"/>
+      <c r="C292" s="17"/>
+      <c r="E292" s="21"/>
+      <c r="H292" s="23" t="str">
         <f aca="true">IF(I292 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="21"/>
-      <c r="C293" s="21"/>
-      <c r="E293" s="22"/>
-      <c r="H293" s="24" t="str">
+      <c r="B293" s="17"/>
+      <c r="C293" s="17"/>
+      <c r="E293" s="21"/>
+      <c r="H293" s="23" t="str">
         <f aca="true">IF(I293 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="21"/>
-      <c r="C294" s="21"/>
-      <c r="E294" s="22"/>
-      <c r="H294" s="24" t="str">
+      <c r="B294" s="17"/>
+      <c r="C294" s="17"/>
+      <c r="E294" s="21"/>
+      <c r="H294" s="23" t="str">
         <f aca="true">IF(I294 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="21"/>
-      <c r="C295" s="21"/>
-      <c r="E295" s="22"/>
-      <c r="H295" s="24" t="str">
+      <c r="B295" s="17"/>
+      <c r="C295" s="17"/>
+      <c r="E295" s="21"/>
+      <c r="H295" s="23" t="str">
         <f aca="true">IF(I295 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="21"/>
-      <c r="C296" s="21"/>
-      <c r="E296" s="22"/>
-      <c r="H296" s="24" t="str">
+      <c r="B296" s="17"/>
+      <c r="C296" s="17"/>
+      <c r="E296" s="21"/>
+      <c r="H296" s="23" t="str">
         <f aca="true">IF(I296 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="21"/>
-      <c r="C297" s="21"/>
-      <c r="E297" s="22"/>
-      <c r="H297" s="24" t="str">
+      <c r="B297" s="17"/>
+      <c r="C297" s="17"/>
+      <c r="E297" s="21"/>
+      <c r="H297" s="23" t="str">
         <f aca="true">IF(I297 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="21"/>
-      <c r="C298" s="21"/>
-      <c r="E298" s="22"/>
-      <c r="H298" s="24" t="str">
+      <c r="B298" s="17"/>
+      <c r="C298" s="17"/>
+      <c r="E298" s="21"/>
+      <c r="H298" s="23" t="str">
         <f aca="true">IF(I298 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="21"/>
-      <c r="C299" s="21"/>
-      <c r="E299" s="22"/>
-      <c r="H299" s="24" t="str">
+      <c r="B299" s="17"/>
+      <c r="C299" s="17"/>
+      <c r="E299" s="21"/>
+      <c r="H299" s="23" t="str">
         <f aca="true">IF(I299 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="21"/>
-      <c r="C300" s="21"/>
-      <c r="E300" s="22"/>
-      <c r="H300" s="24" t="str">
+      <c r="B300" s="17"/>
+      <c r="C300" s="17"/>
+      <c r="E300" s="21"/>
+      <c r="H300" s="23" t="str">
         <f aca="true">IF(I300 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="21"/>
-      <c r="C301" s="21"/>
-      <c r="E301" s="22"/>
-      <c r="H301" s="24" t="str">
+      <c r="B301" s="17"/>
+      <c r="C301" s="17"/>
+      <c r="E301" s="21"/>
+      <c r="H301" s="23" t="str">
         <f aca="true">IF(I301 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="21"/>
-      <c r="C302" s="21"/>
-      <c r="E302" s="22"/>
-      <c r="H302" s="24" t="str">
+      <c r="B302" s="17"/>
+      <c r="C302" s="17"/>
+      <c r="E302" s="21"/>
+      <c r="H302" s="23" t="str">
         <f aca="true">IF(I302 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="21"/>
-      <c r="C303" s="21"/>
-      <c r="E303" s="22"/>
-      <c r="H303" s="24" t="str">
+      <c r="B303" s="17"/>
+      <c r="C303" s="17"/>
+      <c r="E303" s="21"/>
+      <c r="H303" s="23" t="str">
         <f aca="true">IF(I303 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="21"/>
-      <c r="C304" s="21"/>
-      <c r="E304" s="22"/>
-      <c r="H304" s="24" t="str">
+      <c r="B304" s="17"/>
+      <c r="C304" s="17"/>
+      <c r="E304" s="21"/>
+      <c r="H304" s="23" t="str">
         <f aca="true">IF(I304 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="21"/>
-      <c r="C305" s="21"/>
-      <c r="E305" s="22"/>
-      <c r="H305" s="24" t="str">
+      <c r="B305" s="17"/>
+      <c r="C305" s="17"/>
+      <c r="E305" s="21"/>
+      <c r="H305" s="23" t="str">
         <f aca="true">IF(I305 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="21"/>
-      <c r="C306" s="21"/>
-      <c r="E306" s="22"/>
-      <c r="H306" s="24" t="str">
+      <c r="B306" s="17"/>
+      <c r="C306" s="17"/>
+      <c r="E306" s="21"/>
+      <c r="H306" s="23" t="str">
         <f aca="true">IF(I306 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="21"/>
-      <c r="C307" s="21"/>
-      <c r="E307" s="22"/>
-      <c r="H307" s="24" t="str">
+      <c r="B307" s="17"/>
+      <c r="C307" s="17"/>
+      <c r="E307" s="21"/>
+      <c r="H307" s="23" t="str">
         <f aca="true">IF(I307 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="21"/>
-      <c r="C308" s="21"/>
-      <c r="E308" s="22"/>
-      <c r="H308" s="24" t="str">
+      <c r="B308" s="17"/>
+      <c r="C308" s="17"/>
+      <c r="E308" s="21"/>
+      <c r="H308" s="23" t="str">
         <f aca="true">IF(I308 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="21"/>
-      <c r="C309" s="21"/>
-      <c r="E309" s="22"/>
-      <c r="H309" s="24" t="str">
+      <c r="B309" s="17"/>
+      <c r="C309" s="17"/>
+      <c r="E309" s="21"/>
+      <c r="H309" s="23" t="str">
         <f aca="true">IF(I309 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="21"/>
-      <c r="C310" s="21"/>
-      <c r="E310" s="22"/>
-      <c r="H310" s="24" t="str">
+      <c r="B310" s="17"/>
+      <c r="C310" s="17"/>
+      <c r="E310" s="21"/>
+      <c r="H310" s="23" t="str">
         <f aca="true">IF(I310 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="21"/>
-      <c r="C311" s="21"/>
-      <c r="E311" s="22"/>
-      <c r="H311" s="24" t="str">
+      <c r="B311" s="17"/>
+      <c r="C311" s="17"/>
+      <c r="E311" s="21"/>
+      <c r="H311" s="23" t="str">
         <f aca="true">IF(I311 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="21"/>
-      <c r="C312" s="21"/>
-      <c r="E312" s="22"/>
-      <c r="H312" s="24" t="str">
+      <c r="B312" s="17"/>
+      <c r="C312" s="17"/>
+      <c r="E312" s="21"/>
+      <c r="H312" s="23" t="str">
         <f aca="true">IF(I312 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="21"/>
-      <c r="C313" s="21"/>
-      <c r="E313" s="22"/>
-      <c r="H313" s="24" t="str">
+      <c r="B313" s="17"/>
+      <c r="C313" s="17"/>
+      <c r="E313" s="21"/>
+      <c r="H313" s="23" t="str">
         <f aca="true">IF(I313 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="21"/>
-      <c r="C314" s="21"/>
-      <c r="E314" s="22"/>
-      <c r="H314" s="24" t="str">
+      <c r="B314" s="17"/>
+      <c r="C314" s="17"/>
+      <c r="E314" s="21"/>
+      <c r="H314" s="23" t="str">
         <f aca="true">IF(I314 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="21"/>
-      <c r="C315" s="21"/>
-      <c r="E315" s="22"/>
-      <c r="H315" s="24" t="str">
+      <c r="B315" s="17"/>
+      <c r="C315" s="17"/>
+      <c r="E315" s="21"/>
+      <c r="H315" s="23" t="str">
         <f aca="true">IF(I315 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="21"/>
-      <c r="C316" s="21"/>
-      <c r="E316" s="22"/>
-      <c r="H316" s="24" t="str">
+      <c r="B316" s="17"/>
+      <c r="C316" s="17"/>
+      <c r="E316" s="21"/>
+      <c r="H316" s="23" t="str">
         <f aca="true">IF(I316 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B317" s="21"/>
-      <c r="C317" s="21"/>
-      <c r="E317" s="22"/>
-      <c r="H317" s="24" t="str">
+      <c r="B317" s="17"/>
+      <c r="C317" s="17"/>
+      <c r="E317" s="21"/>
+      <c r="H317" s="23" t="str">
         <f aca="true">IF(I317 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B318" s="21"/>
-      <c r="C318" s="21"/>
-      <c r="E318" s="22"/>
-      <c r="H318" s="24" t="str">
+      <c r="B318" s="17"/>
+      <c r="C318" s="17"/>
+      <c r="E318" s="21"/>
+      <c r="H318" s="23" t="str">
         <f aca="true">IF(I318 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B319" s="21"/>
-      <c r="C319" s="21"/>
-      <c r="E319" s="22"/>
-      <c r="H319" s="24" t="str">
+      <c r="B319" s="17"/>
+      <c r="C319" s="17"/>
+      <c r="E319" s="21"/>
+      <c r="H319" s="23" t="str">
         <f aca="true">IF(I319 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B320" s="21"/>
-      <c r="C320" s="21"/>
-      <c r="E320" s="22"/>
-      <c r="H320" s="24" t="str">
+      <c r="B320" s="17"/>
+      <c r="C320" s="17"/>
+      <c r="E320" s="21"/>
+      <c r="H320" s="23" t="str">
         <f aca="true">IF(I320 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B321" s="21"/>
-      <c r="C321" s="21"/>
-      <c r="E321" s="22"/>
-      <c r="H321" s="24" t="str">
+      <c r="B321" s="17"/>
+      <c r="C321" s="17"/>
+      <c r="E321" s="21"/>
+      <c r="H321" s="23" t="str">
         <f aca="true">IF(I321 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B322" s="21"/>
-      <c r="C322" s="21"/>
-      <c r="H322" s="24" t="str">
+      <c r="B322" s="17"/>
+      <c r="C322" s="17"/>
+      <c r="H322" s="23" t="str">
         <f aca="true">IF(I322 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B323" s="21"/>
-      <c r="C323" s="21"/>
-      <c r="H323" s="24" t="str">
+      <c r="B323" s="17"/>
+      <c r="C323" s="17"/>
+      <c r="H323" s="23" t="str">
         <f aca="true">IF(I323 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B324" s="21"/>
-      <c r="C324" s="21"/>
-      <c r="H324" s="24" t="str">
+      <c r="B324" s="17"/>
+      <c r="C324" s="17"/>
+      <c r="H324" s="23" t="str">
         <f aca="true">IF(I324 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B325" s="21"/>
-      <c r="C325" s="21"/>
-      <c r="H325" s="24" t="str">
+      <c r="B325" s="17"/>
+      <c r="C325" s="17"/>
+      <c r="H325" s="23" t="str">
         <f aca="true">IF(I325 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B326" s="21"/>
-      <c r="C326" s="21"/>
-      <c r="H326" s="24" t="str">
+      <c r="B326" s="17"/>
+      <c r="C326" s="17"/>
+      <c r="H326" s="23" t="str">
         <f aca="true">IF(I326 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B327" s="21"/>
-      <c r="C327" s="21"/>
+      <c r="B327" s="17"/>
+      <c r="C327" s="17"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B328" s="21"/>
-      <c r="C328" s="21"/>
+      <c r="B328" s="17"/>
+      <c r="C328" s="17"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B329" s="21"/>
-      <c r="C329" s="21"/>
+      <c r="B329" s="17"/>
+      <c r="C329" s="17"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B330" s="21"/>
-      <c r="C330" s="21"/>
+      <c r="B330" s="17"/>
+      <c r="C330" s="17"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B331" s="21"/>
-      <c r="C331" s="21"/>
+      <c r="B331" s="17"/>
+      <c r="C331" s="17"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B332" s="21"/>
-      <c r="C332" s="21"/>
+      <c r="B332" s="17"/>
+      <c r="C332" s="17"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B333" s="21"/>
-      <c r="C333" s="21"/>
+      <c r="B333" s="17"/>
+      <c r="C333" s="17"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="21"/>
-      <c r="C334" s="21"/>
+      <c r="B334" s="17"/>
+      <c r="C334" s="17"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="21"/>
-      <c r="C335" s="21"/>
+      <c r="B335" s="17"/>
+      <c r="C335" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10019,10 +10016,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D100" type="list">
-      <formula1>'SKU Маскарпоне'!$A$1:$A$50</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="C102:C123 B118:B123 B124:C335" type="list">
       <formula1>'SKU Маскарпоне'!$B$1:$B$50</formula1>
       <formula2>0</formula2>
@@ -10033,6 +10026,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="C3:C101" type="list">
       <formula1>'SKU Маскарпоне'!$B$1:$B$150</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D136" type="list">
+      <formula1>'SKU Маскарпоне'!$A$1:$A$150</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -10187,36 +10184,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26" t="s">
+    <row r="1" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>37</v>
       </c>
     </row>

--- a/app/data/static/templates/constructor_mascarpone.xlsx
+++ b/app/data/static/templates/constructor_mascarpone.xlsx
@@ -96,7 +96,7 @@
     <t xml:space="preserve">Вход, кг</t>
   </si>
   <si>
-    <t xml:space="preserve">Мойка</t>
+    <t xml:space="preserve">Вставить мойку</t>
   </si>
   <si>
     <t xml:space="preserve">Разделитель</t>
@@ -155,8 +155,8 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
   <fonts count="13">
@@ -353,23 +353,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,19 +361,35 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -668,7 +668,7 @@
   <dimension ref="A1:AMJ335"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -758,24 +758,24 @@
         <f aca="false">IF(D3="","",VLOOKUP(D3, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C3" s="17" t="str">
+      <c r="C3" s="18" t="str">
         <f aca="false">IF(D3="","",VLOOKUP(D3, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19" t="str">
+      <c r="E3" s="19"/>
+      <c r="F3" s="20" t="str">
         <f aca="true">IF(J3="","",INDIRECT("K" &amp; ROW() - 1) - G3)</f>
         <v/>
       </c>
-      <c r="G3" s="20" t="str">
+      <c r="G3" s="21" t="str">
         <f aca="true">IF(J3 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H3 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H3) ,"")</f>
         <v/>
       </c>
-      <c r="H3" s="20" t="str">
+      <c r="H3" s="21" t="str">
         <f aca="false">IF(J3 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K3" s="18" t="n">
+      <c r="K3" s="19" t="n">
         <f aca="true">IF(J3 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E3)</f>
         <v>0</v>
       </c>
@@ -791,11 +791,11 @@
         <f aca="true">IF(L3 = 0, INDIRECT("O" &amp; ROW() - 1), L3)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="21" t="str">
+      <c r="R3" s="22" t="str">
         <f aca="true">IF(Q3 = "", "", Q3 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S3" s="21" t="str">
+      <c r="S3" s="22" t="str">
         <f aca="true">IF(J3="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -807,24 +807,24 @@
         <f aca="false">IF(D4="","",VLOOKUP(D4, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C4" s="17" t="str">
+      <c r="C4" s="18" t="str">
         <f aca="false">IF(D4="","",VLOOKUP(D4, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19" t="str">
+      <c r="E4" s="19"/>
+      <c r="F4" s="20" t="str">
         <f aca="true">IF(J4="","",INDIRECT("K" &amp; ROW() - 1) - G4)</f>
         <v/>
       </c>
-      <c r="G4" s="20" t="str">
+      <c r="G4" s="21" t="str">
         <f aca="true">IF(J4 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H4 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H4) ,"")</f>
         <v/>
       </c>
-      <c r="H4" s="20" t="str">
+      <c r="H4" s="21" t="str">
         <f aca="false">IF(J4 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K4" s="18" t="n">
+      <c r="K4" s="19" t="n">
         <f aca="true">IF(J4 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E4)</f>
         <v>0</v>
       </c>
@@ -840,11 +840,11 @@
         <f aca="true">IF(L4 = 0, INDIRECT("O" &amp; ROW() - 1), L4)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="21" t="str">
+      <c r="R4" s="22" t="str">
         <f aca="true">IF(Q4 = "", "", Q4 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S4" s="21" t="str">
+      <c r="S4" s="22" t="str">
         <f aca="true">IF(J4="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -856,24 +856,24 @@
         <f aca="false">IF(D5="","",VLOOKUP(D5, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C5" s="17" t="str">
+      <c r="C5" s="18" t="str">
         <f aca="false">IF(D5="","",VLOOKUP(D5, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19" t="str">
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="str">
         <f aca="true">IF(J5="","",INDIRECT("K" &amp; ROW() - 1) - G5)</f>
         <v/>
       </c>
-      <c r="G5" s="20" t="str">
+      <c r="G5" s="21" t="str">
         <f aca="true">IF(J5 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H5 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H5) ,"")</f>
         <v/>
       </c>
-      <c r="H5" s="20" t="str">
+      <c r="H5" s="21" t="str">
         <f aca="false">IF(J5 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K5" s="18" t="n">
+      <c r="K5" s="19" t="n">
         <f aca="true">IF(J5 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E5)</f>
         <v>0</v>
       </c>
@@ -889,11 +889,11 @@
         <f aca="true">IF(L5 = 0, INDIRECT("O" &amp; ROW() - 1), L5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="21" t="str">
+      <c r="R5" s="22" t="str">
         <f aca="true">IF(Q5 = "", "", Q5 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S5" s="21" t="str">
+      <c r="S5" s="22" t="str">
         <f aca="true">IF(J5="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -905,24 +905,24 @@
         <f aca="false">IF(D6="","",VLOOKUP(D6, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C6" s="17" t="str">
+      <c r="C6" s="18" t="str">
         <f aca="false">IF(D6="","",VLOOKUP(D6, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19" t="str">
+      <c r="E6" s="19"/>
+      <c r="F6" s="20" t="str">
         <f aca="true">IF(J6="","",INDIRECT("K" &amp; ROW() - 1) - G6)</f>
         <v/>
       </c>
-      <c r="G6" s="20" t="str">
+      <c r="G6" s="21" t="str">
         <f aca="true">IF(J6 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H6 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H6) ,"")</f>
         <v/>
       </c>
-      <c r="H6" s="20" t="str">
+      <c r="H6" s="21" t="str">
         <f aca="false">IF(J6 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K6" s="18" t="n">
+      <c r="K6" s="19" t="n">
         <f aca="true">IF(J6 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E6)</f>
         <v>0</v>
       </c>
@@ -938,11 +938,11 @@
         <f aca="true">IF(L6 = 0, INDIRECT("O" &amp; ROW() - 1), L6)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="21" t="str">
+      <c r="R6" s="22" t="str">
         <f aca="true">IF(Q6 = "", "", Q6 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S6" s="21" t="str">
+      <c r="S6" s="22" t="str">
         <f aca="true">IF(J6="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -954,24 +954,24 @@
         <f aca="false">IF(D7="","",VLOOKUP(D7, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="18" t="str">
         <f aca="false">IF(D7="","",VLOOKUP(D7, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19" t="str">
+      <c r="E7" s="19"/>
+      <c r="F7" s="20" t="str">
         <f aca="true">IF(J7="","",INDIRECT("K" &amp; ROW() - 1) - G7)</f>
         <v/>
       </c>
-      <c r="G7" s="20" t="str">
+      <c r="G7" s="21" t="str">
         <f aca="true">IF(J7 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H7 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H7) ,"")</f>
         <v/>
       </c>
-      <c r="H7" s="20" t="str">
+      <c r="H7" s="21" t="str">
         <f aca="false">IF(J7 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K7" s="18" t="n">
+      <c r="K7" s="19" t="n">
         <f aca="true">IF(J7 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E7)</f>
         <v>0</v>
       </c>
@@ -987,11 +987,11 @@
         <f aca="true">IF(L7 = 0, INDIRECT("O" &amp; ROW() - 1), L7)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="21" t="str">
+      <c r="R7" s="22" t="str">
         <f aca="true">IF(Q7 = "", "", Q7 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S7" s="21" t="str">
+      <c r="S7" s="22" t="str">
         <f aca="true">IF(J7="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1003,24 +1003,24 @@
         <f aca="false">IF(D8="","",VLOOKUP(D8, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="18" t="str">
         <f aca="false">IF(D8="","",VLOOKUP(D8, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19" t="str">
+      <c r="E8" s="19"/>
+      <c r="F8" s="20" t="str">
         <f aca="true">IF(J8="","",INDIRECT("K" &amp; ROW() - 1) - G8)</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="21" t="str">
         <f aca="true">IF(J8 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H8 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H8) ,"")</f>
         <v/>
       </c>
-      <c r="H8" s="20" t="str">
+      <c r="H8" s="21" t="str">
         <f aca="false">IF(J8 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K8" s="18" t="n">
+      <c r="K8" s="19" t="n">
         <f aca="true">IF(J8 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E8)</f>
         <v>0</v>
       </c>
@@ -1036,11 +1036,11 @@
         <f aca="true">IF(L8 = 0, INDIRECT("O" &amp; ROW() - 1), L8)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="21" t="str">
+      <c r="R8" s="22" t="str">
         <f aca="true">IF(Q8 = "", "", Q8 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S8" s="21" t="str">
+      <c r="S8" s="22" t="str">
         <f aca="true">IF(J8="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1052,24 +1052,24 @@
         <f aca="false">IF(D9="","",VLOOKUP(D9, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="18" t="str">
         <f aca="false">IF(D9="","",VLOOKUP(D9, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19" t="str">
+      <c r="E9" s="19"/>
+      <c r="F9" s="20" t="str">
         <f aca="true">IF(J9="","",INDIRECT("K" &amp; ROW() - 1) - G9)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="21" t="str">
         <f aca="true">IF(J9 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H9 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H9) ,"")</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="21" t="str">
         <f aca="false">IF(J9 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K9" s="18" t="n">
+      <c r="K9" s="19" t="n">
         <f aca="true">IF(J9 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E9)</f>
         <v>0</v>
       </c>
@@ -1085,11 +1085,11 @@
         <f aca="true">IF(L9 = 0, INDIRECT("O" &amp; ROW() - 1), L9)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="21" t="str">
+      <c r="R9" s="22" t="str">
         <f aca="true">IF(Q9 = "", "", Q9 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S9" s="21" t="str">
+      <c r="S9" s="22" t="str">
         <f aca="true">IF(J9="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1101,24 +1101,24 @@
         <f aca="false">IF(D10="","",VLOOKUP(D10, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C10" s="18" t="str">
         <f aca="false">IF(D10="","",VLOOKUP(D10, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19" t="str">
+      <c r="E10" s="19"/>
+      <c r="F10" s="20" t="str">
         <f aca="true">IF(J10="","",INDIRECT("K" &amp; ROW() - 1) - G10)</f>
         <v/>
       </c>
-      <c r="G10" s="20" t="str">
+      <c r="G10" s="21" t="str">
         <f aca="true">IF(J10 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H10 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H10) ,"")</f>
         <v/>
       </c>
-      <c r="H10" s="20" t="str">
+      <c r="H10" s="21" t="str">
         <f aca="false">IF(J10 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K10" s="18" t="n">
+      <c r="K10" s="19" t="n">
         <f aca="true">IF(J10 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E10)</f>
         <v>0</v>
       </c>
@@ -1134,11 +1134,11 @@
         <f aca="true">IF(L10 = 0, INDIRECT("O" &amp; ROW() - 1), L10)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="21" t="str">
+      <c r="R10" s="22" t="str">
         <f aca="true">IF(Q10 = "", "", Q10 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S10" s="21" t="str">
+      <c r="S10" s="22" t="str">
         <f aca="true">IF(J10="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1150,24 +1150,24 @@
         <f aca="false">IF(D11="","",VLOOKUP(D11, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C11" s="18" t="str">
         <f aca="false">IF(D11="","",VLOOKUP(D11, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19" t="str">
+      <c r="E11" s="19"/>
+      <c r="F11" s="20" t="str">
         <f aca="true">IF(J11="","",INDIRECT("K" &amp; ROW() - 1) - G11)</f>
         <v/>
       </c>
-      <c r="G11" s="20" t="str">
+      <c r="G11" s="21" t="str">
         <f aca="true">IF(J11 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H11 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H11) ,"")</f>
         <v/>
       </c>
-      <c r="H11" s="20" t="str">
+      <c r="H11" s="21" t="str">
         <f aca="false">IF(J11 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K11" s="18" t="n">
+      <c r="K11" s="19" t="n">
         <f aca="true">IF(J11 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E11)</f>
         <v>0</v>
       </c>
@@ -1183,11 +1183,11 @@
         <f aca="true">IF(L11 = 0, INDIRECT("O" &amp; ROW() - 1), L11)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="21" t="str">
+      <c r="R11" s="22" t="str">
         <f aca="true">IF(Q11 = "", "", Q11 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S11" s="21" t="str">
+      <c r="S11" s="22" t="str">
         <f aca="true">IF(J11="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1199,24 +1199,24 @@
         <f aca="false">IF(D12="","",VLOOKUP(D12, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="18" t="str">
         <f aca="false">IF(D12="","",VLOOKUP(D12, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19" t="str">
+      <c r="E12" s="19"/>
+      <c r="F12" s="20" t="str">
         <f aca="true">IF(J12="","",INDIRECT("K" &amp; ROW() - 1) - G12)</f>
         <v/>
       </c>
-      <c r="G12" s="20" t="str">
+      <c r="G12" s="21" t="str">
         <f aca="true">IF(J12 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H12 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H12) ,"")</f>
         <v/>
       </c>
-      <c r="H12" s="20" t="str">
+      <c r="H12" s="21" t="str">
         <f aca="false">IF(J12 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K12" s="18" t="n">
+      <c r="K12" s="19" t="n">
         <f aca="true">IF(J12 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E12)</f>
         <v>0</v>
       </c>
@@ -1232,11 +1232,11 @@
         <f aca="true">IF(L12 = 0, INDIRECT("O" &amp; ROW() - 1), L12)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="21" t="str">
+      <c r="R12" s="22" t="str">
         <f aca="true">IF(Q12 = "", "", Q12 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S12" s="21" t="str">
+      <c r="S12" s="22" t="str">
         <f aca="true">IF(J12="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1248,24 +1248,24 @@
         <f aca="false">IF(D13="","",VLOOKUP(D13, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C13" s="17" t="str">
+      <c r="C13" s="18" t="str">
         <f aca="false">IF(D13="","",VLOOKUP(D13, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19" t="str">
+      <c r="E13" s="19"/>
+      <c r="F13" s="20" t="str">
         <f aca="true">IF(J13="","",INDIRECT("K" &amp; ROW() - 1) - G13)</f>
         <v/>
       </c>
-      <c r="G13" s="20" t="str">
+      <c r="G13" s="21" t="str">
         <f aca="true">IF(J13 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H13 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H13) ,"")</f>
         <v/>
       </c>
-      <c r="H13" s="20" t="str">
+      <c r="H13" s="21" t="str">
         <f aca="false">IF(J13 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K13" s="18" t="n">
+      <c r="K13" s="19" t="n">
         <f aca="true">IF(J13 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E13)</f>
         <v>0</v>
       </c>
@@ -1281,11 +1281,11 @@
         <f aca="true">IF(L13 = 0, INDIRECT("O" &amp; ROW() - 1), L13)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="21" t="str">
+      <c r="R13" s="22" t="str">
         <f aca="true">IF(Q13 = "", "", Q13 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S13" s="21" t="str">
+      <c r="S13" s="22" t="str">
         <f aca="true">IF(J13="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1297,24 +1297,24 @@
         <f aca="false">IF(D14="","",VLOOKUP(D14, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C14" s="18" t="str">
         <f aca="false">IF(D14="","",VLOOKUP(D14, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19" t="str">
+      <c r="E14" s="19"/>
+      <c r="F14" s="20" t="str">
         <f aca="true">IF(J14="","",INDIRECT("K" &amp; ROW() - 1) - G14)</f>
         <v/>
       </c>
-      <c r="G14" s="20" t="str">
+      <c r="G14" s="21" t="str">
         <f aca="true">IF(J14 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H14 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H14) ,"")</f>
         <v/>
       </c>
-      <c r="H14" s="20" t="str">
+      <c r="H14" s="21" t="str">
         <f aca="false">IF(J14 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K14" s="18" t="n">
+      <c r="K14" s="19" t="n">
         <f aca="true">IF(J14 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E14)</f>
         <v>0</v>
       </c>
@@ -1330,11 +1330,11 @@
         <f aca="true">IF(L14 = 0, INDIRECT("O" &amp; ROW() - 1), L14)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="21" t="str">
+      <c r="R14" s="22" t="str">
         <f aca="true">IF(Q14 = "", "", Q14 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S14" s="21" t="str">
+      <c r="S14" s="22" t="str">
         <f aca="true">IF(J14="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1346,24 +1346,24 @@
         <f aca="false">IF(D15="","",VLOOKUP(D15, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C15" s="17" t="str">
+      <c r="C15" s="18" t="str">
         <f aca="false">IF(D15="","",VLOOKUP(D15, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19" t="str">
+      <c r="E15" s="19"/>
+      <c r="F15" s="20" t="str">
         <f aca="true">IF(J15="","",INDIRECT("K" &amp; ROW() - 1) - G15)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="21" t="str">
         <f aca="true">IF(J15 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H15 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H15) ,"")</f>
         <v/>
       </c>
-      <c r="H15" s="20" t="str">
+      <c r="H15" s="21" t="str">
         <f aca="false">IF(J15 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K15" s="18" t="n">
+      <c r="K15" s="19" t="n">
         <f aca="true">IF(J15 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E15)</f>
         <v>0</v>
       </c>
@@ -1379,11 +1379,11 @@
         <f aca="true">IF(L15 = 0, INDIRECT("O" &amp; ROW() - 1), L15)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="21" t="str">
+      <c r="R15" s="22" t="str">
         <f aca="true">IF(Q15 = "", "", Q15 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S15" s="21" t="str">
+      <c r="S15" s="22" t="str">
         <f aca="true">IF(J15="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1395,24 +1395,24 @@
         <f aca="false">IF(D16="","",VLOOKUP(D16, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C16" s="17" t="str">
+      <c r="C16" s="18" t="str">
         <f aca="false">IF(D16="","",VLOOKUP(D16, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19" t="str">
+      <c r="E16" s="19"/>
+      <c r="F16" s="20" t="str">
         <f aca="true">IF(J16="","",INDIRECT("K" &amp; ROW() - 1) - G16)</f>
         <v/>
       </c>
-      <c r="G16" s="20" t="str">
+      <c r="G16" s="21" t="str">
         <f aca="true">IF(J16 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H16 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H16) ,"")</f>
         <v/>
       </c>
-      <c r="H16" s="20" t="str">
+      <c r="H16" s="21" t="str">
         <f aca="false">IF(J16 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K16" s="18" t="n">
+      <c r="K16" s="19" t="n">
         <f aca="true">IF(J16 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E16)</f>
         <v>0</v>
       </c>
@@ -1428,11 +1428,11 @@
         <f aca="true">IF(L16 = 0, INDIRECT("O" &amp; ROW() - 1), L16)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="21" t="str">
+      <c r="R16" s="22" t="str">
         <f aca="true">IF(Q16 = "", "", Q16 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S16" s="21" t="str">
+      <c r="S16" s="22" t="str">
         <f aca="true">IF(J16="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1444,24 +1444,24 @@
         <f aca="false">IF(D17="","",VLOOKUP(D17, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C17" s="17" t="str">
+      <c r="C17" s="18" t="str">
         <f aca="false">IF(D17="","",VLOOKUP(D17, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19" t="str">
+      <c r="E17" s="19"/>
+      <c r="F17" s="20" t="str">
         <f aca="true">IF(J17="","",INDIRECT("K" &amp; ROW() - 1) - G17)</f>
         <v/>
       </c>
-      <c r="G17" s="20" t="str">
+      <c r="G17" s="21" t="str">
         <f aca="true">IF(J17 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H17 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H17) ,"")</f>
         <v/>
       </c>
-      <c r="H17" s="20" t="str">
+      <c r="H17" s="21" t="str">
         <f aca="false">IF(J17 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K17" s="18" t="n">
+      <c r="K17" s="19" t="n">
         <f aca="true">IF(J17 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E17)</f>
         <v>0</v>
       </c>
@@ -1477,11 +1477,11 @@
         <f aca="true">IF(L17 = 0, INDIRECT("O" &amp; ROW() - 1), L17)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="21" t="str">
+      <c r="R17" s="22" t="str">
         <f aca="true">IF(Q17 = "", "", Q17 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S17" s="21" t="str">
+      <c r="S17" s="22" t="str">
         <f aca="true">IF(J17="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1493,24 +1493,24 @@
         <f aca="false">IF(D18="","",VLOOKUP(D18, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C18" s="17" t="str">
+      <c r="C18" s="18" t="str">
         <f aca="false">IF(D18="","",VLOOKUP(D18, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19" t="str">
+      <c r="E18" s="19"/>
+      <c r="F18" s="20" t="str">
         <f aca="true">IF(J18="","",INDIRECT("K" &amp; ROW() - 1) - G18)</f>
         <v/>
       </c>
-      <c r="G18" s="20" t="str">
+      <c r="G18" s="21" t="str">
         <f aca="true">IF(J18 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H18 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H18) ,"")</f>
         <v/>
       </c>
-      <c r="H18" s="20" t="str">
+      <c r="H18" s="21" t="str">
         <f aca="false">IF(J18 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K18" s="18" t="n">
+      <c r="K18" s="19" t="n">
         <f aca="true">IF(J18 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E18)</f>
         <v>0</v>
       </c>
@@ -1526,11 +1526,11 @@
         <f aca="true">IF(L18 = 0, INDIRECT("O" &amp; ROW() - 1), L18)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="21" t="str">
+      <c r="R18" s="22" t="str">
         <f aca="true">IF(Q18 = "", "", Q18 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S18" s="21" t="str">
+      <c r="S18" s="22" t="str">
         <f aca="true">IF(J18="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1542,24 +1542,24 @@
         <f aca="false">IF(D19="","",VLOOKUP(D19, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C19" s="17" t="str">
+      <c r="C19" s="18" t="str">
         <f aca="false">IF(D19="","",VLOOKUP(D19, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19" t="str">
+      <c r="E19" s="19"/>
+      <c r="F19" s="20" t="str">
         <f aca="true">IF(J19="","",INDIRECT("K" &amp; ROW() - 1) - G19)</f>
         <v/>
       </c>
-      <c r="G19" s="20" t="str">
+      <c r="G19" s="21" t="str">
         <f aca="true">IF(J19 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H19 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H19) ,"")</f>
         <v/>
       </c>
-      <c r="H19" s="20" t="str">
+      <c r="H19" s="21" t="str">
         <f aca="false">IF(J19 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K19" s="18" t="n">
+      <c r="K19" s="19" t="n">
         <f aca="true">IF(J19 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E19)</f>
         <v>0</v>
       </c>
@@ -1575,11 +1575,11 @@
         <f aca="true">IF(L19 = 0, INDIRECT("O" &amp; ROW() - 1), L19)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="21" t="str">
+      <c r="R19" s="22" t="str">
         <f aca="true">IF(Q19 = "", "", Q19 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S19" s="21" t="str">
+      <c r="S19" s="22" t="str">
         <f aca="true">IF(J19="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1591,24 +1591,24 @@
         <f aca="false">IF(D20="","",VLOOKUP(D20, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C20" s="17" t="str">
+      <c r="C20" s="18" t="str">
         <f aca="false">IF(D20="","",VLOOKUP(D20, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19" t="str">
+      <c r="E20" s="19"/>
+      <c r="F20" s="20" t="str">
         <f aca="true">IF(J20="","",INDIRECT("K" &amp; ROW() - 1) - G20)</f>
         <v/>
       </c>
-      <c r="G20" s="20" t="str">
+      <c r="G20" s="21" t="str">
         <f aca="true">IF(J20 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H20 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H20) ,"")</f>
         <v/>
       </c>
-      <c r="H20" s="20" t="str">
+      <c r="H20" s="21" t="str">
         <f aca="false">IF(J20 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K20" s="18" t="n">
+      <c r="K20" s="19" t="n">
         <f aca="true">IF(J20 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E20)</f>
         <v>0</v>
       </c>
@@ -1624,11 +1624,11 @@
         <f aca="true">IF(L20 = 0, INDIRECT("O" &amp; ROW() - 1), L20)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="21" t="str">
+      <c r="R20" s="22" t="str">
         <f aca="true">IF(Q20 = "", "", Q20 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S20" s="21" t="str">
+      <c r="S20" s="22" t="str">
         <f aca="true">IF(J20="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1640,24 +1640,24 @@
         <f aca="false">IF(D21="","",VLOOKUP(D21, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C21" s="17" t="str">
+      <c r="C21" s="18" t="str">
         <f aca="false">IF(D21="","",VLOOKUP(D21, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19" t="str">
+      <c r="E21" s="19"/>
+      <c r="F21" s="20" t="str">
         <f aca="true">IF(J21="","",INDIRECT("K" &amp; ROW() - 1) - G21)</f>
         <v/>
       </c>
-      <c r="G21" s="20" t="str">
+      <c r="G21" s="21" t="str">
         <f aca="true">IF(J21 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H21 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H21) ,"")</f>
         <v/>
       </c>
-      <c r="H21" s="20" t="str">
+      <c r="H21" s="21" t="str">
         <f aca="false">IF(J21 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K21" s="18" t="n">
+      <c r="K21" s="19" t="n">
         <f aca="true">IF(J21 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E21)</f>
         <v>0</v>
       </c>
@@ -1673,11 +1673,11 @@
         <f aca="true">IF(L21 = 0, INDIRECT("O" &amp; ROW() - 1), L21)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="21" t="str">
+      <c r="R21" s="22" t="str">
         <f aca="true">IF(Q21 = "", "", Q21 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S21" s="21" t="str">
+      <c r="S21" s="22" t="str">
         <f aca="true">IF(J21="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1689,24 +1689,24 @@
         <f aca="false">IF(D22="","",VLOOKUP(D22, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C22" s="17" t="str">
+      <c r="C22" s="18" t="str">
         <f aca="false">IF(D22="","",VLOOKUP(D22, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19" t="str">
+      <c r="E22" s="19"/>
+      <c r="F22" s="20" t="str">
         <f aca="true">IF(J22="","",INDIRECT("K" &amp; ROW() - 1) - G22)</f>
         <v/>
       </c>
-      <c r="G22" s="20" t="str">
+      <c r="G22" s="21" t="str">
         <f aca="true">IF(J22 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H22 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H22) ,"")</f>
         <v/>
       </c>
-      <c r="H22" s="20" t="str">
+      <c r="H22" s="21" t="str">
         <f aca="false">IF(J22 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K22" s="18" t="n">
+      <c r="K22" s="19" t="n">
         <f aca="true">IF(J22 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E22)</f>
         <v>0</v>
       </c>
@@ -1722,11 +1722,11 @@
         <f aca="true">IF(L22 = 0, INDIRECT("O" &amp; ROW() - 1), L22)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="21" t="str">
+      <c r="R22" s="22" t="str">
         <f aca="true">IF(Q22 = "", "", Q22 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S22" s="21" t="str">
+      <c r="S22" s="22" t="str">
         <f aca="true">IF(J22="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1738,24 +1738,24 @@
         <f aca="false">IF(D23="","",VLOOKUP(D23, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C23" s="17" t="str">
+      <c r="C23" s="18" t="str">
         <f aca="false">IF(D23="","",VLOOKUP(D23, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19" t="str">
+      <c r="E23" s="19"/>
+      <c r="F23" s="20" t="str">
         <f aca="true">IF(J23="","",INDIRECT("K" &amp; ROW() - 1) - G23)</f>
         <v/>
       </c>
-      <c r="G23" s="20" t="str">
+      <c r="G23" s="21" t="str">
         <f aca="true">IF(J23 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H23 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H23) ,"")</f>
         <v/>
       </c>
-      <c r="H23" s="20" t="str">
+      <c r="H23" s="21" t="str">
         <f aca="false">IF(J23 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K23" s="18" t="n">
+      <c r="K23" s="19" t="n">
         <f aca="true">IF(J23 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E23)</f>
         <v>0</v>
       </c>
@@ -1771,11 +1771,11 @@
         <f aca="true">IF(L23 = 0, INDIRECT("O" &amp; ROW() - 1), L23)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="21" t="str">
+      <c r="R23" s="22" t="str">
         <f aca="true">IF(Q23 = "", "", Q23 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S23" s="21" t="str">
+      <c r="S23" s="22" t="str">
         <f aca="true">IF(J23="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1787,24 +1787,24 @@
         <f aca="false">IF(D24="","",VLOOKUP(D24, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C24" s="17" t="str">
+      <c r="C24" s="18" t="str">
         <f aca="false">IF(D24="","",VLOOKUP(D24, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19" t="str">
+      <c r="E24" s="19"/>
+      <c r="F24" s="20" t="str">
         <f aca="true">IF(J24="","",INDIRECT("K" &amp; ROW() - 1) - G24)</f>
         <v/>
       </c>
-      <c r="G24" s="20" t="str">
+      <c r="G24" s="21" t="str">
         <f aca="true">IF(J24 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H24 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H24) ,"")</f>
         <v/>
       </c>
-      <c r="H24" s="20" t="str">
+      <c r="H24" s="21" t="str">
         <f aca="false">IF(J24 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K24" s="18" t="n">
+      <c r="K24" s="19" t="n">
         <f aca="true">IF(J24 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E24)</f>
         <v>0</v>
       </c>
@@ -1820,11 +1820,11 @@
         <f aca="true">IF(L24 = 0, INDIRECT("O" &amp; ROW() - 1), L24)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="21" t="str">
+      <c r="R24" s="22" t="str">
         <f aca="true">IF(Q24 = "", "", Q24 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S24" s="21" t="str">
+      <c r="S24" s="22" t="str">
         <f aca="true">IF(J24="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1836,24 +1836,24 @@
         <f aca="false">IF(D25="","",VLOOKUP(D25, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C25" s="17" t="str">
+      <c r="C25" s="18" t="str">
         <f aca="false">IF(D25="","",VLOOKUP(D25, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19" t="str">
+      <c r="E25" s="19"/>
+      <c r="F25" s="20" t="str">
         <f aca="true">IF(J25="","",INDIRECT("K" &amp; ROW() - 1) - G25)</f>
         <v/>
       </c>
-      <c r="G25" s="20" t="str">
+      <c r="G25" s="21" t="str">
         <f aca="true">IF(J25 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H25 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H25) ,"")</f>
         <v/>
       </c>
-      <c r="H25" s="20" t="str">
+      <c r="H25" s="21" t="str">
         <f aca="false">IF(J25 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K25" s="18" t="n">
+      <c r="K25" s="19" t="n">
         <f aca="true">IF(J25 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E25)</f>
         <v>0</v>
       </c>
@@ -1869,11 +1869,11 @@
         <f aca="true">IF(L25 = 0, INDIRECT("O" &amp; ROW() - 1), L25)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="21" t="str">
+      <c r="R25" s="22" t="str">
         <f aca="true">IF(Q25 = "", "", Q25 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S25" s="21" t="str">
+      <c r="S25" s="22" t="str">
         <f aca="true">IF(J25="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1885,24 +1885,24 @@
         <f aca="false">IF(D26="","",VLOOKUP(D26, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C26" s="17" t="str">
+      <c r="C26" s="18" t="str">
         <f aca="false">IF(D26="","",VLOOKUP(D26, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19" t="str">
+      <c r="E26" s="19"/>
+      <c r="F26" s="20" t="str">
         <f aca="true">IF(J26="","",INDIRECT("K" &amp; ROW() - 1) - G26)</f>
         <v/>
       </c>
-      <c r="G26" s="20" t="str">
+      <c r="G26" s="21" t="str">
         <f aca="true">IF(J26 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H26 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H26) ,"")</f>
         <v/>
       </c>
-      <c r="H26" s="20" t="str">
+      <c r="H26" s="21" t="str">
         <f aca="false">IF(J26 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K26" s="18" t="n">
+      <c r="K26" s="19" t="n">
         <f aca="true">IF(J26 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E26)</f>
         <v>0</v>
       </c>
@@ -1918,11 +1918,11 @@
         <f aca="true">IF(L26 = 0, INDIRECT("O" &amp; ROW() - 1), L26)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="21" t="str">
+      <c r="R26" s="22" t="str">
         <f aca="true">IF(Q26 = "", "", Q26 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S26" s="21" t="str">
+      <c r="S26" s="22" t="str">
         <f aca="true">IF(J26="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1934,24 +1934,24 @@
         <f aca="false">IF(D27="","",VLOOKUP(D27, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C27" s="17" t="str">
+      <c r="C27" s="18" t="str">
         <f aca="false">IF(D27="","",VLOOKUP(D27, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19" t="str">
+      <c r="E27" s="19"/>
+      <c r="F27" s="20" t="str">
         <f aca="true">IF(J27="","",INDIRECT("K" &amp; ROW() - 1) - G27)</f>
         <v/>
       </c>
-      <c r="G27" s="20" t="str">
+      <c r="G27" s="21" t="str">
         <f aca="true">IF(J27 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H27 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H27) ,"")</f>
         <v/>
       </c>
-      <c r="H27" s="20" t="str">
+      <c r="H27" s="21" t="str">
         <f aca="false">IF(J27 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K27" s="18" t="n">
+      <c r="K27" s="19" t="n">
         <f aca="true">IF(J27 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E27)</f>
         <v>0</v>
       </c>
@@ -1967,11 +1967,11 @@
         <f aca="true">IF(L27 = 0, INDIRECT("O" &amp; ROW() - 1), L27)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="21" t="str">
+      <c r="R27" s="22" t="str">
         <f aca="true">IF(Q27 = "", "", Q27 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S27" s="21" t="str">
+      <c r="S27" s="22" t="str">
         <f aca="true">IF(J27="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -1983,24 +1983,24 @@
         <f aca="false">IF(D28="","",VLOOKUP(D28, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C28" s="17" t="str">
+      <c r="C28" s="18" t="str">
         <f aca="false">IF(D28="","",VLOOKUP(D28, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19" t="str">
+      <c r="E28" s="19"/>
+      <c r="F28" s="20" t="str">
         <f aca="true">IF(J28="","",INDIRECT("K" &amp; ROW() - 1) - G28)</f>
         <v/>
       </c>
-      <c r="G28" s="20" t="str">
+      <c r="G28" s="21" t="str">
         <f aca="true">IF(J28 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H28 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H28) ,"")</f>
         <v/>
       </c>
-      <c r="H28" s="20" t="str">
+      <c r="H28" s="21" t="str">
         <f aca="false">IF(J28 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K28" s="18" t="n">
+      <c r="K28" s="19" t="n">
         <f aca="true">IF(J28 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E28)</f>
         <v>0</v>
       </c>
@@ -2016,11 +2016,11 @@
         <f aca="true">IF(L28 = 0, INDIRECT("O" &amp; ROW() - 1), L28)</f>
         <v>0</v>
       </c>
-      <c r="R28" s="21" t="str">
+      <c r="R28" s="22" t="str">
         <f aca="true">IF(Q28 = "", "", Q28 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S28" s="21" t="str">
+      <c r="S28" s="22" t="str">
         <f aca="true">IF(J28="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2032,24 +2032,24 @@
         <f aca="false">IF(D29="","",VLOOKUP(D29, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C29" s="17" t="str">
+      <c r="C29" s="18" t="str">
         <f aca="false">IF(D29="","",VLOOKUP(D29, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19" t="str">
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="str">
         <f aca="true">IF(J29="","",INDIRECT("K" &amp; ROW() - 1) - G29)</f>
         <v/>
       </c>
-      <c r="G29" s="20" t="str">
+      <c r="G29" s="21" t="str">
         <f aca="true">IF(J29 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H29 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H29) ,"")</f>
         <v/>
       </c>
-      <c r="H29" s="20" t="str">
+      <c r="H29" s="21" t="str">
         <f aca="false">IF(J29 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K29" s="18" t="n">
+      <c r="K29" s="19" t="n">
         <f aca="true">IF(J29 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E29)</f>
         <v>0</v>
       </c>
@@ -2065,11 +2065,11 @@
         <f aca="true">IF(L29 = 0, INDIRECT("O" &amp; ROW() - 1), L29)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="21" t="str">
+      <c r="R29" s="22" t="str">
         <f aca="true">IF(Q29 = "", "", Q29 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S29" s="21" t="str">
+      <c r="S29" s="22" t="str">
         <f aca="true">IF(J29="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2081,24 +2081,24 @@
         <f aca="false">IF(D30="","",VLOOKUP(D30, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C30" s="17" t="str">
+      <c r="C30" s="18" t="str">
         <f aca="false">IF(D30="","",VLOOKUP(D30, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19" t="str">
+      <c r="E30" s="19"/>
+      <c r="F30" s="20" t="str">
         <f aca="true">IF(J30="","",INDIRECT("K" &amp; ROW() - 1) - G30)</f>
         <v/>
       </c>
-      <c r="G30" s="20" t="str">
+      <c r="G30" s="21" t="str">
         <f aca="true">IF(J30 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H30 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H30) ,"")</f>
         <v/>
       </c>
-      <c r="H30" s="20" t="str">
+      <c r="H30" s="21" t="str">
         <f aca="false">IF(J30 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K30" s="18" t="n">
+      <c r="K30" s="19" t="n">
         <f aca="true">IF(J30 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E30)</f>
         <v>0</v>
       </c>
@@ -2114,11 +2114,11 @@
         <f aca="true">IF(L30 = 0, INDIRECT("O" &amp; ROW() - 1), L30)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="21" t="str">
+      <c r="R30" s="22" t="str">
         <f aca="true">IF(Q30 = "", "", Q30 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S30" s="21" t="str">
+      <c r="S30" s="22" t="str">
         <f aca="true">IF(J30="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2130,24 +2130,24 @@
         <f aca="false">IF(D31="","",VLOOKUP(D31, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C31" s="17" t="str">
+      <c r="C31" s="18" t="str">
         <f aca="false">IF(D31="","",VLOOKUP(D31, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19" t="str">
+      <c r="E31" s="19"/>
+      <c r="F31" s="20" t="str">
         <f aca="true">IF(J31="","",INDIRECT("K" &amp; ROW() - 1) - G31)</f>
         <v/>
       </c>
-      <c r="G31" s="20" t="str">
+      <c r="G31" s="21" t="str">
         <f aca="true">IF(J31 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H31 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H31) ,"")</f>
         <v/>
       </c>
-      <c r="H31" s="20" t="str">
+      <c r="H31" s="21" t="str">
         <f aca="false">IF(J31 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K31" s="18" t="n">
+      <c r="K31" s="19" t="n">
         <f aca="true">IF(J31 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E31)</f>
         <v>0</v>
       </c>
@@ -2163,11 +2163,11 @@
         <f aca="true">IF(L31 = 0, INDIRECT("O" &amp; ROW() - 1), L31)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="21" t="str">
+      <c r="R31" s="22" t="str">
         <f aca="true">IF(Q31 = "", "", Q31 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S31" s="21" t="str">
+      <c r="S31" s="22" t="str">
         <f aca="true">IF(J31="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2179,24 +2179,24 @@
         <f aca="false">IF(D32="","",VLOOKUP(D32, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C32" s="17" t="str">
+      <c r="C32" s="18" t="str">
         <f aca="false">IF(D32="","",VLOOKUP(D32, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19" t="str">
+      <c r="E32" s="19"/>
+      <c r="F32" s="20" t="str">
         <f aca="true">IF(J32="","",INDIRECT("K" &amp; ROW() - 1) - G32)</f>
         <v/>
       </c>
-      <c r="G32" s="20" t="str">
+      <c r="G32" s="21" t="str">
         <f aca="true">IF(J32 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H32 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H32) ,"")</f>
         <v/>
       </c>
-      <c r="H32" s="20" t="str">
+      <c r="H32" s="21" t="str">
         <f aca="false">IF(J32 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K32" s="18" t="n">
+      <c r="K32" s="19" t="n">
         <f aca="true">IF(J32 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E32)</f>
         <v>0</v>
       </c>
@@ -2212,11 +2212,11 @@
         <f aca="true">IF(L32 = 0, INDIRECT("O" &amp; ROW() - 1), L32)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="21" t="str">
+      <c r="R32" s="22" t="str">
         <f aca="true">IF(Q32 = "", "", Q32 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S32" s="21" t="str">
+      <c r="S32" s="22" t="str">
         <f aca="true">IF(J32="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2228,24 +2228,24 @@
         <f aca="false">IF(D33="","",VLOOKUP(D33, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C33" s="17" t="str">
+      <c r="C33" s="18" t="str">
         <f aca="false">IF(D33="","",VLOOKUP(D33, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19" t="str">
+      <c r="E33" s="19"/>
+      <c r="F33" s="20" t="str">
         <f aca="true">IF(J33="","",INDIRECT("K" &amp; ROW() - 1) - G33)</f>
         <v/>
       </c>
-      <c r="G33" s="20" t="str">
+      <c r="G33" s="21" t="str">
         <f aca="true">IF(J33 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H33 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H33) ,"")</f>
         <v/>
       </c>
-      <c r="H33" s="20" t="str">
+      <c r="H33" s="21" t="str">
         <f aca="false">IF(J33 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K33" s="18" t="n">
+      <c r="K33" s="19" t="n">
         <f aca="true">IF(J33 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E33)</f>
         <v>0</v>
       </c>
@@ -2261,11 +2261,11 @@
         <f aca="true">IF(L33 = 0, INDIRECT("O" &amp; ROW() - 1), L33)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="21" t="str">
+      <c r="R33" s="22" t="str">
         <f aca="true">IF(Q33 = "", "", Q33 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S33" s="21" t="str">
+      <c r="S33" s="22" t="str">
         <f aca="true">IF(J33="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2277,24 +2277,24 @@
         <f aca="false">IF(D34="","",VLOOKUP(D34, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C34" s="17" t="str">
+      <c r="C34" s="18" t="str">
         <f aca="false">IF(D34="","",VLOOKUP(D34, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19" t="str">
+      <c r="E34" s="19"/>
+      <c r="F34" s="20" t="str">
         <f aca="true">IF(J34="","",INDIRECT("K" &amp; ROW() - 1) - G34)</f>
         <v/>
       </c>
-      <c r="G34" s="20" t="str">
+      <c r="G34" s="21" t="str">
         <f aca="true">IF(J34 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H34 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H34) ,"")</f>
         <v/>
       </c>
-      <c r="H34" s="20" t="str">
+      <c r="H34" s="21" t="str">
         <f aca="false">IF(J34 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K34" s="18" t="n">
+      <c r="K34" s="19" t="n">
         <f aca="true">IF(J34 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E34)</f>
         <v>0</v>
       </c>
@@ -2310,11 +2310,11 @@
         <f aca="true">IF(L34 = 0, INDIRECT("O" &amp; ROW() - 1), L34)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="21" t="str">
+      <c r="R34" s="22" t="str">
         <f aca="true">IF(Q34 = "", "", Q34 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S34" s="21" t="str">
+      <c r="S34" s="22" t="str">
         <f aca="true">IF(J34="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2326,24 +2326,24 @@
         <f aca="false">IF(D35="","",VLOOKUP(D35, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C35" s="17" t="str">
+      <c r="C35" s="18" t="str">
         <f aca="false">IF(D35="","",VLOOKUP(D35, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19" t="str">
+      <c r="E35" s="19"/>
+      <c r="F35" s="20" t="str">
         <f aca="true">IF(J35="","",INDIRECT("K" &amp; ROW() - 1) - G35)</f>
         <v/>
       </c>
-      <c r="G35" s="20" t="str">
+      <c r="G35" s="21" t="str">
         <f aca="true">IF(J35 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H35 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H35) ,"")</f>
         <v/>
       </c>
-      <c r="H35" s="20" t="str">
+      <c r="H35" s="21" t="str">
         <f aca="false">IF(J35 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K35" s="18" t="n">
+      <c r="K35" s="19" t="n">
         <f aca="true">IF(J35 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E35)</f>
         <v>0</v>
       </c>
@@ -2359,11 +2359,11 @@
         <f aca="true">IF(L35 = 0, INDIRECT("O" &amp; ROW() - 1), L35)</f>
         <v>0</v>
       </c>
-      <c r="R35" s="21" t="str">
+      <c r="R35" s="22" t="str">
         <f aca="true">IF(Q35 = "", "", Q35 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S35" s="21" t="str">
+      <c r="S35" s="22" t="str">
         <f aca="true">IF(J35="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2375,24 +2375,24 @@
         <f aca="false">IF(D36="","",VLOOKUP(D36, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C36" s="17" t="str">
+      <c r="C36" s="18" t="str">
         <f aca="false">IF(D36="","",VLOOKUP(D36, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19" t="str">
+      <c r="E36" s="19"/>
+      <c r="F36" s="20" t="str">
         <f aca="true">IF(J36="","",INDIRECT("K" &amp; ROW() - 1) - G36)</f>
         <v/>
       </c>
-      <c r="G36" s="20" t="str">
+      <c r="G36" s="21" t="str">
         <f aca="true">IF(J36 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H36 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H36) ,"")</f>
         <v/>
       </c>
-      <c r="H36" s="20" t="str">
+      <c r="H36" s="21" t="str">
         <f aca="false">IF(J36 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K36" s="18" t="n">
+      <c r="K36" s="19" t="n">
         <f aca="true">IF(J36 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E36)</f>
         <v>0</v>
       </c>
@@ -2408,11 +2408,11 @@
         <f aca="true">IF(L36 = 0, INDIRECT("O" &amp; ROW() - 1), L36)</f>
         <v>0</v>
       </c>
-      <c r="R36" s="21" t="str">
+      <c r="R36" s="22" t="str">
         <f aca="true">IF(Q36 = "", "", Q36 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S36" s="21" t="str">
+      <c r="S36" s="22" t="str">
         <f aca="true">IF(J36="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2424,24 +2424,24 @@
         <f aca="false">IF(D37="","",VLOOKUP(D37, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C37" s="17" t="str">
+      <c r="C37" s="18" t="str">
         <f aca="false">IF(D37="","",VLOOKUP(D37, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19" t="str">
+      <c r="E37" s="19"/>
+      <c r="F37" s="20" t="str">
         <f aca="true">IF(J37="","",INDIRECT("K" &amp; ROW() - 1) - G37)</f>
         <v/>
       </c>
-      <c r="G37" s="20" t="str">
+      <c r="G37" s="21" t="str">
         <f aca="true">IF(J37 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H37 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H37) ,"")</f>
         <v/>
       </c>
-      <c r="H37" s="20" t="str">
+      <c r="H37" s="21" t="str">
         <f aca="false">IF(J37 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K37" s="18" t="n">
+      <c r="K37" s="19" t="n">
         <f aca="true">IF(J37 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E37)</f>
         <v>0</v>
       </c>
@@ -2457,11 +2457,11 @@
         <f aca="true">IF(L37 = 0, INDIRECT("O" &amp; ROW() - 1), L37)</f>
         <v>0</v>
       </c>
-      <c r="R37" s="21" t="str">
+      <c r="R37" s="22" t="str">
         <f aca="true">IF(Q37 = "", "", Q37 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S37" s="21" t="str">
+      <c r="S37" s="22" t="str">
         <f aca="true">IF(J37="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2473,24 +2473,24 @@
         <f aca="false">IF(D38="","",VLOOKUP(D38, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C38" s="17" t="str">
+      <c r="C38" s="18" t="str">
         <f aca="false">IF(D38="","",VLOOKUP(D38, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19" t="str">
+      <c r="E38" s="19"/>
+      <c r="F38" s="20" t="str">
         <f aca="true">IF(J38="","",INDIRECT("K" &amp; ROW() - 1) - G38)</f>
         <v/>
       </c>
-      <c r="G38" s="20" t="str">
+      <c r="G38" s="21" t="str">
         <f aca="true">IF(J38 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H38 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H38) ,"")</f>
         <v/>
       </c>
-      <c r="H38" s="20" t="str">
+      <c r="H38" s="21" t="str">
         <f aca="false">IF(J38 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K38" s="18" t="n">
+      <c r="K38" s="19" t="n">
         <f aca="true">IF(J38 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E38)</f>
         <v>0</v>
       </c>
@@ -2506,11 +2506,11 @@
         <f aca="true">IF(L38 = 0, INDIRECT("O" &amp; ROW() - 1), L38)</f>
         <v>0</v>
       </c>
-      <c r="R38" s="21" t="str">
+      <c r="R38" s="22" t="str">
         <f aca="true">IF(Q38 = "", "", Q38 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S38" s="21" t="str">
+      <c r="S38" s="22" t="str">
         <f aca="true">IF(J38="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2522,24 +2522,24 @@
         <f aca="false">IF(D39="","",VLOOKUP(D39, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C39" s="17" t="str">
+      <c r="C39" s="18" t="str">
         <f aca="false">IF(D39="","",VLOOKUP(D39, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19" t="str">
+      <c r="E39" s="19"/>
+      <c r="F39" s="20" t="str">
         <f aca="true">IF(J39="","",INDIRECT("K" &amp; ROW() - 1) - G39)</f>
         <v/>
       </c>
-      <c r="G39" s="20" t="str">
+      <c r="G39" s="21" t="str">
         <f aca="true">IF(J39 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H39 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H39) ,"")</f>
         <v/>
       </c>
-      <c r="H39" s="20" t="str">
+      <c r="H39" s="21" t="str">
         <f aca="false">IF(J39 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K39" s="18" t="n">
+      <c r="K39" s="19" t="n">
         <f aca="true">IF(J39 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E39)</f>
         <v>0</v>
       </c>
@@ -2555,11 +2555,11 @@
         <f aca="true">IF(L39 = 0, INDIRECT("O" &amp; ROW() - 1), L39)</f>
         <v>0</v>
       </c>
-      <c r="R39" s="21" t="str">
+      <c r="R39" s="22" t="str">
         <f aca="true">IF(Q39 = "", "", Q39 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S39" s="21" t="str">
+      <c r="S39" s="22" t="str">
         <f aca="true">IF(J39="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2571,24 +2571,24 @@
         <f aca="false">IF(D40="","",VLOOKUP(D40, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C40" s="17" t="str">
+      <c r="C40" s="18" t="str">
         <f aca="false">IF(D40="","",VLOOKUP(D40, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19" t="str">
+      <c r="E40" s="19"/>
+      <c r="F40" s="20" t="str">
         <f aca="true">IF(J40="","",INDIRECT("K" &amp; ROW() - 1) - G40)</f>
         <v/>
       </c>
-      <c r="G40" s="20" t="str">
+      <c r="G40" s="21" t="str">
         <f aca="true">IF(J40 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H40 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H40) ,"")</f>
         <v/>
       </c>
-      <c r="H40" s="20" t="str">
+      <c r="H40" s="21" t="str">
         <f aca="false">IF(J40 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K40" s="18" t="n">
+      <c r="K40" s="19" t="n">
         <f aca="true">IF(J40 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E40)</f>
         <v>0</v>
       </c>
@@ -2604,11 +2604,11 @@
         <f aca="true">IF(L40 = 0, INDIRECT("O" &amp; ROW() - 1), L40)</f>
         <v>0</v>
       </c>
-      <c r="R40" s="21" t="str">
+      <c r="R40" s="22" t="str">
         <f aca="true">IF(Q40 = "", "", Q40 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S40" s="21" t="str">
+      <c r="S40" s="22" t="str">
         <f aca="true">IF(J40="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2620,24 +2620,24 @@
         <f aca="false">IF(D41="","",VLOOKUP(D41, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C41" s="17" t="str">
+      <c r="C41" s="18" t="str">
         <f aca="false">IF(D41="","",VLOOKUP(D41, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19" t="str">
+      <c r="E41" s="19"/>
+      <c r="F41" s="20" t="str">
         <f aca="true">IF(J41="","",INDIRECT("K" &amp; ROW() - 1) - G41)</f>
         <v/>
       </c>
-      <c r="G41" s="20" t="str">
+      <c r="G41" s="21" t="str">
         <f aca="true">IF(J41 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H41 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H41) ,"")</f>
         <v/>
       </c>
-      <c r="H41" s="20" t="str">
+      <c r="H41" s="21" t="str">
         <f aca="false">IF(J41 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K41" s="18" t="n">
+      <c r="K41" s="19" t="n">
         <f aca="true">IF(J41 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E41)</f>
         <v>0</v>
       </c>
@@ -2653,11 +2653,11 @@
         <f aca="true">IF(L41 = 0, INDIRECT("O" &amp; ROW() - 1), L41)</f>
         <v>0</v>
       </c>
-      <c r="R41" s="21" t="str">
+      <c r="R41" s="22" t="str">
         <f aca="true">IF(Q41 = "", "", Q41 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S41" s="21" t="str">
+      <c r="S41" s="22" t="str">
         <f aca="true">IF(J41="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2669,24 +2669,24 @@
         <f aca="false">IF(D42="","",VLOOKUP(D42, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C42" s="17" t="str">
+      <c r="C42" s="18" t="str">
         <f aca="false">IF(D42="","",VLOOKUP(D42, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19" t="str">
+      <c r="E42" s="19"/>
+      <c r="F42" s="20" t="str">
         <f aca="true">IF(J42="","",INDIRECT("K" &amp; ROW() - 1) - G42)</f>
         <v/>
       </c>
-      <c r="G42" s="20" t="str">
+      <c r="G42" s="21" t="str">
         <f aca="true">IF(J42 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H42 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H42) ,"")</f>
         <v/>
       </c>
-      <c r="H42" s="20" t="str">
+      <c r="H42" s="21" t="str">
         <f aca="false">IF(J42 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K42" s="18" t="n">
+      <c r="K42" s="19" t="n">
         <f aca="true">IF(J42 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E42)</f>
         <v>0</v>
       </c>
@@ -2702,11 +2702,11 @@
         <f aca="true">IF(L42 = 0, INDIRECT("O" &amp; ROW() - 1), L42)</f>
         <v>0</v>
       </c>
-      <c r="R42" s="21" t="str">
+      <c r="R42" s="22" t="str">
         <f aca="true">IF(Q42 = "", "", Q42 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S42" s="21" t="str">
+      <c r="S42" s="22" t="str">
         <f aca="true">IF(J42="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2718,24 +2718,24 @@
         <f aca="false">IF(D43="","",VLOOKUP(D43, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C43" s="17" t="str">
+      <c r="C43" s="18" t="str">
         <f aca="false">IF(D43="","",VLOOKUP(D43, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19" t="str">
+      <c r="E43" s="19"/>
+      <c r="F43" s="20" t="str">
         <f aca="true">IF(J43="","",INDIRECT("K" &amp; ROW() - 1) - G43)</f>
         <v/>
       </c>
-      <c r="G43" s="20" t="str">
+      <c r="G43" s="21" t="str">
         <f aca="true">IF(J43 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H43 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H43) ,"")</f>
         <v/>
       </c>
-      <c r="H43" s="20" t="str">
+      <c r="H43" s="21" t="str">
         <f aca="false">IF(J43 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K43" s="18" t="n">
+      <c r="K43" s="19" t="n">
         <f aca="true">IF(J43 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E43)</f>
         <v>0</v>
       </c>
@@ -2751,11 +2751,11 @@
         <f aca="true">IF(L43 = 0, INDIRECT("O" &amp; ROW() - 1), L43)</f>
         <v>0</v>
       </c>
-      <c r="R43" s="21" t="str">
+      <c r="R43" s="22" t="str">
         <f aca="true">IF(Q43 = "", "", Q43 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S43" s="21" t="str">
+      <c r="S43" s="22" t="str">
         <f aca="true">IF(J43="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2767,24 +2767,24 @@
         <f aca="false">IF(D44="","",VLOOKUP(D44, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C44" s="17" t="str">
+      <c r="C44" s="18" t="str">
         <f aca="false">IF(D44="","",VLOOKUP(D44, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19" t="str">
+      <c r="E44" s="19"/>
+      <c r="F44" s="20" t="str">
         <f aca="true">IF(J44="","",INDIRECT("K" &amp; ROW() - 1) - G44)</f>
         <v/>
       </c>
-      <c r="G44" s="20" t="str">
+      <c r="G44" s="21" t="str">
         <f aca="true">IF(J44 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H44 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H44) ,"")</f>
         <v/>
       </c>
-      <c r="H44" s="20" t="str">
+      <c r="H44" s="21" t="str">
         <f aca="false">IF(J44 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K44" s="18" t="n">
+      <c r="K44" s="19" t="n">
         <f aca="true">IF(J44 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E44)</f>
         <v>0</v>
       </c>
@@ -2800,11 +2800,11 @@
         <f aca="true">IF(L44 = 0, INDIRECT("O" &amp; ROW() - 1), L44)</f>
         <v>0</v>
       </c>
-      <c r="R44" s="21" t="str">
+      <c r="R44" s="22" t="str">
         <f aca="true">IF(Q44 = "", "", Q44 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S44" s="21" t="str">
+      <c r="S44" s="22" t="str">
         <f aca="true">IF(J44="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2816,24 +2816,24 @@
         <f aca="false">IF(D45="","",VLOOKUP(D45, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C45" s="17" t="str">
+      <c r="C45" s="18" t="str">
         <f aca="false">IF(D45="","",VLOOKUP(D45, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19" t="str">
+      <c r="E45" s="19"/>
+      <c r="F45" s="20" t="str">
         <f aca="true">IF(J45="","",INDIRECT("K" &amp; ROW() - 1) - G45)</f>
         <v/>
       </c>
-      <c r="G45" s="20" t="str">
+      <c r="G45" s="21" t="str">
         <f aca="true">IF(J45 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H45 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H45) ,"")</f>
         <v/>
       </c>
-      <c r="H45" s="20" t="str">
+      <c r="H45" s="21" t="str">
         <f aca="false">IF(J45 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K45" s="18" t="n">
+      <c r="K45" s="19" t="n">
         <f aca="true">IF(J45 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E45)</f>
         <v>0</v>
       </c>
@@ -2849,11 +2849,11 @@
         <f aca="true">IF(L45 = 0, INDIRECT("O" &amp; ROW() - 1), L45)</f>
         <v>0</v>
       </c>
-      <c r="R45" s="21" t="str">
+      <c r="R45" s="22" t="str">
         <f aca="true">IF(Q45 = "", "", Q45 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S45" s="21" t="str">
+      <c r="S45" s="22" t="str">
         <f aca="true">IF(J45="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2865,24 +2865,24 @@
         <f aca="false">IF(D46="","",VLOOKUP(D46, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C46" s="17" t="str">
+      <c r="C46" s="18" t="str">
         <f aca="false">IF(D46="","",VLOOKUP(D46, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19" t="str">
+      <c r="E46" s="19"/>
+      <c r="F46" s="20" t="str">
         <f aca="true">IF(J46="","",INDIRECT("K" &amp; ROW() - 1) - G46)</f>
         <v/>
       </c>
-      <c r="G46" s="20" t="str">
+      <c r="G46" s="21" t="str">
         <f aca="true">IF(J46 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H46 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H46) ,"")</f>
         <v/>
       </c>
-      <c r="H46" s="20" t="str">
+      <c r="H46" s="21" t="str">
         <f aca="false">IF(J46 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K46" s="18" t="n">
+      <c r="K46" s="19" t="n">
         <f aca="true">IF(J46 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E46)</f>
         <v>0</v>
       </c>
@@ -2898,11 +2898,11 @@
         <f aca="true">IF(L46 = 0, INDIRECT("O" &amp; ROW() - 1), L46)</f>
         <v>0</v>
       </c>
-      <c r="R46" s="21" t="str">
+      <c r="R46" s="22" t="str">
         <f aca="true">IF(Q46 = "", "", Q46 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S46" s="21" t="str">
+      <c r="S46" s="22" t="str">
         <f aca="true">IF(J46="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2914,24 +2914,24 @@
         <f aca="false">IF(D47="","",VLOOKUP(D47, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C47" s="17" t="str">
+      <c r="C47" s="18" t="str">
         <f aca="false">IF(D47="","",VLOOKUP(D47, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19" t="str">
+      <c r="E47" s="19"/>
+      <c r="F47" s="20" t="str">
         <f aca="true">IF(J47="","",INDIRECT("K" &amp; ROW() - 1) - G47)</f>
         <v/>
       </c>
-      <c r="G47" s="20" t="str">
+      <c r="G47" s="21" t="str">
         <f aca="true">IF(J47 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H47 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H47) ,"")</f>
         <v/>
       </c>
-      <c r="H47" s="20" t="str">
+      <c r="H47" s="21" t="str">
         <f aca="false">IF(J47 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K47" s="18" t="n">
+      <c r="K47" s="19" t="n">
         <f aca="true">IF(J47 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E47)</f>
         <v>0</v>
       </c>
@@ -2947,11 +2947,11 @@
         <f aca="true">IF(L47 = 0, INDIRECT("O" &amp; ROW() - 1), L47)</f>
         <v>0</v>
       </c>
-      <c r="R47" s="21" t="str">
+      <c r="R47" s="22" t="str">
         <f aca="true">IF(Q47 = "", "", Q47 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S47" s="21" t="str">
+      <c r="S47" s="22" t="str">
         <f aca="true">IF(J47="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -2963,24 +2963,24 @@
         <f aca="false">IF(D48="","",VLOOKUP(D48, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C48" s="17" t="str">
+      <c r="C48" s="18" t="str">
         <f aca="false">IF(D48="","",VLOOKUP(D48, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19" t="str">
+      <c r="E48" s="19"/>
+      <c r="F48" s="20" t="str">
         <f aca="true">IF(J48="","",INDIRECT("K" &amp; ROW() - 1) - G48)</f>
         <v/>
       </c>
-      <c r="G48" s="20" t="str">
+      <c r="G48" s="21" t="str">
         <f aca="true">IF(J48 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H48 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H48) ,"")</f>
         <v/>
       </c>
-      <c r="H48" s="20" t="str">
+      <c r="H48" s="21" t="str">
         <f aca="false">IF(J48 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K48" s="18" t="n">
+      <c r="K48" s="19" t="n">
         <f aca="true">IF(J48 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E48)</f>
         <v>0</v>
       </c>
@@ -2996,11 +2996,11 @@
         <f aca="true">IF(L48 = 0, INDIRECT("O" &amp; ROW() - 1), L48)</f>
         <v>0</v>
       </c>
-      <c r="R48" s="21" t="str">
+      <c r="R48" s="22" t="str">
         <f aca="true">IF(Q48 = "", "", Q48 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S48" s="21" t="str">
+      <c r="S48" s="22" t="str">
         <f aca="true">IF(J48="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3012,24 +3012,24 @@
         <f aca="false">IF(D49="","",VLOOKUP(D49, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C49" s="17" t="str">
+      <c r="C49" s="18" t="str">
         <f aca="false">IF(D49="","",VLOOKUP(D49, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19" t="str">
+      <c r="E49" s="19"/>
+      <c r="F49" s="20" t="str">
         <f aca="true">IF(J49="","",INDIRECT("K" &amp; ROW() - 1) - G49)</f>
         <v/>
       </c>
-      <c r="G49" s="20" t="str">
+      <c r="G49" s="21" t="str">
         <f aca="true">IF(J49 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H49 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H49) ,"")</f>
         <v/>
       </c>
-      <c r="H49" s="20" t="str">
+      <c r="H49" s="21" t="str">
         <f aca="false">IF(J49 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K49" s="18" t="n">
+      <c r="K49" s="19" t="n">
         <f aca="true">IF(J49 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E49)</f>
         <v>0</v>
       </c>
@@ -3045,11 +3045,11 @@
         <f aca="true">IF(L49 = 0, INDIRECT("O" &amp; ROW() - 1), L49)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="21" t="str">
+      <c r="R49" s="22" t="str">
         <f aca="true">IF(Q49 = "", "", Q49 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S49" s="21" t="str">
+      <c r="S49" s="22" t="str">
         <f aca="true">IF(J49="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3061,24 +3061,24 @@
         <f aca="false">IF(D50="","",VLOOKUP(D50, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C50" s="17" t="str">
+      <c r="C50" s="18" t="str">
         <f aca="false">IF(D50="","",VLOOKUP(D50, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19" t="str">
+      <c r="E50" s="19"/>
+      <c r="F50" s="20" t="str">
         <f aca="true">IF(J50="","",INDIRECT("K" &amp; ROW() - 1) - G50)</f>
         <v/>
       </c>
-      <c r="G50" s="20" t="str">
+      <c r="G50" s="21" t="str">
         <f aca="true">IF(J50 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H50 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H50) ,"")</f>
         <v/>
       </c>
-      <c r="H50" s="20" t="str">
+      <c r="H50" s="21" t="str">
         <f aca="false">IF(J50 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K50" s="18" t="n">
+      <c r="K50" s="19" t="n">
         <f aca="true">IF(J50 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E50)</f>
         <v>0</v>
       </c>
@@ -3094,11 +3094,11 @@
         <f aca="true">IF(L50 = 0, INDIRECT("O" &amp; ROW() - 1), L50)</f>
         <v>0</v>
       </c>
-      <c r="R50" s="21" t="str">
+      <c r="R50" s="22" t="str">
         <f aca="true">IF(Q50 = "", "", Q50 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S50" s="21" t="str">
+      <c r="S50" s="22" t="str">
         <f aca="true">IF(J50="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3110,24 +3110,24 @@
         <f aca="false">IF(D51="","",VLOOKUP(D51, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C51" s="17" t="str">
+      <c r="C51" s="18" t="str">
         <f aca="false">IF(D51="","",VLOOKUP(D51, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19" t="str">
+      <c r="E51" s="19"/>
+      <c r="F51" s="20" t="str">
         <f aca="true">IF(J51="","",INDIRECT("K" &amp; ROW() - 1) - G51)</f>
         <v/>
       </c>
-      <c r="G51" s="20" t="str">
+      <c r="G51" s="21" t="str">
         <f aca="true">IF(J51 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H51 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H51) ,"")</f>
         <v/>
       </c>
-      <c r="H51" s="20" t="str">
+      <c r="H51" s="21" t="str">
         <f aca="false">IF(J51 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K51" s="18" t="n">
+      <c r="K51" s="19" t="n">
         <f aca="true">IF(J51 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E51)</f>
         <v>0</v>
       </c>
@@ -3143,11 +3143,11 @@
         <f aca="true">IF(L51 = 0, INDIRECT("O" &amp; ROW() - 1), L51)</f>
         <v>0</v>
       </c>
-      <c r="R51" s="21" t="str">
+      <c r="R51" s="22" t="str">
         <f aca="true">IF(Q51 = "", "", Q51 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S51" s="21" t="str">
+      <c r="S51" s="22" t="str">
         <f aca="true">IF(J51="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3159,24 +3159,24 @@
         <f aca="false">IF(D52="","",VLOOKUP(D52, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C52" s="17" t="str">
+      <c r="C52" s="18" t="str">
         <f aca="false">IF(D52="","",VLOOKUP(D52, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19" t="str">
+      <c r="E52" s="19"/>
+      <c r="F52" s="20" t="str">
         <f aca="true">IF(J52="","",INDIRECT("K" &amp; ROW() - 1) - G52)</f>
         <v/>
       </c>
-      <c r="G52" s="20" t="str">
+      <c r="G52" s="21" t="str">
         <f aca="true">IF(J52 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H52 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H52) ,"")</f>
         <v/>
       </c>
-      <c r="H52" s="20" t="str">
+      <c r="H52" s="21" t="str">
         <f aca="false">IF(J52 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K52" s="18" t="n">
+      <c r="K52" s="19" t="n">
         <f aca="true">IF(J52 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E52)</f>
         <v>0</v>
       </c>
@@ -3192,11 +3192,11 @@
         <f aca="true">IF(L52 = 0, INDIRECT("O" &amp; ROW() - 1), L52)</f>
         <v>0</v>
       </c>
-      <c r="R52" s="21" t="str">
+      <c r="R52" s="22" t="str">
         <f aca="true">IF(Q52 = "", "", Q52 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S52" s="21" t="str">
+      <c r="S52" s="22" t="str">
         <f aca="true">IF(J52="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3208,24 +3208,24 @@
         <f aca="false">IF(D53="","",VLOOKUP(D53, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C53" s="17" t="str">
+      <c r="C53" s="18" t="str">
         <f aca="false">IF(D53="","",VLOOKUP(D53, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19" t="str">
+      <c r="E53" s="19"/>
+      <c r="F53" s="20" t="str">
         <f aca="true">IF(J53="","",INDIRECT("K" &amp; ROW() - 1) - G53)</f>
         <v/>
       </c>
-      <c r="G53" s="20" t="str">
+      <c r="G53" s="21" t="str">
         <f aca="true">IF(J53 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H53 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H53) ,"")</f>
         <v/>
       </c>
-      <c r="H53" s="20" t="str">
+      <c r="H53" s="21" t="str">
         <f aca="false">IF(J53 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K53" s="18" t="n">
+      <c r="K53" s="19" t="n">
         <f aca="true">IF(J53 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E53)</f>
         <v>0</v>
       </c>
@@ -3241,11 +3241,11 @@
         <f aca="true">IF(L53 = 0, INDIRECT("O" &amp; ROW() - 1), L53)</f>
         <v>0</v>
       </c>
-      <c r="R53" s="21" t="str">
+      <c r="R53" s="22" t="str">
         <f aca="true">IF(Q53 = "", "", Q53 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S53" s="21" t="str">
+      <c r="S53" s="22" t="str">
         <f aca="true">IF(J53="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3257,24 +3257,24 @@
         <f aca="false">IF(D54="","",VLOOKUP(D54, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C54" s="17" t="str">
+      <c r="C54" s="18" t="str">
         <f aca="false">IF(D54="","",VLOOKUP(D54, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="19" t="str">
+      <c r="E54" s="19"/>
+      <c r="F54" s="20" t="str">
         <f aca="true">IF(J54="","",INDIRECT("K" &amp; ROW() - 1) - G54)</f>
         <v/>
       </c>
-      <c r="G54" s="20" t="str">
+      <c r="G54" s="21" t="str">
         <f aca="true">IF(J54 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H54 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H54) ,"")</f>
         <v/>
       </c>
-      <c r="H54" s="20" t="str">
+      <c r="H54" s="21" t="str">
         <f aca="false">IF(J54 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K54" s="18" t="n">
+      <c r="K54" s="19" t="n">
         <f aca="true">IF(J54 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E54)</f>
         <v>0</v>
       </c>
@@ -3290,11 +3290,11 @@
         <f aca="true">IF(L54 = 0, INDIRECT("O" &amp; ROW() - 1), L54)</f>
         <v>0</v>
       </c>
-      <c r="R54" s="21" t="str">
+      <c r="R54" s="22" t="str">
         <f aca="true">IF(Q54 = "", "", Q54 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S54" s="21" t="str">
+      <c r="S54" s="22" t="str">
         <f aca="true">IF(J54="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3306,24 +3306,24 @@
         <f aca="false">IF(D55="","",VLOOKUP(D55, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C55" s="17" t="str">
+      <c r="C55" s="18" t="str">
         <f aca="false">IF(D55="","",VLOOKUP(D55, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19" t="str">
+      <c r="E55" s="19"/>
+      <c r="F55" s="20" t="str">
         <f aca="true">IF(J55="","",INDIRECT("K" &amp; ROW() - 1) - G55)</f>
         <v/>
       </c>
-      <c r="G55" s="20" t="str">
+      <c r="G55" s="21" t="str">
         <f aca="true">IF(J55 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H55 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H55) ,"")</f>
         <v/>
       </c>
-      <c r="H55" s="20" t="str">
+      <c r="H55" s="21" t="str">
         <f aca="false">IF(J55 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K55" s="18" t="n">
+      <c r="K55" s="19" t="n">
         <f aca="true">IF(J55 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E55)</f>
         <v>0</v>
       </c>
@@ -3339,11 +3339,11 @@
         <f aca="true">IF(L55 = 0, INDIRECT("O" &amp; ROW() - 1), L55)</f>
         <v>0</v>
       </c>
-      <c r="R55" s="21" t="str">
+      <c r="R55" s="22" t="str">
         <f aca="true">IF(Q55 = "", "", Q55 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S55" s="21" t="str">
+      <c r="S55" s="22" t="str">
         <f aca="true">IF(J55="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3355,24 +3355,24 @@
         <f aca="false">IF(D56="","",VLOOKUP(D56, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C56" s="17" t="str">
+      <c r="C56" s="18" t="str">
         <f aca="false">IF(D56="","",VLOOKUP(D56, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19" t="str">
+      <c r="E56" s="19"/>
+      <c r="F56" s="20" t="str">
         <f aca="true">IF(J56="","",INDIRECT("K" &amp; ROW() - 1) - G56)</f>
         <v/>
       </c>
-      <c r="G56" s="20" t="str">
+      <c r="G56" s="21" t="str">
         <f aca="true">IF(J56 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H56 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H56) ,"")</f>
         <v/>
       </c>
-      <c r="H56" s="20" t="str">
+      <c r="H56" s="21" t="str">
         <f aca="false">IF(J56 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K56" s="18" t="n">
+      <c r="K56" s="19" t="n">
         <f aca="true">IF(J56 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E56)</f>
         <v>0</v>
       </c>
@@ -3388,11 +3388,11 @@
         <f aca="true">IF(L56 = 0, INDIRECT("O" &amp; ROW() - 1), L56)</f>
         <v>0</v>
       </c>
-      <c r="R56" s="21" t="str">
+      <c r="R56" s="22" t="str">
         <f aca="true">IF(Q56 = "", "", Q56 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S56" s="21" t="str">
+      <c r="S56" s="22" t="str">
         <f aca="true">IF(J56="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3404,24 +3404,24 @@
         <f aca="false">IF(D57="","",VLOOKUP(D57, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C57" s="17" t="str">
+      <c r="C57" s="18" t="str">
         <f aca="false">IF(D57="","",VLOOKUP(D57, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19" t="str">
+      <c r="E57" s="19"/>
+      <c r="F57" s="20" t="str">
         <f aca="true">IF(J57="","",INDIRECT("K" &amp; ROW() - 1) - G57)</f>
         <v/>
       </c>
-      <c r="G57" s="20" t="str">
+      <c r="G57" s="21" t="str">
         <f aca="true">IF(J57 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H57 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H57) ,"")</f>
         <v/>
       </c>
-      <c r="H57" s="20" t="str">
+      <c r="H57" s="21" t="str">
         <f aca="false">IF(J57 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K57" s="18" t="n">
+      <c r="K57" s="19" t="n">
         <f aca="true">IF(J57 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E57)</f>
         <v>0</v>
       </c>
@@ -3437,11 +3437,11 @@
         <f aca="true">IF(L57 = 0, INDIRECT("O" &amp; ROW() - 1), L57)</f>
         <v>0</v>
       </c>
-      <c r="R57" s="21" t="str">
+      <c r="R57" s="22" t="str">
         <f aca="true">IF(Q57 = "", "", Q57 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S57" s="21" t="str">
+      <c r="S57" s="22" t="str">
         <f aca="true">IF(J57="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3453,24 +3453,24 @@
         <f aca="false">IF(D58="","",VLOOKUP(D58, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C58" s="17" t="str">
+      <c r="C58" s="18" t="str">
         <f aca="false">IF(D58="","",VLOOKUP(D58, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19" t="str">
+      <c r="E58" s="19"/>
+      <c r="F58" s="20" t="str">
         <f aca="true">IF(J58="","",INDIRECT("K" &amp; ROW() - 1) - G58)</f>
         <v/>
       </c>
-      <c r="G58" s="20" t="str">
+      <c r="G58" s="21" t="str">
         <f aca="true">IF(J58 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H58 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H58) ,"")</f>
         <v/>
       </c>
-      <c r="H58" s="20" t="str">
+      <c r="H58" s="21" t="str">
         <f aca="false">IF(J58 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K58" s="18" t="n">
+      <c r="K58" s="19" t="n">
         <f aca="true">IF(J58 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E58)</f>
         <v>0</v>
       </c>
@@ -3486,11 +3486,11 @@
         <f aca="true">IF(L58 = 0, INDIRECT("O" &amp; ROW() - 1), L58)</f>
         <v>0</v>
       </c>
-      <c r="R58" s="21" t="str">
+      <c r="R58" s="22" t="str">
         <f aca="true">IF(Q58 = "", "", Q58 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S58" s="21" t="str">
+      <c r="S58" s="22" t="str">
         <f aca="true">IF(J58="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3502,24 +3502,24 @@
         <f aca="false">IF(D59="","",VLOOKUP(D59, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C59" s="17" t="str">
+      <c r="C59" s="18" t="str">
         <f aca="false">IF(D59="","",VLOOKUP(D59, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19" t="str">
+      <c r="E59" s="19"/>
+      <c r="F59" s="20" t="str">
         <f aca="true">IF(J59="","",INDIRECT("K" &amp; ROW() - 1) - G59)</f>
         <v/>
       </c>
-      <c r="G59" s="20" t="str">
+      <c r="G59" s="21" t="str">
         <f aca="true">IF(J59 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H59 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H59) ,"")</f>
         <v/>
       </c>
-      <c r="H59" s="20" t="str">
+      <c r="H59" s="21" t="str">
         <f aca="false">IF(J59 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K59" s="18" t="n">
+      <c r="K59" s="19" t="n">
         <f aca="true">IF(J59 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E59)</f>
         <v>0</v>
       </c>
@@ -3535,11 +3535,11 @@
         <f aca="true">IF(L59 = 0, INDIRECT("O" &amp; ROW() - 1), L59)</f>
         <v>0</v>
       </c>
-      <c r="R59" s="21" t="str">
+      <c r="R59" s="22" t="str">
         <f aca="true">IF(Q59 = "", "", Q59 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S59" s="21" t="str">
+      <c r="S59" s="22" t="str">
         <f aca="true">IF(J59="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3551,24 +3551,24 @@
         <f aca="false">IF(D60="","",VLOOKUP(D60, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C60" s="17" t="str">
+      <c r="C60" s="18" t="str">
         <f aca="false">IF(D60="","",VLOOKUP(D60, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19" t="str">
+      <c r="E60" s="19"/>
+      <c r="F60" s="20" t="str">
         <f aca="true">IF(J60="","",INDIRECT("K" &amp; ROW() - 1) - G60)</f>
         <v/>
       </c>
-      <c r="G60" s="20" t="str">
+      <c r="G60" s="21" t="str">
         <f aca="true">IF(J60 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H60 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H60) ,"")</f>
         <v/>
       </c>
-      <c r="H60" s="20" t="str">
+      <c r="H60" s="21" t="str">
         <f aca="false">IF(J60 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K60" s="18" t="n">
+      <c r="K60" s="19" t="n">
         <f aca="true">IF(J60 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E60)</f>
         <v>0</v>
       </c>
@@ -3584,11 +3584,11 @@
         <f aca="true">IF(L60 = 0, INDIRECT("O" &amp; ROW() - 1), L60)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="21" t="str">
+      <c r="R60" s="22" t="str">
         <f aca="true">IF(Q60 = "", "", Q60 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S60" s="21" t="str">
+      <c r="S60" s="22" t="str">
         <f aca="true">IF(J60="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3600,24 +3600,24 @@
         <f aca="false">IF(D61="","",VLOOKUP(D61, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C61" s="17" t="str">
+      <c r="C61" s="18" t="str">
         <f aca="false">IF(D61="","",VLOOKUP(D61, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="19" t="str">
+      <c r="E61" s="19"/>
+      <c r="F61" s="20" t="str">
         <f aca="true">IF(J61="","",INDIRECT("K" &amp; ROW() - 1) - G61)</f>
         <v/>
       </c>
-      <c r="G61" s="20" t="str">
+      <c r="G61" s="21" t="str">
         <f aca="true">IF(J61 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H61 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H61) ,"")</f>
         <v/>
       </c>
-      <c r="H61" s="20" t="str">
+      <c r="H61" s="21" t="str">
         <f aca="false">IF(J61 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K61" s="18" t="n">
+      <c r="K61" s="19" t="n">
         <f aca="true">IF(J61 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E61)</f>
         <v>0</v>
       </c>
@@ -3633,11 +3633,11 @@
         <f aca="true">IF(L61 = 0, INDIRECT("O" &amp; ROW() - 1), L61)</f>
         <v>0</v>
       </c>
-      <c r="R61" s="21" t="str">
+      <c r="R61" s="22" t="str">
         <f aca="true">IF(Q61 = "", "", Q61 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S61" s="21" t="str">
+      <c r="S61" s="22" t="str">
         <f aca="true">IF(J61="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3649,24 +3649,24 @@
         <f aca="false">IF(D62="","",VLOOKUP(D62, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C62" s="17" t="str">
+      <c r="C62" s="18" t="str">
         <f aca="false">IF(D62="","",VLOOKUP(D62, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="19" t="str">
+      <c r="E62" s="19"/>
+      <c r="F62" s="20" t="str">
         <f aca="true">IF(J62="","",INDIRECT("K" &amp; ROW() - 1) - G62)</f>
         <v/>
       </c>
-      <c r="G62" s="20" t="str">
+      <c r="G62" s="21" t="str">
         <f aca="true">IF(J62 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H62 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H62) ,"")</f>
         <v/>
       </c>
-      <c r="H62" s="20" t="str">
+      <c r="H62" s="21" t="str">
         <f aca="false">IF(J62 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K62" s="18" t="n">
+      <c r="K62" s="19" t="n">
         <f aca="true">IF(J62 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E62)</f>
         <v>0</v>
       </c>
@@ -3682,11 +3682,11 @@
         <f aca="true">IF(L62 = 0, INDIRECT("O" &amp; ROW() - 1), L62)</f>
         <v>0</v>
       </c>
-      <c r="R62" s="21" t="str">
+      <c r="R62" s="22" t="str">
         <f aca="true">IF(Q62 = "", "", Q62 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S62" s="21" t="str">
+      <c r="S62" s="22" t="str">
         <f aca="true">IF(J62="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3698,24 +3698,24 @@
         <f aca="false">IF(D63="","",VLOOKUP(D63, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C63" s="17" t="str">
+      <c r="C63" s="18" t="str">
         <f aca="false">IF(D63="","",VLOOKUP(D63, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E63" s="18"/>
-      <c r="F63" s="19" t="str">
+      <c r="E63" s="19"/>
+      <c r="F63" s="20" t="str">
         <f aca="true">IF(J63="","",INDIRECT("K" &amp; ROW() - 1) - G63)</f>
         <v/>
       </c>
-      <c r="G63" s="20" t="str">
+      <c r="G63" s="21" t="str">
         <f aca="true">IF(J63 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H63 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H63) ,"")</f>
         <v/>
       </c>
-      <c r="H63" s="20" t="str">
+      <c r="H63" s="21" t="str">
         <f aca="false">IF(J63 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K63" s="18" t="n">
+      <c r="K63" s="19" t="n">
         <f aca="true">IF(J63 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E63)</f>
         <v>0</v>
       </c>
@@ -3731,11 +3731,11 @@
         <f aca="true">IF(L63 = 0, INDIRECT("O" &amp; ROW() - 1), L63)</f>
         <v>0</v>
       </c>
-      <c r="R63" s="21" t="str">
+      <c r="R63" s="22" t="str">
         <f aca="true">IF(Q63 = "", "", Q63 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S63" s="21" t="str">
+      <c r="S63" s="22" t="str">
         <f aca="true">IF(J63="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3747,24 +3747,24 @@
         <f aca="false">IF(D64="","",VLOOKUP(D64, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C64" s="17" t="str">
+      <c r="C64" s="18" t="str">
         <f aca="false">IF(D64="","",VLOOKUP(D64, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="19" t="str">
+      <c r="E64" s="19"/>
+      <c r="F64" s="20" t="str">
         <f aca="true">IF(J64="","",INDIRECT("K" &amp; ROW() - 1) - G64)</f>
         <v/>
       </c>
-      <c r="G64" s="20" t="str">
+      <c r="G64" s="21" t="str">
         <f aca="true">IF(J64 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H64 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H64) ,"")</f>
         <v/>
       </c>
-      <c r="H64" s="20" t="str">
+      <c r="H64" s="21" t="str">
         <f aca="false">IF(J64 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K64" s="18" t="n">
+      <c r="K64" s="19" t="n">
         <f aca="true">IF(J64 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E64)</f>
         <v>0</v>
       </c>
@@ -3780,11 +3780,11 @@
         <f aca="true">IF(L64 = 0, INDIRECT("O" &amp; ROW() - 1), L64)</f>
         <v>0</v>
       </c>
-      <c r="R64" s="21" t="str">
+      <c r="R64" s="22" t="str">
         <f aca="true">IF(Q64 = "", "", Q64 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S64" s="21" t="str">
+      <c r="S64" s="22" t="str">
         <f aca="true">IF(J64="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3796,24 +3796,24 @@
         <f aca="false">IF(D65="","",VLOOKUP(D65, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C65" s="17" t="str">
+      <c r="C65" s="18" t="str">
         <f aca="false">IF(D65="","",VLOOKUP(D65, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="19" t="str">
+      <c r="E65" s="19"/>
+      <c r="F65" s="20" t="str">
         <f aca="true">IF(J65="","",INDIRECT("K" &amp; ROW() - 1) - G65)</f>
         <v/>
       </c>
-      <c r="G65" s="20" t="str">
+      <c r="G65" s="21" t="str">
         <f aca="true">IF(J65 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H65 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H65) ,"")</f>
         <v/>
       </c>
-      <c r="H65" s="20" t="str">
+      <c r="H65" s="21" t="str">
         <f aca="false">IF(J65 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K65" s="18" t="n">
+      <c r="K65" s="19" t="n">
         <f aca="true">IF(J65 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E65)</f>
         <v>0</v>
       </c>
@@ -3829,11 +3829,11 @@
         <f aca="true">IF(L65 = 0, INDIRECT("O" &amp; ROW() - 1), L65)</f>
         <v>0</v>
       </c>
-      <c r="R65" s="21" t="str">
+      <c r="R65" s="22" t="str">
         <f aca="true">IF(Q65 = "", "", Q65 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S65" s="21" t="str">
+      <c r="S65" s="22" t="str">
         <f aca="true">IF(J65="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3845,24 +3845,24 @@
         <f aca="false">IF(D66="","",VLOOKUP(D66, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C66" s="17" t="str">
+      <c r="C66" s="18" t="str">
         <f aca="false">IF(D66="","",VLOOKUP(D66, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="19" t="str">
+      <c r="E66" s="19"/>
+      <c r="F66" s="20" t="str">
         <f aca="true">IF(J66="","",INDIRECT("K" &amp; ROW() - 1) - G66)</f>
         <v/>
       </c>
-      <c r="G66" s="20" t="str">
+      <c r="G66" s="21" t="str">
         <f aca="true">IF(J66 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H66 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H66) ,"")</f>
         <v/>
       </c>
-      <c r="H66" s="20" t="str">
+      <c r="H66" s="21" t="str">
         <f aca="false">IF(J66 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K66" s="18" t="n">
+      <c r="K66" s="19" t="n">
         <f aca="true">IF(J66 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E66)</f>
         <v>0</v>
       </c>
@@ -3878,11 +3878,11 @@
         <f aca="true">IF(L66 = 0, INDIRECT("O" &amp; ROW() - 1), L66)</f>
         <v>0</v>
       </c>
-      <c r="R66" s="21" t="str">
+      <c r="R66" s="22" t="str">
         <f aca="true">IF(Q66 = "", "", Q66 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S66" s="21" t="str">
+      <c r="S66" s="22" t="str">
         <f aca="true">IF(J66="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3894,24 +3894,24 @@
         <f aca="false">IF(D67="","",VLOOKUP(D67, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C67" s="17" t="str">
+      <c r="C67" s="18" t="str">
         <f aca="false">IF(D67="","",VLOOKUP(D67, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="19" t="str">
+      <c r="E67" s="19"/>
+      <c r="F67" s="20" t="str">
         <f aca="true">IF(J67="","",INDIRECT("K" &amp; ROW() - 1) - G67)</f>
         <v/>
       </c>
-      <c r="G67" s="20" t="str">
+      <c r="G67" s="21" t="str">
         <f aca="true">IF(J67 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H67 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H67) ,"")</f>
         <v/>
       </c>
-      <c r="H67" s="20" t="str">
+      <c r="H67" s="21" t="str">
         <f aca="false">IF(J67 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K67" s="18" t="n">
+      <c r="K67" s="19" t="n">
         <f aca="true">IF(J67 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E67)</f>
         <v>0</v>
       </c>
@@ -3927,11 +3927,11 @@
         <f aca="true">IF(L67 = 0, INDIRECT("O" &amp; ROW() - 1), L67)</f>
         <v>0</v>
       </c>
-      <c r="R67" s="21" t="str">
+      <c r="R67" s="22" t="str">
         <f aca="true">IF(Q67 = "", "", Q67 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S67" s="21" t="str">
+      <c r="S67" s="22" t="str">
         <f aca="true">IF(J67="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3943,24 +3943,24 @@
         <f aca="false">IF(D68="","",VLOOKUP(D68, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C68" s="17" t="str">
+      <c r="C68" s="18" t="str">
         <f aca="false">IF(D68="","",VLOOKUP(D68, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="19" t="str">
+      <c r="E68" s="19"/>
+      <c r="F68" s="20" t="str">
         <f aca="true">IF(J68="","",INDIRECT("K" &amp; ROW() - 1) - G68)</f>
         <v/>
       </c>
-      <c r="G68" s="20" t="str">
+      <c r="G68" s="21" t="str">
         <f aca="true">IF(J68 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H68 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H68) ,"")</f>
         <v/>
       </c>
-      <c r="H68" s="20" t="str">
+      <c r="H68" s="21" t="str">
         <f aca="false">IF(J68 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K68" s="18" t="n">
+      <c r="K68" s="19" t="n">
         <f aca="true">IF(J68 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E68)</f>
         <v>0</v>
       </c>
@@ -3976,11 +3976,11 @@
         <f aca="true">IF(L68 = 0, INDIRECT("O" &amp; ROW() - 1), L68)</f>
         <v>0</v>
       </c>
-      <c r="R68" s="21" t="str">
+      <c r="R68" s="22" t="str">
         <f aca="true">IF(Q68 = "", "", Q68 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S68" s="21" t="str">
+      <c r="S68" s="22" t="str">
         <f aca="true">IF(J68="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -3992,24 +3992,24 @@
         <f aca="false">IF(D69="","",VLOOKUP(D69, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C69" s="17" t="str">
+      <c r="C69" s="18" t="str">
         <f aca="false">IF(D69="","",VLOOKUP(D69, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="19" t="str">
+      <c r="E69" s="19"/>
+      <c r="F69" s="20" t="str">
         <f aca="true">IF(J69="","",INDIRECT("K" &amp; ROW() - 1) - G69)</f>
         <v/>
       </c>
-      <c r="G69" s="20" t="str">
+      <c r="G69" s="21" t="str">
         <f aca="true">IF(J69 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H69 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H69) ,"")</f>
         <v/>
       </c>
-      <c r="H69" s="20" t="str">
+      <c r="H69" s="21" t="str">
         <f aca="false">IF(J69 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K69" s="18" t="n">
+      <c r="K69" s="19" t="n">
         <f aca="true">IF(J69 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E69)</f>
         <v>0</v>
       </c>
@@ -4025,11 +4025,11 @@
         <f aca="true">IF(L69 = 0, INDIRECT("O" &amp; ROW() - 1), L69)</f>
         <v>0</v>
       </c>
-      <c r="R69" s="21" t="str">
+      <c r="R69" s="22" t="str">
         <f aca="true">IF(Q69 = "", "", Q69 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S69" s="21" t="str">
+      <c r="S69" s="22" t="str">
         <f aca="true">IF(J69="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4041,24 +4041,24 @@
         <f aca="false">IF(D70="","",VLOOKUP(D70, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C70" s="17" t="str">
+      <c r="C70" s="18" t="str">
         <f aca="false">IF(D70="","",VLOOKUP(D70, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="19" t="str">
+      <c r="E70" s="19"/>
+      <c r="F70" s="20" t="str">
         <f aca="true">IF(J70="","",INDIRECT("K" &amp; ROW() - 1) - G70)</f>
         <v/>
       </c>
-      <c r="G70" s="20" t="str">
+      <c r="G70" s="21" t="str">
         <f aca="true">IF(J70 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H70 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H70) ,"")</f>
         <v/>
       </c>
-      <c r="H70" s="20" t="str">
+      <c r="H70" s="21" t="str">
         <f aca="false">IF(J70 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K70" s="18" t="n">
+      <c r="K70" s="19" t="n">
         <f aca="true">IF(J70 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E70)</f>
         <v>0</v>
       </c>
@@ -4074,11 +4074,11 @@
         <f aca="true">IF(L70 = 0, INDIRECT("O" &amp; ROW() - 1), L70)</f>
         <v>0</v>
       </c>
-      <c r="R70" s="21" t="str">
+      <c r="R70" s="22" t="str">
         <f aca="true">IF(Q70 = "", "", Q70 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S70" s="21" t="str">
+      <c r="S70" s="22" t="str">
         <f aca="true">IF(J70="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4090,24 +4090,24 @@
         <f aca="false">IF(D71="","",VLOOKUP(D71, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C71" s="17" t="str">
+      <c r="C71" s="18" t="str">
         <f aca="false">IF(D71="","",VLOOKUP(D71, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="19" t="str">
+      <c r="E71" s="19"/>
+      <c r="F71" s="20" t="str">
         <f aca="true">IF(J71="","",INDIRECT("K" &amp; ROW() - 1) - G71)</f>
         <v/>
       </c>
-      <c r="G71" s="20" t="str">
+      <c r="G71" s="21" t="str">
         <f aca="true">IF(J71 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H71 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H71) ,"")</f>
         <v/>
       </c>
-      <c r="H71" s="20" t="str">
+      <c r="H71" s="21" t="str">
         <f aca="false">IF(J71 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K71" s="18" t="n">
+      <c r="K71" s="19" t="n">
         <f aca="true">IF(J71 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E71)</f>
         <v>0</v>
       </c>
@@ -4123,11 +4123,11 @@
         <f aca="true">IF(L71 = 0, INDIRECT("O" &amp; ROW() - 1), L71)</f>
         <v>0</v>
       </c>
-      <c r="R71" s="21" t="str">
+      <c r="R71" s="22" t="str">
         <f aca="true">IF(Q71 = "", "", Q71 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S71" s="21" t="str">
+      <c r="S71" s="22" t="str">
         <f aca="true">IF(J71="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4139,24 +4139,24 @@
         <f aca="false">IF(D72="","",VLOOKUP(D72, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C72" s="17" t="str">
+      <c r="C72" s="18" t="str">
         <f aca="false">IF(D72="","",VLOOKUP(D72, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E72" s="18"/>
-      <c r="F72" s="19" t="str">
+      <c r="E72" s="19"/>
+      <c r="F72" s="20" t="str">
         <f aca="true">IF(J72="","",INDIRECT("K" &amp; ROW() - 1) - G72)</f>
         <v/>
       </c>
-      <c r="G72" s="20" t="str">
+      <c r="G72" s="21" t="str">
         <f aca="true">IF(J72 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H72 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H72) ,"")</f>
         <v/>
       </c>
-      <c r="H72" s="20" t="str">
+      <c r="H72" s="21" t="str">
         <f aca="false">IF(J72 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K72" s="18" t="n">
+      <c r="K72" s="19" t="n">
         <f aca="true">IF(J72 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E72)</f>
         <v>0</v>
       </c>
@@ -4172,11 +4172,11 @@
         <f aca="true">IF(L72 = 0, INDIRECT("O" &amp; ROW() - 1), L72)</f>
         <v>0</v>
       </c>
-      <c r="R72" s="21" t="str">
+      <c r="R72" s="22" t="str">
         <f aca="true">IF(Q72 = "", "", Q72 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S72" s="21" t="str">
+      <c r="S72" s="22" t="str">
         <f aca="true">IF(J72="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4188,24 +4188,24 @@
         <f aca="false">IF(D73="","",VLOOKUP(D73, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C73" s="17" t="str">
+      <c r="C73" s="18" t="str">
         <f aca="false">IF(D73="","",VLOOKUP(D73, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="19" t="str">
+      <c r="E73" s="19"/>
+      <c r="F73" s="20" t="str">
         <f aca="true">IF(J73="","",INDIRECT("K" &amp; ROW() - 1) - G73)</f>
         <v/>
       </c>
-      <c r="G73" s="20" t="str">
+      <c r="G73" s="21" t="str">
         <f aca="true">IF(J73 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H73 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H73) ,"")</f>
         <v/>
       </c>
-      <c r="H73" s="20" t="str">
+      <c r="H73" s="21" t="str">
         <f aca="false">IF(J73 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K73" s="18" t="n">
+      <c r="K73" s="19" t="n">
         <f aca="true">IF(J73 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E73)</f>
         <v>0</v>
       </c>
@@ -4221,11 +4221,11 @@
         <f aca="true">IF(L73 = 0, INDIRECT("O" &amp; ROW() - 1), L73)</f>
         <v>0</v>
       </c>
-      <c r="R73" s="21" t="str">
+      <c r="R73" s="22" t="str">
         <f aca="true">IF(Q73 = "", "", Q73 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S73" s="21" t="str">
+      <c r="S73" s="22" t="str">
         <f aca="true">IF(J73="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4237,24 +4237,24 @@
         <f aca="false">IF(D74="","",VLOOKUP(D74, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C74" s="17" t="str">
+      <c r="C74" s="18" t="str">
         <f aca="false">IF(D74="","",VLOOKUP(D74, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E74" s="18"/>
-      <c r="F74" s="19" t="str">
+      <c r="E74" s="19"/>
+      <c r="F74" s="20" t="str">
         <f aca="true">IF(J74="","",INDIRECT("K" &amp; ROW() - 1) - G74)</f>
         <v/>
       </c>
-      <c r="G74" s="20" t="str">
+      <c r="G74" s="21" t="str">
         <f aca="true">IF(J74 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H74 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H74) ,"")</f>
         <v/>
       </c>
-      <c r="H74" s="20" t="str">
+      <c r="H74" s="21" t="str">
         <f aca="false">IF(J74 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K74" s="18" t="n">
+      <c r="K74" s="19" t="n">
         <f aca="true">IF(J74 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E74)</f>
         <v>0</v>
       </c>
@@ -4270,11 +4270,11 @@
         <f aca="true">IF(L74 = 0, INDIRECT("O" &amp; ROW() - 1), L74)</f>
         <v>0</v>
       </c>
-      <c r="R74" s="21" t="str">
+      <c r="R74" s="22" t="str">
         <f aca="true">IF(Q74 = "", "", Q74 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S74" s="21" t="str">
+      <c r="S74" s="22" t="str">
         <f aca="true">IF(J74="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4286,24 +4286,24 @@
         <f aca="false">IF(D75="","",VLOOKUP(D75, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C75" s="17" t="str">
+      <c r="C75" s="18" t="str">
         <f aca="false">IF(D75="","",VLOOKUP(D75, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E75" s="18"/>
-      <c r="F75" s="19" t="str">
+      <c r="E75" s="19"/>
+      <c r="F75" s="20" t="str">
         <f aca="true">IF(J75="","",INDIRECT("K" &amp; ROW() - 1) - G75)</f>
         <v/>
       </c>
-      <c r="G75" s="20" t="str">
+      <c r="G75" s="21" t="str">
         <f aca="true">IF(J75 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H75 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H75) ,"")</f>
         <v/>
       </c>
-      <c r="H75" s="20" t="str">
+      <c r="H75" s="21" t="str">
         <f aca="false">IF(J75 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K75" s="18" t="n">
+      <c r="K75" s="19" t="n">
         <f aca="true">IF(J75 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E75)</f>
         <v>0</v>
       </c>
@@ -4319,11 +4319,11 @@
         <f aca="true">IF(L75 = 0, INDIRECT("O" &amp; ROW() - 1), L75)</f>
         <v>0</v>
       </c>
-      <c r="R75" s="21" t="str">
+      <c r="R75" s="22" t="str">
         <f aca="true">IF(Q75 = "", "", Q75 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S75" s="21" t="str">
+      <c r="S75" s="22" t="str">
         <f aca="true">IF(J75="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4335,24 +4335,24 @@
         <f aca="false">IF(D76="","",VLOOKUP(D76, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C76" s="17" t="str">
+      <c r="C76" s="18" t="str">
         <f aca="false">IF(D76="","",VLOOKUP(D76, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="19" t="str">
+      <c r="E76" s="19"/>
+      <c r="F76" s="20" t="str">
         <f aca="true">IF(J76="","",INDIRECT("K" &amp; ROW() - 1) - G76)</f>
         <v/>
       </c>
-      <c r="G76" s="20" t="str">
+      <c r="G76" s="21" t="str">
         <f aca="true">IF(J76 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H76 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H76) ,"")</f>
         <v/>
       </c>
-      <c r="H76" s="20" t="str">
+      <c r="H76" s="21" t="str">
         <f aca="false">IF(J76 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K76" s="18" t="n">
+      <c r="K76" s="19" t="n">
         <f aca="true">IF(J76 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E76)</f>
         <v>0</v>
       </c>
@@ -4368,11 +4368,11 @@
         <f aca="true">IF(L76 = 0, INDIRECT("O" &amp; ROW() - 1), L76)</f>
         <v>0</v>
       </c>
-      <c r="R76" s="21" t="str">
+      <c r="R76" s="22" t="str">
         <f aca="true">IF(Q76 = "", "", Q76 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S76" s="21" t="str">
+      <c r="S76" s="22" t="str">
         <f aca="true">IF(J76="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4384,24 +4384,24 @@
         <f aca="false">IF(D77="","",VLOOKUP(D77, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C77" s="17" t="str">
+      <c r="C77" s="18" t="str">
         <f aca="false">IF(D77="","",VLOOKUP(D77, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="19" t="str">
+      <c r="E77" s="19"/>
+      <c r="F77" s="20" t="str">
         <f aca="true">IF(J77="","",INDIRECT("K" &amp; ROW() - 1) - G77)</f>
         <v/>
       </c>
-      <c r="G77" s="20" t="str">
+      <c r="G77" s="21" t="str">
         <f aca="true">IF(J77 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H77 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H77) ,"")</f>
         <v/>
       </c>
-      <c r="H77" s="20" t="str">
+      <c r="H77" s="21" t="str">
         <f aca="false">IF(J77 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K77" s="18" t="n">
+      <c r="K77" s="19" t="n">
         <f aca="true">IF(J77 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E77)</f>
         <v>0</v>
       </c>
@@ -4417,11 +4417,11 @@
         <f aca="true">IF(L77 = 0, INDIRECT("O" &amp; ROW() - 1), L77)</f>
         <v>0</v>
       </c>
-      <c r="R77" s="21" t="str">
+      <c r="R77" s="22" t="str">
         <f aca="true">IF(Q77 = "", "", Q77 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S77" s="21" t="str">
+      <c r="S77" s="22" t="str">
         <f aca="true">IF(J77="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4433,24 +4433,24 @@
         <f aca="false">IF(D78="","",VLOOKUP(D78, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C78" s="17" t="str">
+      <c r="C78" s="18" t="str">
         <f aca="false">IF(D78="","",VLOOKUP(D78, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E78" s="18"/>
-      <c r="F78" s="19" t="str">
+      <c r="E78" s="19"/>
+      <c r="F78" s="20" t="str">
         <f aca="true">IF(J78="","",INDIRECT("K" &amp; ROW() - 1) - G78)</f>
         <v/>
       </c>
-      <c r="G78" s="20" t="str">
+      <c r="G78" s="21" t="str">
         <f aca="true">IF(J78 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H78 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H78) ,"")</f>
         <v/>
       </c>
-      <c r="H78" s="20" t="str">
+      <c r="H78" s="21" t="str">
         <f aca="false">IF(J78 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K78" s="18" t="n">
+      <c r="K78" s="19" t="n">
         <f aca="true">IF(J78 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E78)</f>
         <v>0</v>
       </c>
@@ -4466,11 +4466,11 @@
         <f aca="true">IF(L78 = 0, INDIRECT("O" &amp; ROW() - 1), L78)</f>
         <v>0</v>
       </c>
-      <c r="R78" s="21" t="str">
+      <c r="R78" s="22" t="str">
         <f aca="true">IF(Q78 = "", "", Q78 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S78" s="21" t="str">
+      <c r="S78" s="22" t="str">
         <f aca="true">IF(J78="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4482,24 +4482,24 @@
         <f aca="false">IF(D79="","",VLOOKUP(D79, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C79" s="17" t="str">
+      <c r="C79" s="18" t="str">
         <f aca="false">IF(D79="","",VLOOKUP(D79, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="19" t="str">
+      <c r="E79" s="19"/>
+      <c r="F79" s="20" t="str">
         <f aca="true">IF(J79="","",INDIRECT("K" &amp; ROW() - 1) - G79)</f>
         <v/>
       </c>
-      <c r="G79" s="20" t="str">
+      <c r="G79" s="21" t="str">
         <f aca="true">IF(J79 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H79 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H79) ,"")</f>
         <v/>
       </c>
-      <c r="H79" s="20" t="str">
+      <c r="H79" s="21" t="str">
         <f aca="false">IF(J79 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K79" s="18" t="n">
+      <c r="K79" s="19" t="n">
         <f aca="true">IF(J79 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E79)</f>
         <v>0</v>
       </c>
@@ -4515,11 +4515,11 @@
         <f aca="true">IF(L79 = 0, INDIRECT("O" &amp; ROW() - 1), L79)</f>
         <v>0</v>
       </c>
-      <c r="R79" s="21" t="str">
+      <c r="R79" s="22" t="str">
         <f aca="true">IF(Q79 = "", "", Q79 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S79" s="21" t="str">
+      <c r="S79" s="22" t="str">
         <f aca="true">IF(J79="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4531,24 +4531,24 @@
         <f aca="false">IF(D80="","",VLOOKUP(D80, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C80" s="17" t="str">
+      <c r="C80" s="18" t="str">
         <f aca="false">IF(D80="","",VLOOKUP(D80, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E80" s="18"/>
-      <c r="F80" s="19" t="str">
+      <c r="E80" s="19"/>
+      <c r="F80" s="20" t="str">
         <f aca="true">IF(J80="","",INDIRECT("K" &amp; ROW() - 1) - G80)</f>
         <v/>
       </c>
-      <c r="G80" s="20" t="str">
+      <c r="G80" s="21" t="str">
         <f aca="true">IF(J80 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H80 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H80) ,"")</f>
         <v/>
       </c>
-      <c r="H80" s="20" t="str">
+      <c r="H80" s="21" t="str">
         <f aca="false">IF(J80 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K80" s="18" t="n">
+      <c r="K80" s="19" t="n">
         <f aca="true">IF(J80 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E80)</f>
         <v>0</v>
       </c>
@@ -4564,11 +4564,11 @@
         <f aca="true">IF(L80 = 0, INDIRECT("O" &amp; ROW() - 1), L80)</f>
         <v>0</v>
       </c>
-      <c r="R80" s="21" t="str">
+      <c r="R80" s="22" t="str">
         <f aca="true">IF(Q80 = "", "", Q80 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S80" s="21" t="str">
+      <c r="S80" s="22" t="str">
         <f aca="true">IF(J80="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4580,24 +4580,24 @@
         <f aca="false">IF(D81="","",VLOOKUP(D81, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C81" s="17" t="str">
+      <c r="C81" s="18" t="str">
         <f aca="false">IF(D81="","",VLOOKUP(D81, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E81" s="18"/>
-      <c r="F81" s="19" t="str">
+      <c r="E81" s="19"/>
+      <c r="F81" s="20" t="str">
         <f aca="true">IF(J81="","",INDIRECT("K" &amp; ROW() - 1) - G81)</f>
         <v/>
       </c>
-      <c r="G81" s="20" t="str">
+      <c r="G81" s="21" t="str">
         <f aca="true">IF(J81 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H81 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H81) ,"")</f>
         <v/>
       </c>
-      <c r="H81" s="20" t="str">
+      <c r="H81" s="21" t="str">
         <f aca="false">IF(J81 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K81" s="18" t="n">
+      <c r="K81" s="19" t="n">
         <f aca="true">IF(J81 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E81)</f>
         <v>0</v>
       </c>
@@ -4613,11 +4613,11 @@
         <f aca="true">IF(L81 = 0, INDIRECT("O" &amp; ROW() - 1), L81)</f>
         <v>0</v>
       </c>
-      <c r="R81" s="21" t="str">
+      <c r="R81" s="22" t="str">
         <f aca="true">IF(Q81 = "", "", Q81 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S81" s="21" t="str">
+      <c r="S81" s="22" t="str">
         <f aca="true">IF(J81="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4629,24 +4629,24 @@
         <f aca="false">IF(D82="","",VLOOKUP(D82, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C82" s="17" t="str">
+      <c r="C82" s="18" t="str">
         <f aca="false">IF(D82="","",VLOOKUP(D82, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E82" s="18"/>
-      <c r="F82" s="19" t="str">
+      <c r="E82" s="19"/>
+      <c r="F82" s="20" t="str">
         <f aca="true">IF(J82="","",INDIRECT("K" &amp; ROW() - 1) - G82)</f>
         <v/>
       </c>
-      <c r="G82" s="20" t="str">
+      <c r="G82" s="21" t="str">
         <f aca="true">IF(J82 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H82 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H82) ,"")</f>
         <v/>
       </c>
-      <c r="H82" s="20" t="str">
+      <c r="H82" s="21" t="str">
         <f aca="false">IF(J82 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K82" s="18" t="n">
+      <c r="K82" s="19" t="n">
         <f aca="true">IF(J82 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E82)</f>
         <v>0</v>
       </c>
@@ -4662,11 +4662,11 @@
         <f aca="true">IF(L82 = 0, INDIRECT("O" &amp; ROW() - 1), L82)</f>
         <v>0</v>
       </c>
-      <c r="R82" s="21" t="str">
+      <c r="R82" s="22" t="str">
         <f aca="true">IF(Q82 = "", "", Q82 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S82" s="21" t="str">
+      <c r="S82" s="22" t="str">
         <f aca="true">IF(J82="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4678,24 +4678,24 @@
         <f aca="false">IF(D83="","",VLOOKUP(D83, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C83" s="17" t="str">
+      <c r="C83" s="18" t="str">
         <f aca="false">IF(D83="","",VLOOKUP(D83, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="19" t="str">
+      <c r="E83" s="19"/>
+      <c r="F83" s="20" t="str">
         <f aca="true">IF(J83="","",INDIRECT("K" &amp; ROW() - 1) - G83)</f>
         <v/>
       </c>
-      <c r="G83" s="20" t="str">
+      <c r="G83" s="21" t="str">
         <f aca="true">IF(J83 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H83 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H83) ,"")</f>
         <v/>
       </c>
-      <c r="H83" s="20" t="str">
+      <c r="H83" s="21" t="str">
         <f aca="false">IF(J83 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K83" s="18" t="n">
+      <c r="K83" s="19" t="n">
         <f aca="true">IF(J83 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E83)</f>
         <v>0</v>
       </c>
@@ -4711,11 +4711,11 @@
         <f aca="true">IF(L83 = 0, INDIRECT("O" &amp; ROW() - 1), L83)</f>
         <v>0</v>
       </c>
-      <c r="R83" s="21" t="str">
+      <c r="R83" s="22" t="str">
         <f aca="true">IF(Q83 = "", "", Q83 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S83" s="21" t="str">
+      <c r="S83" s="22" t="str">
         <f aca="true">IF(J83="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4727,24 +4727,24 @@
         <f aca="false">IF(D84="","",VLOOKUP(D84, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C84" s="17" t="str">
+      <c r="C84" s="18" t="str">
         <f aca="false">IF(D84="","",VLOOKUP(D84, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="19" t="str">
+      <c r="E84" s="19"/>
+      <c r="F84" s="20" t="str">
         <f aca="true">IF(J84="","",INDIRECT("K" &amp; ROW() - 1) - G84)</f>
         <v/>
       </c>
-      <c r="G84" s="20" t="str">
+      <c r="G84" s="21" t="str">
         <f aca="true">IF(J84 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H84 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H84) ,"")</f>
         <v/>
       </c>
-      <c r="H84" s="20" t="str">
+      <c r="H84" s="21" t="str">
         <f aca="false">IF(J84 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K84" s="18" t="n">
+      <c r="K84" s="19" t="n">
         <f aca="true">IF(J84 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E84)</f>
         <v>0</v>
       </c>
@@ -4760,11 +4760,11 @@
         <f aca="true">IF(L84 = 0, INDIRECT("O" &amp; ROW() - 1), L84)</f>
         <v>0</v>
       </c>
-      <c r="R84" s="21" t="str">
+      <c r="R84" s="22" t="str">
         <f aca="true">IF(Q84 = "", "", Q84 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S84" s="21" t="str">
+      <c r="S84" s="22" t="str">
         <f aca="true">IF(J84="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4776,24 +4776,24 @@
         <f aca="false">IF(D85="","",VLOOKUP(D85, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C85" s="17" t="str">
+      <c r="C85" s="18" t="str">
         <f aca="false">IF(D85="","",VLOOKUP(D85, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E85" s="18"/>
-      <c r="F85" s="19" t="str">
+      <c r="E85" s="19"/>
+      <c r="F85" s="20" t="str">
         <f aca="true">IF(J85="","",INDIRECT("K" &amp; ROW() - 1) - G85)</f>
         <v/>
       </c>
-      <c r="G85" s="20" t="str">
+      <c r="G85" s="21" t="str">
         <f aca="true">IF(J85 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H85 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H85) ,"")</f>
         <v/>
       </c>
-      <c r="H85" s="20" t="str">
+      <c r="H85" s="21" t="str">
         <f aca="false">IF(J85 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K85" s="18" t="n">
+      <c r="K85" s="19" t="n">
         <f aca="true">IF(J85 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E85)</f>
         <v>0</v>
       </c>
@@ -4809,11 +4809,11 @@
         <f aca="true">IF(L85 = 0, INDIRECT("O" &amp; ROW() - 1), L85)</f>
         <v>0</v>
       </c>
-      <c r="R85" s="21" t="str">
+      <c r="R85" s="22" t="str">
         <f aca="true">IF(Q85 = "", "", Q85 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S85" s="21" t="str">
+      <c r="S85" s="22" t="str">
         <f aca="true">IF(J85="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4825,24 +4825,24 @@
         <f aca="false">IF(D86="","",VLOOKUP(D86, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C86" s="17" t="str">
+      <c r="C86" s="18" t="str">
         <f aca="false">IF(D86="","",VLOOKUP(D86, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="19" t="str">
+      <c r="E86" s="19"/>
+      <c r="F86" s="20" t="str">
         <f aca="true">IF(J86="","",INDIRECT("K" &amp; ROW() - 1) - G86)</f>
         <v/>
       </c>
-      <c r="G86" s="20" t="str">
+      <c r="G86" s="21" t="str">
         <f aca="true">IF(J86 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H86 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H86) ,"")</f>
         <v/>
       </c>
-      <c r="H86" s="20" t="str">
+      <c r="H86" s="21" t="str">
         <f aca="false">IF(J86 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K86" s="18" t="n">
+      <c r="K86" s="19" t="n">
         <f aca="true">IF(J86 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E86)</f>
         <v>0</v>
       </c>
@@ -4858,11 +4858,11 @@
         <f aca="true">IF(L86 = 0, INDIRECT("O" &amp; ROW() - 1), L86)</f>
         <v>0</v>
       </c>
-      <c r="R86" s="21" t="str">
+      <c r="R86" s="22" t="str">
         <f aca="true">IF(Q86 = "", "", Q86 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S86" s="21" t="str">
+      <c r="S86" s="22" t="str">
         <f aca="true">IF(J86="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4874,24 +4874,24 @@
         <f aca="false">IF(D87="","",VLOOKUP(D87, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C87" s="17" t="str">
+      <c r="C87" s="18" t="str">
         <f aca="false">IF(D87="","",VLOOKUP(D87, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E87" s="18"/>
-      <c r="F87" s="19" t="str">
+      <c r="E87" s="19"/>
+      <c r="F87" s="20" t="str">
         <f aca="true">IF(J87="","",INDIRECT("K" &amp; ROW() - 1) - G87)</f>
         <v/>
       </c>
-      <c r="G87" s="20" t="str">
+      <c r="G87" s="21" t="str">
         <f aca="true">IF(J87 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H87 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H87) ,"")</f>
         <v/>
       </c>
-      <c r="H87" s="20" t="str">
+      <c r="H87" s="21" t="str">
         <f aca="false">IF(J87 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K87" s="18" t="n">
+      <c r="K87" s="19" t="n">
         <f aca="true">IF(J87 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E87)</f>
         <v>0</v>
       </c>
@@ -4907,11 +4907,11 @@
         <f aca="true">IF(L87 = 0, INDIRECT("O" &amp; ROW() - 1), L87)</f>
         <v>0</v>
       </c>
-      <c r="R87" s="21" t="str">
+      <c r="R87" s="22" t="str">
         <f aca="true">IF(Q87 = "", "", Q87 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S87" s="21" t="str">
+      <c r="S87" s="22" t="str">
         <f aca="true">IF(J87="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4923,24 +4923,24 @@
         <f aca="false">IF(D88="","",VLOOKUP(D88, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C88" s="17" t="str">
+      <c r="C88" s="18" t="str">
         <f aca="false">IF(D88="","",VLOOKUP(D88, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E88" s="18"/>
-      <c r="F88" s="19" t="str">
+      <c r="E88" s="19"/>
+      <c r="F88" s="20" t="str">
         <f aca="true">IF(J88="","",INDIRECT("K" &amp; ROW() - 1) - G88)</f>
         <v/>
       </c>
-      <c r="G88" s="20" t="str">
+      <c r="G88" s="21" t="str">
         <f aca="true">IF(J88 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H88 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H88) ,"")</f>
         <v/>
       </c>
-      <c r="H88" s="20" t="str">
+      <c r="H88" s="21" t="str">
         <f aca="false">IF(J88 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K88" s="18" t="n">
+      <c r="K88" s="19" t="n">
         <f aca="true">IF(J88 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E88)</f>
         <v>0</v>
       </c>
@@ -4956,11 +4956,11 @@
         <f aca="true">IF(L88 = 0, INDIRECT("O" &amp; ROW() - 1), L88)</f>
         <v>0</v>
       </c>
-      <c r="R88" s="21" t="str">
+      <c r="R88" s="22" t="str">
         <f aca="true">IF(Q88 = "", "", Q88 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S88" s="21" t="str">
+      <c r="S88" s="22" t="str">
         <f aca="true">IF(J88="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -4972,24 +4972,24 @@
         <f aca="false">IF(D89="","",VLOOKUP(D89, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C89" s="17" t="str">
+      <c r="C89" s="18" t="str">
         <f aca="false">IF(D89="","",VLOOKUP(D89, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="19" t="str">
+      <c r="E89" s="19"/>
+      <c r="F89" s="20" t="str">
         <f aca="true">IF(J89="","",INDIRECT("K" &amp; ROW() - 1) - G89)</f>
         <v/>
       </c>
-      <c r="G89" s="20" t="str">
+      <c r="G89" s="21" t="str">
         <f aca="true">IF(J89 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H89 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H89) ,"")</f>
         <v/>
       </c>
-      <c r="H89" s="20" t="str">
+      <c r="H89" s="21" t="str">
         <f aca="false">IF(J89 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K89" s="18" t="n">
+      <c r="K89" s="19" t="n">
         <f aca="true">IF(J89 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E89)</f>
         <v>0</v>
       </c>
@@ -5005,11 +5005,11 @@
         <f aca="true">IF(L89 = 0, INDIRECT("O" &amp; ROW() - 1), L89)</f>
         <v>0</v>
       </c>
-      <c r="R89" s="21" t="str">
+      <c r="R89" s="22" t="str">
         <f aca="true">IF(Q89 = "", "", Q89 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S89" s="21" t="str">
+      <c r="S89" s="22" t="str">
         <f aca="true">IF(J89="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5021,24 +5021,24 @@
         <f aca="false">IF(D90="","",VLOOKUP(D90, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C90" s="17" t="str">
+      <c r="C90" s="18" t="str">
         <f aca="false">IF(D90="","",VLOOKUP(D90, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E90" s="18"/>
-      <c r="F90" s="19" t="str">
+      <c r="E90" s="19"/>
+      <c r="F90" s="20" t="str">
         <f aca="true">IF(J90="","",INDIRECT("K" &amp; ROW() - 1) - G90)</f>
         <v/>
       </c>
-      <c r="G90" s="20" t="str">
+      <c r="G90" s="21" t="str">
         <f aca="true">IF(J90 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H90 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H90) ,"")</f>
         <v/>
       </c>
-      <c r="H90" s="20" t="str">
+      <c r="H90" s="21" t="str">
         <f aca="false">IF(J90 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K90" s="18" t="n">
+      <c r="K90" s="19" t="n">
         <f aca="true">IF(J90 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E90)</f>
         <v>0</v>
       </c>
@@ -5054,11 +5054,11 @@
         <f aca="true">IF(L90 = 0, INDIRECT("O" &amp; ROW() - 1), L90)</f>
         <v>0</v>
       </c>
-      <c r="R90" s="21" t="str">
+      <c r="R90" s="22" t="str">
         <f aca="true">IF(Q90 = "", "", Q90 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S90" s="21" t="str">
+      <c r="S90" s="22" t="str">
         <f aca="true">IF(J90="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5070,24 +5070,24 @@
         <f aca="false">IF(D91="","",VLOOKUP(D91, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C91" s="17" t="str">
+      <c r="C91" s="18" t="str">
         <f aca="false">IF(D91="","",VLOOKUP(D91, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E91" s="18"/>
-      <c r="F91" s="19" t="str">
+      <c r="E91" s="19"/>
+      <c r="F91" s="20" t="str">
         <f aca="true">IF(J91="","",INDIRECT("K" &amp; ROW() - 1) - G91)</f>
         <v/>
       </c>
-      <c r="G91" s="20" t="str">
+      <c r="G91" s="21" t="str">
         <f aca="true">IF(J91 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H91 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H91) ,"")</f>
         <v/>
       </c>
-      <c r="H91" s="20" t="str">
+      <c r="H91" s="21" t="str">
         <f aca="false">IF(J91 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K91" s="18" t="n">
+      <c r="K91" s="19" t="n">
         <f aca="true">IF(J91 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E91)</f>
         <v>0</v>
       </c>
@@ -5103,11 +5103,11 @@
         <f aca="true">IF(L91 = 0, INDIRECT("O" &amp; ROW() - 1), L91)</f>
         <v>0</v>
       </c>
-      <c r="R91" s="21" t="str">
+      <c r="R91" s="22" t="str">
         <f aca="true">IF(Q91 = "", "", Q91 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S91" s="21" t="str">
+      <c r="S91" s="22" t="str">
         <f aca="true">IF(J91="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5119,24 +5119,24 @@
         <f aca="false">IF(D92="","",VLOOKUP(D92, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C92" s="17" t="str">
+      <c r="C92" s="18" t="str">
         <f aca="false">IF(D92="","",VLOOKUP(D92, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E92" s="18"/>
-      <c r="F92" s="19" t="str">
+      <c r="E92" s="19"/>
+      <c r="F92" s="20" t="str">
         <f aca="true">IF(J92="","",INDIRECT("K" &amp; ROW() - 1) - G92)</f>
         <v/>
       </c>
-      <c r="G92" s="20" t="str">
+      <c r="G92" s="21" t="str">
         <f aca="true">IF(J92 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H92 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H92) ,"")</f>
         <v/>
       </c>
-      <c r="H92" s="20" t="str">
+      <c r="H92" s="21" t="str">
         <f aca="false">IF(J92 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K92" s="18" t="n">
+      <c r="K92" s="19" t="n">
         <f aca="true">IF(J92 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E92)</f>
         <v>0</v>
       </c>
@@ -5152,11 +5152,11 @@
         <f aca="true">IF(L92 = 0, INDIRECT("O" &amp; ROW() - 1), L92)</f>
         <v>0</v>
       </c>
-      <c r="R92" s="21" t="str">
+      <c r="R92" s="22" t="str">
         <f aca="true">IF(Q92 = "", "", Q92 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S92" s="21" t="str">
+      <c r="S92" s="22" t="str">
         <f aca="true">IF(J92="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5168,24 +5168,24 @@
         <f aca="false">IF(D93="","",VLOOKUP(D93, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C93" s="17" t="str">
+      <c r="C93" s="18" t="str">
         <f aca="false">IF(D93="","",VLOOKUP(D93, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E93" s="18"/>
-      <c r="F93" s="19" t="str">
+      <c r="E93" s="19"/>
+      <c r="F93" s="20" t="str">
         <f aca="true">IF(J93="","",INDIRECT("K" &amp; ROW() - 1) - G93)</f>
         <v/>
       </c>
-      <c r="G93" s="20" t="str">
+      <c r="G93" s="21" t="str">
         <f aca="true">IF(J93 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H93 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H93) ,"")</f>
         <v/>
       </c>
-      <c r="H93" s="20" t="str">
+      <c r="H93" s="21" t="str">
         <f aca="false">IF(J93 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K93" s="18" t="n">
+      <c r="K93" s="19" t="n">
         <f aca="true">IF(J93 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E93)</f>
         <v>0</v>
       </c>
@@ -5201,11 +5201,11 @@
         <f aca="true">IF(L93 = 0, INDIRECT("O" &amp; ROW() - 1), L93)</f>
         <v>0</v>
       </c>
-      <c r="R93" s="21" t="str">
+      <c r="R93" s="22" t="str">
         <f aca="true">IF(Q93 = "", "", Q93 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S93" s="21" t="str">
+      <c r="S93" s="22" t="str">
         <f aca="true">IF(J93="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5217,24 +5217,24 @@
         <f aca="false">IF(D94="","",VLOOKUP(D94, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C94" s="17" t="str">
+      <c r="C94" s="18" t="str">
         <f aca="false">IF(D94="","",VLOOKUP(D94, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E94" s="18"/>
-      <c r="F94" s="19" t="str">
+      <c r="E94" s="19"/>
+      <c r="F94" s="20" t="str">
         <f aca="true">IF(J94="","",INDIRECT("K" &amp; ROW() - 1) - G94)</f>
         <v/>
       </c>
-      <c r="G94" s="20" t="str">
+      <c r="G94" s="21" t="str">
         <f aca="true">IF(J94 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H94 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H94) ,"")</f>
         <v/>
       </c>
-      <c r="H94" s="20" t="str">
+      <c r="H94" s="21" t="str">
         <f aca="false">IF(J94 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K94" s="18" t="n">
+      <c r="K94" s="19" t="n">
         <f aca="true">IF(J94 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E94)</f>
         <v>0</v>
       </c>
@@ -5250,11 +5250,11 @@
         <f aca="true">IF(L94 = 0, INDIRECT("O" &amp; ROW() - 1), L94)</f>
         <v>0</v>
       </c>
-      <c r="R94" s="21" t="str">
+      <c r="R94" s="22" t="str">
         <f aca="true">IF(Q94 = "", "", Q94 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S94" s="21" t="str">
+      <c r="S94" s="22" t="str">
         <f aca="true">IF(J94="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5266,24 +5266,24 @@
         <f aca="false">IF(D95="","",VLOOKUP(D95, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C95" s="17" t="str">
+      <c r="C95" s="18" t="str">
         <f aca="false">IF(D95="","",VLOOKUP(D95, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E95" s="18"/>
-      <c r="F95" s="19" t="str">
+      <c r="E95" s="19"/>
+      <c r="F95" s="20" t="str">
         <f aca="true">IF(J95="","",INDIRECT("K" &amp; ROW() - 1) - G95)</f>
         <v/>
       </c>
-      <c r="G95" s="20" t="str">
+      <c r="G95" s="21" t="str">
         <f aca="true">IF(J95 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H95 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H95) ,"")</f>
         <v/>
       </c>
-      <c r="H95" s="20" t="str">
+      <c r="H95" s="21" t="str">
         <f aca="false">IF(J95 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K95" s="18" t="n">
+      <c r="K95" s="19" t="n">
         <f aca="true">IF(J95 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E95)</f>
         <v>0</v>
       </c>
@@ -5299,11 +5299,11 @@
         <f aca="true">IF(L95 = 0, INDIRECT("O" &amp; ROW() - 1), L95)</f>
         <v>0</v>
       </c>
-      <c r="R95" s="21" t="str">
+      <c r="R95" s="22" t="str">
         <f aca="true">IF(Q95 = "", "", Q95 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S95" s="21" t="str">
+      <c r="S95" s="22" t="str">
         <f aca="true">IF(J95="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5315,24 +5315,24 @@
         <f aca="false">IF(D96="","",VLOOKUP(D96, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C96" s="17" t="str">
+      <c r="C96" s="18" t="str">
         <f aca="false">IF(D96="","",VLOOKUP(D96, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E96" s="18"/>
-      <c r="F96" s="19" t="str">
+      <c r="E96" s="19"/>
+      <c r="F96" s="20" t="str">
         <f aca="true">IF(J96="","",INDIRECT("K" &amp; ROW() - 1) - G96)</f>
         <v/>
       </c>
-      <c r="G96" s="20" t="str">
+      <c r="G96" s="21" t="str">
         <f aca="true">IF(J96 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H96 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H96) ,"")</f>
         <v/>
       </c>
-      <c r="H96" s="20" t="str">
+      <c r="H96" s="21" t="str">
         <f aca="false">IF(J96 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K96" s="18" t="n">
+      <c r="K96" s="19" t="n">
         <f aca="true">IF(J96 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E96)</f>
         <v>0</v>
       </c>
@@ -5348,11 +5348,11 @@
         <f aca="true">IF(L96 = 0, INDIRECT("O" &amp; ROW() - 1), L96)</f>
         <v>0</v>
       </c>
-      <c r="R96" s="21" t="str">
+      <c r="R96" s="22" t="str">
         <f aca="true">IF(Q96 = "", "", Q96 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S96" s="21" t="str">
+      <c r="S96" s="22" t="str">
         <f aca="true">IF(J96="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5364,24 +5364,24 @@
         <f aca="false">IF(D97="","",VLOOKUP(D97, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C97" s="17" t="str">
+      <c r="C97" s="18" t="str">
         <f aca="false">IF(D97="","",VLOOKUP(D97, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E97" s="18"/>
-      <c r="F97" s="19" t="str">
+      <c r="E97" s="19"/>
+      <c r="F97" s="20" t="str">
         <f aca="true">IF(J97="","",INDIRECT("K" &amp; ROW() - 1) - G97)</f>
         <v/>
       </c>
-      <c r="G97" s="20" t="str">
+      <c r="G97" s="21" t="str">
         <f aca="true">IF(J97 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H97 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H97) ,"")</f>
         <v/>
       </c>
-      <c r="H97" s="20" t="str">
+      <c r="H97" s="21" t="str">
         <f aca="false">IF(J97 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K97" s="18" t="n">
+      <c r="K97" s="19" t="n">
         <f aca="true">IF(J97 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E97)</f>
         <v>0</v>
       </c>
@@ -5397,11 +5397,11 @@
         <f aca="true">IF(L97 = 0, INDIRECT("O" &amp; ROW() - 1), L97)</f>
         <v>0</v>
       </c>
-      <c r="R97" s="21" t="str">
+      <c r="R97" s="22" t="str">
         <f aca="true">IF(Q97 = "", "", Q97 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S97" s="21" t="str">
+      <c r="S97" s="22" t="str">
         <f aca="true">IF(J97="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5413,24 +5413,24 @@
         <f aca="false">IF(D98="","",VLOOKUP(D98, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C98" s="17" t="str">
+      <c r="C98" s="18" t="str">
         <f aca="false">IF(D98="","",VLOOKUP(D98, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E98" s="18"/>
-      <c r="F98" s="19" t="str">
+      <c r="E98" s="19"/>
+      <c r="F98" s="20" t="str">
         <f aca="true">IF(J98="","",INDIRECT("K" &amp; ROW() - 1) - G98)</f>
         <v/>
       </c>
-      <c r="G98" s="20" t="str">
+      <c r="G98" s="21" t="str">
         <f aca="true">IF(J98 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H98 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H98) ,"")</f>
         <v/>
       </c>
-      <c r="H98" s="20" t="str">
+      <c r="H98" s="21" t="str">
         <f aca="false">IF(J98 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K98" s="18" t="n">
+      <c r="K98" s="19" t="n">
         <f aca="true">IF(J98 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E98)</f>
         <v>0</v>
       </c>
@@ -5446,11 +5446,11 @@
         <f aca="true">IF(L98 = 0, INDIRECT("O" &amp; ROW() - 1), L98)</f>
         <v>0</v>
       </c>
-      <c r="R98" s="21" t="str">
+      <c r="R98" s="22" t="str">
         <f aca="true">IF(Q98 = "", "", Q98 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S98" s="21" t="str">
+      <c r="S98" s="22" t="str">
         <f aca="true">IF(J98="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5462,24 +5462,24 @@
         <f aca="false">IF(D99="","",VLOOKUP(D99, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C99" s="17" t="str">
+      <c r="C99" s="18" t="str">
         <f aca="false">IF(D99="","",VLOOKUP(D99, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E99" s="18"/>
-      <c r="F99" s="19" t="str">
+      <c r="E99" s="19"/>
+      <c r="F99" s="20" t="str">
         <f aca="true">IF(J99="","",INDIRECT("K" &amp; ROW() - 1) - G99)</f>
         <v/>
       </c>
-      <c r="G99" s="20" t="str">
+      <c r="G99" s="21" t="str">
         <f aca="true">IF(J99 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H99 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H99) ,"")</f>
         <v/>
       </c>
-      <c r="H99" s="20" t="str">
+      <c r="H99" s="21" t="str">
         <f aca="false">IF(J99 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K99" s="18" t="n">
+      <c r="K99" s="19" t="n">
         <f aca="true">IF(J99 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E99)</f>
         <v>0</v>
       </c>
@@ -5495,11 +5495,11 @@
         <f aca="true">IF(L99 = 0, INDIRECT("O" &amp; ROW() - 1), L99)</f>
         <v>0</v>
       </c>
-      <c r="R99" s="21" t="str">
+      <c r="R99" s="22" t="str">
         <f aca="true">IF(Q99 = "", "", Q99 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S99" s="21" t="str">
+      <c r="S99" s="22" t="str">
         <f aca="true">IF(J99="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5511,24 +5511,24 @@
         <f aca="false">IF(D100="","",VLOOKUP(D100, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C100" s="17" t="str">
+      <c r="C100" s="18" t="str">
         <f aca="false">IF(D100="","",VLOOKUP(D100, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E100" s="18"/>
-      <c r="F100" s="19" t="str">
+      <c r="E100" s="19"/>
+      <c r="F100" s="20" t="str">
         <f aca="true">IF(J100="","",INDIRECT("K" &amp; ROW() - 1) - G100)</f>
         <v/>
       </c>
-      <c r="G100" s="20" t="str">
+      <c r="G100" s="21" t="str">
         <f aca="true">IF(J100 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H100 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H100) ,"")</f>
         <v/>
       </c>
-      <c r="H100" s="20" t="str">
+      <c r="H100" s="21" t="str">
         <f aca="false">IF(J100 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K100" s="18" t="n">
+      <c r="K100" s="19" t="n">
         <f aca="true">IF(J100 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E100)</f>
         <v>0</v>
       </c>
@@ -5544,11 +5544,11 @@
         <f aca="true">IF(L100 = 0, INDIRECT("O" &amp; ROW() - 1), L100)</f>
         <v>0</v>
       </c>
-      <c r="R100" s="21" t="str">
+      <c r="R100" s="22" t="str">
         <f aca="true">IF(Q100 = "", "", Q100 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S100" s="21" t="str">
+      <c r="S100" s="22" t="str">
         <f aca="true">IF(J100="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5560,24 +5560,24 @@
         <f aca="false">IF(D101="","",VLOOKUP(D101, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C101" s="17" t="str">
+      <c r="C101" s="18" t="str">
         <f aca="false">IF(D101="","",VLOOKUP(D101, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E101" s="18"/>
-      <c r="F101" s="19" t="str">
+      <c r="E101" s="19"/>
+      <c r="F101" s="20" t="str">
         <f aca="true">IF(J101="","",INDIRECT("K" &amp; ROW() - 1) - G101)</f>
         <v/>
       </c>
-      <c r="G101" s="20" t="str">
+      <c r="G101" s="21" t="str">
         <f aca="true">IF(J101 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H101 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H101) ,"")</f>
         <v/>
       </c>
-      <c r="H101" s="20" t="str">
+      <c r="H101" s="21" t="str">
         <f aca="false">IF(J101 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K101" s="18" t="n">
+      <c r="K101" s="19" t="n">
         <f aca="true">IF(J101 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E101)</f>
         <v>0</v>
       </c>
@@ -5593,11 +5593,11 @@
         <f aca="true">IF(L101 = 0, INDIRECT("O" &amp; ROW() - 1), L101)</f>
         <v>0</v>
       </c>
-      <c r="R101" s="21" t="str">
+      <c r="R101" s="22" t="str">
         <f aca="true">IF(Q101 = "", "", Q101 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S101" s="21" t="str">
+      <c r="S101" s="22" t="str">
         <f aca="true">IF(J101="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5609,24 +5609,24 @@
         <f aca="false">IF(D102="","",VLOOKUP(D102, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C102" s="22" t="str">
+      <c r="C102" s="17" t="str">
         <f aca="false">IF(D102="","",VLOOKUP(D102, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E102" s="18"/>
-      <c r="F102" s="19" t="str">
+      <c r="E102" s="19"/>
+      <c r="F102" s="20" t="str">
         <f aca="true">IF(J102="","",INDIRECT("K" &amp; ROW() - 1) - G102)</f>
         <v/>
       </c>
-      <c r="G102" s="20" t="str">
+      <c r="G102" s="21" t="str">
         <f aca="true">IF(J102 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H102 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H102) ,"")</f>
         <v/>
       </c>
-      <c r="H102" s="20" t="str">
+      <c r="H102" s="21" t="str">
         <f aca="false">IF(J102 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K102" s="18" t="n">
+      <c r="K102" s="19" t="n">
         <f aca="true">IF(J102 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E102)</f>
         <v>0</v>
       </c>
@@ -5642,11 +5642,11 @@
         <f aca="true">IF(L102 = 0, INDIRECT("O" &amp; ROW() - 1), L102)</f>
         <v>0</v>
       </c>
-      <c r="R102" s="21" t="str">
+      <c r="R102" s="22" t="str">
         <f aca="true">IF(Q102 = "", "", Q102 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S102" s="21" t="str">
+      <c r="S102" s="22" t="str">
         <f aca="true">IF(J102="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5658,24 +5658,24 @@
         <f aca="false">IF(D103="","",VLOOKUP(D103, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C103" s="22" t="str">
+      <c r="C103" s="17" t="str">
         <f aca="false">IF(D103="","",VLOOKUP(D103, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E103" s="18"/>
-      <c r="F103" s="19" t="str">
+      <c r="E103" s="19"/>
+      <c r="F103" s="20" t="str">
         <f aca="true">IF(J103="","",INDIRECT("K" &amp; ROW() - 1) - G103)</f>
         <v/>
       </c>
-      <c r="G103" s="20" t="str">
+      <c r="G103" s="21" t="str">
         <f aca="true">IF(J103 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H103 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H103) ,"")</f>
         <v/>
       </c>
-      <c r="H103" s="20" t="str">
+      <c r="H103" s="21" t="str">
         <f aca="false">IF(J103 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K103" s="18" t="n">
+      <c r="K103" s="19" t="n">
         <f aca="true">IF(J103 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E103)</f>
         <v>0</v>
       </c>
@@ -5691,11 +5691,11 @@
         <f aca="true">IF(L103 = 0, INDIRECT("O" &amp; ROW() - 1), L103)</f>
         <v>0</v>
       </c>
-      <c r="R103" s="21" t="str">
+      <c r="R103" s="22" t="str">
         <f aca="true">IF(Q103 = "", "", Q103 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S103" s="21" t="str">
+      <c r="S103" s="22" t="str">
         <f aca="true">IF(J103="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5707,24 +5707,24 @@
         <f aca="false">IF(D104="","",VLOOKUP(D104, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C104" s="22" t="str">
+      <c r="C104" s="17" t="str">
         <f aca="false">IF(D104="","",VLOOKUP(D104, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E104" s="18"/>
-      <c r="F104" s="19" t="str">
+      <c r="E104" s="19"/>
+      <c r="F104" s="20" t="str">
         <f aca="true">IF(J104="","",INDIRECT("K" &amp; ROW() - 1) - G104)</f>
         <v/>
       </c>
-      <c r="G104" s="20" t="str">
+      <c r="G104" s="21" t="str">
         <f aca="true">IF(J104 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H104 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H104) ,"")</f>
         <v/>
       </c>
-      <c r="H104" s="20" t="str">
+      <c r="H104" s="21" t="str">
         <f aca="false">IF(J104 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K104" s="18" t="n">
+      <c r="K104" s="19" t="n">
         <f aca="true">IF(J104 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E104)</f>
         <v>0</v>
       </c>
@@ -5740,11 +5740,11 @@
         <f aca="true">IF(L104 = 0, INDIRECT("O" &amp; ROW() - 1), L104)</f>
         <v>0</v>
       </c>
-      <c r="R104" s="21" t="str">
+      <c r="R104" s="22" t="str">
         <f aca="true">IF(Q104 = "", "", Q104 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S104" s="21" t="str">
+      <c r="S104" s="22" t="str">
         <f aca="true">IF(J104="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5756,24 +5756,24 @@
         <f aca="false">IF(D105="","",VLOOKUP(D105, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C105" s="22" t="str">
+      <c r="C105" s="17" t="str">
         <f aca="false">IF(D105="","",VLOOKUP(D105, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E105" s="18"/>
-      <c r="F105" s="19" t="str">
+      <c r="E105" s="19"/>
+      <c r="F105" s="20" t="str">
         <f aca="true">IF(J105="","",INDIRECT("K" &amp; ROW() - 1) - G105)</f>
         <v/>
       </c>
-      <c r="G105" s="20" t="str">
+      <c r="G105" s="21" t="str">
         <f aca="true">IF(J105 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H105 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H105) ,"")</f>
         <v/>
       </c>
-      <c r="H105" s="20" t="str">
+      <c r="H105" s="21" t="str">
         <f aca="false">IF(J105 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K105" s="18" t="n">
+      <c r="K105" s="19" t="n">
         <f aca="true">IF(J105 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E105)</f>
         <v>0</v>
       </c>
@@ -5789,11 +5789,11 @@
         <f aca="true">IF(L105 = 0, INDIRECT("O" &amp; ROW() - 1), L105)</f>
         <v>0</v>
       </c>
-      <c r="R105" s="21" t="str">
+      <c r="R105" s="22" t="str">
         <f aca="true">IF(Q105 = "", "", Q105 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S105" s="21" t="str">
+      <c r="S105" s="22" t="str">
         <f aca="true">IF(J105="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5805,24 +5805,24 @@
         <f aca="false">IF(D106="","",VLOOKUP(D106, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C106" s="22" t="str">
+      <c r="C106" s="17" t="str">
         <f aca="false">IF(D106="","",VLOOKUP(D106, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E106" s="18"/>
-      <c r="F106" s="19" t="str">
+      <c r="E106" s="19"/>
+      <c r="F106" s="20" t="str">
         <f aca="true">IF(J106="","",INDIRECT("K" &amp; ROW() - 1) - G106)</f>
         <v/>
       </c>
-      <c r="G106" s="20" t="str">
+      <c r="G106" s="21" t="str">
         <f aca="true">IF(J106 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H106 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H106) ,"")</f>
         <v/>
       </c>
-      <c r="H106" s="20" t="str">
+      <c r="H106" s="21" t="str">
         <f aca="false">IF(J106 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K106" s="18" t="n">
+      <c r="K106" s="19" t="n">
         <f aca="true">IF(J106 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E106)</f>
         <v>0</v>
       </c>
@@ -5838,11 +5838,11 @@
         <f aca="true">IF(L106 = 0, INDIRECT("O" &amp; ROW() - 1), L106)</f>
         <v>0</v>
       </c>
-      <c r="R106" s="21" t="str">
+      <c r="R106" s="22" t="str">
         <f aca="true">IF(Q106 = "", "", Q106 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S106" s="21" t="str">
+      <c r="S106" s="22" t="str">
         <f aca="true">IF(J106="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5854,24 +5854,24 @@
         <f aca="false">IF(D107="","",VLOOKUP(D107, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C107" s="22" t="str">
+      <c r="C107" s="17" t="str">
         <f aca="false">IF(D107="","",VLOOKUP(D107, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E107" s="18"/>
-      <c r="F107" s="19" t="str">
+      <c r="E107" s="19"/>
+      <c r="F107" s="20" t="str">
         <f aca="true">IF(J107="","",INDIRECT("K" &amp; ROW() - 1) - G107)</f>
         <v/>
       </c>
-      <c r="G107" s="20" t="str">
+      <c r="G107" s="21" t="str">
         <f aca="true">IF(J107 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H107 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H107) ,"")</f>
         <v/>
       </c>
-      <c r="H107" s="20" t="str">
+      <c r="H107" s="21" t="str">
         <f aca="false">IF(J107 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K107" s="18" t="n">
+      <c r="K107" s="19" t="n">
         <f aca="true">IF(J107 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E107)</f>
         <v>0</v>
       </c>
@@ -5887,11 +5887,11 @@
         <f aca="true">IF(L107 = 0, INDIRECT("O" &amp; ROW() - 1), L107)</f>
         <v>0</v>
       </c>
-      <c r="R107" s="21" t="str">
+      <c r="R107" s="22" t="str">
         <f aca="true">IF(Q107 = "", "", Q107 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S107" s="21" t="str">
+      <c r="S107" s="22" t="str">
         <f aca="true">IF(J107="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5903,24 +5903,24 @@
         <f aca="false">IF(D108="","",VLOOKUP(D108, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C108" s="22" t="str">
+      <c r="C108" s="17" t="str">
         <f aca="false">IF(D108="","",VLOOKUP(D108, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E108" s="18"/>
-      <c r="F108" s="19" t="str">
+      <c r="E108" s="19"/>
+      <c r="F108" s="20" t="str">
         <f aca="true">IF(J108="","",INDIRECT("K" &amp; ROW() - 1) - G108)</f>
         <v/>
       </c>
-      <c r="G108" s="20" t="str">
+      <c r="G108" s="21" t="str">
         <f aca="true">IF(J108 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H108 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H108) ,"")</f>
         <v/>
       </c>
-      <c r="H108" s="20" t="str">
+      <c r="H108" s="21" t="str">
         <f aca="false">IF(J108 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K108" s="18" t="n">
+      <c r="K108" s="19" t="n">
         <f aca="true">IF(J108 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E108)</f>
         <v>0</v>
       </c>
@@ -5936,11 +5936,11 @@
         <f aca="true">IF(L108 = 0, INDIRECT("O" &amp; ROW() - 1), L108)</f>
         <v>0</v>
       </c>
-      <c r="R108" s="21" t="str">
+      <c r="R108" s="22" t="str">
         <f aca="true">IF(Q108 = "", "", Q108 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S108" s="21" t="str">
+      <c r="S108" s="22" t="str">
         <f aca="true">IF(J108="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -5952,24 +5952,24 @@
         <f aca="false">IF(D109="","",VLOOKUP(D109, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C109" s="22" t="str">
+      <c r="C109" s="17" t="str">
         <f aca="false">IF(D109="","",VLOOKUP(D109, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E109" s="18"/>
-      <c r="F109" s="19" t="str">
+      <c r="E109" s="19"/>
+      <c r="F109" s="20" t="str">
         <f aca="true">IF(J109="","",INDIRECT("K" &amp; ROW() - 1) - G109)</f>
         <v/>
       </c>
-      <c r="G109" s="20" t="str">
+      <c r="G109" s="21" t="str">
         <f aca="true">IF(J109 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H109 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H109) ,"")</f>
         <v/>
       </c>
-      <c r="H109" s="20" t="str">
+      <c r="H109" s="21" t="str">
         <f aca="false">IF(J109 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K109" s="18" t="n">
+      <c r="K109" s="19" t="n">
         <f aca="true">IF(J109 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E109)</f>
         <v>0</v>
       </c>
@@ -5985,11 +5985,11 @@
         <f aca="true">IF(L109 = 0, INDIRECT("O" &amp; ROW() - 1), L109)</f>
         <v>0</v>
       </c>
-      <c r="R109" s="21" t="str">
+      <c r="R109" s="22" t="str">
         <f aca="true">IF(Q109 = "", "", Q109 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S109" s="21" t="str">
+      <c r="S109" s="22" t="str">
         <f aca="true">IF(J109="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6001,24 +6001,24 @@
         <f aca="false">IF(D110="","",VLOOKUP(D110, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C110" s="22" t="str">
+      <c r="C110" s="17" t="str">
         <f aca="false">IF(D110="","",VLOOKUP(D110, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E110" s="18"/>
-      <c r="F110" s="19" t="str">
+      <c r="E110" s="19"/>
+      <c r="F110" s="20" t="str">
         <f aca="true">IF(J110="","",INDIRECT("K" &amp; ROW() - 1) - G110)</f>
         <v/>
       </c>
-      <c r="G110" s="20" t="str">
+      <c r="G110" s="21" t="str">
         <f aca="true">IF(J110 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H110 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H110) ,"")</f>
         <v/>
       </c>
-      <c r="H110" s="20" t="str">
+      <c r="H110" s="21" t="str">
         <f aca="false">IF(J110 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K110" s="18" t="n">
+      <c r="K110" s="19" t="n">
         <f aca="true">IF(J110 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E110)</f>
         <v>0</v>
       </c>
@@ -6034,11 +6034,11 @@
         <f aca="true">IF(L110 = 0, INDIRECT("O" &amp; ROW() - 1), L110)</f>
         <v>0</v>
       </c>
-      <c r="R110" s="21" t="str">
+      <c r="R110" s="22" t="str">
         <f aca="true">IF(Q110 = "", "", Q110 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S110" s="21" t="str">
+      <c r="S110" s="22" t="str">
         <f aca="true">IF(J110="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6050,24 +6050,24 @@
         <f aca="false">IF(D111="","",VLOOKUP(D111, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C111" s="22" t="str">
+      <c r="C111" s="17" t="str">
         <f aca="false">IF(D111="","",VLOOKUP(D111, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E111" s="18"/>
-      <c r="F111" s="19" t="str">
+      <c r="E111" s="19"/>
+      <c r="F111" s="20" t="str">
         <f aca="true">IF(J111="","",INDIRECT("K" &amp; ROW() - 1) - G111)</f>
         <v/>
       </c>
-      <c r="G111" s="20" t="str">
+      <c r="G111" s="21" t="str">
         <f aca="true">IF(J111 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H111 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H111) ,"")</f>
         <v/>
       </c>
-      <c r="H111" s="20" t="str">
+      <c r="H111" s="21" t="str">
         <f aca="false">IF(J111 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K111" s="18" t="n">
+      <c r="K111" s="19" t="n">
         <f aca="true">IF(J111 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E111)</f>
         <v>0</v>
       </c>
@@ -6083,11 +6083,11 @@
         <f aca="true">IF(L111 = 0, INDIRECT("O" &amp; ROW() - 1), L111)</f>
         <v>0</v>
       </c>
-      <c r="R111" s="21" t="str">
+      <c r="R111" s="22" t="str">
         <f aca="true">IF(Q111 = "", "", Q111 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S111" s="21" t="str">
+      <c r="S111" s="22" t="str">
         <f aca="true">IF(J111="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6099,24 +6099,24 @@
         <f aca="false">IF(D112="","",VLOOKUP(D112, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C112" s="22" t="str">
+      <c r="C112" s="17" t="str">
         <f aca="false">IF(D112="","",VLOOKUP(D112, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E112" s="18"/>
-      <c r="F112" s="19" t="str">
+      <c r="E112" s="19"/>
+      <c r="F112" s="20" t="str">
         <f aca="true">IF(J112="","",INDIRECT("K" &amp; ROW() - 1) - G112)</f>
         <v/>
       </c>
-      <c r="G112" s="20" t="str">
+      <c r="G112" s="21" t="str">
         <f aca="true">IF(J112 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H112 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H112) ,"")</f>
         <v/>
       </c>
-      <c r="H112" s="20" t="str">
+      <c r="H112" s="21" t="str">
         <f aca="false">IF(J112 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K112" s="18" t="n">
+      <c r="K112" s="19" t="n">
         <f aca="true">IF(J112 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E112)</f>
         <v>0</v>
       </c>
@@ -6132,11 +6132,11 @@
         <f aca="true">IF(L112 = 0, INDIRECT("O" &amp; ROW() - 1), L112)</f>
         <v>0</v>
       </c>
-      <c r="R112" s="21" t="str">
+      <c r="R112" s="22" t="str">
         <f aca="true">IF(Q112 = "", "", Q112 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S112" s="21" t="str">
+      <c r="S112" s="22" t="str">
         <f aca="true">IF(J112="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6148,24 +6148,24 @@
         <f aca="false">IF(D113="","",VLOOKUP(D113, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C113" s="22" t="str">
+      <c r="C113" s="17" t="str">
         <f aca="false">IF(D113="","",VLOOKUP(D113, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E113" s="18"/>
-      <c r="F113" s="19" t="str">
+      <c r="E113" s="19"/>
+      <c r="F113" s="20" t="str">
         <f aca="true">IF(J113="","",INDIRECT("K" &amp; ROW() - 1) - G113)</f>
         <v/>
       </c>
-      <c r="G113" s="20" t="str">
+      <c r="G113" s="21" t="str">
         <f aca="true">IF(J113 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H113 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H113) ,"")</f>
         <v/>
       </c>
-      <c r="H113" s="20" t="str">
+      <c r="H113" s="21" t="str">
         <f aca="false">IF(J113 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K113" s="18" t="n">
+      <c r="K113" s="19" t="n">
         <f aca="true">IF(J113 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E113)</f>
         <v>0</v>
       </c>
@@ -6181,11 +6181,11 @@
         <f aca="true">IF(L113 = 0, INDIRECT("O" &amp; ROW() - 1), L113)</f>
         <v>0</v>
       </c>
-      <c r="R113" s="21" t="str">
+      <c r="R113" s="22" t="str">
         <f aca="true">IF(Q113 = "", "", Q113 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S113" s="21" t="str">
+      <c r="S113" s="22" t="str">
         <f aca="true">IF(J113="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6197,24 +6197,24 @@
         <f aca="false">IF(D114="","",VLOOKUP(D114, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C114" s="22" t="str">
+      <c r="C114" s="17" t="str">
         <f aca="false">IF(D114="","",VLOOKUP(D114, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E114" s="18"/>
-      <c r="F114" s="19" t="str">
+      <c r="E114" s="19"/>
+      <c r="F114" s="20" t="str">
         <f aca="true">IF(J114="","",INDIRECT("K" &amp; ROW() - 1) - G114)</f>
         <v/>
       </c>
-      <c r="G114" s="20" t="str">
+      <c r="G114" s="21" t="str">
         <f aca="true">IF(J114 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H114 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H114) ,"")</f>
         <v/>
       </c>
-      <c r="H114" s="20" t="str">
+      <c r="H114" s="21" t="str">
         <f aca="false">IF(J114 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K114" s="18" t="n">
+      <c r="K114" s="19" t="n">
         <f aca="true">IF(J114 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E114)</f>
         <v>0</v>
       </c>
@@ -6230,11 +6230,11 @@
         <f aca="true">IF(L114 = 0, INDIRECT("O" &amp; ROW() - 1), L114)</f>
         <v>0</v>
       </c>
-      <c r="R114" s="21" t="str">
+      <c r="R114" s="22" t="str">
         <f aca="true">IF(Q114 = "", "", Q114 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S114" s="21" t="str">
+      <c r="S114" s="22" t="str">
         <f aca="true">IF(J114="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6246,24 +6246,24 @@
         <f aca="false">IF(D115="","",VLOOKUP(D115, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C115" s="22" t="str">
+      <c r="C115" s="17" t="str">
         <f aca="false">IF(D115="","",VLOOKUP(D115, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E115" s="18"/>
-      <c r="F115" s="19" t="str">
+      <c r="E115" s="19"/>
+      <c r="F115" s="20" t="str">
         <f aca="true">IF(J115="","",INDIRECT("K" &amp; ROW() - 1) - G115)</f>
         <v/>
       </c>
-      <c r="G115" s="20" t="str">
+      <c r="G115" s="21" t="str">
         <f aca="true">IF(J115 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H115 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H115) ,"")</f>
         <v/>
       </c>
-      <c r="H115" s="20" t="str">
+      <c r="H115" s="21" t="str">
         <f aca="false">IF(J115 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K115" s="18" t="n">
+      <c r="K115" s="19" t="n">
         <f aca="true">IF(J115 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E115)</f>
         <v>0</v>
       </c>
@@ -6279,11 +6279,11 @@
         <f aca="true">IF(L115 = 0, INDIRECT("O" &amp; ROW() - 1), L115)</f>
         <v>0</v>
       </c>
-      <c r="R115" s="21" t="str">
+      <c r="R115" s="22" t="str">
         <f aca="true">IF(Q115 = "", "", Q115 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S115" s="21" t="str">
+      <c r="S115" s="22" t="str">
         <f aca="true">IF(J115="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6295,24 +6295,24 @@
         <f aca="false">IF(D116="","",VLOOKUP(D116, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C116" s="22" t="str">
+      <c r="C116" s="17" t="str">
         <f aca="false">IF(D116="","",VLOOKUP(D116, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E116" s="18"/>
-      <c r="F116" s="19" t="str">
+      <c r="E116" s="19"/>
+      <c r="F116" s="20" t="str">
         <f aca="true">IF(J116="","",INDIRECT("K" &amp; ROW() - 1) - G116)</f>
         <v/>
       </c>
-      <c r="G116" s="20" t="str">
+      <c r="G116" s="21" t="str">
         <f aca="true">IF(J116 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H116 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H116) ,"")</f>
         <v/>
       </c>
-      <c r="H116" s="20" t="str">
+      <c r="H116" s="21" t="str">
         <f aca="false">IF(J116 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K116" s="18" t="n">
+      <c r="K116" s="19" t="n">
         <f aca="true">IF(J116 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E116)</f>
         <v>0</v>
       </c>
@@ -6328,11 +6328,11 @@
         <f aca="true">IF(L116 = 0, INDIRECT("O" &amp; ROW() - 1), L116)</f>
         <v>0</v>
       </c>
-      <c r="R116" s="21" t="str">
+      <c r="R116" s="22" t="str">
         <f aca="true">IF(Q116 = "", "", Q116 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S116" s="21" t="str">
+      <c r="S116" s="22" t="str">
         <f aca="true">IF(J116="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6344,24 +6344,24 @@
         <f aca="false">IF(D117="","",VLOOKUP(D117, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C117" s="22" t="str">
+      <c r="C117" s="17" t="str">
         <f aca="false">IF(D117="","",VLOOKUP(D117, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E117" s="18"/>
-      <c r="F117" s="19" t="str">
+      <c r="E117" s="19"/>
+      <c r="F117" s="20" t="str">
         <f aca="true">IF(J117="","",INDIRECT("K" &amp; ROW() - 1) - G117)</f>
         <v/>
       </c>
-      <c r="G117" s="20" t="str">
+      <c r="G117" s="21" t="str">
         <f aca="true">IF(J117 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H117 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H117) ,"")</f>
         <v/>
       </c>
-      <c r="H117" s="20" t="str">
+      <c r="H117" s="21" t="str">
         <f aca="false">IF(J117 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K117" s="18" t="n">
+      <c r="K117" s="19" t="n">
         <f aca="true">IF(J117 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E117)</f>
         <v>0</v>
       </c>
@@ -6377,11 +6377,11 @@
         <f aca="true">IF(L117 = 0, INDIRECT("O" &amp; ROW() - 1), L117)</f>
         <v>0</v>
       </c>
-      <c r="R117" s="21" t="str">
+      <c r="R117" s="22" t="str">
         <f aca="true">IF(Q117 = "", "", Q117 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S117" s="21" t="str">
+      <c r="S117" s="22" t="str">
         <f aca="true">IF(J117="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6389,28 +6389,28 @@
       <c r="AMJ117" s="0"/>
     </row>
     <row r="118" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="22" t="str">
+      <c r="B118" s="17" t="str">
         <f aca="false">IF(D118="","",VLOOKUP(D118, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C118" s="22" t="str">
+      <c r="C118" s="17" t="str">
         <f aca="false">IF(D118="","",VLOOKUP(D118, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E118" s="18"/>
-      <c r="F118" s="19" t="str">
+      <c r="E118" s="19"/>
+      <c r="F118" s="20" t="str">
         <f aca="true">IF(J118="","",INDIRECT("K" &amp; ROW() - 1) - G118)</f>
         <v/>
       </c>
-      <c r="G118" s="20" t="str">
+      <c r="G118" s="21" t="str">
         <f aca="true">IF(J118 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H118 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H118) ,"")</f>
         <v/>
       </c>
-      <c r="H118" s="20" t="str">
+      <c r="H118" s="21" t="str">
         <f aca="false">IF(J118 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K118" s="18" t="n">
+      <c r="K118" s="19" t="n">
         <f aca="true">IF(J118 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E118)</f>
         <v>0</v>
       </c>
@@ -6426,11 +6426,11 @@
         <f aca="true">IF(L118 = 0, INDIRECT("O" &amp; ROW() - 1), L118)</f>
         <v>0</v>
       </c>
-      <c r="R118" s="21" t="str">
+      <c r="R118" s="22" t="str">
         <f aca="true">IF(Q118 = "", "", Q118 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S118" s="21" t="str">
+      <c r="S118" s="22" t="str">
         <f aca="true">IF(J118="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6438,28 +6438,28 @@
       <c r="AMJ118" s="0"/>
     </row>
     <row r="119" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="22" t="str">
+      <c r="B119" s="17" t="str">
         <f aca="false">IF(D119="","",VLOOKUP(D119, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C119" s="22" t="str">
+      <c r="C119" s="17" t="str">
         <f aca="false">IF(D119="","",VLOOKUP(D119, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E119" s="18"/>
-      <c r="F119" s="19" t="str">
+      <c r="E119" s="19"/>
+      <c r="F119" s="20" t="str">
         <f aca="true">IF(J119="","",INDIRECT("K" &amp; ROW() - 1) - G119)</f>
         <v/>
       </c>
-      <c r="G119" s="20" t="str">
+      <c r="G119" s="21" t="str">
         <f aca="true">IF(J119 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H119 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H119) ,"")</f>
         <v/>
       </c>
-      <c r="H119" s="20" t="str">
+      <c r="H119" s="21" t="str">
         <f aca="false">IF(J119 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K119" s="18" t="n">
+      <c r="K119" s="19" t="n">
         <f aca="true">IF(J119 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E119)</f>
         <v>0</v>
       </c>
@@ -6475,11 +6475,11 @@
         <f aca="true">IF(L119 = 0, INDIRECT("O" &amp; ROW() - 1), L119)</f>
         <v>0</v>
       </c>
-      <c r="R119" s="21" t="str">
+      <c r="R119" s="22" t="str">
         <f aca="true">IF(Q119 = "", "", Q119 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S119" s="21" t="str">
+      <c r="S119" s="22" t="str">
         <f aca="true">IF(J119="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6487,28 +6487,28 @@
       <c r="AMJ119" s="0"/>
     </row>
     <row r="120" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="22" t="str">
+      <c r="B120" s="17" t="str">
         <f aca="false">IF(D120="","",VLOOKUP(D120, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C120" s="22" t="str">
+      <c r="C120" s="17" t="str">
         <f aca="false">IF(D120="","",VLOOKUP(D120, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E120" s="18"/>
-      <c r="F120" s="19" t="str">
+      <c r="E120" s="19"/>
+      <c r="F120" s="20" t="str">
         <f aca="true">IF(J120="","",INDIRECT("K" &amp; ROW() - 1) - G120)</f>
         <v/>
       </c>
-      <c r="G120" s="20" t="str">
+      <c r="G120" s="21" t="str">
         <f aca="true">IF(J120 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H120 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H120) ,"")</f>
         <v/>
       </c>
-      <c r="H120" s="20" t="str">
+      <c r="H120" s="21" t="str">
         <f aca="false">IF(J120 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K120" s="18" t="n">
+      <c r="K120" s="19" t="n">
         <f aca="true">IF(J120 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E120)</f>
         <v>0</v>
       </c>
@@ -6524,11 +6524,11 @@
         <f aca="true">IF(L120 = 0, INDIRECT("O" &amp; ROW() - 1), L120)</f>
         <v>0</v>
       </c>
-      <c r="R120" s="21" t="str">
+      <c r="R120" s="22" t="str">
         <f aca="true">IF(Q120 = "", "", Q120 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S120" s="21" t="str">
+      <c r="S120" s="22" t="str">
         <f aca="true">IF(J120="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6536,28 +6536,28 @@
       <c r="AMJ120" s="0"/>
     </row>
     <row r="121" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="22" t="str">
+      <c r="B121" s="17" t="str">
         <f aca="false">IF(D121="","",VLOOKUP(D121, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C121" s="22" t="str">
+      <c r="C121" s="17" t="str">
         <f aca="false">IF(D121="","",VLOOKUP(D121, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E121" s="18"/>
-      <c r="F121" s="19" t="str">
+      <c r="E121" s="19"/>
+      <c r="F121" s="20" t="str">
         <f aca="true">IF(J121="","",INDIRECT("K" &amp; ROW() - 1) - G121)</f>
         <v/>
       </c>
-      <c r="G121" s="20" t="str">
+      <c r="G121" s="21" t="str">
         <f aca="true">IF(J121 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H121 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H121) ,"")</f>
         <v/>
       </c>
-      <c r="H121" s="20" t="str">
+      <c r="H121" s="21" t="str">
         <f aca="false">IF(J121 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K121" s="18" t="n">
+      <c r="K121" s="19" t="n">
         <f aca="true">IF(J121 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E121)</f>
         <v>0</v>
       </c>
@@ -6573,11 +6573,11 @@
         <f aca="true">IF(L121 = 0, INDIRECT("O" &amp; ROW() - 1), L121)</f>
         <v>0</v>
       </c>
-      <c r="R121" s="21" t="str">
+      <c r="R121" s="22" t="str">
         <f aca="true">IF(Q121 = "", "", Q121 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S121" s="21" t="str">
+      <c r="S121" s="22" t="str">
         <f aca="true">IF(J121="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6585,28 +6585,28 @@
       <c r="AMJ121" s="0"/>
     </row>
     <row r="122" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="22" t="str">
+      <c r="B122" s="17" t="str">
         <f aca="false">IF(D122="","",VLOOKUP(D122, 'SKU Маскарпоне'!$A$1:$F$150, 6, 0))</f>
         <v/>
       </c>
-      <c r="C122" s="22" t="str">
+      <c r="C122" s="17" t="str">
         <f aca="false">IF(D122="","",VLOOKUP(D122, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E122" s="18"/>
-      <c r="F122" s="19" t="str">
+      <c r="E122" s="19"/>
+      <c r="F122" s="20" t="str">
         <f aca="true">IF(J122="","",INDIRECT("K" &amp; ROW() - 1) - G122)</f>
         <v/>
       </c>
-      <c r="G122" s="20" t="str">
+      <c r="G122" s="21" t="str">
         <f aca="true">IF(J122 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H122 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H122) ,"")</f>
         <v/>
       </c>
-      <c r="H122" s="20" t="str">
+      <c r="H122" s="21" t="str">
         <f aca="false">IF(J122 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K122" s="18" t="n">
+      <c r="K122" s="19" t="n">
         <f aca="true">IF(J122 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E122)</f>
         <v>0</v>
       </c>
@@ -6622,11 +6622,11 @@
         <f aca="true">IF(L122 = 0, INDIRECT("O" &amp; ROW() - 1), L122)</f>
         <v>0</v>
       </c>
-      <c r="R122" s="21" t="str">
+      <c r="R122" s="22" t="str">
         <f aca="true">IF(Q122 = "", "", Q122 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S122" s="21" t="str">
+      <c r="S122" s="22" t="str">
         <f aca="true">IF(J122="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6634,28 +6634,28 @@
       <c r="AMJ122" s="0"/>
     </row>
     <row r="123" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="22" t="str">
+      <c r="B123" s="17" t="str">
         <f aca="false">IF(D123="","",VLOOKUP(D123, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="C123" s="22" t="str">
+      <c r="C123" s="17" t="str">
         <f aca="false">IF(D123="","",VLOOKUP(D123, 'SKU Маскарпоне'!$A$1:$B$150, 2, 0))</f>
         <v/>
       </c>
-      <c r="E123" s="18"/>
-      <c r="F123" s="19" t="str">
+      <c r="E123" s="19"/>
+      <c r="F123" s="20" t="str">
         <f aca="true">IF(J123="","",INDIRECT("K" &amp; ROW() - 1) - G123)</f>
         <v/>
       </c>
-      <c r="G123" s="20" t="str">
+      <c r="G123" s="21" t="str">
         <f aca="true">IF(J123 = "-", IF(VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) = 1, H123 + VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$D$150, 4, 0), VLOOKUP(INDIRECT("D" &amp; ROW() - 1), 'SKU Маскарпоне'!$A$1:$C$150, 3, 0) * H123) ,"")</f>
         <v/>
       </c>
-      <c r="H123" s="20" t="str">
+      <c r="H123" s="21" t="str">
         <f aca="false">IF(J123 = "-", 0, "")</f>
         <v/>
       </c>
-      <c r="K123" s="18" t="n">
+      <c r="K123" s="19" t="n">
         <f aca="true">IF(J123 = "-", 0, INDIRECT("K" &amp; ROW() - 1) + E123)</f>
         <v>0</v>
       </c>
@@ -6671,11 +6671,11 @@
         <f aca="true">IF(L123 = 0, INDIRECT("O" &amp; ROW() - 1), L123)</f>
         <v>0</v>
       </c>
-      <c r="R123" s="21" t="str">
+      <c r="R123" s="22" t="str">
         <f aca="true">IF(Q123 = "", "", Q123 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S123" s="21" t="str">
+      <c r="S123" s="22" t="str">
         <f aca="true">IF(J123="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6683,26 +6683,26 @@
       <c r="AMJ123" s="0"/>
     </row>
     <row r="124" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="19" t="str">
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="20" t="str">
         <f aca="true">IF(J124="","",(INDIRECT("N" &amp; ROW() - 1) - N124))</f>
         <v/>
       </c>
-      <c r="G124" s="20" t="str">
+      <c r="G124" s="21" t="str">
         <f aca="true">IF(J124 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H124" s="20" t="str">
+      <c r="H124" s="21" t="str">
         <f aca="true">IF(J124 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R124" s="21" t="str">
+      <c r="R124" s="22" t="str">
         <f aca="true">IF(Q124 = "", "", Q124 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S124" s="21" t="str">
+      <c r="S124" s="22" t="str">
         <f aca="true">IF(J124="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6710,26 +6710,26 @@
       <c r="AMJ124" s="0"/>
     </row>
     <row r="125" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="19" t="str">
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="20" t="str">
         <f aca="true">IF(J125="","",(INDIRECT("N" &amp; ROW() - 1) - N125))</f>
         <v/>
       </c>
-      <c r="G125" s="20" t="str">
+      <c r="G125" s="21" t="str">
         <f aca="true">IF(J125 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H125" s="20" t="str">
+      <c r="H125" s="21" t="str">
         <f aca="true">IF(J125 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R125" s="21" t="str">
+      <c r="R125" s="22" t="str">
         <f aca="true">IF(Q125 = "", "", Q125 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S125" s="21" t="str">
+      <c r="S125" s="22" t="str">
         <f aca="true">IF(J125="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6737,26 +6737,26 @@
       <c r="AMJ125" s="0"/>
     </row>
     <row r="126" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="19" t="str">
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="20" t="str">
         <f aca="true">IF(J126="","",(INDIRECT("N" &amp; ROW() - 1) - N126))</f>
         <v/>
       </c>
-      <c r="G126" s="20" t="str">
+      <c r="G126" s="21" t="str">
         <f aca="true">IF(J126 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H126" s="20" t="str">
+      <c r="H126" s="21" t="str">
         <f aca="true">IF(J126 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R126" s="21" t="str">
+      <c r="R126" s="22" t="str">
         <f aca="true">IF(Q126 = "", "", Q126 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S126" s="21" t="str">
+      <c r="S126" s="22" t="str">
         <f aca="true">IF(J126="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6764,26 +6764,26 @@
       <c r="AMJ126" s="0"/>
     </row>
     <row r="127" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="19" t="str">
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="20" t="str">
         <f aca="true">IF(J127="","",(INDIRECT("N" &amp; ROW() - 1) - N127))</f>
         <v/>
       </c>
-      <c r="G127" s="20" t="str">
+      <c r="G127" s="21" t="str">
         <f aca="true">IF(J127 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H127" s="20" t="str">
+      <c r="H127" s="21" t="str">
         <f aca="true">IF(J127 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R127" s="21" t="str">
+      <c r="R127" s="22" t="str">
         <f aca="true">IF(Q127 = "", "", Q127 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S127" s="21" t="str">
+      <c r="S127" s="22" t="str">
         <f aca="true">IF(J127="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6791,26 +6791,26 @@
       <c r="AMJ127" s="0"/>
     </row>
     <row r="128" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="19" t="str">
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="20" t="str">
         <f aca="true">IF(J128="","",(INDIRECT("N" &amp; ROW() - 1) - N128))</f>
         <v/>
       </c>
-      <c r="G128" s="20" t="str">
+      <c r="G128" s="21" t="str">
         <f aca="true">IF(J128 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H128" s="20" t="str">
+      <c r="H128" s="21" t="str">
         <f aca="true">IF(J128 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R128" s="21" t="str">
+      <c r="R128" s="22" t="str">
         <f aca="true">IF(Q128 = "", "", Q128 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S128" s="21" t="str">
+      <c r="S128" s="22" t="str">
         <f aca="true">IF(J128="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6818,26 +6818,26 @@
       <c r="AMJ128" s="0"/>
     </row>
     <row r="129" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="19" t="str">
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="20" t="str">
         <f aca="true">IF(J129="","",(INDIRECT("N" &amp; ROW() - 1) - N129))</f>
         <v/>
       </c>
-      <c r="G129" s="20" t="str">
+      <c r="G129" s="21" t="str">
         <f aca="true">IF(J129 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H129" s="20" t="str">
+      <c r="H129" s="21" t="str">
         <f aca="true">IF(J129 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R129" s="21" t="str">
+      <c r="R129" s="22" t="str">
         <f aca="true">IF(Q129 = "", "", Q129 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S129" s="21" t="str">
+      <c r="S129" s="22" t="str">
         <f aca="true">IF(J129="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6845,26 +6845,26 @@
       <c r="AMJ129" s="0"/>
     </row>
     <row r="130" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="19" t="str">
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="20" t="str">
         <f aca="true">IF(J130="","",(INDIRECT("N" &amp; ROW() - 1) - N130))</f>
         <v/>
       </c>
-      <c r="G130" s="20" t="str">
+      <c r="G130" s="21" t="str">
         <f aca="true">IF(J130 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H130" s="20" t="str">
+      <c r="H130" s="21" t="str">
         <f aca="true">IF(J130 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R130" s="21" t="str">
+      <c r="R130" s="22" t="str">
         <f aca="true">IF(Q130 = "", "", Q130 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S130" s="21" t="str">
+      <c r="S130" s="22" t="str">
         <f aca="true">IF(J130="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6872,26 +6872,26 @@
       <c r="AMJ130" s="0"/>
     </row>
     <row r="131" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="19" t="str">
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="20" t="str">
         <f aca="true">IF(J131="","",(INDIRECT("N" &amp; ROW() - 1) - N131))</f>
         <v/>
       </c>
-      <c r="G131" s="20" t="str">
+      <c r="G131" s="21" t="str">
         <f aca="true">IF(J131 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H131" s="20" t="str">
+      <c r="H131" s="21" t="str">
         <f aca="true">IF(J131 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R131" s="21" t="str">
+      <c r="R131" s="22" t="str">
         <f aca="true">IF(Q131 = "", "", Q131 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S131" s="21" t="str">
+      <c r="S131" s="22" t="str">
         <f aca="true">IF(J131="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6899,26 +6899,26 @@
       <c r="AMJ131" s="0"/>
     </row>
     <row r="132" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="22"/>
-      <c r="C132" s="22"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="19" t="str">
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="20" t="str">
         <f aca="true">IF(J132="","",(INDIRECT("N" &amp; ROW() - 1) - N132))</f>
         <v/>
       </c>
-      <c r="G132" s="20" t="str">
+      <c r="G132" s="21" t="str">
         <f aca="true">IF(J132 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H132" s="20" t="str">
+      <c r="H132" s="21" t="str">
         <f aca="true">IF(J132 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R132" s="21" t="str">
+      <c r="R132" s="22" t="str">
         <f aca="true">IF(Q132 = "", "", Q132 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S132" s="21" t="str">
+      <c r="S132" s="22" t="str">
         <f aca="true">IF(J132="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6926,26 +6926,26 @@
       <c r="AMJ132" s="0"/>
     </row>
     <row r="133" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="22"/>
-      <c r="C133" s="22"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="19" t="str">
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="20" t="str">
         <f aca="true">IF(J133="","",(INDIRECT("N" &amp; ROW() - 1) - N133))</f>
         <v/>
       </c>
-      <c r="G133" s="20" t="str">
+      <c r="G133" s="21" t="str">
         <f aca="true">IF(J133 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H133" s="20" t="str">
+      <c r="H133" s="21" t="str">
         <f aca="true">IF(J133 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R133" s="21" t="str">
+      <c r="R133" s="22" t="str">
         <f aca="true">IF(Q133 = "", "", Q133 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S133" s="21" t="str">
+      <c r="S133" s="22" t="str">
         <f aca="true">IF(J133="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6953,26 +6953,26 @@
       <c r="AMJ133" s="0"/>
     </row>
     <row r="134" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="19" t="str">
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="20" t="str">
         <f aca="true">IF(J134="","",(INDIRECT("N" &amp; ROW() - 1) - N134))</f>
         <v/>
       </c>
-      <c r="G134" s="20" t="str">
+      <c r="G134" s="21" t="str">
         <f aca="true">IF(J134 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H134" s="20" t="str">
+      <c r="H134" s="21" t="str">
         <f aca="true">IF(J134 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R134" s="21" t="str">
+      <c r="R134" s="22" t="str">
         <f aca="true">IF(Q134 = "", "", Q134 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S134" s="21" t="str">
+      <c r="S134" s="22" t="str">
         <f aca="true">IF(J134="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -6980,26 +6980,26 @@
       <c r="AMJ134" s="0"/>
     </row>
     <row r="135" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="19" t="str">
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="20" t="str">
         <f aca="true">IF(J135="","",(INDIRECT("N" &amp; ROW() - 1) - N135))</f>
         <v/>
       </c>
-      <c r="G135" s="20" t="str">
+      <c r="G135" s="21" t="str">
         <f aca="true">IF(J135 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H135" s="20" t="str">
+      <c r="H135" s="21" t="str">
         <f aca="true">IF(J135 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R135" s="21" t="str">
+      <c r="R135" s="22" t="str">
         <f aca="true">IF(Q135 = "", "", Q135 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S135" s="21" t="str">
+      <c r="S135" s="22" t="str">
         <f aca="true">IF(J135="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7007,26 +7007,26 @@
       <c r="AMJ135" s="0"/>
     </row>
     <row r="136" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="22"/>
-      <c r="C136" s="22"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="19" t="str">
+      <c r="B136" s="17"/>
+      <c r="C136" s="17"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="20" t="str">
         <f aca="true">IF(J136="","",(INDIRECT("N" &amp; ROW() - 1) - N136))</f>
         <v/>
       </c>
-      <c r="G136" s="20" t="str">
+      <c r="G136" s="21" t="str">
         <f aca="true">IF(J136 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H136" s="20" t="str">
+      <c r="H136" s="21" t="str">
         <f aca="true">IF(J136 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R136" s="21" t="str">
+      <c r="R136" s="22" t="str">
         <f aca="true">IF(Q136 = "", "", Q136 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S136" s="21" t="str">
+      <c r="S136" s="22" t="str">
         <f aca="true">IF(J136="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7034,26 +7034,26 @@
       <c r="AMJ136" s="0"/>
     </row>
     <row r="137" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="22"/>
-      <c r="C137" s="22"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="19" t="str">
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="20" t="str">
         <f aca="true">IF(J137="","",(INDIRECT("N" &amp; ROW() - 1) - N137))</f>
         <v/>
       </c>
-      <c r="G137" s="20" t="str">
+      <c r="G137" s="21" t="str">
         <f aca="true">IF(J137 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H137" s="20" t="str">
+      <c r="H137" s="21" t="str">
         <f aca="true">IF(J137 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R137" s="21" t="str">
+      <c r="R137" s="22" t="str">
         <f aca="true">IF(Q137 = "", "", Q137 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S137" s="21" t="str">
+      <c r="S137" s="22" t="str">
         <f aca="true">IF(J137="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7061,26 +7061,26 @@
       <c r="AMJ137" s="0"/>
     </row>
     <row r="138" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="22"/>
-      <c r="C138" s="22"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="19" t="str">
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="20" t="str">
         <f aca="true">IF(J138="","",(INDIRECT("N" &amp; ROW() - 1) - N138))</f>
         <v/>
       </c>
-      <c r="G138" s="20" t="str">
+      <c r="G138" s="21" t="str">
         <f aca="true">IF(J138 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H138" s="20" t="str">
+      <c r="H138" s="21" t="str">
         <f aca="true">IF(J138 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R138" s="21" t="str">
+      <c r="R138" s="22" t="str">
         <f aca="true">IF(Q138 = "", "", Q138 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S138" s="21" t="str">
+      <c r="S138" s="22" t="str">
         <f aca="true">IF(J138="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7088,26 +7088,26 @@
       <c r="AMJ138" s="0"/>
     </row>
     <row r="139" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="19" t="str">
+      <c r="B139" s="17"/>
+      <c r="C139" s="17"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="20" t="str">
         <f aca="true">IF(J139="","",(INDIRECT("N" &amp; ROW() - 1) - N139))</f>
         <v/>
       </c>
-      <c r="G139" s="20" t="str">
+      <c r="G139" s="21" t="str">
         <f aca="true">IF(J139 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H139" s="20" t="str">
+      <c r="H139" s="21" t="str">
         <f aca="true">IF(J139 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R139" s="21" t="str">
+      <c r="R139" s="22" t="str">
         <f aca="true">IF(Q139 = "", "", Q139 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S139" s="21" t="str">
+      <c r="S139" s="22" t="str">
         <f aca="true">IF(J139="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7115,26 +7115,26 @@
       <c r="AMJ139" s="0"/>
     </row>
     <row r="140" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="19" t="str">
+      <c r="B140" s="17"/>
+      <c r="C140" s="17"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="20" t="str">
         <f aca="true">IF(J140="","",(INDIRECT("N" &amp; ROW() - 1) - N140))</f>
         <v/>
       </c>
-      <c r="G140" s="20" t="str">
+      <c r="G140" s="21" t="str">
         <f aca="true">IF(J140 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H140" s="20" t="str">
+      <c r="H140" s="21" t="str">
         <f aca="true">IF(J140 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R140" s="21" t="str">
+      <c r="R140" s="22" t="str">
         <f aca="true">IF(Q140 = "", "", Q140 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S140" s="21" t="str">
+      <c r="S140" s="22" t="str">
         <f aca="true">IF(J140="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7142,26 +7142,26 @@
       <c r="AMJ140" s="0"/>
     </row>
     <row r="141" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="19" t="str">
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="20" t="str">
         <f aca="true">IF(J141="","",(INDIRECT("N" &amp; ROW() - 1) - N141))</f>
         <v/>
       </c>
-      <c r="G141" s="20" t="str">
+      <c r="G141" s="21" t="str">
         <f aca="true">IF(J141 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H141" s="20" t="str">
+      <c r="H141" s="21" t="str">
         <f aca="true">IF(J141 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R141" s="21" t="str">
+      <c r="R141" s="22" t="str">
         <f aca="true">IF(Q141 = "", "", Q141 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S141" s="21" t="str">
+      <c r="S141" s="22" t="str">
         <f aca="true">IF(J141="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7169,26 +7169,26 @@
       <c r="AMJ141" s="0"/>
     </row>
     <row r="142" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="22"/>
-      <c r="C142" s="22"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="19" t="str">
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="20" t="str">
         <f aca="true">IF(J142="","",(INDIRECT("N" &amp; ROW() - 1) - N142))</f>
         <v/>
       </c>
-      <c r="G142" s="20" t="str">
+      <c r="G142" s="21" t="str">
         <f aca="true">IF(J142 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H142" s="20" t="str">
+      <c r="H142" s="21" t="str">
         <f aca="true">IF(J142 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R142" s="21" t="str">
+      <c r="R142" s="22" t="str">
         <f aca="true">IF(Q142 = "", "", Q142 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S142" s="21" t="str">
+      <c r="S142" s="22" t="str">
         <f aca="true">IF(J142="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7196,26 +7196,26 @@
       <c r="AMJ142" s="0"/>
     </row>
     <row r="143" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="22"/>
-      <c r="C143" s="22"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="19" t="str">
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="20" t="str">
         <f aca="true">IF(J143="","",(INDIRECT("N" &amp; ROW() - 1) - N143))</f>
         <v/>
       </c>
-      <c r="G143" s="20" t="str">
+      <c r="G143" s="21" t="str">
         <f aca="true">IF(J143 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H143" s="20" t="str">
+      <c r="H143" s="21" t="str">
         <f aca="true">IF(J143 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R143" s="21" t="str">
+      <c r="R143" s="22" t="str">
         <f aca="true">IF(Q143 = "", "", Q143 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S143" s="21" t="str">
+      <c r="S143" s="22" t="str">
         <f aca="true">IF(J143="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7223,26 +7223,26 @@
       <c r="AMJ143" s="0"/>
     </row>
     <row r="144" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="22"/>
-      <c r="C144" s="22"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="19" t="str">
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="20" t="str">
         <f aca="true">IF(J144="","",(INDIRECT("N" &amp; ROW() - 1) - N144))</f>
         <v/>
       </c>
-      <c r="G144" s="20" t="str">
+      <c r="G144" s="21" t="str">
         <f aca="true">IF(J144 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H144" s="20" t="str">
+      <c r="H144" s="21" t="str">
         <f aca="true">IF(J144 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R144" s="21" t="str">
+      <c r="R144" s="22" t="str">
         <f aca="true">IF(Q144 = "", "", Q144 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S144" s="21" t="str">
+      <c r="S144" s="22" t="str">
         <f aca="true">IF(J144="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7250,26 +7250,26 @@
       <c r="AMJ144" s="0"/>
     </row>
     <row r="145" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="19" t="str">
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="20" t="str">
         <f aca="true">IF(J145="","",(INDIRECT("N" &amp; ROW() - 1) - N145))</f>
         <v/>
       </c>
-      <c r="G145" s="20" t="str">
+      <c r="G145" s="21" t="str">
         <f aca="true">IF(J145 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H145" s="20" t="str">
+      <c r="H145" s="21" t="str">
         <f aca="true">IF(J145 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R145" s="21" t="str">
+      <c r="R145" s="22" t="str">
         <f aca="true">IF(Q145 = "", "", Q145 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S145" s="21" t="str">
+      <c r="S145" s="22" t="str">
         <f aca="true">IF(J145="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7277,26 +7277,26 @@
       <c r="AMJ145" s="0"/>
     </row>
     <row r="146" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="22"/>
-      <c r="C146" s="22"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="19" t="str">
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="20" t="str">
         <f aca="true">IF(J146="","",(INDIRECT("N" &amp; ROW() - 1) - N146))</f>
         <v/>
       </c>
-      <c r="G146" s="20" t="str">
+      <c r="G146" s="21" t="str">
         <f aca="true">IF(J146 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H146" s="20" t="str">
+      <c r="H146" s="21" t="str">
         <f aca="true">IF(J146 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R146" s="21" t="str">
+      <c r="R146" s="22" t="str">
         <f aca="true">IF(Q146 = "", "", Q146 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S146" s="21" t="str">
+      <c r="S146" s="22" t="str">
         <f aca="true">IF(J146="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7304,26 +7304,26 @@
       <c r="AMJ146" s="0"/>
     </row>
     <row r="147" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="22"/>
-      <c r="C147" s="22"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="19" t="str">
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="20" t="str">
         <f aca="true">IF(J147="","",(INDIRECT("N" &amp; ROW() - 1) - N147))</f>
         <v/>
       </c>
-      <c r="G147" s="20" t="str">
+      <c r="G147" s="21" t="str">
         <f aca="true">IF(J147 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H147" s="20" t="str">
+      <c r="H147" s="21" t="str">
         <f aca="true">IF(J147 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R147" s="21" t="str">
+      <c r="R147" s="22" t="str">
         <f aca="true">IF(Q147 = "", "", Q147 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S147" s="21" t="str">
+      <c r="S147" s="22" t="str">
         <f aca="true">IF(J147="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7331,26 +7331,26 @@
       <c r="AMJ147" s="0"/>
     </row>
     <row r="148" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="22"/>
-      <c r="C148" s="22"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="19" t="str">
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="20" t="str">
         <f aca="true">IF(J148="","",(INDIRECT("N" &amp; ROW() - 1) - N148))</f>
         <v/>
       </c>
-      <c r="G148" s="20" t="str">
+      <c r="G148" s="21" t="str">
         <f aca="true">IF(J148 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H148" s="20" t="str">
+      <c r="H148" s="21" t="str">
         <f aca="true">IF(J148 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R148" s="21" t="str">
+      <c r="R148" s="22" t="str">
         <f aca="true">IF(Q148 = "", "", Q148 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S148" s="21" t="str">
+      <c r="S148" s="22" t="str">
         <f aca="true">IF(J148="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7358,26 +7358,26 @@
       <c r="AMJ148" s="0"/>
     </row>
     <row r="149" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="22"/>
-      <c r="C149" s="22"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="19" t="str">
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="20" t="str">
         <f aca="true">IF(J149="","",(INDIRECT("N" &amp; ROW() - 1) - N149))</f>
         <v/>
       </c>
-      <c r="G149" s="20" t="str">
+      <c r="G149" s="21" t="str">
         <f aca="true">IF(J149 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H149" s="20" t="str">
+      <c r="H149" s="21" t="str">
         <f aca="true">IF(J149 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R149" s="21" t="str">
+      <c r="R149" s="22" t="str">
         <f aca="true">IF(Q149 = "", "", Q149 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S149" s="21" t="str">
+      <c r="S149" s="22" t="str">
         <f aca="true">IF(J149="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7385,26 +7385,26 @@
       <c r="AMJ149" s="0"/>
     </row>
     <row r="150" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="22"/>
-      <c r="C150" s="22"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="19" t="str">
+      <c r="B150" s="17"/>
+      <c r="C150" s="17"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="20" t="str">
         <f aca="true">IF(J150="","",(INDIRECT("N" &amp; ROW() - 1) - N150))</f>
         <v/>
       </c>
-      <c r="G150" s="20" t="str">
+      <c r="G150" s="21" t="str">
         <f aca="true">IF(J150 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H150" s="20" t="str">
+      <c r="H150" s="21" t="str">
         <f aca="true">IF(J150 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R150" s="21" t="str">
+      <c r="R150" s="22" t="str">
         <f aca="true">IF(Q150 = "", "", Q150 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S150" s="21" t="str">
+      <c r="S150" s="22" t="str">
         <f aca="true">IF(J150="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7412,26 +7412,26 @@
       <c r="AMJ150" s="0"/>
     </row>
     <row r="151" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="22"/>
-      <c r="C151" s="22"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="19" t="str">
+      <c r="B151" s="17"/>
+      <c r="C151" s="17"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="20" t="str">
         <f aca="true">IF(J151="","",(INDIRECT("N" &amp; ROW() - 1) - N151))</f>
         <v/>
       </c>
-      <c r="G151" s="20" t="str">
+      <c r="G151" s="21" t="str">
         <f aca="true">IF(J151 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H151" s="20" t="str">
+      <c r="H151" s="21" t="str">
         <f aca="true">IF(J151 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R151" s="21" t="str">
+      <c r="R151" s="22" t="str">
         <f aca="true">IF(Q151 = "", "", Q151 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S151" s="21" t="str">
+      <c r="S151" s="22" t="str">
         <f aca="true">IF(J151="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7439,26 +7439,26 @@
       <c r="AMJ151" s="0"/>
     </row>
     <row r="152" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="22"/>
-      <c r="C152" s="22"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="19" t="str">
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="20" t="str">
         <f aca="true">IF(J152="","",(INDIRECT("N" &amp; ROW() - 1) - N152))</f>
         <v/>
       </c>
-      <c r="G152" s="20" t="str">
+      <c r="G152" s="21" t="str">
         <f aca="true">IF(J152 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H152" s="20" t="str">
+      <c r="H152" s="21" t="str">
         <f aca="true">IF(J152 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R152" s="21" t="str">
+      <c r="R152" s="22" t="str">
         <f aca="true">IF(Q152 = "", "", Q152 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S152" s="21" t="str">
+      <c r="S152" s="22" t="str">
         <f aca="true">IF(J152="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7466,26 +7466,26 @@
       <c r="AMJ152" s="0"/>
     </row>
     <row r="153" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="22"/>
-      <c r="C153" s="22"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="19" t="str">
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="20" t="str">
         <f aca="true">IF(J153="","",(INDIRECT("N" &amp; ROW() - 1) - N153))</f>
         <v/>
       </c>
-      <c r="G153" s="20" t="str">
+      <c r="G153" s="21" t="str">
         <f aca="true">IF(J153 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H153" s="20" t="str">
+      <c r="H153" s="21" t="str">
         <f aca="true">IF(J153 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R153" s="21" t="str">
+      <c r="R153" s="22" t="str">
         <f aca="true">IF(Q153 = "", "", Q153 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S153" s="21" t="str">
+      <c r="S153" s="22" t="str">
         <f aca="true">IF(J153="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7493,26 +7493,26 @@
       <c r="AMJ153" s="0"/>
     </row>
     <row r="154" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="22"/>
-      <c r="C154" s="22"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="19" t="str">
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="20" t="str">
         <f aca="true">IF(J154="","",(INDIRECT("N" &amp; ROW() - 1) - N154))</f>
         <v/>
       </c>
-      <c r="G154" s="20" t="str">
+      <c r="G154" s="21" t="str">
         <f aca="true">IF(J154 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H154" s="20" t="str">
+      <c r="H154" s="21" t="str">
         <f aca="true">IF(J154 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R154" s="21" t="str">
+      <c r="R154" s="22" t="str">
         <f aca="true">IF(Q154 = "", "", Q154 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S154" s="21" t="str">
+      <c r="S154" s="22" t="str">
         <f aca="true">IF(J154="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7520,26 +7520,26 @@
       <c r="AMJ154" s="0"/>
     </row>
     <row r="155" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="22"/>
-      <c r="C155" s="22"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="19" t="str">
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="20" t="str">
         <f aca="true">IF(J155="","",(INDIRECT("N" &amp; ROW() - 1) - N155))</f>
         <v/>
       </c>
-      <c r="G155" s="20" t="str">
+      <c r="G155" s="21" t="str">
         <f aca="true">IF(J155 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H155" s="20" t="str">
+      <c r="H155" s="21" t="str">
         <f aca="true">IF(J155 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R155" s="21" t="str">
+      <c r="R155" s="22" t="str">
         <f aca="true">IF(Q155 = "", "", Q155 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S155" s="21" t="str">
+      <c r="S155" s="22" t="str">
         <f aca="true">IF(J155="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
@@ -7547,8 +7547,8 @@
       <c r="AMJ155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="22"/>
-      <c r="C156" s="22"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
       <c r="E156" s="23"/>
       <c r="F156" s="24" t="str">
         <f aca="true">IF(J156="","",(INDIRECT("N" &amp; ROW() - 1) - N156))</f>
@@ -7572,8 +7572,8 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="22"/>
-      <c r="C157" s="22"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="17"/>
       <c r="E157" s="23"/>
       <c r="F157" s="24" t="str">
         <f aca="true">IF(J157="","",(INDIRECT("N" &amp; ROW() - 1) - N157))</f>
@@ -7597,8 +7597,8 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="22"/>
-      <c r="C158" s="22"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="17"/>
       <c r="E158" s="23"/>
       <c r="F158" s="24" t="str">
         <f aca="true">IF(J158="","",(INDIRECT("N" &amp; ROW() - 1) - N158))</f>
@@ -7622,8 +7622,8 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="22"/>
-      <c r="C159" s="22"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
       <c r="E159" s="23"/>
       <c r="F159" s="24" t="str">
         <f aca="true">IF(J159="","",(INDIRECT("N" &amp; ROW() - 1) - N159))</f>
@@ -7647,8 +7647,8 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="22"/>
-      <c r="C160" s="22"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="17"/>
       <c r="E160" s="23"/>
       <c r="F160" s="24" t="str">
         <f aca="true">IF(J160="","",(INDIRECT("N" &amp; ROW() - 1) - N160))</f>
@@ -7672,8 +7672,8 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="22"/>
-      <c r="C161" s="22"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="17"/>
       <c r="E161" s="23"/>
       <c r="F161" s="24" t="str">
         <f aca="true">IF(J161="","",(INDIRECT("N" &amp; ROW() - 1) - N161))</f>
@@ -7697,8 +7697,8 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="22"/>
-      <c r="C162" s="22"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
       <c r="E162" s="23"/>
       <c r="F162" s="24" t="str">
         <f aca="true">IF(J162="","",(INDIRECT("N" &amp; ROW() - 1) - N162))</f>
@@ -7722,8 +7722,8 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="22"/>
-      <c r="C163" s="22"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="17"/>
       <c r="E163" s="23"/>
       <c r="F163" s="24" t="str">
         <f aca="true">IF(J163="","",(INDIRECT("N" &amp; ROW() - 1) - N163))</f>
@@ -7747,8 +7747,8 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="22"/>
-      <c r="C164" s="22"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="17"/>
       <c r="E164" s="23"/>
       <c r="F164" s="24" t="str">
         <f aca="true">IF(J164="","",(INDIRECT("N" &amp; ROW() - 1) - N164))</f>
@@ -7772,8 +7772,8 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
       <c r="E165" s="23"/>
       <c r="F165" s="24" t="str">
         <f aca="true">IF(J165="","",(INDIRECT("N" &amp; ROW() - 1) - N165))</f>
@@ -7797,8 +7797,8 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="22"/>
-      <c r="C166" s="22"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="17"/>
       <c r="E166" s="23"/>
       <c r="F166" s="24" t="str">
         <f aca="true">IF(J166="","",(INDIRECT("N" &amp; ROW() - 1) - N166))</f>
@@ -7818,8 +7818,8 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="22"/>
-      <c r="C167" s="22"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="17"/>
       <c r="E167" s="23"/>
       <c r="F167" s="24" t="str">
         <f aca="true">IF(J167="","",(INDIRECT("N" &amp; ROW() - 1) - N167))</f>
@@ -7839,8 +7839,8 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="22"/>
-      <c r="C168" s="22"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="17"/>
       <c r="E168" s="23"/>
       <c r="F168" s="24" t="str">
         <f aca="true">IF(J168="","",(INDIRECT("N" &amp; ROW() - 1) - N168))</f>
@@ -7860,8 +7860,8 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="22"/>
-      <c r="C169" s="22"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="17"/>
       <c r="E169" s="23"/>
       <c r="F169" s="24" t="str">
         <f aca="true">IF(J169="","",(INDIRECT("N" &amp; ROW() - 1) - N169))</f>
@@ -7881,8 +7881,8 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="22"/>
-      <c r="C170" s="22"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="17"/>
       <c r="E170" s="23"/>
       <c r="F170" s="24" t="str">
         <f aca="true">IF(J170="","",(INDIRECT("N" &amp; ROW() - 1) - N170))</f>
@@ -7902,8 +7902,8 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="22"/>
-      <c r="C171" s="22"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="17"/>
       <c r="E171" s="23"/>
       <c r="F171" s="24" t="str">
         <f aca="true">IF(J171="","",(INDIRECT("N" &amp; ROW() - 1) - N171))</f>
@@ -7923,8 +7923,8 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="22"/>
-      <c r="C172" s="22"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="17"/>
       <c r="E172" s="23"/>
       <c r="F172" s="24" t="str">
         <f aca="true">IF(J172="","",(INDIRECT("N" &amp; ROW() - 1) - N172))</f>
@@ -7944,8 +7944,8 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="22"/>
-      <c r="C173" s="22"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="17"/>
       <c r="E173" s="23"/>
       <c r="F173" s="24" t="str">
         <f aca="true">IF(J173="","",(INDIRECT("N" &amp; ROW() - 1) - N173))</f>
@@ -7965,8 +7965,8 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="22"/>
-      <c r="C174" s="22"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="17"/>
       <c r="E174" s="23"/>
       <c r="F174" s="24" t="str">
         <f aca="true">IF(J174="","",(INDIRECT("N" &amp; ROW() - 1) - N174))</f>
@@ -7986,8 +7986,8 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="22"/>
-      <c r="C175" s="22"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
       <c r="E175" s="23"/>
       <c r="F175" s="24" t="str">
         <f aca="true">IF(J175="","",(INDIRECT("N" &amp; ROW() - 1) - N175))</f>
@@ -8007,8 +8007,8 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="22"/>
-      <c r="C176" s="22"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="17"/>
       <c r="E176" s="23"/>
       <c r="F176" s="24" t="str">
         <f aca="true">IF(J176="","",(INDIRECT("N" &amp; ROW() - 1) - N176))</f>
@@ -8028,8 +8028,8 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="22"/>
-      <c r="C177" s="22"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="17"/>
       <c r="E177" s="23"/>
       <c r="F177" s="24" t="str">
         <f aca="true">IF(J177="","",(INDIRECT("N" &amp; ROW() - 1) - N177))</f>
@@ -8049,8 +8049,8 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="22"/>
-      <c r="C178" s="22"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
       <c r="E178" s="23"/>
       <c r="F178" s="24" t="str">
         <f aca="true">IF(J178="","",(INDIRECT("N" &amp; ROW() - 1) - N178))</f>
@@ -8070,8 +8070,8 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="22"/>
-      <c r="C179" s="22"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="17"/>
       <c r="E179" s="23"/>
       <c r="F179" s="24" t="str">
         <f aca="true">IF(J179="","",(INDIRECT("N" &amp; ROW() - 1) - N179))</f>
@@ -8091,8 +8091,8 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="22"/>
-      <c r="C180" s="22"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="17"/>
       <c r="E180" s="23"/>
       <c r="F180" s="24" t="str">
         <f aca="true">IF(J180="","",(INDIRECT("N" &amp; ROW() - 1) - N180))</f>
@@ -8112,8 +8112,8 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="22"/>
-      <c r="C181" s="22"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="17"/>
       <c r="E181" s="23"/>
       <c r="F181" s="24" t="str">
         <f aca="true">IF(J181="","",(INDIRECT("N" &amp; ROW() - 1) - N181))</f>
@@ -8133,8 +8133,8 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="22"/>
-      <c r="C182" s="22"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="17"/>
       <c r="E182" s="23"/>
       <c r="F182" s="24" t="str">
         <f aca="true">IF(J182="","",(INDIRECT("N" &amp; ROW() - 1) - N182))</f>
@@ -8154,8 +8154,8 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="22"/>
-      <c r="C183" s="22"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
       <c r="E183" s="23"/>
       <c r="F183" s="24" t="str">
         <f aca="true">IF(J183="","",(INDIRECT("N" &amp; ROW() - 1) - N183))</f>
@@ -8175,8 +8175,8 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="22"/>
-      <c r="C184" s="22"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="17"/>
       <c r="E184" s="23"/>
       <c r="F184" s="24" t="str">
         <f aca="true">IF(J184="","",(INDIRECT("N" &amp; ROW() - 1) - N184))</f>
@@ -8196,8 +8196,8 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="22"/>
-      <c r="C185" s="22"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="17"/>
       <c r="E185" s="23"/>
       <c r="F185" s="24" t="str">
         <f aca="true">IF(J185="","",(INDIRECT("N" &amp; ROW() - 1) - N185))</f>
@@ -8214,8 +8214,8 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="17"/>
       <c r="E186" s="23"/>
       <c r="F186" s="24" t="str">
         <f aca="true">IF(J186="","",(INDIRECT("N" &amp; ROW() - 1) - N186))</f>
@@ -8232,8 +8232,8 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="22"/>
-      <c r="C187" s="22"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="17"/>
       <c r="E187" s="23"/>
       <c r="F187" s="24" t="str">
         <f aca="true">IF(J187="","",(INDIRECT("N" &amp; ROW() - 1) - N187))</f>
@@ -8250,8 +8250,8 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="22"/>
-      <c r="C188" s="22"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="17"/>
       <c r="E188" s="23"/>
       <c r="F188" s="24" t="str">
         <f aca="true">IF(J188="","",(INDIRECT("N" &amp; ROW() - 1) - N188))</f>
@@ -8268,8 +8268,8 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="22"/>
-      <c r="C189" s="22"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="17"/>
       <c r="E189" s="23"/>
       <c r="F189" s="24" t="str">
         <f aca="true">IF(J189="","",(INDIRECT("N" &amp; ROW() - 1) - N189))</f>
@@ -8286,8 +8286,8 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="22"/>
-      <c r="C190" s="22"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="17"/>
       <c r="E190" s="23"/>
       <c r="F190" s="24" t="str">
         <f aca="true">IF(J190="","",(INDIRECT("N" &amp; ROW() - 1) - N190))</f>
@@ -8304,8 +8304,8 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="22"/>
-      <c r="C191" s="22"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="17"/>
       <c r="E191" s="23"/>
       <c r="F191" s="24" t="str">
         <f aca="true">IF(J191="","",(INDIRECT("N" &amp; ROW() - 1) - N191))</f>
@@ -8322,8 +8322,8 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="22"/>
-      <c r="C192" s="22"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="17"/>
       <c r="E192" s="23"/>
       <c r="F192" s="24" t="str">
         <f aca="true">IF(J192="","",(INDIRECT("N" &amp; ROW() - 1) - N192))</f>
@@ -8340,8 +8340,8 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="22"/>
-      <c r="C193" s="22"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="17"/>
       <c r="E193" s="23"/>
       <c r="F193" s="24" t="str">
         <f aca="true">IF(J193="","",(INDIRECT("N" &amp; ROW() - 1) - N193))</f>
@@ -8358,8 +8358,8 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="22"/>
-      <c r="C194" s="22"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="17"/>
       <c r="E194" s="23"/>
       <c r="F194" s="24" t="str">
         <f aca="true">IF(J194="","",(INDIRECT("N" &amp; ROW() - 1) - N194))</f>
@@ -8376,8 +8376,8 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="22"/>
-      <c r="C195" s="22"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="17"/>
       <c r="E195" s="23"/>
       <c r="F195" s="24" t="str">
         <f aca="true">IF(J195="","",(INDIRECT("N" &amp; ROW() - 1) - N195))</f>
@@ -8394,8 +8394,8 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="22"/>
-      <c r="C196" s="22"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="17"/>
       <c r="E196" s="23"/>
       <c r="F196" s="24" t="str">
         <f aca="true">IF(J196="","",(INDIRECT("N" &amp; ROW() - 1) - N196))</f>
@@ -8412,8 +8412,8 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="22"/>
-      <c r="C197" s="22"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="17"/>
       <c r="E197" s="23"/>
       <c r="F197" s="24" t="str">
         <f aca="true">IF(J197="","",(INDIRECT("N" &amp; ROW() - 1) - N197))</f>
@@ -8430,8 +8430,8 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="22"/>
-      <c r="C198" s="22"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="17"/>
       <c r="E198" s="23"/>
       <c r="F198" s="23"/>
       <c r="H198" s="25" t="str">
@@ -8445,8 +8445,8 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="22"/>
-      <c r="C199" s="22"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="17"/>
       <c r="E199" s="23"/>
       <c r="F199" s="23"/>
       <c r="H199" s="25" t="str">
@@ -8460,8 +8460,8 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="22"/>
-      <c r="C200" s="22"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="17"/>
       <c r="E200" s="23"/>
       <c r="F200" s="23"/>
       <c r="H200" s="25" t="str">
@@ -8475,8 +8475,8 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="22"/>
-      <c r="C201" s="22"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="17"/>
       <c r="E201" s="23"/>
       <c r="F201" s="23"/>
       <c r="H201" s="25" t="str">
@@ -8490,8 +8490,8 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="22"/>
-      <c r="C202" s="22"/>
+      <c r="B202" s="17"/>
+      <c r="C202" s="17"/>
       <c r="E202" s="23"/>
       <c r="F202" s="23"/>
       <c r="H202" s="25" t="str">
@@ -8505,8 +8505,8 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="22"/>
-      <c r="C203" s="22"/>
+      <c r="B203" s="17"/>
+      <c r="C203" s="17"/>
       <c r="E203" s="23"/>
       <c r="F203" s="23"/>
       <c r="H203" s="25" t="str">
@@ -8520,8 +8520,8 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="22"/>
-      <c r="C204" s="22"/>
+      <c r="B204" s="17"/>
+      <c r="C204" s="17"/>
       <c r="E204" s="23"/>
       <c r="F204" s="23"/>
       <c r="H204" s="25" t="str">
@@ -8535,8 +8535,8 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="22"/>
-      <c r="C205" s="22"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="17"/>
       <c r="E205" s="23"/>
       <c r="F205" s="23"/>
       <c r="H205" s="25" t="str">
@@ -8550,8 +8550,8 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
+      <c r="B206" s="17"/>
+      <c r="C206" s="17"/>
       <c r="E206" s="23"/>
       <c r="F206" s="23"/>
       <c r="H206" s="25" t="str">
@@ -8565,8 +8565,8 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="22"/>
-      <c r="C207" s="22"/>
+      <c r="B207" s="17"/>
+      <c r="C207" s="17"/>
       <c r="E207" s="23"/>
       <c r="F207" s="23"/>
       <c r="H207" s="25" t="str">
@@ -8580,8 +8580,8 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="22"/>
-      <c r="C208" s="22"/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="17"/>
       <c r="E208" s="23"/>
       <c r="F208" s="23"/>
       <c r="H208" s="25" t="str">
@@ -8595,8 +8595,8 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="22"/>
-      <c r="C209" s="22"/>
+      <c r="B209" s="17"/>
+      <c r="C209" s="17"/>
       <c r="E209" s="23"/>
       <c r="F209" s="23"/>
       <c r="H209" s="25" t="str">
@@ -8610,8 +8610,8 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="22"/>
-      <c r="C210" s="22"/>
+      <c r="B210" s="17"/>
+      <c r="C210" s="17"/>
       <c r="E210" s="23"/>
       <c r="H210" s="25" t="str">
         <f aca="true">IF(J210 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8624,8 +8624,8 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="22"/>
-      <c r="C211" s="22"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="17"/>
       <c r="E211" s="23"/>
       <c r="H211" s="25" t="str">
         <f aca="true">IF(J211 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8638,8 +8638,8 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="22"/>
-      <c r="C212" s="22"/>
+      <c r="B212" s="17"/>
+      <c r="C212" s="17"/>
       <c r="E212" s="23"/>
       <c r="H212" s="25" t="str">
         <f aca="true">IF(J212 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8652,8 +8652,8 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="22"/>
-      <c r="C213" s="22"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="17"/>
       <c r="E213" s="23"/>
       <c r="H213" s="25" t="str">
         <f aca="true">IF(J213 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8666,8 +8666,8 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="22"/>
-      <c r="C214" s="22"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
       <c r="E214" s="23"/>
       <c r="H214" s="25" t="str">
         <f aca="true">IF(J214 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8680,8 +8680,8 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="22"/>
-      <c r="C215" s="22"/>
+      <c r="B215" s="17"/>
+      <c r="C215" s="17"/>
       <c r="E215" s="23"/>
       <c r="H215" s="25" t="str">
         <f aca="true">IF(J215 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8694,8 +8694,8 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="22"/>
-      <c r="C216" s="22"/>
+      <c r="B216" s="17"/>
+      <c r="C216" s="17"/>
       <c r="E216" s="23"/>
       <c r="H216" s="25" t="str">
         <f aca="true">IF(J216 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8708,8 +8708,8 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
+      <c r="B217" s="17"/>
+      <c r="C217" s="17"/>
       <c r="E217" s="23"/>
       <c r="H217" s="25" t="str">
         <f aca="true">IF(J217 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8722,8 +8722,8 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="22"/>
-      <c r="C218" s="22"/>
+      <c r="B218" s="17"/>
+      <c r="C218" s="17"/>
       <c r="E218" s="23"/>
       <c r="H218" s="25" t="str">
         <f aca="true">IF(J218 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8736,8 +8736,8 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
+      <c r="B219" s="17"/>
+      <c r="C219" s="17"/>
       <c r="E219" s="23"/>
       <c r="H219" s="25" t="str">
         <f aca="true">IF(J219 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8750,8 +8750,8 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="22"/>
-      <c r="C220" s="22"/>
+      <c r="B220" s="17"/>
+      <c r="C220" s="17"/>
       <c r="E220" s="23"/>
       <c r="H220" s="25" t="str">
         <f aca="true">IF(J220 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8764,8 +8764,8 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="17"/>
       <c r="E221" s="23"/>
       <c r="H221" s="25" t="str">
         <f aca="true">IF(J221 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8778,8 +8778,8 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="22"/>
-      <c r="C222" s="22"/>
+      <c r="B222" s="17"/>
+      <c r="C222" s="17"/>
       <c r="E222" s="23"/>
       <c r="H222" s="25" t="str">
         <f aca="true">IF(J222 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8792,8 +8792,8 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="22"/>
-      <c r="C223" s="22"/>
+      <c r="B223" s="17"/>
+      <c r="C223" s="17"/>
       <c r="E223" s="23"/>
       <c r="H223" s="25" t="str">
         <f aca="true">IF(J223 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8806,8 +8806,8 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="22"/>
-      <c r="C224" s="22"/>
+      <c r="B224" s="17"/>
+      <c r="C224" s="17"/>
       <c r="E224" s="23"/>
       <c r="H224" s="25" t="str">
         <f aca="true">IF(J224 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8820,8 +8820,8 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="22"/>
-      <c r="C225" s="22"/>
+      <c r="B225" s="17"/>
+      <c r="C225" s="17"/>
       <c r="E225" s="23"/>
       <c r="H225" s="25" t="str">
         <f aca="true">IF(J225 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8834,8 +8834,8 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="22"/>
-      <c r="C226" s="22"/>
+      <c r="B226" s="17"/>
+      <c r="C226" s="17"/>
       <c r="E226" s="23"/>
       <c r="H226" s="25" t="str">
         <f aca="true">IF(J226 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8848,8 +8848,8 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="22"/>
-      <c r="C227" s="22"/>
+      <c r="B227" s="17"/>
+      <c r="C227" s="17"/>
       <c r="E227" s="23"/>
       <c r="H227" s="25" t="str">
         <f aca="true">IF(J227 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8862,8 +8862,8 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="22"/>
-      <c r="C228" s="22"/>
+      <c r="B228" s="17"/>
+      <c r="C228" s="17"/>
       <c r="E228" s="23"/>
       <c r="H228" s="25" t="str">
         <f aca="true">IF(J228 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8876,8 +8876,8 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="22"/>
-      <c r="C229" s="22"/>
+      <c r="B229" s="17"/>
+      <c r="C229" s="17"/>
       <c r="E229" s="23"/>
       <c r="H229" s="25" t="str">
         <f aca="true">IF(J229 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8890,8 +8890,8 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="22"/>
-      <c r="C230" s="22"/>
+      <c r="B230" s="17"/>
+      <c r="C230" s="17"/>
       <c r="E230" s="23"/>
       <c r="H230" s="25" t="str">
         <f aca="true">IF(J230 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8901,8 +8901,8 @@
       <c r="S230" s="26"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="22"/>
-      <c r="C231" s="22"/>
+      <c r="B231" s="17"/>
+      <c r="C231" s="17"/>
       <c r="E231" s="23"/>
       <c r="H231" s="25" t="str">
         <f aca="true">IF(J231 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8912,8 +8912,8 @@
       <c r="S231" s="26"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
+      <c r="B232" s="17"/>
+      <c r="C232" s="17"/>
       <c r="E232" s="23"/>
       <c r="H232" s="25" t="str">
         <f aca="true">IF(J232 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8923,8 +8923,8 @@
       <c r="S232" s="26"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="22"/>
-      <c r="C233" s="22"/>
+      <c r="B233" s="17"/>
+      <c r="C233" s="17"/>
       <c r="E233" s="23"/>
       <c r="H233" s="25" t="str">
         <f aca="true">IF(J233 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8934,8 +8934,8 @@
       <c r="S233" s="26"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="22"/>
-      <c r="C234" s="22"/>
+      <c r="B234" s="17"/>
+      <c r="C234" s="17"/>
       <c r="E234" s="23"/>
       <c r="H234" s="25" t="str">
         <f aca="true">IF(J234 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8945,8 +8945,8 @@
       <c r="S234" s="26"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="22"/>
-      <c r="C235" s="22"/>
+      <c r="B235" s="17"/>
+      <c r="C235" s="17"/>
       <c r="E235" s="23"/>
       <c r="H235" s="25" t="str">
         <f aca="true">IF(J235 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8956,8 +8956,8 @@
       <c r="S235" s="26"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="22"/>
-      <c r="C236" s="22"/>
+      <c r="B236" s="17"/>
+      <c r="C236" s="17"/>
       <c r="E236" s="23"/>
       <c r="H236" s="25" t="str">
         <f aca="true">IF(J236 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8967,8 +8967,8 @@
       <c r="S236" s="26"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="22"/>
-      <c r="C237" s="22"/>
+      <c r="B237" s="17"/>
+      <c r="C237" s="17"/>
       <c r="E237" s="23"/>
       <c r="H237" s="25" t="str">
         <f aca="true">IF(J237 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8978,8 +8978,8 @@
       <c r="S237" s="26"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="22"/>
-      <c r="C238" s="22"/>
+      <c r="B238" s="17"/>
+      <c r="C238" s="17"/>
       <c r="E238" s="23"/>
       <c r="H238" s="25" t="str">
         <f aca="true">IF(J238 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -8989,8 +8989,8 @@
       <c r="S238" s="26"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="22"/>
-      <c r="C239" s="22"/>
+      <c r="B239" s="17"/>
+      <c r="C239" s="17"/>
       <c r="E239" s="23"/>
       <c r="H239" s="25" t="str">
         <f aca="true">IF(J239 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9000,8 +9000,8 @@
       <c r="S239" s="26"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="22"/>
-      <c r="C240" s="22"/>
+      <c r="B240" s="17"/>
+      <c r="C240" s="17"/>
       <c r="E240" s="23"/>
       <c r="H240" s="25" t="str">
         <f aca="true">IF(J240 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9011,8 +9011,8 @@
       <c r="S240" s="26"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="22"/>
-      <c r="C241" s="22"/>
+      <c r="B241" s="17"/>
+      <c r="C241" s="17"/>
       <c r="E241" s="23"/>
       <c r="H241" s="25" t="str">
         <f aca="true">IF(J241 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9022,8 +9022,8 @@
       <c r="S241" s="26"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="22"/>
-      <c r="C242" s="22"/>
+      <c r="B242" s="17"/>
+      <c r="C242" s="17"/>
       <c r="E242" s="23"/>
       <c r="H242" s="25" t="str">
         <f aca="true">IF(J242 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9033,8 +9033,8 @@
       <c r="S242" s="26"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="22"/>
-      <c r="C243" s="22"/>
+      <c r="B243" s="17"/>
+      <c r="C243" s="17"/>
       <c r="E243" s="23"/>
       <c r="H243" s="25" t="str">
         <f aca="true">IF(J243 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9044,8 +9044,8 @@
       <c r="S243" s="26"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="22"/>
-      <c r="C244" s="22"/>
+      <c r="B244" s="17"/>
+      <c r="C244" s="17"/>
       <c r="E244" s="23"/>
       <c r="H244" s="25" t="str">
         <f aca="true">IF(J244 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9055,8 +9055,8 @@
       <c r="S244" s="26"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="22"/>
-      <c r="C245" s="22"/>
+      <c r="B245" s="17"/>
+      <c r="C245" s="17"/>
       <c r="E245" s="23"/>
       <c r="H245" s="25" t="str">
         <f aca="true">IF(J245 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9066,8 +9066,8 @@
       <c r="S245" s="26"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="22"/>
-      <c r="C246" s="22"/>
+      <c r="B246" s="17"/>
+      <c r="C246" s="17"/>
       <c r="E246" s="23"/>
       <c r="H246" s="25" t="str">
         <f aca="true">IF(J246 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9077,8 +9077,8 @@
       <c r="S246" s="26"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="22"/>
-      <c r="C247" s="22"/>
+      <c r="B247" s="17"/>
+      <c r="C247" s="17"/>
       <c r="E247" s="23"/>
       <c r="H247" s="25" t="str">
         <f aca="true">IF(J247 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9088,8 +9088,8 @@
       <c r="S247" s="26"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="22"/>
-      <c r="C248" s="22"/>
+      <c r="B248" s="17"/>
+      <c r="C248" s="17"/>
       <c r="E248" s="23"/>
       <c r="H248" s="25" t="str">
         <f aca="true">IF(J248 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9099,8 +9099,8 @@
       <c r="S248" s="26"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
+      <c r="B249" s="17"/>
+      <c r="C249" s="17"/>
       <c r="E249" s="23"/>
       <c r="H249" s="25" t="str">
         <f aca="true">IF(J249 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9110,8 +9110,8 @@
       <c r="S249" s="26"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="22"/>
-      <c r="C250" s="22"/>
+      <c r="B250" s="17"/>
+      <c r="C250" s="17"/>
       <c r="E250" s="23"/>
       <c r="H250" s="25" t="str">
         <f aca="true">IF(J250 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9121,8 +9121,8 @@
       <c r="S250" s="26"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="22"/>
-      <c r="C251" s="22"/>
+      <c r="B251" s="17"/>
+      <c r="C251" s="17"/>
       <c r="E251" s="23"/>
       <c r="H251" s="25" t="str">
         <f aca="true">IF(J251 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9132,8 +9132,8 @@
       <c r="S251" s="26"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="22"/>
-      <c r="C252" s="22"/>
+      <c r="B252" s="17"/>
+      <c r="C252" s="17"/>
       <c r="E252" s="23"/>
       <c r="H252" s="25" t="str">
         <f aca="true">IF(J252 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9143,8 +9143,8 @@
       <c r="S252" s="26"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="22"/>
-      <c r="C253" s="22"/>
+      <c r="B253" s="17"/>
+      <c r="C253" s="17"/>
       <c r="E253" s="23"/>
       <c r="H253" s="25" t="str">
         <f aca="true">IF(J253 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9154,8 +9154,8 @@
       <c r="S253" s="26"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="22"/>
-      <c r="C254" s="22"/>
+      <c r="B254" s="17"/>
+      <c r="C254" s="17"/>
       <c r="E254" s="23"/>
       <c r="H254" s="25" t="str">
         <f aca="true">IF(J254 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9165,8 +9165,8 @@
       <c r="S254" s="26"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="22"/>
-      <c r="C255" s="22"/>
+      <c r="B255" s="17"/>
+      <c r="C255" s="17"/>
       <c r="E255" s="23"/>
       <c r="H255" s="25" t="str">
         <f aca="true">IF(J255 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9176,8 +9176,8 @@
       <c r="S255" s="26"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="22"/>
-      <c r="C256" s="22"/>
+      <c r="B256" s="17"/>
+      <c r="C256" s="17"/>
       <c r="E256" s="23"/>
       <c r="H256" s="25" t="str">
         <f aca="true">IF(J256 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9187,8 +9187,8 @@
       <c r="S256" s="26"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="22"/>
-      <c r="C257" s="22"/>
+      <c r="B257" s="17"/>
+      <c r="C257" s="17"/>
       <c r="E257" s="23"/>
       <c r="H257" s="25" t="str">
         <f aca="true">IF(J257 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9198,8 +9198,8 @@
       <c r="S257" s="26"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="22"/>
-      <c r="C258" s="22"/>
+      <c r="B258" s="17"/>
+      <c r="C258" s="17"/>
       <c r="E258" s="23"/>
       <c r="H258" s="25" t="str">
         <f aca="true">IF(J258 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9209,8 +9209,8 @@
       <c r="S258" s="26"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="22"/>
-      <c r="C259" s="22"/>
+      <c r="B259" s="17"/>
+      <c r="C259" s="17"/>
       <c r="E259" s="23"/>
       <c r="H259" s="25" t="str">
         <f aca="true">IF(J259 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9220,8 +9220,8 @@
       <c r="S259" s="26"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="22"/>
-      <c r="C260" s="22"/>
+      <c r="B260" s="17"/>
+      <c r="C260" s="17"/>
       <c r="E260" s="23"/>
       <c r="H260" s="25" t="str">
         <f aca="true">IF(J260 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9231,8 +9231,8 @@
       <c r="S260" s="26"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="22"/>
-      <c r="C261" s="22"/>
+      <c r="B261" s="17"/>
+      <c r="C261" s="17"/>
       <c r="E261" s="23"/>
       <c r="H261" s="25" t="str">
         <f aca="true">IF(J261 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9242,8 +9242,8 @@
       <c r="S261" s="26"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="22"/>
-      <c r="C262" s="22"/>
+      <c r="B262" s="17"/>
+      <c r="C262" s="17"/>
       <c r="E262" s="23"/>
       <c r="H262" s="25" t="str">
         <f aca="true">IF(J262 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9253,8 +9253,8 @@
       <c r="S262" s="26"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="22"/>
-      <c r="C263" s="22"/>
+      <c r="B263" s="17"/>
+      <c r="C263" s="17"/>
       <c r="E263" s="23"/>
       <c r="H263" s="25" t="str">
         <f aca="true">IF(J263 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9264,8 +9264,8 @@
       <c r="S263" s="26"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="22"/>
-      <c r="C264" s="22"/>
+      <c r="B264" s="17"/>
+      <c r="C264" s="17"/>
       <c r="E264" s="23"/>
       <c r="H264" s="25" t="str">
         <f aca="true">IF(J264 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9275,8 +9275,8 @@
       <c r="S264" s="26"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="22"/>
-      <c r="C265" s="22"/>
+      <c r="B265" s="17"/>
+      <c r="C265" s="17"/>
       <c r="E265" s="23"/>
       <c r="H265" s="25" t="str">
         <f aca="true">IF(J265 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9286,8 +9286,8 @@
       <c r="S265" s="26"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="22"/>
-      <c r="C266" s="22"/>
+      <c r="B266" s="17"/>
+      <c r="C266" s="17"/>
       <c r="E266" s="23"/>
       <c r="H266" s="25" t="str">
         <f aca="true">IF(J266 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9297,8 +9297,8 @@
       <c r="S266" s="26"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="22"/>
-      <c r="C267" s="22"/>
+      <c r="B267" s="17"/>
+      <c r="C267" s="17"/>
       <c r="E267" s="23"/>
       <c r="H267" s="25" t="str">
         <f aca="true">IF(J267 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9308,8 +9308,8 @@
       <c r="S267" s="26"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="22"/>
-      <c r="C268" s="22"/>
+      <c r="B268" s="17"/>
+      <c r="C268" s="17"/>
       <c r="E268" s="23"/>
       <c r="H268" s="25" t="str">
         <f aca="true">IF(J268 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9317,8 +9317,8 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="22"/>
-      <c r="C269" s="22"/>
+      <c r="B269" s="17"/>
+      <c r="C269" s="17"/>
       <c r="E269" s="23"/>
       <c r="H269" s="25" t="str">
         <f aca="true">IF(J269 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9326,8 +9326,8 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="22"/>
-      <c r="C270" s="22"/>
+      <c r="B270" s="17"/>
+      <c r="C270" s="17"/>
       <c r="E270" s="23"/>
       <c r="H270" s="25" t="str">
         <f aca="true">IF(J270 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9335,8 +9335,8 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="22"/>
-      <c r="C271" s="22"/>
+      <c r="B271" s="17"/>
+      <c r="C271" s="17"/>
       <c r="E271" s="23"/>
       <c r="H271" s="25" t="str">
         <f aca="true">IF(J271 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9344,8 +9344,8 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="22"/>
-      <c r="C272" s="22"/>
+      <c r="B272" s="17"/>
+      <c r="C272" s="17"/>
       <c r="E272" s="23"/>
       <c r="H272" s="25" t="str">
         <f aca="true">IF(J272 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9353,8 +9353,8 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="22"/>
-      <c r="C273" s="22"/>
+      <c r="B273" s="17"/>
+      <c r="C273" s="17"/>
       <c r="E273" s="23"/>
       <c r="H273" s="25" t="str">
         <f aca="true">IF(J273 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9362,8 +9362,8 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="22"/>
-      <c r="C274" s="22"/>
+      <c r="B274" s="17"/>
+      <c r="C274" s="17"/>
       <c r="E274" s="23"/>
       <c r="H274" s="25" t="str">
         <f aca="true">IF(J274 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9371,8 +9371,8 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="22"/>
-      <c r="C275" s="22"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
       <c r="E275" s="23"/>
       <c r="H275" s="25" t="str">
         <f aca="true">IF(J275 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9380,8 +9380,8 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="22"/>
-      <c r="C276" s="22"/>
+      <c r="B276" s="17"/>
+      <c r="C276" s="17"/>
       <c r="E276" s="23"/>
       <c r="H276" s="25" t="str">
         <f aca="true">IF(J276 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9389,8 +9389,8 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="22"/>
-      <c r="C277" s="22"/>
+      <c r="B277" s="17"/>
+      <c r="C277" s="17"/>
       <c r="E277" s="23"/>
       <c r="H277" s="25" t="str">
         <f aca="true">IF(J277 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9398,8 +9398,8 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="22"/>
-      <c r="C278" s="22"/>
+      <c r="B278" s="17"/>
+      <c r="C278" s="17"/>
       <c r="E278" s="23"/>
       <c r="H278" s="25" t="str">
         <f aca="true">IF(J278 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9407,8 +9407,8 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="22"/>
-      <c r="C279" s="22"/>
+      <c r="B279" s="17"/>
+      <c r="C279" s="17"/>
       <c r="E279" s="23"/>
       <c r="H279" s="25" t="str">
         <f aca="true">IF(J279 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9416,8 +9416,8 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="22"/>
-      <c r="C280" s="22"/>
+      <c r="B280" s="17"/>
+      <c r="C280" s="17"/>
       <c r="E280" s="23"/>
       <c r="H280" s="25" t="str">
         <f aca="true">IF(J280 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9425,8 +9425,8 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="22"/>
-      <c r="C281" s="22"/>
+      <c r="B281" s="17"/>
+      <c r="C281" s="17"/>
       <c r="E281" s="23"/>
       <c r="H281" s="25" t="str">
         <f aca="true">IF(J281 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9434,8 +9434,8 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="22"/>
-      <c r="C282" s="22"/>
+      <c r="B282" s="17"/>
+      <c r="C282" s="17"/>
       <c r="E282" s="23"/>
       <c r="H282" s="25" t="str">
         <f aca="true">IF(J282 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9443,8 +9443,8 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="22"/>
-      <c r="C283" s="22"/>
+      <c r="B283" s="17"/>
+      <c r="C283" s="17"/>
       <c r="E283" s="23"/>
       <c r="H283" s="25" t="str">
         <f aca="true">IF(J283 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9452,8 +9452,8 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="22"/>
-      <c r="C284" s="22"/>
+      <c r="B284" s="17"/>
+      <c r="C284" s="17"/>
       <c r="E284" s="23"/>
       <c r="H284" s="25" t="str">
         <f aca="true">IF(J284 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9461,8 +9461,8 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="22"/>
-      <c r="C285" s="22"/>
+      <c r="B285" s="17"/>
+      <c r="C285" s="17"/>
       <c r="E285" s="23"/>
       <c r="H285" s="25" t="str">
         <f aca="true">IF(J285 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9470,8 +9470,8 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="22"/>
-      <c r="C286" s="22"/>
+      <c r="B286" s="17"/>
+      <c r="C286" s="17"/>
       <c r="E286" s="23"/>
       <c r="H286" s="25" t="str">
         <f aca="true">IF(J286 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9479,8 +9479,8 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="22"/>
-      <c r="C287" s="22"/>
+      <c r="B287" s="17"/>
+      <c r="C287" s="17"/>
       <c r="E287" s="23"/>
       <c r="H287" s="25" t="str">
         <f aca="true">IF(J287 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9488,8 +9488,8 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="22"/>
-      <c r="C288" s="22"/>
+      <c r="B288" s="17"/>
+      <c r="C288" s="17"/>
       <c r="E288" s="23"/>
       <c r="H288" s="25" t="str">
         <f aca="true">IF(J288 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9497,8 +9497,8 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B289" s="22"/>
-      <c r="C289" s="22"/>
+      <c r="B289" s="17"/>
+      <c r="C289" s="17"/>
       <c r="E289" s="23"/>
       <c r="H289" s="25" t="str">
         <f aca="true">IF(J289 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9506,8 +9506,8 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="22"/>
-      <c r="C290" s="22"/>
+      <c r="B290" s="17"/>
+      <c r="C290" s="17"/>
       <c r="E290" s="23"/>
       <c r="H290" s="25" t="str">
         <f aca="true">IF(J290 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9515,8 +9515,8 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="22"/>
-      <c r="C291" s="22"/>
+      <c r="B291" s="17"/>
+      <c r="C291" s="17"/>
       <c r="E291" s="23"/>
       <c r="H291" s="25" t="str">
         <f aca="true">IF(J291 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9524,8 +9524,8 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="22"/>
-      <c r="C292" s="22"/>
+      <c r="B292" s="17"/>
+      <c r="C292" s="17"/>
       <c r="E292" s="23"/>
       <c r="H292" s="25" t="str">
         <f aca="true">IF(J292 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9533,8 +9533,8 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="22"/>
-      <c r="C293" s="22"/>
+      <c r="B293" s="17"/>
+      <c r="C293" s="17"/>
       <c r="E293" s="23"/>
       <c r="H293" s="25" t="str">
         <f aca="true">IF(J293 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9542,8 +9542,8 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="22"/>
-      <c r="C294" s="22"/>
+      <c r="B294" s="17"/>
+      <c r="C294" s="17"/>
       <c r="E294" s="23"/>
       <c r="H294" s="25" t="str">
         <f aca="true">IF(J294 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9551,8 +9551,8 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="22"/>
-      <c r="C295" s="22"/>
+      <c r="B295" s="17"/>
+      <c r="C295" s="17"/>
       <c r="E295" s="23"/>
       <c r="H295" s="25" t="str">
         <f aca="true">IF(J295 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9560,8 +9560,8 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="22"/>
-      <c r="C296" s="22"/>
+      <c r="B296" s="17"/>
+      <c r="C296" s="17"/>
       <c r="E296" s="23"/>
       <c r="H296" s="25" t="str">
         <f aca="true">IF(J296 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9569,8 +9569,8 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="22"/>
-      <c r="C297" s="22"/>
+      <c r="B297" s="17"/>
+      <c r="C297" s="17"/>
       <c r="E297" s="23"/>
       <c r="H297" s="25" t="str">
         <f aca="true">IF(J297 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9578,8 +9578,8 @@
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="22"/>
-      <c r="C298" s="22"/>
+      <c r="B298" s="17"/>
+      <c r="C298" s="17"/>
       <c r="E298" s="23"/>
       <c r="H298" s="25" t="str">
         <f aca="true">IF(J298 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9587,8 +9587,8 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="22"/>
-      <c r="C299" s="22"/>
+      <c r="B299" s="17"/>
+      <c r="C299" s="17"/>
       <c r="E299" s="23"/>
       <c r="H299" s="25" t="str">
         <f aca="true">IF(J299 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9596,8 +9596,8 @@
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="22"/>
-      <c r="C300" s="22"/>
+      <c r="B300" s="17"/>
+      <c r="C300" s="17"/>
       <c r="E300" s="23"/>
       <c r="H300" s="25" t="str">
         <f aca="true">IF(J300 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9605,8 +9605,8 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="22"/>
-      <c r="C301" s="22"/>
+      <c r="B301" s="17"/>
+      <c r="C301" s="17"/>
       <c r="E301" s="23"/>
       <c r="H301" s="25" t="str">
         <f aca="true">IF(J301 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9614,8 +9614,8 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="22"/>
-      <c r="C302" s="22"/>
+      <c r="B302" s="17"/>
+      <c r="C302" s="17"/>
       <c r="E302" s="23"/>
       <c r="H302" s="25" t="str">
         <f aca="true">IF(J302 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9623,8 +9623,8 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="22"/>
-      <c r="C303" s="22"/>
+      <c r="B303" s="17"/>
+      <c r="C303" s="17"/>
       <c r="E303" s="23"/>
       <c r="H303" s="25" t="str">
         <f aca="true">IF(J303 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9632,8 +9632,8 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="22"/>
-      <c r="C304" s="22"/>
+      <c r="B304" s="17"/>
+      <c r="C304" s="17"/>
       <c r="E304" s="23"/>
       <c r="H304" s="25" t="str">
         <f aca="true">IF(J304 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9641,8 +9641,8 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="22"/>
-      <c r="C305" s="22"/>
+      <c r="B305" s="17"/>
+      <c r="C305" s="17"/>
       <c r="E305" s="23"/>
       <c r="H305" s="25" t="str">
         <f aca="true">IF(J305 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9650,8 +9650,8 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="22"/>
-      <c r="C306" s="22"/>
+      <c r="B306" s="17"/>
+      <c r="C306" s="17"/>
       <c r="E306" s="23"/>
       <c r="H306" s="25" t="str">
         <f aca="true">IF(J306 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9659,8 +9659,8 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="22"/>
-      <c r="C307" s="22"/>
+      <c r="B307" s="17"/>
+      <c r="C307" s="17"/>
       <c r="E307" s="23"/>
       <c r="H307" s="25" t="str">
         <f aca="true">IF(J307 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9668,8 +9668,8 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="22"/>
-      <c r="C308" s="22"/>
+      <c r="B308" s="17"/>
+      <c r="C308" s="17"/>
       <c r="E308" s="23"/>
       <c r="H308" s="25" t="str">
         <f aca="true">IF(J308 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9677,8 +9677,8 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="22"/>
-      <c r="C309" s="22"/>
+      <c r="B309" s="17"/>
+      <c r="C309" s="17"/>
       <c r="E309" s="23"/>
       <c r="H309" s="25" t="str">
         <f aca="true">IF(J309 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9686,8 +9686,8 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="22"/>
-      <c r="C310" s="22"/>
+      <c r="B310" s="17"/>
+      <c r="C310" s="17"/>
       <c r="E310" s="23"/>
       <c r="H310" s="25" t="str">
         <f aca="true">IF(J310 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9695,8 +9695,8 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="22"/>
-      <c r="C311" s="22"/>
+      <c r="B311" s="17"/>
+      <c r="C311" s="17"/>
       <c r="E311" s="23"/>
       <c r="H311" s="25" t="str">
         <f aca="true">IF(J311 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9704,8 +9704,8 @@
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="22"/>
-      <c r="C312" s="22"/>
+      <c r="B312" s="17"/>
+      <c r="C312" s="17"/>
       <c r="E312" s="23"/>
       <c r="H312" s="25" t="str">
         <f aca="true">IF(J312 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9713,8 +9713,8 @@
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="22"/>
-      <c r="C313" s="22"/>
+      <c r="B313" s="17"/>
+      <c r="C313" s="17"/>
       <c r="E313" s="23"/>
       <c r="H313" s="25" t="str">
         <f aca="true">IF(J313 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9722,8 +9722,8 @@
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="22"/>
-      <c r="C314" s="22"/>
+      <c r="B314" s="17"/>
+      <c r="C314" s="17"/>
       <c r="E314" s="23"/>
       <c r="H314" s="25" t="str">
         <f aca="true">IF(J314 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9731,8 +9731,8 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="22"/>
-      <c r="C315" s="22"/>
+      <c r="B315" s="17"/>
+      <c r="C315" s="17"/>
       <c r="E315" s="23"/>
       <c r="H315" s="25" t="str">
         <f aca="true">IF(J315 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9740,8 +9740,8 @@
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="22"/>
-      <c r="C316" s="22"/>
+      <c r="B316" s="17"/>
+      <c r="C316" s="17"/>
       <c r="E316" s="23"/>
       <c r="H316" s="25" t="str">
         <f aca="true">IF(J316 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9749,8 +9749,8 @@
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B317" s="22"/>
-      <c r="C317" s="22"/>
+      <c r="B317" s="17"/>
+      <c r="C317" s="17"/>
       <c r="E317" s="23"/>
       <c r="H317" s="25" t="str">
         <f aca="true">IF(J317 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9758,8 +9758,8 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B318" s="22"/>
-      <c r="C318" s="22"/>
+      <c r="B318" s="17"/>
+      <c r="C318" s="17"/>
       <c r="E318" s="23"/>
       <c r="H318" s="25" t="str">
         <f aca="true">IF(J318 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9767,8 +9767,8 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B319" s="22"/>
-      <c r="C319" s="22"/>
+      <c r="B319" s="17"/>
+      <c r="C319" s="17"/>
       <c r="E319" s="23"/>
       <c r="H319" s="25" t="str">
         <f aca="true">IF(J319 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9776,8 +9776,8 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B320" s="22"/>
-      <c r="C320" s="22"/>
+      <c r="B320" s="17"/>
+      <c r="C320" s="17"/>
       <c r="E320" s="23"/>
       <c r="H320" s="25" t="str">
         <f aca="true">IF(J320 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9785,8 +9785,8 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B321" s="22"/>
-      <c r="C321" s="22"/>
+      <c r="B321" s="17"/>
+      <c r="C321" s="17"/>
       <c r="E321" s="23"/>
       <c r="H321" s="25" t="str">
         <f aca="true">IF(J321 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
@@ -9794,80 +9794,80 @@
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B322" s="22"/>
-      <c r="C322" s="22"/>
+      <c r="B322" s="17"/>
+      <c r="C322" s="17"/>
       <c r="H322" s="25" t="str">
         <f aca="true">IF(J322 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B323" s="22"/>
-      <c r="C323" s="22"/>
+      <c r="B323" s="17"/>
+      <c r="C323" s="17"/>
       <c r="H323" s="25" t="str">
         <f aca="true">IF(J323 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B324" s="22"/>
-      <c r="C324" s="22"/>
+      <c r="B324" s="17"/>
+      <c r="C324" s="17"/>
       <c r="H324" s="25" t="str">
         <f aca="true">IF(J324 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B325" s="22"/>
-      <c r="C325" s="22"/>
+      <c r="B325" s="17"/>
+      <c r="C325" s="17"/>
       <c r="H325" s="25" t="str">
         <f aca="true">IF(J325 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B326" s="22"/>
-      <c r="C326" s="22"/>
+      <c r="B326" s="17"/>
+      <c r="C326" s="17"/>
       <c r="H326" s="25" t="str">
         <f aca="true">IF(J326 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B327" s="22"/>
-      <c r="C327" s="22"/>
+      <c r="B327" s="17"/>
+      <c r="C327" s="17"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B328" s="22"/>
-      <c r="C328" s="22"/>
+      <c r="B328" s="17"/>
+      <c r="C328" s="17"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B329" s="22"/>
-      <c r="C329" s="22"/>
+      <c r="B329" s="17"/>
+      <c r="C329" s="17"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B330" s="22"/>
-      <c r="C330" s="22"/>
+      <c r="B330" s="17"/>
+      <c r="C330" s="17"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B331" s="22"/>
-      <c r="C331" s="22"/>
+      <c r="B331" s="17"/>
+      <c r="C331" s="17"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B332" s="22"/>
-      <c r="C332" s="22"/>
+      <c r="B332" s="17"/>
+      <c r="C332" s="17"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B333" s="22"/>
-      <c r="C333" s="22"/>
+      <c r="B333" s="17"/>
+      <c r="C333" s="17"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="22"/>
-      <c r="C334" s="22"/>
+      <c r="B334" s="17"/>
+      <c r="C334" s="17"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="22"/>
-      <c r="C335" s="22"/>
+      <c r="B335" s="17"/>
+      <c r="C335" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
